--- a/com/Tools/MyPoco/info_tab/少三2道具类型表.xlsx
+++ b/com/Tools/MyPoco/info_tab/少三2道具类型表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="1022">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="1030">
   <si>
     <t>角色经验</t>
   </si>
@@ -3282,6 +3282,38 @@
   </si>
   <si>
     <t>测试属性</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>司马懿</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>诸葛亮</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙策</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>张角</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄月英</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘宁</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>荀彧</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>左慈</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4076,10 +4108,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1046"/>
+  <dimension ref="A1:D1054"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A521" workbookViewId="0">
+      <selection activeCell="G544" sqref="G544"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -10001,5288 +10033,5264 @@
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A538" s="19" t="s">
-        <v>526</v>
+      <c r="A538" s="37" t="s">
+        <v>1022</v>
       </c>
       <c r="B538" s="48">
-        <v>6</v>
-      </c>
-      <c r="C538" s="19">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="C538" s="34">
+        <v>600020</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A539" s="19" t="s">
-        <v>527</v>
+      <c r="A539" s="37" t="s">
+        <v>1023</v>
       </c>
       <c r="B539" s="48">
-        <v>6</v>
-      </c>
-      <c r="C539" s="19">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="C539" s="34">
+        <v>600030</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A540" s="19" t="s">
-        <v>528</v>
+      <c r="A540" s="37" t="s">
+        <v>1024</v>
       </c>
       <c r="B540" s="48">
-        <v>6</v>
-      </c>
-      <c r="C540" s="19">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C540" s="34">
+        <v>600050</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A541" s="19" t="s">
-        <v>529</v>
+      <c r="A541" s="37" t="s">
+        <v>1025</v>
       </c>
       <c r="B541" s="48">
-        <v>6</v>
-      </c>
-      <c r="C541" s="19">
         <v>4</v>
       </c>
+      <c r="C541" s="34">
+        <v>600080</v>
+      </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A542" s="19" t="s">
-        <v>530</v>
+      <c r="A542" s="37" t="s">
+        <v>1026</v>
       </c>
       <c r="B542" s="48">
-        <v>6</v>
-      </c>
-      <c r="C542" s="19">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C542" s="34">
+        <v>600090</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A543" s="19" t="s">
-        <v>531</v>
+      <c r="A543" s="37" t="s">
+        <v>1027</v>
       </c>
       <c r="B543" s="48">
-        <v>6</v>
-      </c>
-      <c r="C543" s="19">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="C543" s="34">
+        <v>600100</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A544" s="19" t="s">
-        <v>532</v>
+      <c r="A544" s="37" t="s">
+        <v>1028</v>
       </c>
       <c r="B544" s="48">
-        <v>6</v>
-      </c>
-      <c r="C544" s="19">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="C544" s="34">
+        <v>600110</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A545" s="19" t="s">
-        <v>533</v>
+      <c r="A545" s="37" t="s">
+        <v>1029</v>
       </c>
       <c r="B545" s="48">
-        <v>6</v>
-      </c>
-      <c r="C545" s="19">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="C545" s="34">
+        <v>600120</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A546" s="19" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="B546" s="48">
         <v>6</v>
       </c>
       <c r="C546" s="19">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A547" s="19" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="B547" s="48">
         <v>6</v>
       </c>
       <c r="C547" s="19">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A548" s="19" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="B548" s="48">
         <v>6</v>
       </c>
       <c r="C548" s="19">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A549" s="19" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="B549" s="48">
         <v>6</v>
       </c>
       <c r="C549" s="19">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A550" s="19" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B550" s="48">
         <v>6</v>
       </c>
       <c r="C550" s="19">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A551" s="19" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="B551" s="48">
         <v>6</v>
       </c>
       <c r="C551" s="19">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A552" s="19" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="B552" s="48">
         <v>6</v>
       </c>
       <c r="C552" s="19">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A553" s="19" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="B553" s="48">
         <v>6</v>
       </c>
       <c r="C553" s="19">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A554" s="19" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="B554" s="48">
         <v>6</v>
       </c>
       <c r="C554" s="19">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A555" s="19" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="B555" s="48">
         <v>6</v>
       </c>
       <c r="C555" s="19">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A556" s="19" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="B556" s="48">
         <v>6</v>
       </c>
       <c r="C556" s="19">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A557" s="19" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="B557" s="48">
         <v>6</v>
       </c>
       <c r="C557" s="19">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A558" s="19" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="B558" s="48">
         <v>6</v>
       </c>
       <c r="C558" s="19">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A559" s="19" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="B559" s="48">
         <v>6</v>
       </c>
       <c r="C559" s="19">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A560" s="19" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="B560" s="48">
         <v>6</v>
       </c>
       <c r="C560" s="19">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A561" s="19" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="B561" s="48">
         <v>6</v>
       </c>
       <c r="C561" s="19">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A562" s="19" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="B562" s="48">
         <v>6</v>
       </c>
       <c r="C562" s="19">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A563" s="19" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="B563" s="48">
         <v>6</v>
       </c>
       <c r="C563" s="19">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A564" s="19" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="B564" s="48">
         <v>6</v>
       </c>
       <c r="C564" s="19">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A565" s="19" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="B565" s="48">
         <v>6</v>
       </c>
       <c r="C565" s="19">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A566" s="19" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="B566" s="48">
         <v>6</v>
       </c>
       <c r="C566" s="19">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A567" s="19" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="B567" s="48">
         <v>6</v>
       </c>
       <c r="C567" s="19">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A568" s="19" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="B568" s="48">
         <v>6</v>
       </c>
       <c r="C568" s="19">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A569" s="19" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="B569" s="48">
         <v>6</v>
       </c>
       <c r="C569" s="19">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A570" s="19" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="B570" s="48">
         <v>6</v>
       </c>
       <c r="C570" s="19">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A571" s="19" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="B571" s="48">
         <v>6</v>
       </c>
       <c r="C571" s="19">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A572" s="19" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="B572" s="48">
         <v>6</v>
       </c>
       <c r="C572" s="19">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A573" s="19" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="B573" s="48">
         <v>6</v>
       </c>
       <c r="C573" s="19">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A574" s="19" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="B574" s="48">
         <v>6</v>
       </c>
       <c r="C574" s="19">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A575" s="19" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="B575" s="48">
         <v>6</v>
       </c>
       <c r="C575" s="19">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A576" s="19" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="B576" s="48">
         <v>6</v>
       </c>
       <c r="C576" s="19">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A577" s="19" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="B577" s="48">
         <v>6</v>
       </c>
       <c r="C577" s="19">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A578" s="19" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="B578" s="48">
         <v>6</v>
       </c>
       <c r="C578" s="19">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A579" s="19" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="B579" s="48">
         <v>6</v>
       </c>
       <c r="C579" s="19">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A580" s="19" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="B580" s="48">
         <v>6</v>
       </c>
       <c r="C580" s="19">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A581" s="19" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="B581" s="48">
         <v>6</v>
       </c>
       <c r="C581" s="19">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A582" s="19" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="B582" s="48">
         <v>6</v>
       </c>
       <c r="C582" s="19">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A583" s="19" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="B583" s="48">
         <v>6</v>
       </c>
       <c r="C583" s="19">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A584" s="19" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="B584" s="48">
         <v>6</v>
       </c>
       <c r="C584" s="19">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A585" s="19" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="B585" s="48">
         <v>6</v>
       </c>
       <c r="C585" s="19">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A586" s="19" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="B586" s="48">
         <v>6</v>
       </c>
       <c r="C586" s="19">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A587" s="19" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="B587" s="48">
         <v>6</v>
       </c>
       <c r="C587" s="19">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A588" s="19" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="B588" s="48">
         <v>6</v>
       </c>
       <c r="C588" s="19">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A589" s="19" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="B589" s="48">
         <v>6</v>
       </c>
       <c r="C589" s="19">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A590" s="19" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="B590" s="48">
         <v>6</v>
       </c>
       <c r="C590" s="19">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A591" s="19" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="B591" s="48">
         <v>6</v>
       </c>
       <c r="C591" s="19">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A592" s="19" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="B592" s="48">
         <v>6</v>
       </c>
       <c r="C592" s="19">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A593" s="19" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="B593" s="48">
         <v>6</v>
       </c>
       <c r="C593" s="19">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A594" s="19" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="B594" s="48">
         <v>6</v>
       </c>
       <c r="C594" s="19">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A595" s="19" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="B595" s="48">
         <v>6</v>
       </c>
       <c r="C595" s="19">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A596" s="19" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="B596" s="48">
         <v>6</v>
       </c>
       <c r="C596" s="19">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A597" s="19" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="B597" s="48">
         <v>6</v>
       </c>
       <c r="C597" s="19">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A598" s="19" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="B598" s="48">
         <v>6</v>
       </c>
       <c r="C598" s="19">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A599" s="19" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="B599" s="48">
         <v>6</v>
       </c>
       <c r="C599" s="19">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A600" s="19" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="B600" s="48">
         <v>6</v>
       </c>
       <c r="C600" s="19">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A601" s="19" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="B601" s="48">
         <v>6</v>
       </c>
       <c r="C601" s="19">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A602" s="19" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="B602" s="48">
         <v>6</v>
       </c>
       <c r="C602" s="19">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A603" s="19" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="B603" s="48">
         <v>6</v>
       </c>
       <c r="C603" s="19">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A604" s="19" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="B604" s="48">
         <v>6</v>
       </c>
       <c r="C604" s="19">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A605" s="19" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="B605" s="48">
         <v>6</v>
       </c>
       <c r="C605" s="19">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A606" s="19" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="B606" s="48">
         <v>6</v>
       </c>
       <c r="C606" s="19">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A607" s="19" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="B607" s="48">
         <v>6</v>
       </c>
       <c r="C607" s="19">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A608" s="19" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="B608" s="48">
         <v>6</v>
       </c>
       <c r="C608" s="19">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A609" s="19" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="B609" s="48">
         <v>6</v>
       </c>
       <c r="C609" s="19">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A610" s="19" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="B610" s="48">
         <v>6</v>
       </c>
       <c r="C610" s="19">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A611" s="19" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="B611" s="48">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C611" s="19">
-        <v>1</v>
+        <v>66</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A612" s="19" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="B612" s="48">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C612" s="19">
-        <v>2</v>
+        <v>67</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A613" s="19" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="B613" s="48">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C613" s="19">
-        <v>3</v>
+        <v>68</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A614" s="19" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="B614" s="48">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C614" s="19">
-        <v>4</v>
+        <v>69</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A615" s="38" t="s">
-        <v>603</v>
+      <c r="A615" s="19" t="s">
+        <v>595</v>
       </c>
       <c r="B615" s="48">
-        <v>7</v>
-      </c>
-      <c r="C615" s="38">
-        <v>101</v>
+        <v>6</v>
+      </c>
+      <c r="C615" s="19">
+        <v>70</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A616" s="38" t="s">
-        <v>604</v>
+      <c r="A616" s="19" t="s">
+        <v>596</v>
       </c>
       <c r="B616" s="48">
-        <v>7</v>
-      </c>
-      <c r="C616" s="38">
-        <v>102</v>
+        <v>6</v>
+      </c>
+      <c r="C616" s="19">
+        <v>71</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A617" s="38" t="s">
-        <v>605</v>
+      <c r="A617" s="19" t="s">
+        <v>597</v>
       </c>
       <c r="B617" s="48">
-        <v>7</v>
-      </c>
-      <c r="C617" s="38">
-        <v>103</v>
+        <v>6</v>
+      </c>
+      <c r="C617" s="19">
+        <v>72</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A618" s="38" t="s">
-        <v>606</v>
+      <c r="A618" s="19" t="s">
+        <v>598</v>
       </c>
       <c r="B618" s="48">
-        <v>7</v>
-      </c>
-      <c r="C618" s="38">
-        <v>104</v>
+        <v>6</v>
+      </c>
+      <c r="C618" s="19">
+        <v>73</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A619" s="16" t="s">
-        <v>607</v>
+      <c r="A619" s="19" t="s">
+        <v>599</v>
       </c>
       <c r="B619" s="48">
         <v>7</v>
       </c>
-      <c r="C619" s="16">
-        <v>201</v>
+      <c r="C619" s="19">
+        <v>1</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A620" s="16" t="s">
-        <v>608</v>
+      <c r="A620" s="19" t="s">
+        <v>600</v>
       </c>
       <c r="B620" s="48">
         <v>7</v>
       </c>
-      <c r="C620" s="16">
-        <v>202</v>
+      <c r="C620" s="19">
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A621" s="16" t="s">
-        <v>609</v>
+      <c r="A621" s="19" t="s">
+        <v>601</v>
       </c>
       <c r="B621" s="48">
         <v>7</v>
       </c>
-      <c r="C621" s="16">
-        <v>203</v>
+      <c r="C621" s="19">
+        <v>3</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A622" s="16" t="s">
-        <v>610</v>
+      <c r="A622" s="19" t="s">
+        <v>602</v>
       </c>
       <c r="B622" s="48">
         <v>7</v>
       </c>
-      <c r="C622" s="16">
-        <v>204</v>
+      <c r="C622" s="19">
+        <v>4</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A623" s="16" t="s">
-        <v>611</v>
+      <c r="A623" s="38" t="s">
+        <v>603</v>
       </c>
       <c r="B623" s="48">
         <v>7</v>
       </c>
-      <c r="C623" s="16">
-        <v>211</v>
+      <c r="C623" s="38">
+        <v>101</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A624" s="16" t="s">
-        <v>612</v>
+      <c r="A624" s="38" t="s">
+        <v>604</v>
       </c>
       <c r="B624" s="48">
         <v>7</v>
       </c>
-      <c r="C624" s="16">
-        <v>212</v>
+      <c r="C624" s="38">
+        <v>102</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A625" s="16" t="s">
-        <v>613</v>
+      <c r="A625" s="38" t="s">
+        <v>605</v>
       </c>
       <c r="B625" s="48">
         <v>7</v>
       </c>
-      <c r="C625" s="16">
-        <v>213</v>
+      <c r="C625" s="38">
+        <v>103</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A626" s="16" t="s">
-        <v>614</v>
+      <c r="A626" s="38" t="s">
+        <v>606</v>
       </c>
       <c r="B626" s="48">
         <v>7</v>
       </c>
-      <c r="C626" s="16">
-        <v>214</v>
+      <c r="C626" s="38">
+        <v>104</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A627" s="36" t="s">
-        <v>615</v>
+      <c r="A627" s="16" t="s">
+        <v>607</v>
       </c>
       <c r="B627" s="48">
         <v>7</v>
       </c>
-      <c r="C627" s="36">
-        <v>301</v>
+      <c r="C627" s="16">
+        <v>201</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A628" s="36" t="s">
-        <v>616</v>
+      <c r="A628" s="16" t="s">
+        <v>608</v>
       </c>
       <c r="B628" s="48">
         <v>7</v>
       </c>
-      <c r="C628" s="36">
-        <v>302</v>
+      <c r="C628" s="16">
+        <v>202</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A629" s="36" t="s">
-        <v>617</v>
+      <c r="A629" s="16" t="s">
+        <v>609</v>
       </c>
       <c r="B629" s="48">
         <v>7</v>
       </c>
-      <c r="C629" s="36">
-        <v>303</v>
+      <c r="C629" s="16">
+        <v>203</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A630" s="36" t="s">
-        <v>618</v>
+      <c r="A630" s="16" t="s">
+        <v>610</v>
       </c>
       <c r="B630" s="48">
         <v>7</v>
       </c>
-      <c r="C630" s="36">
-        <v>304</v>
+      <c r="C630" s="16">
+        <v>204</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A631" s="36" t="s">
-        <v>619</v>
+      <c r="A631" s="16" t="s">
+        <v>611</v>
       </c>
       <c r="B631" s="48">
         <v>7</v>
       </c>
-      <c r="C631" s="36">
-        <v>311</v>
+      <c r="C631" s="16">
+        <v>211</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A632" s="36" t="s">
-        <v>620</v>
+      <c r="A632" s="16" t="s">
+        <v>612</v>
       </c>
       <c r="B632" s="48">
         <v>7</v>
       </c>
-      <c r="C632" s="36">
-        <v>312</v>
+      <c r="C632" s="16">
+        <v>212</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A633" s="36" t="s">
-        <v>621</v>
+      <c r="A633" s="16" t="s">
+        <v>613</v>
       </c>
       <c r="B633" s="48">
         <v>7</v>
       </c>
-      <c r="C633" s="36">
-        <v>313</v>
+      <c r="C633" s="16">
+        <v>213</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A634" s="36" t="s">
-        <v>622</v>
+      <c r="A634" s="16" t="s">
+        <v>614</v>
       </c>
       <c r="B634" s="48">
         <v>7</v>
       </c>
-      <c r="C634" s="36">
-        <v>314</v>
+      <c r="C634" s="16">
+        <v>214</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A635" s="39" t="s">
-        <v>623</v>
+      <c r="A635" s="36" t="s">
+        <v>615</v>
       </c>
       <c r="B635" s="48">
         <v>7</v>
       </c>
-      <c r="C635" s="39">
-        <v>401</v>
+      <c r="C635" s="36">
+        <v>301</v>
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A636" s="39" t="s">
-        <v>624</v>
+      <c r="A636" s="36" t="s">
+        <v>616</v>
       </c>
       <c r="B636" s="48">
         <v>7</v>
       </c>
-      <c r="C636" s="39">
-        <v>402</v>
+      <c r="C636" s="36">
+        <v>302</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A637" s="39" t="s">
-        <v>625</v>
+      <c r="A637" s="36" t="s">
+        <v>617</v>
       </c>
       <c r="B637" s="48">
         <v>7</v>
       </c>
-      <c r="C637" s="39">
-        <v>403</v>
+      <c r="C637" s="36">
+        <v>303</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A638" s="39" t="s">
-        <v>626</v>
+      <c r="A638" s="36" t="s">
+        <v>618</v>
       </c>
       <c r="B638" s="48">
         <v>7</v>
       </c>
-      <c r="C638" s="39">
-        <v>404</v>
+      <c r="C638" s="36">
+        <v>304</v>
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A639" s="39" t="s">
-        <v>627</v>
+      <c r="A639" s="36" t="s">
+        <v>619</v>
       </c>
       <c r="B639" s="48">
         <v>7</v>
       </c>
-      <c r="C639" s="39">
-        <v>411</v>
+      <c r="C639" s="36">
+        <v>311</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A640" s="39" t="s">
-        <v>628</v>
+      <c r="A640" s="36" t="s">
+        <v>620</v>
       </c>
       <c r="B640" s="48">
         <v>7</v>
       </c>
-      <c r="C640" s="39">
-        <v>412</v>
+      <c r="C640" s="36">
+        <v>312</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A641" s="39" t="s">
-        <v>629</v>
+      <c r="A641" s="36" t="s">
+        <v>621</v>
       </c>
       <c r="B641" s="48">
         <v>7</v>
       </c>
-      <c r="C641" s="39">
-        <v>413</v>
+      <c r="C641" s="36">
+        <v>313</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A642" s="39" t="s">
-        <v>630</v>
+      <c r="A642" s="36" t="s">
+        <v>622</v>
       </c>
       <c r="B642" s="48">
         <v>7</v>
       </c>
-      <c r="C642" s="39">
-        <v>414</v>
+      <c r="C642" s="36">
+        <v>314</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A643" s="40" t="s">
-        <v>631</v>
+      <c r="A643" s="39" t="s">
+        <v>623</v>
       </c>
       <c r="B643" s="48">
         <v>7</v>
       </c>
-      <c r="C643" s="40">
-        <v>421</v>
+      <c r="C643" s="39">
+        <v>401</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A644" s="40" t="s">
-        <v>632</v>
+      <c r="A644" s="39" t="s">
+        <v>624</v>
       </c>
       <c r="B644" s="48">
         <v>7</v>
       </c>
-      <c r="C644" s="40">
-        <v>422</v>
+      <c r="C644" s="39">
+        <v>402</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A645" s="40" t="s">
-        <v>633</v>
+      <c r="A645" s="39" t="s">
+        <v>625</v>
       </c>
       <c r="B645" s="48">
         <v>7</v>
       </c>
-      <c r="C645" s="40">
-        <v>423</v>
+      <c r="C645" s="39">
+        <v>403</v>
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A646" s="40" t="s">
-        <v>634</v>
+      <c r="A646" s="39" t="s">
+        <v>626</v>
       </c>
       <c r="B646" s="48">
         <v>7</v>
       </c>
-      <c r="C646" s="40">
+      <c r="C646" s="39">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A647" s="39" t="s">
+        <v>627</v>
+      </c>
+      <c r="B647" s="48">
+        <v>7</v>
+      </c>
+      <c r="C647" s="39">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A648" s="39" t="s">
+        <v>628</v>
+      </c>
+      <c r="B648" s="48">
+        <v>7</v>
+      </c>
+      <c r="C648" s="39">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A649" s="39" t="s">
+        <v>629</v>
+      </c>
+      <c r="B649" s="48">
+        <v>7</v>
+      </c>
+      <c r="C649" s="39">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A650" s="39" t="s">
+        <v>630</v>
+      </c>
+      <c r="B650" s="48">
+        <v>7</v>
+      </c>
+      <c r="C650" s="39">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A651" s="40" t="s">
+        <v>631</v>
+      </c>
+      <c r="B651" s="48">
+        <v>7</v>
+      </c>
+      <c r="C651" s="40">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A652" s="40" t="s">
+        <v>632</v>
+      </c>
+      <c r="B652" s="48">
+        <v>7</v>
+      </c>
+      <c r="C652" s="40">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A653" s="40" t="s">
+        <v>633</v>
+      </c>
+      <c r="B653" s="48">
+        <v>7</v>
+      </c>
+      <c r="C653" s="40">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A654" s="40" t="s">
+        <v>634</v>
+      </c>
+      <c r="B654" s="48">
+        <v>7</v>
+      </c>
+      <c r="C654" s="40">
         <v>424</v>
       </c>
     </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A647" s="16" t="s">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A655" s="16" t="s">
         <v>635</v>
-      </c>
-      <c r="B647" s="48">
-        <v>8</v>
-      </c>
-      <c r="C647" s="16">
-        <v>11010</v>
-      </c>
-    </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A648" s="16" t="s">
-        <v>636</v>
-      </c>
-      <c r="B648" s="48">
-        <v>8</v>
-      </c>
-      <c r="C648" s="16">
-        <v>11020</v>
-      </c>
-    </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A649" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="B649" s="48">
-        <v>8</v>
-      </c>
-      <c r="C649" s="17">
-        <v>11110</v>
-      </c>
-    </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A650" s="17" t="s">
-        <v>638</v>
-      </c>
-      <c r="B650" s="48">
-        <v>8</v>
-      </c>
-      <c r="C650" s="17">
-        <v>11120</v>
-      </c>
-    </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A651" s="18" t="s">
-        <v>639</v>
-      </c>
-      <c r="B651" s="48">
-        <v>8</v>
-      </c>
-      <c r="C651" s="18">
-        <v>11210</v>
-      </c>
-    </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A652" s="18" t="s">
-        <v>640</v>
-      </c>
-      <c r="B652" s="48">
-        <v>8</v>
-      </c>
-      <c r="C652" s="18">
-        <v>11320</v>
-      </c>
-    </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A653" s="16" t="s">
-        <v>641</v>
-      </c>
-      <c r="B653" s="48">
-        <v>8</v>
-      </c>
-      <c r="C653" s="16">
-        <v>12010</v>
-      </c>
-    </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A654" s="16" t="s">
-        <v>642</v>
-      </c>
-      <c r="B654" s="48">
-        <v>8</v>
-      </c>
-      <c r="C654" s="16">
-        <v>12020</v>
-      </c>
-    </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A655" s="17" t="s">
-        <v>643</v>
       </c>
       <c r="B655" s="48">
         <v>8</v>
       </c>
-      <c r="C655" s="17">
-        <v>12110</v>
+      <c r="C655" s="16">
+        <v>11010</v>
       </c>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A656" s="17" t="s">
-        <v>644</v>
+      <c r="A656" s="16" t="s">
+        <v>636</v>
       </c>
       <c r="B656" s="48">
         <v>8</v>
       </c>
-      <c r="C656" s="17">
-        <v>12120</v>
+      <c r="C656" s="16">
+        <v>11020</v>
       </c>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A657" s="18" t="s">
-        <v>645</v>
+      <c r="A657" s="17" t="s">
+        <v>637</v>
       </c>
       <c r="B657" s="48">
         <v>8</v>
       </c>
-      <c r="C657" s="18">
-        <v>12210</v>
+      <c r="C657" s="17">
+        <v>11110</v>
       </c>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A658" s="18" t="s">
-        <v>646</v>
+      <c r="A658" s="17" t="s">
+        <v>638</v>
       </c>
       <c r="B658" s="48">
         <v>8</v>
       </c>
-      <c r="C658" s="18">
-        <v>12320</v>
+      <c r="C658" s="17">
+        <v>11120</v>
       </c>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A659" s="19" t="s">
-        <v>647</v>
+      <c r="A659" s="18" t="s">
+        <v>639</v>
       </c>
       <c r="B659" s="48">
         <v>8</v>
       </c>
-      <c r="C659" s="19">
-        <v>13010</v>
+      <c r="C659" s="18">
+        <v>11210</v>
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A660" s="19" t="s">
-        <v>648</v>
+      <c r="A660" s="18" t="s">
+        <v>640</v>
       </c>
       <c r="B660" s="48">
         <v>8</v>
       </c>
-      <c r="C660" s="19">
-        <v>13020</v>
+      <c r="C660" s="18">
+        <v>11320</v>
       </c>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A661" s="19" t="s">
-        <v>649</v>
+      <c r="A661" s="16" t="s">
+        <v>641</v>
       </c>
       <c r="B661" s="48">
         <v>8</v>
       </c>
-      <c r="C661" s="19">
+      <c r="C661" s="16">
+        <v>12010</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A662" s="16" t="s">
+        <v>642</v>
+      </c>
+      <c r="B662" s="48">
+        <v>8</v>
+      </c>
+      <c r="C662" s="16">
+        <v>12020</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A663" s="17" t="s">
+        <v>643</v>
+      </c>
+      <c r="B663" s="48">
+        <v>8</v>
+      </c>
+      <c r="C663" s="17">
+        <v>12110</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A664" s="17" t="s">
+        <v>644</v>
+      </c>
+      <c r="B664" s="48">
+        <v>8</v>
+      </c>
+      <c r="C664" s="17">
+        <v>12120</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A665" s="18" t="s">
+        <v>645</v>
+      </c>
+      <c r="B665" s="48">
+        <v>8</v>
+      </c>
+      <c r="C665" s="18">
+        <v>12210</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A666" s="18" t="s">
+        <v>646</v>
+      </c>
+      <c r="B666" s="48">
+        <v>8</v>
+      </c>
+      <c r="C666" s="18">
+        <v>12320</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A667" s="19" t="s">
+        <v>647</v>
+      </c>
+      <c r="B667" s="48">
+        <v>8</v>
+      </c>
+      <c r="C667" s="19">
+        <v>13010</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A668" s="19" t="s">
+        <v>648</v>
+      </c>
+      <c r="B668" s="48">
+        <v>8</v>
+      </c>
+      <c r="C668" s="19">
+        <v>13020</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A669" s="19" t="s">
+        <v>649</v>
+      </c>
+      <c r="B669" s="48">
+        <v>8</v>
+      </c>
+      <c r="C669" s="19">
         <v>13030</v>
       </c>
     </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A662" s="20" t="s">
+    <row r="670" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A670" s="20" t="s">
         <v>650</v>
-      </c>
-      <c r="B662" s="48">
-        <v>9</v>
-      </c>
-      <c r="C662" s="24">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A663" s="20" t="s">
-        <v>651</v>
-      </c>
-      <c r="B663" s="48">
-        <v>9</v>
-      </c>
-      <c r="C663" s="24">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A664" s="20" t="s">
-        <v>652</v>
-      </c>
-      <c r="B664" s="48">
-        <v>9</v>
-      </c>
-      <c r="C664" s="24">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A665" s="20" t="s">
-        <v>653</v>
-      </c>
-      <c r="B665" s="48">
-        <v>9</v>
-      </c>
-      <c r="C665" s="24">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="666" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A666" s="21" t="s">
-        <v>654</v>
-      </c>
-      <c r="B666" s="48">
-        <v>9</v>
-      </c>
-      <c r="C666" s="23">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="667" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A667" s="21" t="s">
-        <v>655</v>
-      </c>
-      <c r="B667" s="48">
-        <v>9</v>
-      </c>
-      <c r="C667" s="23">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A668" s="21" t="s">
-        <v>656</v>
-      </c>
-      <c r="B668" s="48">
-        <v>9</v>
-      </c>
-      <c r="C668" s="23">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A669" s="21" t="s">
-        <v>657</v>
-      </c>
-      <c r="B669" s="48">
-        <v>9</v>
-      </c>
-      <c r="C669" s="23">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A670" s="22" t="s">
-        <v>658</v>
       </c>
       <c r="B670" s="48">
         <v>9</v>
       </c>
       <c r="C670" s="24">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A671" s="22" t="s">
-        <v>659</v>
+      <c r="A671" s="20" t="s">
+        <v>651</v>
       </c>
       <c r="B671" s="48">
         <v>9</v>
       </c>
       <c r="C671" s="24">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A672" s="22" t="s">
-        <v>660</v>
+      <c r="A672" s="20" t="s">
+        <v>652</v>
       </c>
       <c r="B672" s="48">
         <v>9</v>
       </c>
       <c r="C672" s="24">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A673" s="22" t="s">
-        <v>661</v>
+      <c r="A673" s="20" t="s">
+        <v>653</v>
       </c>
       <c r="B673" s="48">
         <v>9</v>
       </c>
       <c r="C673" s="24">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A674" s="23" t="s">
-        <v>662</v>
+      <c r="A674" s="21" t="s">
+        <v>654</v>
       </c>
       <c r="B674" s="48">
         <v>9</v>
       </c>
-      <c r="C674" s="19">
-        <v>50</v>
+      <c r="C674" s="23">
+        <v>42</v>
       </c>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A675" s="19" t="s">
-        <v>663</v>
+      <c r="A675" s="21" t="s">
+        <v>655</v>
       </c>
       <c r="B675" s="48">
         <v>9</v>
       </c>
-      <c r="C675" s="19">
-        <v>51</v>
+      <c r="C675" s="23">
+        <v>43</v>
       </c>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A676" s="19" t="s">
-        <v>664</v>
+      <c r="A676" s="21" t="s">
+        <v>656</v>
       </c>
       <c r="B676" s="48">
         <v>9</v>
       </c>
-      <c r="C676" s="19">
-        <v>52</v>
+      <c r="C676" s="23">
+        <v>44</v>
       </c>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A677" s="19" t="s">
-        <v>665</v>
+      <c r="A677" s="21" t="s">
+        <v>657</v>
       </c>
       <c r="B677" s="48">
         <v>9</v>
       </c>
-      <c r="C677" s="19">
-        <v>53</v>
+      <c r="C677" s="23">
+        <v>45</v>
       </c>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A678" s="19" t="s">
-        <v>666</v>
+      <c r="A678" s="22" t="s">
+        <v>658</v>
       </c>
       <c r="B678" s="48">
         <v>9</v>
       </c>
-      <c r="C678" s="19">
-        <v>54</v>
+      <c r="C678" s="24">
+        <v>46</v>
       </c>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A679" s="19" t="s">
-        <v>667</v>
+      <c r="A679" s="22" t="s">
+        <v>659</v>
       </c>
       <c r="B679" s="48">
         <v>9</v>
       </c>
-      <c r="C679" s="19">
-        <v>55</v>
+      <c r="C679" s="24">
+        <v>47</v>
       </c>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A680" s="19" t="s">
-        <v>668</v>
+      <c r="A680" s="22" t="s">
+        <v>660</v>
       </c>
       <c r="B680" s="48">
         <v>9</v>
       </c>
-      <c r="C680" s="19">
-        <v>56</v>
+      <c r="C680" s="24">
+        <v>48</v>
       </c>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A681" s="19" t="s">
-        <v>669</v>
+      <c r="A681" s="22" t="s">
+        <v>661</v>
       </c>
       <c r="B681" s="48">
         <v>9</v>
       </c>
-      <c r="C681" s="19">
-        <v>57</v>
+      <c r="C681" s="24">
+        <v>49</v>
       </c>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A682" s="19" t="s">
-        <v>670</v>
+      <c r="A682" s="23" t="s">
+        <v>662</v>
       </c>
       <c r="B682" s="48">
         <v>9</v>
       </c>
       <c r="C682" s="19">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A683" s="19" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="B683" s="48">
         <v>9</v>
       </c>
       <c r="C683" s="19">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A684" s="21" t="s">
-        <v>672</v>
+      <c r="A684" s="19" t="s">
+        <v>664</v>
       </c>
       <c r="B684" s="48">
         <v>9</v>
       </c>
-      <c r="C684" s="23">
-        <v>60</v>
+      <c r="C684" s="19">
+        <v>52</v>
       </c>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A685" s="23" t="s">
-        <v>673</v>
+      <c r="A685" s="19" t="s">
+        <v>665</v>
       </c>
       <c r="B685" s="48">
         <v>9</v>
       </c>
       <c r="C685" s="19">
-        <v>101</v>
+        <v>53</v>
       </c>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A686" s="23" t="s">
-        <v>674</v>
+      <c r="A686" s="19" t="s">
+        <v>666</v>
       </c>
       <c r="B686" s="48">
         <v>9</v>
       </c>
       <c r="C686" s="19">
-        <v>102</v>
+        <v>54</v>
       </c>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A687" s="23" t="s">
-        <v>675</v>
+      <c r="A687" s="19" t="s">
+        <v>667</v>
       </c>
       <c r="B687" s="48">
         <v>9</v>
       </c>
       <c r="C687" s="19">
-        <v>103</v>
+        <v>55</v>
       </c>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A688" s="19" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="B688" s="48">
         <v>9</v>
       </c>
       <c r="C688" s="19">
-        <v>104</v>
+        <v>56</v>
       </c>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A689" s="19" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="B689" s="48">
         <v>9</v>
       </c>
       <c r="C689" s="19">
-        <v>105</v>
+        <v>57</v>
       </c>
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A690" s="19" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="B690" s="48">
         <v>9</v>
       </c>
       <c r="C690" s="19">
-        <v>106</v>
+        <v>58</v>
       </c>
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A691" s="19" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="B691" s="48">
         <v>9</v>
       </c>
       <c r="C691" s="19">
-        <v>107</v>
+        <v>59</v>
       </c>
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A692" s="19" t="s">
-        <v>680</v>
+      <c r="A692" s="21" t="s">
+        <v>672</v>
       </c>
       <c r="B692" s="48">
         <v>9</v>
       </c>
-      <c r="C692" s="19">
-        <v>108</v>
+      <c r="C692" s="23">
+        <v>60</v>
       </c>
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A693" s="19" t="s">
-        <v>681</v>
+      <c r="A693" s="23" t="s">
+        <v>673</v>
       </c>
       <c r="B693" s="48">
         <v>9</v>
       </c>
       <c r="C693" s="19">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A694" s="19" t="s">
-        <v>682</v>
+      <c r="A694" s="23" t="s">
+        <v>674</v>
       </c>
       <c r="B694" s="48">
         <v>9</v>
       </c>
       <c r="C694" s="19">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A695" s="19" t="s">
-        <v>683</v>
+      <c r="A695" s="23" t="s">
+        <v>675</v>
       </c>
       <c r="B695" s="48">
         <v>9</v>
       </c>
       <c r="C695" s="19">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A696" s="19" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="B696" s="48">
         <v>9</v>
       </c>
       <c r="C696" s="19">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A697" s="19" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="B697" s="48">
         <v>9</v>
       </c>
       <c r="C697" s="19">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A698" s="19" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="B698" s="48">
         <v>9</v>
       </c>
       <c r="C698" s="19">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="699" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A699" s="19" t="s">
+        <v>679</v>
+      </c>
+      <c r="B699" s="48">
+        <v>9</v>
+      </c>
+      <c r="C699" s="19">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="700" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A700" s="19" t="s">
+        <v>680</v>
+      </c>
+      <c r="B700" s="48">
+        <v>9</v>
+      </c>
+      <c r="C700" s="19">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="701" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A701" s="19" t="s">
+        <v>681</v>
+      </c>
+      <c r="B701" s="48">
+        <v>9</v>
+      </c>
+      <c r="C701" s="19">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="702" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A702" s="19" t="s">
+        <v>682</v>
+      </c>
+      <c r="B702" s="48">
+        <v>9</v>
+      </c>
+      <c r="C702" s="19">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="703" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A703" s="19" t="s">
+        <v>683</v>
+      </c>
+      <c r="B703" s="48">
+        <v>9</v>
+      </c>
+      <c r="C703" s="19">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="704" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A704" s="19" t="s">
+        <v>684</v>
+      </c>
+      <c r="B704" s="48">
+        <v>9</v>
+      </c>
+      <c r="C704" s="19">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="705" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A705" s="19" t="s">
+        <v>685</v>
+      </c>
+      <c r="B705" s="48">
+        <v>9</v>
+      </c>
+      <c r="C705" s="19">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="706" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A706" s="19" t="s">
+        <v>686</v>
+      </c>
+      <c r="B706" s="48">
+        <v>9</v>
+      </c>
+      <c r="C706" s="19">
         <v>114</v>
-      </c>
-    </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A699" s="25" t="s">
-        <v>687</v>
-      </c>
-      <c r="B699" s="48">
-        <v>10</v>
-      </c>
-      <c r="C699" s="25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A700" s="25" t="s">
-        <v>688</v>
-      </c>
-      <c r="B700" s="48">
-        <v>10</v>
-      </c>
-      <c r="C700" s="25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A701" s="25" t="s">
-        <v>689</v>
-      </c>
-      <c r="B701" s="48">
-        <v>10</v>
-      </c>
-      <c r="C701" s="25">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A702" s="25" t="s">
-        <v>690</v>
-      </c>
-      <c r="B702" s="48">
-        <v>10</v>
-      </c>
-      <c r="C702" s="25">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A703" s="25" t="s">
-        <v>691</v>
-      </c>
-      <c r="B703" s="48">
-        <v>10</v>
-      </c>
-      <c r="C703" s="25">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A704" s="25" t="s">
-        <v>692</v>
-      </c>
-      <c r="B704" s="48">
-        <v>10</v>
-      </c>
-      <c r="C704" s="25">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="705" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A705" s="25" t="s">
-        <v>693</v>
-      </c>
-      <c r="B705" s="48">
-        <v>10</v>
-      </c>
-      <c r="C705" s="25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="706" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A706" s="25" t="s">
-        <v>694</v>
-      </c>
-      <c r="B706" s="48">
-        <v>10</v>
-      </c>
-      <c r="C706" s="25">
-        <v>11</v>
       </c>
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A707" s="25" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="B707" s="48">
         <v>10</v>
       </c>
       <c r="C707" s="25">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A708" s="25" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="B708" s="48">
         <v>10</v>
       </c>
       <c r="C708" s="25">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A709" s="25" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="B709" s="48">
         <v>10</v>
       </c>
       <c r="C709" s="25">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A710" s="25" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="B710" s="48">
         <v>10</v>
       </c>
       <c r="C710" s="25">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A711" s="25" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="B711" s="48">
         <v>10</v>
       </c>
       <c r="C711" s="25">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A712" s="25" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="B712" s="48">
         <v>10</v>
       </c>
       <c r="C712" s="25">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A713" s="11" t="s">
-        <v>701</v>
+      <c r="A713" s="25" t="s">
+        <v>693</v>
       </c>
       <c r="B713" s="48">
         <v>10</v>
       </c>
-      <c r="C713" s="11">
-        <v>101</v>
+      <c r="C713" s="25">
+        <v>10</v>
       </c>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A714" s="11" t="s">
-        <v>702</v>
+      <c r="A714" s="25" t="s">
+        <v>694</v>
       </c>
       <c r="B714" s="48">
         <v>10</v>
       </c>
-      <c r="C714" s="11">
-        <v>102</v>
+      <c r="C714" s="25">
+        <v>11</v>
       </c>
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A715" s="11" t="s">
-        <v>703</v>
+      <c r="A715" s="25" t="s">
+        <v>695</v>
       </c>
       <c r="B715" s="48">
         <v>10</v>
       </c>
-      <c r="C715" s="11">
-        <v>103</v>
+      <c r="C715" s="25">
+        <v>12</v>
       </c>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A716" s="11" t="s">
-        <v>704</v>
+      <c r="A716" s="25" t="s">
+        <v>696</v>
       </c>
       <c r="B716" s="48">
         <v>10</v>
       </c>
-      <c r="C716" s="11">
-        <v>104</v>
+      <c r="C716" s="25">
+        <v>13</v>
       </c>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A717" s="11" t="s">
-        <v>705</v>
+      <c r="A717" s="25" t="s">
+        <v>697</v>
       </c>
       <c r="B717" s="48">
         <v>10</v>
       </c>
-      <c r="C717" s="11">
-        <v>105</v>
+      <c r="C717" s="25">
+        <v>14</v>
       </c>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A718" s="11" t="s">
-        <v>706</v>
+      <c r="A718" s="25" t="s">
+        <v>698</v>
       </c>
       <c r="B718" s="48">
         <v>10</v>
       </c>
-      <c r="C718" s="11">
-        <v>106</v>
+      <c r="C718" s="25">
+        <v>15</v>
       </c>
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A719" s="11" t="s">
-        <v>707</v>
+      <c r="A719" s="25" t="s">
+        <v>699</v>
       </c>
       <c r="B719" s="48">
         <v>10</v>
       </c>
-      <c r="C719" s="11">
-        <v>107</v>
+      <c r="C719" s="25">
+        <v>16</v>
       </c>
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A720" s="11" t="s">
-        <v>708</v>
+      <c r="A720" s="25" t="s">
+        <v>700</v>
       </c>
       <c r="B720" s="48">
         <v>10</v>
       </c>
-      <c r="C720" s="11">
-        <v>108</v>
+      <c r="C720" s="25">
+        <v>17</v>
       </c>
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A721" s="11" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="B721" s="48">
         <v>10</v>
       </c>
       <c r="C721" s="11">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A722" s="11" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="B722" s="48">
         <v>10</v>
       </c>
       <c r="C722" s="11">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A723" s="11" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="B723" s="48">
         <v>10</v>
       </c>
       <c r="C723" s="11">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A724" s="11" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="B724" s="48">
         <v>10</v>
       </c>
       <c r="C724" s="11">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A725" s="11" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="B725" s="48">
         <v>10</v>
       </c>
       <c r="C725" s="11">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A726" s="11" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="B726" s="48">
         <v>10</v>
       </c>
       <c r="C726" s="11">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A727" s="11" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="B727" s="48">
         <v>10</v>
       </c>
       <c r="C727" s="11">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="728" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A728" s="11" t="s">
+        <v>708</v>
+      </c>
+      <c r="B728" s="48">
+        <v>10</v>
+      </c>
+      <c r="C728" s="11">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="729" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A729" s="11" t="s">
+        <v>709</v>
+      </c>
+      <c r="B729" s="48">
+        <v>10</v>
+      </c>
+      <c r="C729" s="11">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="730" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A730" s="11" t="s">
+        <v>710</v>
+      </c>
+      <c r="B730" s="48">
+        <v>10</v>
+      </c>
+      <c r="C730" s="11">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="731" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A731" s="11" t="s">
+        <v>711</v>
+      </c>
+      <c r="B731" s="48">
+        <v>10</v>
+      </c>
+      <c r="C731" s="11">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="732" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A732" s="11" t="s">
+        <v>712</v>
+      </c>
+      <c r="B732" s="48">
+        <v>10</v>
+      </c>
+      <c r="C732" s="11">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="733" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A733" s="11" t="s">
+        <v>713</v>
+      </c>
+      <c r="B733" s="48">
+        <v>10</v>
+      </c>
+      <c r="C733" s="11">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="734" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A734" s="11" t="s">
+        <v>714</v>
+      </c>
+      <c r="B734" s="48">
+        <v>10</v>
+      </c>
+      <c r="C734" s="11">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="735" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A735" s="11" t="s">
+        <v>715</v>
+      </c>
+      <c r="B735" s="48">
+        <v>10</v>
+      </c>
+      <c r="C735" s="11">
         <v>115</v>
       </c>
     </row>
-    <row r="728" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A728" s="26" t="s">
+    <row r="736" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A736" s="26" t="s">
         <v>716</v>
-      </c>
-      <c r="B728" s="48">
-        <v>11</v>
-      </c>
-      <c r="C728" s="26">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="729" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A729" s="26" t="s">
-        <v>717</v>
-      </c>
-      <c r="B729" s="48">
-        <v>11</v>
-      </c>
-      <c r="C729" s="26">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="730" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A730" s="26" t="s">
-        <v>718</v>
-      </c>
-      <c r="B730" s="48">
-        <v>11</v>
-      </c>
-      <c r="C730" s="26">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="731" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A731" s="26" t="s">
-        <v>719</v>
-      </c>
-      <c r="B731" s="48">
-        <v>11</v>
-      </c>
-      <c r="C731" s="26">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="732" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A732" s="26" t="s">
-        <v>720</v>
-      </c>
-      <c r="B732" s="48">
-        <v>11</v>
-      </c>
-      <c r="C732" s="26">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="733" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A733" s="26" t="s">
-        <v>721</v>
-      </c>
-      <c r="B733" s="48">
-        <v>11</v>
-      </c>
-      <c r="C733" s="26">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="734" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A734" s="27" t="s">
-        <v>722</v>
-      </c>
-      <c r="B734" s="48">
-        <v>11</v>
-      </c>
-      <c r="C734" s="27">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="735" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A735" s="28" t="s">
-        <v>723</v>
-      </c>
-      <c r="B735" s="48">
-        <v>11</v>
-      </c>
-      <c r="C735" s="28">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="736" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A736" s="28" t="s">
-        <v>724</v>
       </c>
       <c r="B736" s="48">
         <v>11</v>
       </c>
-      <c r="C736" s="28">
+      <c r="C736" s="26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="737" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A737" s="26" t="s">
+        <v>717</v>
+      </c>
+      <c r="B737" s="48">
+        <v>11</v>
+      </c>
+      <c r="C737" s="26">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="738" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A738" s="26" t="s">
+        <v>718</v>
+      </c>
+      <c r="B738" s="48">
+        <v>11</v>
+      </c>
+      <c r="C738" s="26">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="739" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A739" s="26" t="s">
+        <v>719</v>
+      </c>
+      <c r="B739" s="48">
+        <v>11</v>
+      </c>
+      <c r="C739" s="26">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="740" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A740" s="26" t="s">
+        <v>720</v>
+      </c>
+      <c r="B740" s="48">
+        <v>11</v>
+      </c>
+      <c r="C740" s="26">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="741" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A741" s="26" t="s">
+        <v>721</v>
+      </c>
+      <c r="B741" s="48">
+        <v>11</v>
+      </c>
+      <c r="C741" s="26">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="742" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A742" s="27" t="s">
+        <v>722</v>
+      </c>
+      <c r="B742" s="48">
+        <v>11</v>
+      </c>
+      <c r="C742" s="27">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="743" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A743" s="28" t="s">
+        <v>723</v>
+      </c>
+      <c r="B743" s="48">
+        <v>11</v>
+      </c>
+      <c r="C743" s="28">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="744" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A744" s="28" t="s">
+        <v>724</v>
+      </c>
+      <c r="B744" s="48">
+        <v>11</v>
+      </c>
+      <c r="C744" s="28">
         <v>900</v>
       </c>
     </row>
-    <row r="737" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A737" s="19" t="s">
+    <row r="745" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A745" s="19" t="s">
         <v>725</v>
-      </c>
-      <c r="B737" s="48">
-        <v>12</v>
-      </c>
-      <c r="C737" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="738" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A738" s="29" t="s">
-        <v>726</v>
-      </c>
-      <c r="B738" s="48">
-        <v>12</v>
-      </c>
-      <c r="C738" s="29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="739" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A739" s="29" t="s">
-        <v>727</v>
-      </c>
-      <c r="B739" s="48">
-        <v>12</v>
-      </c>
-      <c r="C739" s="29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="740" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A740" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="B740" s="48">
-        <v>12</v>
-      </c>
-      <c r="C740" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="741" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A741" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="B741" s="48">
-        <v>12</v>
-      </c>
-      <c r="C741" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="742" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A742" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="B742" s="48">
-        <v>12</v>
-      </c>
-      <c r="C742" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="743" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A743" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="B743" s="48">
-        <v>12</v>
-      </c>
-      <c r="C743" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="744" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A744" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="B744" s="48">
-        <v>12</v>
-      </c>
-      <c r="C744" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="745" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A745" s="1" t="s">
-        <v>733</v>
       </c>
       <c r="B745" s="48">
         <v>12</v>
       </c>
-      <c r="C745" s="1">
-        <v>9</v>
+      <c r="C745" s="19">
+        <v>1</v>
       </c>
     </row>
     <row r="746" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A746" s="1" t="s">
-        <v>734</v>
+      <c r="A746" s="29" t="s">
+        <v>726</v>
       </c>
       <c r="B746" s="48">
         <v>12</v>
       </c>
-      <c r="C746" s="1">
-        <v>10</v>
+      <c r="C746" s="29">
+        <v>2</v>
       </c>
     </row>
     <row r="747" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A747" s="1" t="s">
-        <v>735</v>
+      <c r="A747" s="29" t="s">
+        <v>727</v>
       </c>
       <c r="B747" s="48">
         <v>12</v>
       </c>
-      <c r="C747" s="1">
-        <v>11</v>
+      <c r="C747" s="29">
+        <v>3</v>
       </c>
     </row>
     <row r="748" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A748" s="1" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="B748" s="48">
         <v>12</v>
       </c>
       <c r="C748" s="1">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="749" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A749" s="1" t="s">
-        <v>463</v>
+        <v>729</v>
       </c>
       <c r="B749" s="48">
         <v>12</v>
       </c>
       <c r="C749" s="1">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="750" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A750" s="1" t="s">
-        <v>458</v>
+        <v>730</v>
       </c>
       <c r="B750" s="48">
         <v>12</v>
       </c>
       <c r="C750" s="1">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="751" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A751" s="1" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="B751" s="48">
         <v>12</v>
       </c>
       <c r="C751" s="1">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="752" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A752" s="1" t="s">
-        <v>456</v>
+        <v>732</v>
       </c>
       <c r="B752" s="48">
         <v>12</v>
       </c>
       <c r="C752" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A753" s="1" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B753" s="48">
         <v>12</v>
       </c>
       <c r="C753" s="1">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A754" s="1" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="B754" s="48">
         <v>12</v>
       </c>
       <c r="C754" s="1">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A755" s="1" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="B755" s="48">
         <v>12</v>
       </c>
       <c r="C755" s="1">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="756" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A756" s="1" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="B756" s="48">
         <v>12</v>
       </c>
       <c r="C756" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="757" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A757" s="1" t="s">
-        <v>742</v>
+        <v>463</v>
       </c>
       <c r="B757" s="48">
         <v>12</v>
       </c>
       <c r="C757" s="1">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="758" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A758" s="1" t="s">
-        <v>743</v>
+        <v>458</v>
       </c>
       <c r="B758" s="48">
         <v>12</v>
       </c>
       <c r="C758" s="1">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A759" s="1" t="s">
-        <v>725</v>
+        <v>737</v>
       </c>
       <c r="B759" s="48">
         <v>12</v>
       </c>
       <c r="C759" s="1">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="760" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A760" s="1" t="s">
-        <v>744</v>
+        <v>456</v>
       </c>
       <c r="B760" s="48">
         <v>12</v>
       </c>
       <c r="C760" s="1">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A761" s="1" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="B761" s="48">
         <v>12</v>
       </c>
       <c r="C761" s="1">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="762" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A762" s="1" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="B762" s="48">
         <v>12</v>
       </c>
       <c r="C762" s="1">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="763" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A763" s="1" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="B763" s="48">
         <v>12</v>
       </c>
       <c r="C763" s="1">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="764" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A764" s="1" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="B764" s="48">
         <v>12</v>
       </c>
       <c r="C764" s="1">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="765" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A765" s="1" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="B765" s="48">
         <v>12</v>
       </c>
       <c r="C765" s="1">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="766" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A766" s="1" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="B766" s="48">
         <v>12</v>
       </c>
       <c r="C766" s="1">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="767" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A767" s="1" t="s">
-        <v>751</v>
+        <v>725</v>
       </c>
       <c r="B767" s="48">
         <v>12</v>
       </c>
       <c r="C767" s="1">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="768" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A768" s="1" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="B768" s="48">
         <v>12</v>
       </c>
       <c r="C768" s="1">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="769" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A769" s="1" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="B769" s="48">
         <v>12</v>
       </c>
       <c r="C769" s="1">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="770" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A770" s="1" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="B770" s="48">
         <v>12</v>
       </c>
       <c r="C770" s="1">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="771" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A771" s="1" t="s">
-        <v>469</v>
+        <v>747</v>
       </c>
       <c r="B771" s="48">
         <v>12</v>
       </c>
       <c r="C771" s="1">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="772" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A772" s="1" t="s">
-        <v>448</v>
+        <v>748</v>
       </c>
       <c r="B772" s="48">
         <v>12</v>
       </c>
       <c r="C772" s="1">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="773" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A773" s="1" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="B773" s="48">
         <v>12</v>
       </c>
       <c r="C773" s="1">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="774" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A774" s="1" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="B774" s="48">
         <v>12</v>
       </c>
       <c r="C774" s="1">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="775" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A775" s="29" t="s">
-        <v>744</v>
+      <c r="A775" s="1" t="s">
+        <v>751</v>
       </c>
       <c r="B775" s="48">
         <v>12</v>
       </c>
       <c r="C775" s="1">
-        <v>101</v>
+        <v>31</v>
       </c>
     </row>
     <row r="776" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A776" s="1" t="s">
-        <v>454</v>
+        <v>752</v>
       </c>
       <c r="B776" s="48">
         <v>12</v>
       </c>
       <c r="C776" s="1">
-        <v>102</v>
+        <v>32</v>
       </c>
     </row>
     <row r="777" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A777" s="1" t="s">
-        <v>474</v>
+        <v>753</v>
       </c>
       <c r="B777" s="48">
         <v>12</v>
       </c>
       <c r="C777" s="1">
-        <v>103</v>
+        <v>33</v>
       </c>
     </row>
     <row r="778" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A778" s="1" t="s">
-        <v>472</v>
+        <v>754</v>
       </c>
       <c r="B778" s="48">
         <v>12</v>
       </c>
       <c r="C778" s="1">
-        <v>104</v>
+        <v>34</v>
       </c>
     </row>
     <row r="779" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A779" s="30" t="s">
-        <v>757</v>
+      <c r="A779" s="1" t="s">
+        <v>469</v>
       </c>
       <c r="B779" s="48">
         <v>12</v>
       </c>
-      <c r="C779" s="30">
-        <v>105</v>
+      <c r="C779" s="1">
+        <v>35</v>
       </c>
     </row>
     <row r="780" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A780" s="30" t="s">
-        <v>758</v>
+      <c r="A780" s="1" t="s">
+        <v>448</v>
       </c>
       <c r="B780" s="48">
         <v>12</v>
       </c>
-      <c r="C780" s="30">
-        <v>106</v>
+      <c r="C780" s="1">
+        <v>36</v>
       </c>
     </row>
     <row r="781" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A781" s="30" t="s">
-        <v>759</v>
+      <c r="A781" s="1" t="s">
+        <v>755</v>
       </c>
       <c r="B781" s="48">
         <v>12</v>
       </c>
-      <c r="C781" s="30">
-        <v>107</v>
+      <c r="C781" s="1">
+        <v>37</v>
       </c>
     </row>
     <row r="782" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A782" s="30" t="s">
-        <v>760</v>
+      <c r="A782" s="1" t="s">
+        <v>756</v>
       </c>
       <c r="B782" s="48">
         <v>12</v>
       </c>
-      <c r="C782" s="30">
-        <v>108</v>
+      <c r="C782" s="1">
+        <v>38</v>
       </c>
     </row>
     <row r="783" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A783" s="1" t="s">
-        <v>761</v>
+      <c r="A783" s="29" t="s">
+        <v>744</v>
       </c>
       <c r="B783" s="48">
         <v>12</v>
       </c>
       <c r="C783" s="1">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="784" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A784" s="1" t="s">
-        <v>762</v>
+        <v>454</v>
       </c>
       <c r="B784" s="48">
         <v>12</v>
       </c>
       <c r="C784" s="1">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="785" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A785" s="1" t="s">
-        <v>763</v>
+        <v>474</v>
       </c>
       <c r="B785" s="48">
         <v>12</v>
       </c>
       <c r="C785" s="1">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="786" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A786" s="1" t="s">
-        <v>764</v>
+        <v>472</v>
       </c>
       <c r="B786" s="48">
         <v>12</v>
       </c>
       <c r="C786" s="1">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="787" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A787" s="1" t="s">
-        <v>765</v>
+      <c r="A787" s="30" t="s">
+        <v>757</v>
       </c>
       <c r="B787" s="48">
         <v>12</v>
       </c>
-      <c r="C787" s="1">
-        <v>113</v>
+      <c r="C787" s="30">
+        <v>105</v>
       </c>
     </row>
     <row r="788" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A788" s="1" t="s">
-        <v>766</v>
+      <c r="A788" s="30" t="s">
+        <v>758</v>
       </c>
       <c r="B788" s="48">
         <v>12</v>
       </c>
-      <c r="C788" s="1">
-        <v>114</v>
+      <c r="C788" s="30">
+        <v>106</v>
       </c>
     </row>
     <row r="789" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A789" s="1" t="s">
-        <v>767</v>
+      <c r="A789" s="30" t="s">
+        <v>759</v>
       </c>
       <c r="B789" s="48">
         <v>12</v>
       </c>
-      <c r="C789" s="1">
-        <v>115</v>
+      <c r="C789" s="30">
+        <v>107</v>
       </c>
     </row>
     <row r="790" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A790" s="1" t="s">
-        <v>768</v>
+      <c r="A790" s="30" t="s">
+        <v>760</v>
       </c>
       <c r="B790" s="48">
         <v>12</v>
       </c>
-      <c r="C790" s="1">
-        <v>116</v>
+      <c r="C790" s="30">
+        <v>108</v>
       </c>
     </row>
     <row r="791" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A791" s="1" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="B791" s="48">
         <v>12</v>
       </c>
       <c r="C791" s="1">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="792" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A792" s="1" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="B792" s="48">
         <v>12</v>
       </c>
       <c r="C792" s="1">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="793" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A793" s="1" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="B793" s="48">
         <v>12</v>
       </c>
       <c r="C793" s="1">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="794" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A794" s="1" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="B794" s="48">
         <v>12</v>
       </c>
       <c r="C794" s="1">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="795" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A795" s="1" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="B795" s="48">
         <v>12</v>
       </c>
       <c r="C795" s="1">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="796" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A796" s="1" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="B796" s="48">
         <v>12</v>
       </c>
       <c r="C796" s="1">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="797" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A797" s="1" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="B797" s="48">
         <v>12</v>
       </c>
       <c r="C797" s="1">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="798" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A798" s="1" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="B798" s="48">
         <v>12</v>
       </c>
       <c r="C798" s="1">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="799" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A799" s="1" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="B799" s="48">
         <v>12</v>
       </c>
       <c r="C799" s="1">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="800" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A800" s="1" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="B800" s="48">
         <v>12</v>
       </c>
       <c r="C800" s="1">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="801" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A801" s="1" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
       <c r="B801" s="48">
         <v>12</v>
       </c>
       <c r="C801" s="1">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="802" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A802" s="1" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="B802" s="48">
         <v>12</v>
       </c>
       <c r="C802" s="1">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="803" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A803" s="1" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="B803" s="48">
         <v>12</v>
       </c>
       <c r="C803" s="1">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="804" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A804" s="1" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="B804" s="48">
         <v>12</v>
       </c>
       <c r="C804" s="1">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="805" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A805" s="1" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="B805" s="48">
         <v>12</v>
       </c>
       <c r="C805" s="1">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="806" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A806" s="1" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="B806" s="48">
         <v>12</v>
       </c>
       <c r="C806" s="1">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="807" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A807" s="1" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="B807" s="48">
         <v>12</v>
       </c>
       <c r="C807" s="1">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="808" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A808" s="1" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="B808" s="48">
         <v>12</v>
       </c>
       <c r="C808" s="1">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="809" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A809" s="1" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="B809" s="48">
         <v>12</v>
       </c>
       <c r="C809" s="1">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="810" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A810" s="1" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="B810" s="48">
         <v>12</v>
       </c>
       <c r="C810" s="1">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="811" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A811" s="1" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="B811" s="48">
         <v>12</v>
       </c>
       <c r="C811" s="1">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="812" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A812" s="1" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="B812" s="48">
         <v>12</v>
       </c>
       <c r="C812" s="1">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="813" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A813" s="1" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="B813" s="48">
         <v>12</v>
       </c>
       <c r="C813" s="1">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="814" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A814" s="1" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="B814" s="48">
         <v>12</v>
       </c>
       <c r="C814" s="1">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="815" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A815" s="1" t="s">
-        <v>347</v>
+        <v>785</v>
       </c>
       <c r="B815" s="48">
         <v>12</v>
       </c>
       <c r="C815" s="1">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="816" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A816" s="1" t="s">
-        <v>771</v>
+        <v>786</v>
       </c>
       <c r="B816" s="48">
         <v>12</v>
       </c>
       <c r="C816" s="1">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="817" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A817" s="1" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="B817" s="48">
         <v>12</v>
       </c>
       <c r="C817" s="1">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="818" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A818" s="1" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="B818" s="48">
         <v>12</v>
       </c>
       <c r="C818" s="1">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="819" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A819" s="1" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="B819" s="48">
         <v>12</v>
       </c>
       <c r="C819" s="1">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="820" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A820" s="1" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="B820" s="48">
         <v>12</v>
       </c>
       <c r="C820" s="1">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="821" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A821" s="1" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="B821" s="48">
         <v>12</v>
       </c>
       <c r="C821" s="1">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="822" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A822" s="1" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="B822" s="48">
         <v>12</v>
       </c>
       <c r="C822" s="1">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="823" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A823" s="1" t="s">
-        <v>799</v>
+        <v>347</v>
       </c>
       <c r="B823" s="48">
         <v>12</v>
       </c>
       <c r="C823" s="1">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="824" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A824" s="1" t="s">
-        <v>800</v>
+        <v>771</v>
       </c>
       <c r="B824" s="48">
         <v>12</v>
       </c>
       <c r="C824" s="1">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="825" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A825" s="1" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="B825" s="48">
         <v>12</v>
       </c>
       <c r="C825" s="1">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="826" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A826" s="1" t="s">
-        <v>448</v>
+        <v>794</v>
       </c>
       <c r="B826" s="48">
         <v>12</v>
       </c>
       <c r="C826" s="1">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="827" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A827" s="1" t="s">
-        <v>28</v>
+        <v>795</v>
       </c>
       <c r="B827" s="48">
         <v>12</v>
       </c>
       <c r="C827" s="1">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="828" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A828" s="1" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="B828" s="48">
         <v>12</v>
       </c>
       <c r="C828" s="1">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="829" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A829" s="1" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="B829" s="48">
         <v>12</v>
       </c>
       <c r="C829" s="1">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="830" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A830" s="1" t="s">
-        <v>451</v>
+        <v>798</v>
       </c>
       <c r="B830" s="48">
         <v>12</v>
       </c>
       <c r="C830" s="1">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="831" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A831" s="1" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B831" s="48">
         <v>12</v>
       </c>
       <c r="C831" s="1">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="832" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A832" s="1" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="B832" s="48">
         <v>12</v>
       </c>
       <c r="C832" s="1">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="833" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A833" s="1" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="B833" s="48">
         <v>12</v>
       </c>
       <c r="C833" s="1">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="834" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A834" s="1" t="s">
-        <v>807</v>
+        <v>448</v>
       </c>
       <c r="B834" s="48">
         <v>12</v>
       </c>
       <c r="C834" s="1">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="835" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A835" s="1" t="s">
-        <v>808</v>
+        <v>28</v>
       </c>
       <c r="B835" s="48">
         <v>12</v>
       </c>
       <c r="C835" s="1">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="836" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A836" s="1" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="B836" s="48">
         <v>12</v>
       </c>
       <c r="C836" s="1">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="837" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A837" s="1" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="B837" s="48">
         <v>12</v>
       </c>
       <c r="C837" s="1">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="838" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A838" s="1" t="s">
-        <v>811</v>
+        <v>451</v>
       </c>
       <c r="B838" s="48">
         <v>12</v>
       </c>
       <c r="C838" s="1">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="839" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A839" s="1" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="B839" s="48">
         <v>12</v>
       </c>
       <c r="C839" s="1">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="840" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A840" s="1" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
       <c r="B840" s="48">
         <v>12</v>
       </c>
       <c r="C840" s="1">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="841" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A841" s="1" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="B841" s="48">
         <v>12</v>
       </c>
       <c r="C841" s="1">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="842" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A842" s="1" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="B842" s="48">
         <v>12</v>
       </c>
       <c r="C842" s="1">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="843" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A843" s="1" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="B843" s="48">
         <v>12</v>
       </c>
       <c r="C843" s="1">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="844" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A844" s="1" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
       <c r="B844" s="48">
         <v>12</v>
       </c>
       <c r="C844" s="1">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="845" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A845" s="1" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="B845" s="48">
         <v>12</v>
       </c>
       <c r="C845" s="1">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="846" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A846" s="1" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="B846" s="48">
         <v>12</v>
       </c>
       <c r="C846" s="1">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="847" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A847" s="1" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="B847" s="48">
         <v>12</v>
       </c>
       <c r="C847" s="1">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="848" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A848" s="1" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="B848" s="48">
         <v>12</v>
       </c>
       <c r="C848" s="1">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="849" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A849" s="1" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="B849" s="48">
         <v>12</v>
       </c>
       <c r="C849" s="1">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="850" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A850" s="1" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="B850" s="48">
         <v>12</v>
       </c>
       <c r="C850" s="1">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="851" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A851" s="1" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="B851" s="48">
         <v>12</v>
       </c>
       <c r="C851" s="1">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="852" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A852" s="1" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
       <c r="B852" s="48">
         <v>12</v>
       </c>
       <c r="C852" s="1">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="853" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A853" s="1" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="B853" s="48">
         <v>12</v>
       </c>
       <c r="C853" s="1">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="854" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A854" s="1" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="B854" s="48">
         <v>12</v>
       </c>
       <c r="C854" s="1">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="855" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A855" s="1" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="B855" s="48">
         <v>12</v>
       </c>
       <c r="C855" s="1">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="856" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A856" s="1" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="B856" s="48">
         <v>12</v>
       </c>
       <c r="C856" s="1">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="857" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A857" s="1" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="B857" s="48">
         <v>12</v>
       </c>
       <c r="C857" s="1">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="858" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A858" s="1" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
       <c r="B858" s="48">
         <v>12</v>
       </c>
       <c r="C858" s="1">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="859" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A859" s="1" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
       <c r="B859" s="48">
         <v>12</v>
       </c>
       <c r="C859" s="1">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="860" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A860" s="1" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
       <c r="B860" s="48">
         <v>12</v>
       </c>
       <c r="C860" s="1">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="861" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A861" s="1" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="B861" s="48">
         <v>12</v>
       </c>
       <c r="C861" s="1">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="862" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A862" s="1" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="B862" s="48">
         <v>12</v>
       </c>
       <c r="C862" s="1">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="863" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A863" s="1" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="B863" s="48">
         <v>12</v>
       </c>
       <c r="C863" s="1">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="864" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A864" s="1" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="B864" s="48">
         <v>12</v>
       </c>
       <c r="C864" s="1">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="865" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A865" s="1" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
       <c r="B865" s="48">
         <v>12</v>
       </c>
       <c r="C865" s="1">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="866" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A866" s="1" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="B866" s="48">
         <v>12</v>
       </c>
       <c r="C866" s="1">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="867" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A867" s="1" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="B867" s="48">
         <v>12</v>
       </c>
       <c r="C867" s="1">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="868" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A868" s="1" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="B868" s="48">
         <v>12</v>
       </c>
       <c r="C868" s="1">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="869" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A869" s="1" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
       <c r="B869" s="48">
-        <v>13</v>
-      </c>
-      <c r="C869" s="33">
-        <v>51004001</v>
+        <v>12</v>
+      </c>
+      <c r="C869" s="1">
+        <v>187</v>
       </c>
     </row>
     <row r="870" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A870" s="1" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
       <c r="B870" s="48">
-        <v>13</v>
-      </c>
-      <c r="C870" s="33">
-        <v>51004002</v>
+        <v>12</v>
+      </c>
+      <c r="C870" s="1">
+        <v>188</v>
       </c>
     </row>
     <row r="871" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A871" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="B871" s="48">
+        <v>12</v>
+      </c>
+      <c r="C871" s="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="872" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A872" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="B872" s="48">
+        <v>12</v>
+      </c>
+      <c r="C872" s="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="873" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A873" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="B873" s="48">
+        <v>12</v>
+      </c>
+      <c r="C873" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="874" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A874" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="B874" s="48">
+        <v>12</v>
+      </c>
+      <c r="C874" s="1">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="875" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A875" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="B875" s="48">
+        <v>12</v>
+      </c>
+      <c r="C875" s="1">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="876" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A876" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="B876" s="48">
+        <v>12</v>
+      </c>
+      <c r="C876" s="1">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="877" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A877" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="B877" s="48">
+        <v>13</v>
+      </c>
+      <c r="C877" s="33">
+        <v>51004001</v>
+      </c>
+    </row>
+    <row r="878" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A878" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="B878" s="48">
+        <v>13</v>
+      </c>
+      <c r="C878" s="33">
+        <v>51004002</v>
+      </c>
+    </row>
+    <row r="879" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A879" s="1" t="s">
         <v>844</v>
       </c>
-      <c r="B871" s="48">
+      <c r="B879" s="48">
         <v>13</v>
       </c>
-      <c r="C871" s="33">
+      <c r="C879" s="33">
         <v>51004003</v>
       </c>
     </row>
-    <row r="872" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A872" s="41" t="s">
+    <row r="880" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A880" s="41" t="s">
         <v>845</v>
       </c>
-      <c r="B872" s="48">
+      <c r="B880" s="48">
         <v>13</v>
       </c>
-      <c r="C872" s="16">
+      <c r="C880" s="16">
         <v>51006001</v>
       </c>
     </row>
-    <row r="873" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A873" s="41" t="s">
+    <row r="881" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A881" s="41" t="s">
         <v>846</v>
       </c>
-      <c r="B873" s="48">
+      <c r="B881" s="48">
         <v>13</v>
       </c>
-      <c r="C873" s="16">
+      <c r="C881" s="16">
         <v>50011001</v>
       </c>
     </row>
-    <row r="874" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A874" s="41" t="s">
+    <row r="882" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A882" s="41" t="s">
         <v>847</v>
       </c>
-      <c r="B874" s="48">
+      <c r="B882" s="48">
         <v>13</v>
       </c>
-      <c r="C874" s="16">
+      <c r="C882" s="16">
         <v>51002001</v>
       </c>
     </row>
-    <row r="875" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A875" s="41" t="s">
+    <row r="883" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A883" s="41" t="s">
         <v>848</v>
       </c>
-      <c r="B875" s="48">
+      <c r="B883" s="48">
         <v>13</v>
       </c>
-      <c r="C875" s="16">
+      <c r="C883" s="16">
         <v>51008001</v>
       </c>
     </row>
-    <row r="876" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A876" s="42" t="s">
+    <row r="884" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A884" s="42" t="s">
         <v>849</v>
-      </c>
-      <c r="B876" s="48">
-        <v>14</v>
-      </c>
-      <c r="C876" s="43">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="877" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A877" s="44" t="s">
-        <v>850</v>
-      </c>
-      <c r="B877" s="48">
-        <v>14</v>
-      </c>
-      <c r="C877" s="43">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="878" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A878" s="45" t="s">
-        <v>851</v>
-      </c>
-      <c r="B878" s="48">
-        <v>14</v>
-      </c>
-      <c r="C878" s="43">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="879" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A879" s="45" t="s">
-        <v>852</v>
-      </c>
-      <c r="B879" s="48">
-        <v>14</v>
-      </c>
-      <c r="C879" s="43">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="880" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A880" s="45" t="s">
-        <v>853</v>
-      </c>
-      <c r="B880" s="48">
-        <v>14</v>
-      </c>
-      <c r="C880" s="43">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="881" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A881" s="45" t="s">
-        <v>854</v>
-      </c>
-      <c r="B881" s="48">
-        <v>14</v>
-      </c>
-      <c r="C881" s="43">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="882" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A882" s="45" t="s">
-        <v>855</v>
-      </c>
-      <c r="B882" s="48">
-        <v>14</v>
-      </c>
-      <c r="C882" s="43">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="883" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A883" s="45" t="s">
-        <v>856</v>
-      </c>
-      <c r="B883" s="48">
-        <v>14</v>
-      </c>
-      <c r="C883" s="43">
-        <v>2060</v>
-      </c>
-    </row>
-    <row r="884" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A884" s="46" t="s">
-        <v>857</v>
       </c>
       <c r="B884" s="48">
         <v>14</v>
       </c>
       <c r="C884" s="43">
-        <v>3010</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="885" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A885" s="46" t="s">
-        <v>858</v>
+      <c r="A885" s="44" t="s">
+        <v>850</v>
       </c>
       <c r="B885" s="48">
         <v>14</v>
       </c>
       <c r="C885" s="43">
-        <v>3020</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="886" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A886" s="46" t="s">
-        <v>859</v>
+      <c r="A886" s="45" t="s">
+        <v>851</v>
       </c>
       <c r="B886" s="48">
         <v>14</v>
       </c>
       <c r="C886" s="43">
-        <v>3030</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="887" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A887" s="46" t="s">
-        <v>860</v>
+      <c r="A887" s="45" t="s">
+        <v>852</v>
       </c>
       <c r="B887" s="48">
         <v>14</v>
       </c>
       <c r="C887" s="43">
-        <v>3040</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="888" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A888" s="46" t="s">
-        <v>861</v>
+      <c r="A888" s="45" t="s">
+        <v>853</v>
       </c>
       <c r="B888" s="48">
         <v>14</v>
       </c>
       <c r="C888" s="43">
-        <v>3050</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="889" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A889" s="46" t="s">
-        <v>862</v>
+      <c r="A889" s="45" t="s">
+        <v>854</v>
       </c>
       <c r="B889" s="48">
         <v>14</v>
       </c>
       <c r="C889" s="43">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="890" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A890" s="45" t="s">
+        <v>855</v>
+      </c>
+      <c r="B890" s="48">
+        <v>14</v>
+      </c>
+      <c r="C890" s="43">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="891" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A891" s="45" t="s">
+        <v>856</v>
+      </c>
+      <c r="B891" s="48">
+        <v>14</v>
+      </c>
+      <c r="C891" s="43">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="892" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A892" s="46" t="s">
+        <v>857</v>
+      </c>
+      <c r="B892" s="48">
+        <v>14</v>
+      </c>
+      <c r="C892" s="43">
+        <v>3010</v>
+      </c>
+    </row>
+    <row r="893" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A893" s="46" t="s">
+        <v>858</v>
+      </c>
+      <c r="B893" s="48">
+        <v>14</v>
+      </c>
+      <c r="C893" s="43">
+        <v>3020</v>
+      </c>
+    </row>
+    <row r="894" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A894" s="46" t="s">
+        <v>859</v>
+      </c>
+      <c r="B894" s="48">
+        <v>14</v>
+      </c>
+      <c r="C894" s="43">
+        <v>3030</v>
+      </c>
+    </row>
+    <row r="895" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A895" s="46" t="s">
+        <v>860</v>
+      </c>
+      <c r="B895" s="48">
+        <v>14</v>
+      </c>
+      <c r="C895" s="43">
+        <v>3040</v>
+      </c>
+    </row>
+    <row r="896" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A896" s="46" t="s">
+        <v>861</v>
+      </c>
+      <c r="B896" s="48">
+        <v>14</v>
+      </c>
+      <c r="C896" s="43">
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="897" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A897" s="46" t="s">
+        <v>862</v>
+      </c>
+      <c r="B897" s="48">
+        <v>14</v>
+      </c>
+      <c r="C897" s="43">
         <v>3060</v>
       </c>
     </row>
-    <row r="890" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A890" s="49" t="s">
+    <row r="898" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A898" s="49" t="s">
         <v>863</v>
-      </c>
-      <c r="B890" s="48">
-        <v>15</v>
-      </c>
-      <c r="C890" s="50">
-        <v>400060</v>
-      </c>
-    </row>
-    <row r="891" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A891" s="49" t="s">
-        <v>864</v>
-      </c>
-      <c r="B891" s="48">
-        <v>15</v>
-      </c>
-      <c r="C891" s="50">
-        <v>400070</v>
-      </c>
-    </row>
-    <row r="892" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A892" s="49" t="s">
-        <v>865</v>
-      </c>
-      <c r="B892" s="48">
-        <v>15</v>
-      </c>
-      <c r="C892" s="50">
-        <v>400130</v>
-      </c>
-    </row>
-    <row r="893" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A893" s="51" t="s">
-        <v>866</v>
-      </c>
-      <c r="B893" s="48">
-        <v>15</v>
-      </c>
-      <c r="C893" s="50">
-        <v>400010</v>
-      </c>
-    </row>
-    <row r="894" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A894" s="51" t="s">
-        <v>867</v>
-      </c>
-      <c r="B894" s="48">
-        <v>15</v>
-      </c>
-      <c r="C894" s="50">
-        <v>400040</v>
-      </c>
-    </row>
-    <row r="895" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A895" s="51" t="s">
-        <v>868</v>
-      </c>
-      <c r="B895" s="48">
-        <v>15</v>
-      </c>
-      <c r="C895" s="50">
-        <v>400020</v>
-      </c>
-    </row>
-    <row r="896" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A896" s="51" t="s">
-        <v>869</v>
-      </c>
-      <c r="B896" s="48">
-        <v>15</v>
-      </c>
-      <c r="C896" s="50">
-        <v>400030</v>
-      </c>
-    </row>
-    <row r="897" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A897" s="51" t="s">
-        <v>870</v>
-      </c>
-      <c r="B897" s="48">
-        <v>15</v>
-      </c>
-      <c r="C897" s="50">
-        <v>400050</v>
-      </c>
-    </row>
-    <row r="898" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A898" s="51" t="s">
-        <v>871</v>
       </c>
       <c r="B898" s="48">
         <v>15</v>
       </c>
       <c r="C898" s="50">
-        <v>400080</v>
+        <v>400060</v>
       </c>
     </row>
     <row r="899" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A899" s="51" t="s">
-        <v>872</v>
+      <c r="A899" s="49" t="s">
+        <v>864</v>
       </c>
       <c r="B899" s="48">
         <v>15</v>
       </c>
       <c r="C899" s="50">
-        <v>400090</v>
+        <v>400070</v>
       </c>
     </row>
     <row r="900" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A900" s="51" t="s">
-        <v>873</v>
+      <c r="A900" s="49" t="s">
+        <v>865</v>
       </c>
       <c r="B900" s="48">
         <v>15</v>
       </c>
       <c r="C900" s="50">
-        <v>400100</v>
+        <v>400130</v>
       </c>
     </row>
     <row r="901" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A901" s="51" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="B901" s="48">
         <v>15</v>
       </c>
       <c r="C901" s="50">
-        <v>400110</v>
+        <v>400010</v>
       </c>
     </row>
     <row r="902" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A902" s="51" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="B902" s="48">
         <v>15</v>
       </c>
       <c r="C902" s="50">
-        <v>400120</v>
+        <v>400040</v>
       </c>
     </row>
     <row r="903" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A903" s="51" t="s">
-        <v>876</v>
+        <v>868</v>
       </c>
       <c r="B903" s="48">
         <v>15</v>
       </c>
       <c r="C903" s="50">
-        <v>400140</v>
+        <v>400020</v>
       </c>
     </row>
     <row r="904" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A904" s="51" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
       <c r="B904" s="48">
         <v>15</v>
       </c>
       <c r="C904" s="50">
-        <v>400150</v>
+        <v>400030</v>
       </c>
     </row>
     <row r="905" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A905" s="51" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="B905" s="48">
         <v>15</v>
       </c>
       <c r="C905" s="50">
-        <v>400160</v>
+        <v>400050</v>
       </c>
     </row>
     <row r="906" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A906" s="52" t="s">
-        <v>879</v>
+      <c r="A906" s="51" t="s">
+        <v>871</v>
       </c>
       <c r="B906" s="48">
         <v>15</v>
       </c>
       <c r="C906" s="50">
-        <v>500010</v>
+        <v>400080</v>
       </c>
     </row>
     <row r="907" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A907" s="53" t="s">
-        <v>880</v>
+      <c r="A907" s="51" t="s">
+        <v>872</v>
       </c>
       <c r="B907" s="48">
         <v>15</v>
       </c>
       <c r="C907" s="50">
-        <v>500020</v>
+        <v>400090</v>
       </c>
     </row>
     <row r="908" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A908" s="52" t="s">
-        <v>881</v>
+      <c r="A908" s="51" t="s">
+        <v>873</v>
       </c>
       <c r="B908" s="48">
         <v>15</v>
       </c>
       <c r="C908" s="50">
-        <v>500030</v>
+        <v>400100</v>
       </c>
     </row>
     <row r="909" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A909" s="53" t="s">
-        <v>882</v>
+      <c r="A909" s="51" t="s">
+        <v>874</v>
       </c>
       <c r="B909" s="48">
         <v>15</v>
       </c>
       <c r="C909" s="50">
-        <v>500040</v>
+        <v>400110</v>
       </c>
     </row>
     <row r="910" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A910" s="52" t="s">
-        <v>883</v>
+      <c r="A910" s="51" t="s">
+        <v>875</v>
       </c>
       <c r="B910" s="48">
         <v>15</v>
       </c>
       <c r="C910" s="50">
-        <v>500050</v>
+        <v>400120</v>
       </c>
     </row>
     <row r="911" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A911" s="52" t="s">
-        <v>884</v>
+      <c r="A911" s="51" t="s">
+        <v>876</v>
       </c>
       <c r="B911" s="48">
         <v>15</v>
       </c>
       <c r="C911" s="50">
-        <v>500060</v>
+        <v>400140</v>
       </c>
     </row>
     <row r="912" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A912" s="52" t="s">
-        <v>885</v>
+      <c r="A912" s="51" t="s">
+        <v>877</v>
       </c>
       <c r="B912" s="48">
         <v>15</v>
       </c>
       <c r="C912" s="50">
-        <v>500070</v>
+        <v>400150</v>
       </c>
     </row>
     <row r="913" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A913" s="53" t="s">
-        <v>886</v>
+      <c r="A913" s="51" t="s">
+        <v>878</v>
       </c>
       <c r="B913" s="48">
         <v>15</v>
       </c>
       <c r="C913" s="50">
-        <v>500080</v>
+        <v>400160</v>
       </c>
     </row>
     <row r="914" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A914" s="52" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="B914" s="48">
         <v>15</v>
       </c>
       <c r="C914" s="50">
-        <v>500100</v>
+        <v>500010</v>
       </c>
     </row>
     <row r="915" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A915" s="52" t="s">
-        <v>888</v>
+      <c r="A915" s="53" t="s">
+        <v>880</v>
       </c>
       <c r="B915" s="48">
         <v>15</v>
       </c>
       <c r="C915" s="50">
-        <v>500090</v>
+        <v>500020</v>
       </c>
     </row>
     <row r="916" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A916" s="53" t="s">
-        <v>889</v>
+      <c r="A916" s="52" t="s">
+        <v>881</v>
       </c>
       <c r="B916" s="48">
         <v>15</v>
       </c>
       <c r="C916" s="50">
-        <v>510040</v>
+        <v>500030</v>
       </c>
     </row>
     <row r="917" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A917" s="52" t="s">
-        <v>890</v>
+      <c r="A917" s="53" t="s">
+        <v>882</v>
       </c>
       <c r="B917" s="48">
         <v>15</v>
       </c>
       <c r="C917" s="50">
-        <v>500120</v>
+        <v>500040</v>
       </c>
     </row>
     <row r="918" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A918" s="52" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
       <c r="B918" s="48">
         <v>15</v>
       </c>
       <c r="C918" s="50">
-        <v>500130</v>
+        <v>500050</v>
       </c>
     </row>
     <row r="919" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A919" s="52" t="s">
-        <v>892</v>
+        <v>884</v>
       </c>
       <c r="B919" s="48">
         <v>15</v>
       </c>
       <c r="C919" s="50">
-        <v>500140</v>
+        <v>500060</v>
       </c>
     </row>
     <row r="920" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A920" s="53" t="s">
-        <v>893</v>
+      <c r="A920" s="52" t="s">
+        <v>885</v>
       </c>
       <c r="B920" s="48">
         <v>15</v>
       </c>
       <c r="C920" s="50">
-        <v>500150</v>
+        <v>500070</v>
       </c>
     </row>
     <row r="921" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A921" s="53" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
       <c r="B921" s="48">
         <v>15</v>
       </c>
       <c r="C921" s="50">
-        <v>500160</v>
+        <v>500080</v>
       </c>
     </row>
     <row r="922" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A922" s="52" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="B922" s="48">
         <v>15</v>
       </c>
       <c r="C922" s="50">
-        <v>500170</v>
+        <v>500100</v>
       </c>
     </row>
     <row r="923" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A923" s="52" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="B923" s="48">
         <v>15</v>
       </c>
       <c r="C923" s="50">
-        <v>500180</v>
+        <v>500090</v>
       </c>
     </row>
     <row r="924" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A924" s="52" t="s">
-        <v>897</v>
+      <c r="A924" s="53" t="s">
+        <v>889</v>
       </c>
       <c r="B924" s="48">
         <v>15</v>
       </c>
       <c r="C924" s="50">
-        <v>500190</v>
+        <v>510040</v>
       </c>
     </row>
     <row r="925" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A925" s="53" t="s">
-        <v>898</v>
+      <c r="A925" s="52" t="s">
+        <v>890</v>
       </c>
       <c r="B925" s="48">
         <v>15</v>
       </c>
       <c r="C925" s="50">
-        <v>500200</v>
+        <v>500120</v>
       </c>
     </row>
     <row r="926" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A926" s="52" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
       <c r="B926" s="48">
         <v>15</v>
       </c>
       <c r="C926" s="50">
-        <v>500240</v>
+        <v>500130</v>
       </c>
     </row>
     <row r="927" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A927" s="52" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="B927" s="48">
         <v>15</v>
       </c>
       <c r="C927" s="50">
-        <v>500220</v>
+        <v>500140</v>
       </c>
     </row>
     <row r="928" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A928" s="52" t="s">
-        <v>901</v>
+      <c r="A928" s="53" t="s">
+        <v>893</v>
       </c>
       <c r="B928" s="48">
         <v>15</v>
       </c>
       <c r="C928" s="50">
-        <v>500230</v>
+        <v>500150</v>
       </c>
     </row>
     <row r="929" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A929" s="53" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
       <c r="B929" s="48">
         <v>15</v>
       </c>
       <c r="C929" s="50">
-        <v>500210</v>
+        <v>500160</v>
       </c>
     </row>
     <row r="930" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A930" s="54" t="s">
-        <v>903</v>
+      <c r="A930" s="52" t="s">
+        <v>895</v>
       </c>
       <c r="B930" s="48">
         <v>15</v>
       </c>
       <c r="C930" s="50">
-        <v>510010</v>
+        <v>500170</v>
       </c>
     </row>
     <row r="931" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A931" s="54" t="s">
-        <v>904</v>
+      <c r="A931" s="52" t="s">
+        <v>896</v>
       </c>
       <c r="B931" s="48">
         <v>15</v>
       </c>
       <c r="C931" s="50">
-        <v>510020</v>
+        <v>500180</v>
       </c>
     </row>
     <row r="932" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A932" s="54" t="s">
-        <v>905</v>
+      <c r="A932" s="52" t="s">
+        <v>897</v>
       </c>
       <c r="B932" s="48">
         <v>15</v>
       </c>
       <c r="C932" s="50">
-        <v>510030</v>
+        <v>500190</v>
       </c>
     </row>
     <row r="933" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A933" s="54" t="s">
-        <v>906</v>
+      <c r="A933" s="53" t="s">
+        <v>898</v>
       </c>
       <c r="B933" s="48">
         <v>15</v>
       </c>
       <c r="C933" s="50">
-        <v>500110</v>
+        <v>500200</v>
       </c>
     </row>
     <row r="934" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A934" s="54" t="s">
-        <v>907</v>
+      <c r="A934" s="52" t="s">
+        <v>899</v>
       </c>
       <c r="B934" s="48">
         <v>15</v>
       </c>
       <c r="C934" s="50">
-        <v>510050</v>
+        <v>500240</v>
       </c>
     </row>
     <row r="935" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A935" s="54" t="s">
-        <v>908</v>
+      <c r="A935" s="52" t="s">
+        <v>900</v>
       </c>
       <c r="B935" s="48">
         <v>15</v>
       </c>
       <c r="C935" s="50">
-        <v>510060</v>
+        <v>500220</v>
       </c>
     </row>
     <row r="936" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A936" s="54" t="s">
-        <v>909</v>
+      <c r="A936" s="52" t="s">
+        <v>901</v>
       </c>
       <c r="B936" s="48">
         <v>15</v>
       </c>
       <c r="C936" s="50">
-        <v>510070</v>
+        <v>500230</v>
       </c>
     </row>
     <row r="937" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A937" s="54" t="s">
-        <v>910</v>
+      <c r="A937" s="53" t="s">
+        <v>902</v>
       </c>
       <c r="B937" s="48">
         <v>15</v>
       </c>
       <c r="C937" s="50">
-        <v>510080</v>
+        <v>500210</v>
       </c>
     </row>
     <row r="938" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A938" s="50" t="s">
-        <v>911</v>
+      <c r="A938" s="54" t="s">
+        <v>903</v>
       </c>
       <c r="B938" s="48">
         <v>15</v>
       </c>
       <c r="C938" s="50">
-        <v>600020</v>
+        <v>510010</v>
       </c>
     </row>
     <row r="939" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A939" s="50" t="s">
-        <v>912</v>
+      <c r="A939" s="54" t="s">
+        <v>904</v>
       </c>
       <c r="B939" s="48">
         <v>15</v>
       </c>
       <c r="C939" s="50">
-        <v>600080</v>
+        <v>510020</v>
       </c>
     </row>
     <row r="940" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A940" s="50" t="s">
-        <v>913</v>
+      <c r="A940" s="54" t="s">
+        <v>905</v>
       </c>
       <c r="B940" s="48">
         <v>15</v>
       </c>
       <c r="C940" s="50">
-        <v>600090</v>
+        <v>510030</v>
       </c>
     </row>
     <row r="941" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A941" s="50" t="s">
-        <v>914</v>
+      <c r="A941" s="54" t="s">
+        <v>906</v>
       </c>
       <c r="B941" s="48">
         <v>15</v>
       </c>
       <c r="C941" s="50">
+        <v>500110</v>
+      </c>
+    </row>
+    <row r="942" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A942" s="54" t="s">
+        <v>907</v>
+      </c>
+      <c r="B942" s="48">
+        <v>15</v>
+      </c>
+      <c r="C942" s="50">
+        <v>510050</v>
+      </c>
+    </row>
+    <row r="943" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A943" s="54" t="s">
+        <v>908</v>
+      </c>
+      <c r="B943" s="48">
+        <v>15</v>
+      </c>
+      <c r="C943" s="50">
+        <v>510060</v>
+      </c>
+    </row>
+    <row r="944" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A944" s="54" t="s">
+        <v>909</v>
+      </c>
+      <c r="B944" s="48">
+        <v>15</v>
+      </c>
+      <c r="C944" s="50">
+        <v>510070</v>
+      </c>
+    </row>
+    <row r="945" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A945" s="54" t="s">
+        <v>910</v>
+      </c>
+      <c r="B945" s="48">
+        <v>15</v>
+      </c>
+      <c r="C945" s="50">
+        <v>510080</v>
+      </c>
+    </row>
+    <row r="946" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A946" s="50" t="s">
+        <v>911</v>
+      </c>
+      <c r="B946" s="48">
+        <v>15</v>
+      </c>
+      <c r="C946" s="50">
+        <v>600020</v>
+      </c>
+    </row>
+    <row r="947" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A947" s="50" t="s">
+        <v>912</v>
+      </c>
+      <c r="B947" s="48">
+        <v>15</v>
+      </c>
+      <c r="C947" s="50">
+        <v>600080</v>
+      </c>
+    </row>
+    <row r="948" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A948" s="50" t="s">
+        <v>913</v>
+      </c>
+      <c r="B948" s="48">
+        <v>15</v>
+      </c>
+      <c r="C948" s="50">
+        <v>600090</v>
+      </c>
+    </row>
+    <row r="949" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A949" s="50" t="s">
+        <v>914</v>
+      </c>
+      <c r="B949" s="48">
+        <v>15</v>
+      </c>
+      <c r="C949" s="50">
         <v>600100</v>
       </c>
     </row>
-    <row r="942" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A942" s="19" t="s">
+    <row r="950" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A950" s="19" t="s">
         <v>915</v>
       </c>
-      <c r="B942" s="48">
+      <c r="B950" s="48">
         <v>16</v>
       </c>
-      <c r="C942" s="1">
+      <c r="C950" s="1">
         <v>1001</v>
       </c>
     </row>
-    <row r="943" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A943" s="19" t="s">
+    <row r="951" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A951" s="19" t="s">
         <v>916</v>
       </c>
-      <c r="B943" s="48">
+      <c r="B951" s="48">
         <v>16</v>
       </c>
-      <c r="C943" s="1">
+      <c r="C951" s="1">
         <v>2001</v>
       </c>
     </row>
-    <row r="944" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A944" s="19" t="s">
+    <row r="952" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A952" s="19" t="s">
         <v>917</v>
       </c>
-      <c r="B944" s="48">
+      <c r="B952" s="48">
         <v>16</v>
       </c>
-      <c r="C944" s="1">
+      <c r="C952" s="1">
         <v>3001</v>
       </c>
     </row>
-    <row r="945" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A945" s="19" t="s">
+    <row r="953" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A953" s="19" t="s">
         <v>918</v>
       </c>
-      <c r="B945" s="48">
+      <c r="B953" s="48">
         <v>16</v>
       </c>
-      <c r="C945" s="1">
+      <c r="C953" s="1">
         <v>3002</v>
       </c>
     </row>
-    <row r="946" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A946" s="28" t="s">
+    <row r="954" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A954" s="28" t="s">
         <v>919</v>
       </c>
-      <c r="B946" s="48">
+      <c r="B954" s="48">
         <v>16</v>
       </c>
-      <c r="C946" s="1">
+      <c r="C954" s="1">
         <v>4001</v>
       </c>
     </row>
-    <row r="947" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A947" s="28" t="s">
+    <row r="955" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A955" s="28" t="s">
         <v>920</v>
       </c>
-      <c r="B947" s="48">
+      <c r="B955" s="48">
         <v>16</v>
       </c>
-      <c r="C947" s="1">
+      <c r="C955" s="1">
         <v>4002</v>
       </c>
     </row>
-    <row r="948" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A948" s="11" t="s">
+    <row r="956" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A956" s="11" t="s">
         <v>921</v>
       </c>
-      <c r="B948" s="48">
+      <c r="B956" s="48">
         <v>17</v>
       </c>
-      <c r="C948" s="11">
+      <c r="C956" s="11">
         <v>1010</v>
       </c>
     </row>
-    <row r="949" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A949" s="11" t="s">
+    <row r="957" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A957" s="11" t="s">
         <v>922</v>
       </c>
-      <c r="B949" s="48">
+      <c r="B957" s="48">
         <v>17</v>
       </c>
-      <c r="C949" s="11">
+      <c r="C957" s="11">
         <v>2010</v>
       </c>
     </row>
-    <row r="950" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A950" s="11" t="s">
+    <row r="958" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A958" s="11" t="s">
         <v>923</v>
       </c>
-      <c r="B950" s="48">
+      <c r="B958" s="48">
         <v>17</v>
       </c>
-      <c r="C950" s="11">
+      <c r="C958" s="11">
         <v>3010</v>
       </c>
     </row>
-    <row r="951" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A951" s="11" t="s">
+    <row r="959" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A959" s="11" t="s">
         <v>924</v>
       </c>
-      <c r="B951" s="48">
+      <c r="B959" s="48">
         <v>17</v>
       </c>
-      <c r="C951" s="11">
+      <c r="C959" s="11">
         <v>3020</v>
       </c>
     </row>
-    <row r="952" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A952" s="11" t="s">
+    <row r="960" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A960" s="11" t="s">
         <v>925</v>
       </c>
-      <c r="B952" s="48">
+      <c r="B960" s="48">
         <v>17</v>
       </c>
-      <c r="C952" s="11">
+      <c r="C960" s="11">
         <v>4010</v>
       </c>
     </row>
-    <row r="953" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A953" s="11" t="s">
+    <row r="961" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A961" s="11" t="s">
         <v>926</v>
       </c>
-      <c r="B953" s="48">
+      <c r="B961" s="48">
         <v>17</v>
       </c>
-      <c r="C953" s="11">
+      <c r="C961" s="11">
         <v>4020</v>
       </c>
     </row>
-    <row r="954" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A954" s="55" t="s">
+    <row r="962" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A962" s="55" t="s">
         <v>927</v>
       </c>
-      <c r="B954" s="48">
+      <c r="B962" s="48">
         <v>18</v>
       </c>
-      <c r="C954" s="55">
+      <c r="C962" s="55">
         <v>101</v>
       </c>
     </row>
-    <row r="955" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A955" s="55" t="s">
+    <row r="963" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A963" s="55" t="s">
         <v>928</v>
       </c>
-      <c r="B955" s="48">
+      <c r="B963" s="48">
         <v>18</v>
       </c>
-      <c r="C955" s="55">
+      <c r="C963" s="55">
         <v>102</v>
       </c>
     </row>
-    <row r="956" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A956" s="55" t="s">
+    <row r="964" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A964" s="55" t="s">
         <v>929</v>
       </c>
-      <c r="B956" s="48">
+      <c r="B964" s="48">
         <v>18</v>
       </c>
-      <c r="C956" s="55">
+      <c r="C964" s="55">
         <v>103</v>
       </c>
     </row>
-    <row r="957" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A957" s="19" t="s">
+    <row r="965" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A965" s="19" t="s">
         <v>930</v>
       </c>
-      <c r="B957" s="48">
+      <c r="B965" s="48">
         <v>18</v>
       </c>
-      <c r="C957" s="19">
+      <c r="C965" s="19">
         <v>201</v>
       </c>
     </row>
-    <row r="958" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A958" s="19" t="s">
+    <row r="966" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A966" s="19" t="s">
         <v>931</v>
       </c>
-      <c r="B958" s="48">
+      <c r="B966" s="48">
         <v>18</v>
       </c>
-      <c r="C958" s="19">
+      <c r="C966" s="19">
         <v>202</v>
       </c>
     </row>
-    <row r="959" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A959" s="19" t="s">
+    <row r="967" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A967" s="19" t="s">
         <v>932</v>
       </c>
-      <c r="B959" s="48">
+      <c r="B967" s="48">
         <v>18</v>
       </c>
-      <c r="C959" s="19">
+      <c r="C967" s="19">
         <v>203</v>
       </c>
     </row>
-    <row r="960" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A960" s="55" t="s">
+    <row r="968" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A968" s="55" t="s">
         <v>933</v>
       </c>
-      <c r="B960" s="48">
+      <c r="B968" s="48">
         <v>18</v>
       </c>
-      <c r="C960" s="55">
+      <c r="C968" s="55">
         <v>9001</v>
       </c>
     </row>
-    <row r="961" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A961" s="55" t="s">
+    <row r="969" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A969" s="55" t="s">
         <v>934</v>
       </c>
-      <c r="B961" s="48">
+      <c r="B969" s="48">
         <v>18</v>
       </c>
-      <c r="C961" s="55">
+      <c r="C969" s="55">
         <v>9002</v>
       </c>
     </row>
-    <row r="962" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A962" s="19" t="s">
+    <row r="970" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A970" s="19" t="s">
         <v>935</v>
       </c>
-      <c r="B962" s="48">
+      <c r="B970" s="48">
         <v>999</v>
       </c>
-      <c r="C962" s="19">
+      <c r="C970" s="19">
         <v>0</v>
-      </c>
-    </row>
-    <row r="963" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A963" s="47" t="s">
-        <v>936</v>
-      </c>
-      <c r="B963" s="48">
-        <v>5</v>
-      </c>
-      <c r="C963" s="47">
-        <v>40010</v>
-      </c>
-    </row>
-    <row r="964" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A964" s="47" t="s">
-        <v>937</v>
-      </c>
-      <c r="B964" s="48">
-        <v>5</v>
-      </c>
-      <c r="C964" s="47">
-        <v>40020</v>
-      </c>
-    </row>
-    <row r="965" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A965" s="47" t="s">
-        <v>938</v>
-      </c>
-      <c r="B965" s="48">
-        <v>5</v>
-      </c>
-      <c r="C965" s="47">
-        <v>40030</v>
-      </c>
-    </row>
-    <row r="966" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A966" s="47" t="s">
-        <v>939</v>
-      </c>
-      <c r="B966" s="48">
-        <v>5</v>
-      </c>
-      <c r="C966" s="47">
-        <v>40040</v>
-      </c>
-    </row>
-    <row r="967" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A967" s="47" t="s">
-        <v>940</v>
-      </c>
-      <c r="B967" s="48">
-        <v>5</v>
-      </c>
-      <c r="C967" s="47">
-        <v>40050</v>
-      </c>
-    </row>
-    <row r="968" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A968" s="47" t="s">
-        <v>941</v>
-      </c>
-      <c r="B968" s="48">
-        <v>5</v>
-      </c>
-      <c r="C968" s="47">
-        <v>40060</v>
-      </c>
-    </row>
-    <row r="969" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A969" s="47" t="s">
-        <v>942</v>
-      </c>
-      <c r="B969" s="48">
-        <v>5</v>
-      </c>
-      <c r="C969" s="47">
-        <v>40070</v>
-      </c>
-    </row>
-    <row r="970" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A970" s="47" t="s">
-        <v>943</v>
-      </c>
-      <c r="B970" s="48">
-        <v>5</v>
-      </c>
-      <c r="C970" s="47">
-        <v>40080</v>
       </c>
     </row>
     <row r="971" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A971" s="47" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
       <c r="B971" s="48">
         <v>5</v>
       </c>
       <c r="C971" s="47">
-        <v>40090</v>
+        <v>40010</v>
       </c>
     </row>
     <row r="972" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A972" s="47" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
       <c r="B972" s="48">
         <v>5</v>
       </c>
       <c r="C972" s="47">
-        <v>40100</v>
+        <v>40020</v>
       </c>
     </row>
     <row r="973" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A973" s="47" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="B973" s="48">
         <v>5</v>
       </c>
       <c r="C973" s="47">
-        <v>40110</v>
+        <v>40030</v>
       </c>
     </row>
     <row r="974" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A974" s="47" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="B974" s="48">
         <v>5</v>
       </c>
       <c r="C974" s="47">
-        <v>50010</v>
+        <v>40040</v>
       </c>
     </row>
     <row r="975" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A975" s="47" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="B975" s="48">
         <v>5</v>
       </c>
       <c r="C975" s="47">
-        <v>50020</v>
+        <v>40050</v>
       </c>
     </row>
     <row r="976" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A976" s="47" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="B976" s="48">
         <v>5</v>
       </c>
       <c r="C976" s="47">
-        <v>50030</v>
-      </c>
-    </row>
-    <row r="977" spans="1:4" x14ac:dyDescent="0.15">
+        <v>40060</v>
+      </c>
+    </row>
+    <row r="977" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A977" s="47" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="B977" s="48">
         <v>5</v>
       </c>
       <c r="C977" s="47">
-        <v>50040</v>
-      </c>
-    </row>
-    <row r="978" spans="1:4" x14ac:dyDescent="0.15">
+        <v>40070</v>
+      </c>
+    </row>
+    <row r="978" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A978" s="47" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="B978" s="48">
         <v>5</v>
       </c>
       <c r="C978" s="47">
-        <v>50050</v>
-      </c>
-    </row>
-    <row r="979" spans="1:4" x14ac:dyDescent="0.15">
+        <v>40080</v>
+      </c>
+    </row>
+    <row r="979" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A979" s="47" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
       <c r="B979" s="48">
         <v>5</v>
       </c>
       <c r="C979" s="47">
-        <v>50060</v>
-      </c>
-    </row>
-    <row r="980" spans="1:4" x14ac:dyDescent="0.15">
+        <v>40090</v>
+      </c>
+    </row>
+    <row r="980" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A980" s="47" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
       <c r="B980" s="48">
         <v>5</v>
       </c>
       <c r="C980" s="47">
-        <v>50070</v>
-      </c>
-    </row>
-    <row r="981" spans="1:4" x14ac:dyDescent="0.15">
+        <v>40100</v>
+      </c>
+    </row>
+    <row r="981" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A981" s="47" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
       <c r="B981" s="48">
         <v>5</v>
       </c>
       <c r="C981" s="47">
-        <v>50080</v>
-      </c>
-    </row>
-    <row r="982" spans="1:4" x14ac:dyDescent="0.15">
+        <v>40110</v>
+      </c>
+    </row>
+    <row r="982" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A982" s="47" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
       <c r="B982" s="48">
         <v>5</v>
       </c>
       <c r="C982" s="47">
-        <v>50090</v>
-      </c>
-    </row>
-    <row r="983" spans="1:4" x14ac:dyDescent="0.15">
+        <v>50010</v>
+      </c>
+    </row>
+    <row r="983" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A983" s="47" t="s">
-        <v>956</v>
+        <v>948</v>
       </c>
       <c r="B983" s="48">
         <v>5</v>
       </c>
       <c r="C983" s="47">
-        <v>50100</v>
-      </c>
-    </row>
-    <row r="984" spans="1:4" x14ac:dyDescent="0.15">
+        <v>50020</v>
+      </c>
+    </row>
+    <row r="984" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A984" s="47" t="s">
-        <v>957</v>
+        <v>949</v>
       </c>
       <c r="B984" s="48">
         <v>5</v>
       </c>
       <c r="C984" s="47">
-        <v>50110</v>
-      </c>
-    </row>
-    <row r="985" spans="1:4" x14ac:dyDescent="0.15">
+        <v>50030</v>
+      </c>
+    </row>
+    <row r="985" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A985" s="47" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="B985" s="48">
         <v>5</v>
       </c>
       <c r="C985" s="47">
-        <v>50120</v>
-      </c>
-    </row>
-    <row r="986" spans="1:4" x14ac:dyDescent="0.15">
+        <v>50040</v>
+      </c>
+    </row>
+    <row r="986" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A986" s="47" t="s">
-        <v>959</v>
+        <v>951</v>
       </c>
       <c r="B986" s="48">
         <v>5</v>
       </c>
       <c r="C986" s="47">
-        <v>50130</v>
-      </c>
-    </row>
-    <row r="987" spans="1:4" x14ac:dyDescent="0.15">
+        <v>50050</v>
+      </c>
+    </row>
+    <row r="987" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A987" s="47" t="s">
-        <v>960</v>
+        <v>952</v>
       </c>
       <c r="B987" s="48">
         <v>5</v>
       </c>
       <c r="C987" s="47">
-        <v>50140</v>
-      </c>
-    </row>
-    <row r="988" spans="1:4" x14ac:dyDescent="0.15">
+        <v>50060</v>
+      </c>
+    </row>
+    <row r="988" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A988" s="47" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="B988" s="48">
         <v>5</v>
       </c>
       <c r="C988" s="47">
-        <v>50150</v>
-      </c>
-    </row>
-    <row r="989" spans="1:4" x14ac:dyDescent="0.15">
+        <v>50070</v>
+      </c>
+    </row>
+    <row r="989" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A989" s="47" t="s">
-        <v>962</v>
+        <v>954</v>
       </c>
       <c r="B989" s="48">
         <v>5</v>
       </c>
       <c r="C989" s="47">
-        <v>50160</v>
-      </c>
-    </row>
-    <row r="990" spans="1:4" x14ac:dyDescent="0.15">
+        <v>50080</v>
+      </c>
+    </row>
+    <row r="990" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A990" s="47" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="B990" s="48">
         <v>5</v>
       </c>
       <c r="C990" s="47">
-        <v>50170</v>
-      </c>
-    </row>
-    <row r="991" spans="1:4" x14ac:dyDescent="0.15">
+        <v>50090</v>
+      </c>
+    </row>
+    <row r="991" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A991" s="47" t="s">
-        <v>964</v>
+        <v>956</v>
       </c>
       <c r="B991" s="48">
         <v>5</v>
       </c>
       <c r="C991" s="47">
+        <v>50100</v>
+      </c>
+    </row>
+    <row r="992" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A992" s="47" t="s">
+        <v>957</v>
+      </c>
+      <c r="B992" s="48">
+        <v>5</v>
+      </c>
+      <c r="C992" s="47">
+        <v>50110</v>
+      </c>
+    </row>
+    <row r="993" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A993" s="47" t="s">
+        <v>958</v>
+      </c>
+      <c r="B993" s="48">
+        <v>5</v>
+      </c>
+      <c r="C993" s="47">
+        <v>50120</v>
+      </c>
+    </row>
+    <row r="994" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A994" s="47" t="s">
+        <v>959</v>
+      </c>
+      <c r="B994" s="48">
+        <v>5</v>
+      </c>
+      <c r="C994" s="47">
+        <v>50130</v>
+      </c>
+    </row>
+    <row r="995" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A995" s="47" t="s">
+        <v>960</v>
+      </c>
+      <c r="B995" s="48">
+        <v>5</v>
+      </c>
+      <c r="C995" s="47">
+        <v>50140</v>
+      </c>
+    </row>
+    <row r="996" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A996" s="47" t="s">
+        <v>961</v>
+      </c>
+      <c r="B996" s="48">
+        <v>5</v>
+      </c>
+      <c r="C996" s="47">
+        <v>50150</v>
+      </c>
+    </row>
+    <row r="997" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A997" s="47" t="s">
+        <v>962</v>
+      </c>
+      <c r="B997" s="48">
+        <v>5</v>
+      </c>
+      <c r="C997" s="47">
+        <v>50160</v>
+      </c>
+    </row>
+    <row r="998" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A998" s="47" t="s">
+        <v>963</v>
+      </c>
+      <c r="B998" s="48">
+        <v>5</v>
+      </c>
+      <c r="C998" s="47">
+        <v>50170</v>
+      </c>
+    </row>
+    <row r="999" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A999" s="47" t="s">
+        <v>964</v>
+      </c>
+      <c r="B999" s="48">
+        <v>5</v>
+      </c>
+      <c r="C999" s="47">
         <v>50180</v>
-      </c>
-    </row>
-    <row r="992" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A992" s="19" t="s">
-        <v>965</v>
-      </c>
-      <c r="B992" s="19">
-        <v>2</v>
-      </c>
-      <c r="C992" s="19">
-        <v>1</v>
-      </c>
-      <c r="D992" s="19">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="993" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A993" s="19" t="s">
-        <v>966</v>
-      </c>
-      <c r="B993" s="19">
-        <v>2</v>
-      </c>
-      <c r="C993" s="19">
-        <v>2</v>
-      </c>
-      <c r="D993" s="19">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="994" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A994" s="19" t="s">
-        <v>967</v>
-      </c>
-      <c r="B994" s="19">
-        <v>3</v>
-      </c>
-      <c r="C994" s="19">
-        <v>3</v>
-      </c>
-      <c r="D994" s="19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="995" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A995" s="19" t="s">
-        <v>968</v>
-      </c>
-      <c r="B995" s="19">
-        <v>4</v>
-      </c>
-      <c r="C995" s="19">
-        <v>4</v>
-      </c>
-      <c r="D995" s="19">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="996" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A996" s="19" t="s">
-        <v>969</v>
-      </c>
-      <c r="B996" s="19">
-        <v>1</v>
-      </c>
-      <c r="C996" s="19">
-        <v>10001</v>
-      </c>
-      <c r="D996" s="19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="997" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A997" s="19" t="s">
-        <v>970</v>
-      </c>
-      <c r="B997" s="19">
-        <v>1</v>
-      </c>
-      <c r="C997" s="19">
-        <v>10002</v>
-      </c>
-      <c r="D997" s="19">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="998" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A998" s="19" t="s">
-        <v>971</v>
-      </c>
-      <c r="B998" s="19">
-        <v>1</v>
-      </c>
-      <c r="C998" s="19">
-        <v>10003</v>
-      </c>
-      <c r="D998" s="19">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="999" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A999" s="19" t="s">
-        <v>972</v>
-      </c>
-      <c r="B999" s="19">
-        <v>1</v>
-      </c>
-      <c r="C999" s="19">
-        <v>10004</v>
-      </c>
-      <c r="D999" s="19">
-        <v>98</v>
       </c>
     </row>
     <row r="1000" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1000" s="19" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
       <c r="B1000" s="19">
+        <v>2</v>
+      </c>
+      <c r="C1000" s="19">
         <v>1</v>
       </c>
-      <c r="C1000" s="19">
-        <v>10005</v>
-      </c>
       <c r="D1000" s="19">
-        <v>198</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1001" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1001" s="19" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
       <c r="B1001" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1001" s="19">
-        <v>10006</v>
+        <v>2</v>
       </c>
       <c r="D1001" s="19">
-        <v>328</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1002" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1002" s="19" t="s">
-        <v>975</v>
+        <v>967</v>
       </c>
       <c r="B1002" s="19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1002" s="19">
-        <v>10007</v>
+        <v>3</v>
       </c>
       <c r="D1002" s="19">
-        <v>648</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1003" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1003" s="19" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
       <c r="B1003" s="19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1003" s="19">
-        <v>10008</v>
+        <v>4</v>
       </c>
       <c r="D1003" s="19">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1004" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1004" s="19" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="B1004" s="19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1004" s="19">
-        <v>10009</v>
+        <v>10001</v>
       </c>
       <c r="D1004" s="19">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1005" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1005" s="19" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
       <c r="B1005" s="19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1005" s="19">
-        <v>10010</v>
+        <v>10002</v>
       </c>
       <c r="D1005" s="19">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1006" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1006" s="19" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
       <c r="B1006" s="19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1006" s="19">
-        <v>10011</v>
+        <v>10003</v>
       </c>
       <c r="D1006" s="19">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1007" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1007" s="19" t="s">
-        <v>980</v>
+        <v>972</v>
       </c>
       <c r="B1007" s="19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1007" s="19">
-        <v>10012</v>
+        <v>10004</v>
       </c>
       <c r="D1007" s="19">
-        <v>60</v>
+        <v>98</v>
       </c>
     </row>
     <row r="1008" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1008" s="19" t="s">
-        <v>981</v>
+        <v>973</v>
       </c>
       <c r="B1008" s="19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1008" s="19">
-        <v>10013</v>
+        <v>10005</v>
       </c>
       <c r="D1008" s="19">
-        <v>98</v>
+        <v>198</v>
       </c>
     </row>
     <row r="1009" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1009" s="19" t="s">
-        <v>982</v>
+        <v>974</v>
       </c>
       <c r="B1009" s="19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1009" s="19">
-        <v>10014</v>
+        <v>10006</v>
       </c>
       <c r="D1009" s="19">
-        <v>198</v>
+        <v>328</v>
       </c>
     </row>
     <row r="1010" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1010" s="19" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="B1010" s="19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1010" s="19">
-        <v>10015</v>
+        <v>10007</v>
       </c>
       <c r="D1010" s="19">
-        <v>328</v>
+        <v>648</v>
       </c>
     </row>
     <row r="1011" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1011" s="19" t="s">
-        <v>984</v>
+        <v>976</v>
       </c>
       <c r="B1011" s="19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1011" s="19">
-        <v>10016</v>
+        <v>10008</v>
       </c>
       <c r="D1011" s="19">
-        <v>648</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1012" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1012" s="19" t="s">
-        <v>985</v>
+        <v>977</v>
       </c>
       <c r="B1012" s="19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1012" s="19">
-        <v>10017</v>
+        <v>10009</v>
       </c>
       <c r="D1012" s="19">
         <v>1</v>
@@ -15290,307 +15298,307 @@
     </row>
     <row r="1013" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1013" s="19" t="s">
-        <v>986</v>
+        <v>978</v>
       </c>
       <c r="B1013" s="19">
+        <v>5</v>
+      </c>
+      <c r="C1013" s="19">
+        <v>10010</v>
+      </c>
+      <c r="D1013" s="19">
         <v>6</v>
-      </c>
-      <c r="C1013" s="19">
-        <v>10018</v>
-      </c>
-      <c r="D1013" s="19">
-        <v>3</v>
       </c>
     </row>
     <row r="1014" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1014" s="19" t="s">
-        <v>987</v>
+        <v>979</v>
       </c>
       <c r="B1014" s="19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1014" s="19">
-        <v>10019</v>
+        <v>10011</v>
       </c>
       <c r="D1014" s="19">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1015" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1015" s="19" t="s">
-        <v>988</v>
+        <v>980</v>
       </c>
       <c r="B1015" s="19">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1015" s="19">
-        <v>10020</v>
+        <v>10012</v>
       </c>
       <c r="D1015" s="19">
-        <v>12</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1016" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1016" s="19" t="s">
-        <v>989</v>
+        <v>981</v>
       </c>
       <c r="B1016" s="19">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1016" s="19">
-        <v>10021</v>
+        <v>10013</v>
       </c>
       <c r="D1016" s="19">
-        <v>18</v>
+        <v>98</v>
       </c>
     </row>
     <row r="1017" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1017" s="19" t="s">
-        <v>990</v>
+        <v>982</v>
       </c>
       <c r="B1017" s="19">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1017" s="19">
-        <v>10022</v>
+        <v>10014</v>
       </c>
       <c r="D1017" s="19">
-        <v>30</v>
+        <v>198</v>
       </c>
     </row>
     <row r="1018" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1018" s="19" t="s">
-        <v>991</v>
+        <v>983</v>
       </c>
       <c r="B1018" s="19">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1018" s="19">
-        <v>10023</v>
+        <v>10015</v>
       </c>
       <c r="D1018" s="19">
-        <v>60</v>
+        <v>328</v>
       </c>
     </row>
     <row r="1019" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1019" s="19" t="s">
-        <v>992</v>
+        <v>984</v>
       </c>
       <c r="B1019" s="19">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1019" s="19">
-        <v>10024</v>
+        <v>10016</v>
       </c>
       <c r="D1019" s="19">
-        <v>98</v>
+        <v>648</v>
       </c>
     </row>
     <row r="1020" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1020" s="19" t="s">
-        <v>993</v>
+        <v>985</v>
       </c>
       <c r="B1020" s="19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1020" s="19">
-        <v>10025</v>
+        <v>10017</v>
       </c>
       <c r="D1020" s="19">
-        <v>198</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1021" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1021" s="19" t="s">
-        <v>994</v>
+        <v>986</v>
       </c>
       <c r="B1021" s="19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1021" s="19">
-        <v>10026</v>
+        <v>10018</v>
       </c>
       <c r="D1021" s="19">
-        <v>328</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1022" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1022" s="19" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
       <c r="B1022" s="19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1022" s="19">
-        <v>10027</v>
+        <v>10019</v>
       </c>
       <c r="D1022" s="19">
-        <v>648</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1023" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1023" s="19" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
       <c r="B1023" s="19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1023" s="19">
-        <v>10028</v>
+        <v>10020</v>
       </c>
       <c r="D1023" s="19">
-        <v>60</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1024" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1024" s="19" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="B1024" s="19">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1024" s="19">
-        <v>10029</v>
+        <v>10021</v>
       </c>
       <c r="D1024" s="19">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1025" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1025" s="19" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="B1025" s="19">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1025" s="19">
-        <v>10030</v>
+        <v>10022</v>
       </c>
       <c r="D1025" s="19">
-        <v>198</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1026" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1026" s="19" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="B1026" s="19">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1026" s="19">
-        <v>10031</v>
+        <v>10023</v>
       </c>
       <c r="D1026" s="19">
-        <v>648</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1027" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1027" s="19" t="s">
-        <v>1000</v>
+        <v>992</v>
       </c>
       <c r="B1027" s="19">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C1027" s="19">
-        <v>10034</v>
+        <v>10024</v>
       </c>
       <c r="D1027" s="19">
-        <v>1</v>
+        <v>98</v>
       </c>
     </row>
     <row r="1028" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1028" s="19" t="s">
-        <v>1001</v>
+        <v>993</v>
       </c>
       <c r="B1028" s="19">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C1028" s="19">
-        <v>10035</v>
+        <v>10025</v>
       </c>
       <c r="D1028" s="19">
-        <v>6</v>
+        <v>198</v>
       </c>
     </row>
     <row r="1029" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1029" s="19" t="s">
-        <v>1002</v>
+        <v>994</v>
       </c>
       <c r="B1029" s="19">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C1029" s="19">
-        <v>10036</v>
+        <v>10026</v>
       </c>
       <c r="D1029" s="19">
-        <v>30</v>
+        <v>328</v>
       </c>
     </row>
     <row r="1030" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1030" s="19" t="s">
-        <v>1003</v>
+        <v>995</v>
       </c>
       <c r="B1030" s="19">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C1030" s="19">
-        <v>10037</v>
+        <v>10027</v>
       </c>
       <c r="D1030" s="19">
-        <v>60</v>
+        <v>648</v>
       </c>
     </row>
     <row r="1031" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1031" s="19" t="s">
-        <v>1004</v>
+        <v>996</v>
       </c>
       <c r="B1031" s="19">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C1031" s="19">
-        <v>10038</v>
+        <v>10028</v>
       </c>
       <c r="D1031" s="19">
-        <v>98</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1032" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1032" s="19" t="s">
-        <v>1005</v>
+        <v>997</v>
       </c>
       <c r="B1032" s="19">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1032" s="19">
-        <v>10039</v>
+        <v>10029</v>
       </c>
       <c r="D1032" s="19">
-        <v>198</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1033" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1033" s="19" t="s">
-        <v>1006</v>
+        <v>998</v>
       </c>
       <c r="B1033" s="19">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1033" s="19">
-        <v>10040</v>
+        <v>10030</v>
       </c>
       <c r="D1033" s="19">
-        <v>328</v>
+        <v>198</v>
       </c>
     </row>
     <row r="1034" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1034" s="19" t="s">
-        <v>1007</v>
+        <v>999</v>
       </c>
       <c r="B1034" s="19">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1034" s="19">
-        <v>10041</v>
+        <v>10031</v>
       </c>
       <c r="D1034" s="19">
         <v>648</v>
@@ -15598,169 +15606,281 @@
     </row>
     <row r="1035" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1035" s="19" t="s">
-        <v>1008</v>
+        <v>1000</v>
       </c>
       <c r="B1035" s="19">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C1035" s="19">
-        <v>10042</v>
+        <v>10034</v>
       </c>
       <c r="D1035" s="19">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1036" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1036" s="19" t="s">
-        <v>1009</v>
+        <v>1001</v>
       </c>
       <c r="B1036" s="19">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C1036" s="19">
-        <v>10043</v>
+        <v>10035</v>
       </c>
       <c r="D1036" s="19">
-        <v>60</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1037" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1037" s="19" t="s">
-        <v>1010</v>
+        <v>1002</v>
       </c>
       <c r="B1037" s="19">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C1037" s="19">
-        <v>10044</v>
+        <v>10036</v>
       </c>
       <c r="D1037" s="19">
-        <v>98</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1038" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1038" s="19" t="s">
-        <v>1011</v>
+        <v>1003</v>
       </c>
       <c r="B1038" s="19">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C1038" s="19">
-        <v>10045</v>
+        <v>10037</v>
       </c>
       <c r="D1038" s="19">
-        <v>198</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1039" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1039" s="19" t="s">
-        <v>1012</v>
+        <v>1004</v>
       </c>
       <c r="B1039" s="19">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C1039" s="19">
-        <v>10046</v>
+        <v>10038</v>
       </c>
       <c r="D1039" s="19">
-        <v>1</v>
+        <v>98</v>
       </c>
     </row>
     <row r="1040" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1040" s="19" t="s">
-        <v>1013</v>
+        <v>1005</v>
       </c>
       <c r="B1040" s="19">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C1040" s="19">
-        <v>10047</v>
+        <v>10039</v>
       </c>
       <c r="D1040" s="19">
-        <v>6</v>
+        <v>198</v>
       </c>
     </row>
     <row r="1041" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1041" s="19" t="s">
-        <v>1014</v>
+        <v>1006</v>
       </c>
       <c r="B1041" s="19">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C1041" s="19">
-        <v>10048</v>
+        <v>10040</v>
       </c>
       <c r="D1041" s="19">
-        <v>30</v>
+        <v>328</v>
       </c>
     </row>
     <row r="1042" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1042" s="19" t="s">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="B1042" s="19">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C1042" s="19">
-        <v>10049</v>
+        <v>10041</v>
       </c>
       <c r="D1042" s="19">
-        <v>60</v>
+        <v>648</v>
       </c>
     </row>
     <row r="1043" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1043" s="19" t="s">
-        <v>1016</v>
+        <v>1008</v>
       </c>
       <c r="B1043" s="19">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C1043" s="19">
-        <v>10050</v>
+        <v>10042</v>
       </c>
       <c r="D1043" s="19">
-        <v>98</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1044" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1044" s="19" t="s">
-        <v>1017</v>
+        <v>1009</v>
       </c>
       <c r="B1044" s="19">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C1044" s="19">
-        <v>10051</v>
+        <v>10043</v>
       </c>
       <c r="D1044" s="19">
-        <v>198</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1045" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1045" s="19" t="s">
-        <v>1018</v>
+        <v>1010</v>
       </c>
       <c r="B1045" s="19">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C1045" s="19">
-        <v>10052</v>
+        <v>10044</v>
       </c>
       <c r="D1045" s="19">
-        <v>328</v>
+        <v>98</v>
       </c>
     </row>
     <row r="1046" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1046" s="19" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B1046" s="19">
+        <v>10</v>
+      </c>
+      <c r="C1046" s="19">
+        <v>10045</v>
+      </c>
+      <c r="D1046" s="19">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1047" s="19" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B1047" s="19">
+        <v>14</v>
+      </c>
+      <c r="C1047" s="19">
+        <v>10046</v>
+      </c>
+      <c r="D1047" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1048" s="19" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B1048" s="19">
+        <v>14</v>
+      </c>
+      <c r="C1048" s="19">
+        <v>10047</v>
+      </c>
+      <c r="D1048" s="19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1049" s="19" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B1049" s="19">
+        <v>14</v>
+      </c>
+      <c r="C1049" s="19">
+        <v>10048</v>
+      </c>
+      <c r="D1049" s="19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1050" s="19" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B1050" s="19">
+        <v>14</v>
+      </c>
+      <c r="C1050" s="19">
+        <v>10049</v>
+      </c>
+      <c r="D1050" s="19">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1051" s="19" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B1051" s="19">
+        <v>14</v>
+      </c>
+      <c r="C1051" s="19">
+        <v>10050</v>
+      </c>
+      <c r="D1051" s="19">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1052" s="19" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B1052" s="19">
+        <v>14</v>
+      </c>
+      <c r="C1052" s="19">
+        <v>10051</v>
+      </c>
+      <c r="D1052" s="19">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1053" s="19" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B1053" s="19">
+        <v>14</v>
+      </c>
+      <c r="C1053" s="19">
+        <v>10052</v>
+      </c>
+      <c r="D1053" s="19">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1054" s="19" t="s">
         <v>1019</v>
       </c>
-      <c r="B1046" s="19">
+      <c r="B1054" s="19">
         <v>14</v>
       </c>
-      <c r="C1046" s="19">
+      <c r="C1054" s="19">
         <v>10053</v>
       </c>
-      <c r="D1046" s="19">
+      <c r="D1054" s="19">
         <v>648</v>
       </c>
     </row>
@@ -15816,7 +15936,7 @@
       <formula>NOT(ISERROR(SEARCH("碎",A442)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A737:A868">
+  <conditionalFormatting sqref="A745:A876">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/com/Tools/MyPoco/info_tab/少三2道具类型表.xlsx
+++ b/com/Tools/MyPoco/info_tab/少三2道具类型表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="1030">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="1034">
   <si>
     <t>角色经验</t>
   </si>
@@ -3314,6 +3314,22 @@
   </si>
   <si>
     <t>左慈</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>天太平要术</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>天孟德新书</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>地丞相印</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>地将军印</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4108,10 +4124,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1054"/>
+  <dimension ref="A1:D1058"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A521" workbookViewId="0">
-      <selection activeCell="G544" sqref="G544"/>
+    <sheetView tabSelected="1" topLeftCell="A1032" workbookViewId="0">
+      <selection activeCell="C1061" sqref="C1061"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -15882,6 +15898,50 @@
       </c>
       <c r="D1054" s="19">
         <v>648</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1055" s="48" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B1055" s="48">
+        <v>8</v>
+      </c>
+      <c r="C1055" s="48">
+        <v>11410</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1056" s="48" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B1056" s="48">
+        <v>8</v>
+      </c>
+      <c r="C1056" s="48">
+        <v>11420</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1057" s="48" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B1057" s="48">
+        <v>8</v>
+      </c>
+      <c r="C1057" s="48">
+        <v>12410</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1058" s="48" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B1058" s="48">
+        <v>8</v>
+      </c>
+      <c r="C1058" s="48">
+        <v>12420</v>
       </c>
     </row>
   </sheetData>

--- a/com/Tools/MyPoco/info_tab/少三2道具类型表.xlsx
+++ b/com/Tools/MyPoco/info_tab/少三2道具类型表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="1034">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="1062">
   <si>
     <t>角色经验</t>
   </si>
@@ -2963,34 +2963,6 @@
     <t>撼地灵犀</t>
   </si>
   <si>
-    <t>兽爪1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>护符1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>项圈1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>兽爪2</t>
-  </si>
-  <si>
-    <t>护符2</t>
-  </si>
-  <si>
-    <t>项圈2</t>
-  </si>
-  <si>
-    <t>经验1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>经验2</t>
-  </si>
-  <si>
     <t>元宝</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -3330,6 +3302,150 @@
   </si>
   <si>
     <t>地将军印</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫冥骨爪</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫冥骨角</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫冥骨环</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙光骨爪</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙光骨角</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙光骨环</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>红炎骨爪</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>红炎骨角</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>红炎骨环</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>金玄骨爪</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>金玄骨角</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>金玄骨环</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫冥锐爪</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫冥锐角</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫冥锐环</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙光锐爪</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙光锐角</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙光锐环</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>红炎锐爪</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>红炎锐角</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>红炎锐环</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>金玄锐爪</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>金玄锐角</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>金玄锐环</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫冥灵爪</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫冥灵角</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫冥灵环</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙光灵爪</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙光灵角</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙光灵环</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>红炎灵爪</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>红炎灵角</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>红炎灵环</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>金玄灵爪</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>金玄灵角</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>金玄灵环</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4124,10 +4240,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1058"/>
+  <dimension ref="A1:D1086"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1032" workbookViewId="0">
-      <selection activeCell="C1061" sqref="C1061"/>
+    <sheetView tabSelected="1" topLeftCell="A982" workbookViewId="0">
+      <selection activeCell="E998" sqref="E998"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -4149,7 +4265,7 @@
         <v>38</v>
       </c>
       <c r="D1" s="48" t="s">
-        <v>1020</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -4550,7 +4666,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>1021</v>
+        <v>1013</v>
       </c>
       <c r="B38" s="48">
         <v>1</v>
@@ -10050,7 +10166,7 @@
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A538" s="37" t="s">
-        <v>1022</v>
+        <v>1014</v>
       </c>
       <c r="B538" s="48">
         <v>4</v>
@@ -10061,7 +10177,7 @@
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A539" s="37" t="s">
-        <v>1023</v>
+        <v>1015</v>
       </c>
       <c r="B539" s="48">
         <v>4</v>
@@ -10072,7 +10188,7 @@
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A540" s="37" t="s">
-        <v>1024</v>
+        <v>1016</v>
       </c>
       <c r="B540" s="48">
         <v>4</v>
@@ -10083,7 +10199,7 @@
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A541" s="37" t="s">
-        <v>1025</v>
+        <v>1017</v>
       </c>
       <c r="B541" s="48">
         <v>4</v>
@@ -10094,7 +10210,7 @@
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A542" s="37" t="s">
-        <v>1026</v>
+        <v>1018</v>
       </c>
       <c r="B542" s="48">
         <v>4</v>
@@ -10105,7 +10221,7 @@
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A543" s="37" t="s">
-        <v>1027</v>
+        <v>1019</v>
       </c>
       <c r="B543" s="48">
         <v>4</v>
@@ -10116,7 +10232,7 @@
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A544" s="37" t="s">
-        <v>1028</v>
+        <v>1020</v>
       </c>
       <c r="B544" s="48">
         <v>4</v>
@@ -10127,7 +10243,7 @@
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A545" s="37" t="s">
-        <v>1029</v>
+        <v>1021</v>
       </c>
       <c r="B545" s="48">
         <v>4</v>
@@ -14714,7 +14830,7 @@
     </row>
     <row r="962" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A962" s="55" t="s">
-        <v>927</v>
+        <v>1026</v>
       </c>
       <c r="B962" s="48">
         <v>18</v>
@@ -14725,7 +14841,7 @@
     </row>
     <row r="963" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A963" s="55" t="s">
-        <v>928</v>
+        <v>1027</v>
       </c>
       <c r="B963" s="48">
         <v>18</v>
@@ -14736,7 +14852,7 @@
     </row>
     <row r="964" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A964" s="55" t="s">
-        <v>929</v>
+        <v>1028</v>
       </c>
       <c r="B964" s="48">
         <v>18</v>
@@ -14747,832 +14863,748 @@
     </row>
     <row r="965" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A965" s="19" t="s">
-        <v>930</v>
+        <v>1029</v>
       </c>
       <c r="B965" s="48">
         <v>18</v>
       </c>
       <c r="C965" s="19">
-        <v>201</v>
+        <v>111</v>
       </c>
     </row>
     <row r="966" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A966" s="19" t="s">
-        <v>931</v>
+        <v>1030</v>
       </c>
       <c r="B966" s="48">
         <v>18</v>
       </c>
       <c r="C966" s="19">
-        <v>202</v>
+        <v>112</v>
       </c>
     </row>
     <row r="967" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A967" s="19" t="s">
-        <v>932</v>
+        <v>1031</v>
       </c>
       <c r="B967" s="48">
         <v>18</v>
       </c>
       <c r="C967" s="19">
-        <v>203</v>
+        <v>113</v>
       </c>
     </row>
     <row r="968" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A968" s="55" t="s">
-        <v>933</v>
+        <v>1032</v>
       </c>
       <c r="B968" s="48">
         <v>18</v>
       </c>
       <c r="C968" s="55">
-        <v>9001</v>
+        <v>121</v>
       </c>
     </row>
     <row r="969" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A969" s="55" t="s">
-        <v>934</v>
+        <v>1033</v>
       </c>
       <c r="B969" s="48">
         <v>18</v>
       </c>
       <c r="C969" s="55">
-        <v>9002</v>
+        <v>122</v>
       </c>
     </row>
     <row r="970" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A970" s="19" t="s">
-        <v>935</v>
+      <c r="A970" s="55" t="s">
+        <v>1034</v>
       </c>
       <c r="B970" s="48">
+        <v>18</v>
+      </c>
+      <c r="C970" s="55">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="971" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A971" s="55" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B971" s="48">
+        <v>18</v>
+      </c>
+      <c r="C971" s="55">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="972" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A972" s="55" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B972" s="48">
+        <v>18</v>
+      </c>
+      <c r="C972" s="55">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="973" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A973" s="55" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B973" s="48">
+        <v>18</v>
+      </c>
+      <c r="C973" s="55">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="974" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A974" s="55" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B974" s="48">
+        <v>18</v>
+      </c>
+      <c r="C974" s="55">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="975" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A975" s="55" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B975" s="48">
+        <v>18</v>
+      </c>
+      <c r="C975" s="55">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="976" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A976" s="55" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B976" s="48">
+        <v>18</v>
+      </c>
+      <c r="C976" s="55">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="977" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A977" s="55" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B977" s="48">
+        <v>18</v>
+      </c>
+      <c r="C977" s="55">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="978" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A978" s="55" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B978" s="48">
+        <v>18</v>
+      </c>
+      <c r="C978" s="55">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="979" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A979" s="55" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B979" s="48">
+        <v>18</v>
+      </c>
+      <c r="C979" s="55">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="980" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A980" s="55" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B980" s="48">
+        <v>18</v>
+      </c>
+      <c r="C980" s="55">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="981" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A981" s="55" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B981" s="48">
+        <v>18</v>
+      </c>
+      <c r="C981" s="55">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="982" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A982" s="55" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B982" s="48">
+        <v>18</v>
+      </c>
+      <c r="C982" s="55">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="983" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A983" s="55" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B983" s="48">
+        <v>18</v>
+      </c>
+      <c r="C983" s="55">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="984" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A984" s="55" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B984" s="48">
+        <v>18</v>
+      </c>
+      <c r="C984" s="55">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="985" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A985" s="55" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B985" s="48">
+        <v>18</v>
+      </c>
+      <c r="C985" s="55">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="986" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A986" s="55" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B986" s="48">
+        <v>18</v>
+      </c>
+      <c r="C986" s="55">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="987" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A987" s="55" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B987" s="48">
+        <v>18</v>
+      </c>
+      <c r="C987" s="55">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="988" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A988" s="55" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B988" s="48">
+        <v>18</v>
+      </c>
+      <c r="C988" s="55">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="989" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A989" s="55" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B989" s="48">
+        <v>18</v>
+      </c>
+      <c r="C989" s="55">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="990" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A990" s="55" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B990" s="48">
+        <v>18</v>
+      </c>
+      <c r="C990" s="55">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="991" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A991" s="55" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B991" s="48">
+        <v>18</v>
+      </c>
+      <c r="C991" s="55">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="992" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A992" s="55" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B992" s="48">
+        <v>18</v>
+      </c>
+      <c r="C992" s="55">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="993" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A993" s="55" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B993" s="48">
+        <v>18</v>
+      </c>
+      <c r="C993" s="55">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="994" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A994" s="55" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B994" s="48">
+        <v>18</v>
+      </c>
+      <c r="C994" s="55">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="995" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A995" s="55" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B995" s="48">
+        <v>18</v>
+      </c>
+      <c r="C995" s="55">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="996" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A996" s="55" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B996" s="48">
+        <v>18</v>
+      </c>
+      <c r="C996" s="55">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="997" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A997" s="55" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B997" s="48">
+        <v>18</v>
+      </c>
+      <c r="C997" s="55">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="998" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A998" s="19" t="s">
+        <v>927</v>
+      </c>
+      <c r="B998" s="48">
         <v>999</v>
       </c>
-      <c r="C970" s="19">
+      <c r="C998" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="971" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A971" s="47" t="s">
-        <v>936</v>
-      </c>
-      <c r="B971" s="48">
-        <v>5</v>
-      </c>
-      <c r="C971" s="47">
-        <v>40010</v>
-      </c>
-    </row>
-    <row r="972" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A972" s="47" t="s">
-        <v>937</v>
-      </c>
-      <c r="B972" s="48">
-        <v>5</v>
-      </c>
-      <c r="C972" s="47">
-        <v>40020</v>
-      </c>
-    </row>
-    <row r="973" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A973" s="47" t="s">
-        <v>938</v>
-      </c>
-      <c r="B973" s="48">
-        <v>5</v>
-      </c>
-      <c r="C973" s="47">
-        <v>40030</v>
-      </c>
-    </row>
-    <row r="974" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A974" s="47" t="s">
-        <v>939</v>
-      </c>
-      <c r="B974" s="48">
-        <v>5</v>
-      </c>
-      <c r="C974" s="47">
-        <v>40040</v>
-      </c>
-    </row>
-    <row r="975" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A975" s="47" t="s">
-        <v>940</v>
-      </c>
-      <c r="B975" s="48">
-        <v>5</v>
-      </c>
-      <c r="C975" s="47">
-        <v>40050</v>
-      </c>
-    </row>
-    <row r="976" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A976" s="47" t="s">
-        <v>941</v>
-      </c>
-      <c r="B976" s="48">
-        <v>5</v>
-      </c>
-      <c r="C976" s="47">
-        <v>40060</v>
-      </c>
-    </row>
-    <row r="977" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A977" s="47" t="s">
-        <v>942</v>
-      </c>
-      <c r="B977" s="48">
-        <v>5</v>
-      </c>
-      <c r="C977" s="47">
-        <v>40070</v>
-      </c>
-    </row>
-    <row r="978" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A978" s="47" t="s">
-        <v>943</v>
-      </c>
-      <c r="B978" s="48">
-        <v>5</v>
-      </c>
-      <c r="C978" s="47">
-        <v>40080</v>
-      </c>
-    </row>
-    <row r="979" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A979" s="47" t="s">
-        <v>944</v>
-      </c>
-      <c r="B979" s="48">
-        <v>5</v>
-      </c>
-      <c r="C979" s="47">
-        <v>40090</v>
-      </c>
-    </row>
-    <row r="980" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A980" s="47" t="s">
-        <v>945</v>
-      </c>
-      <c r="B980" s="48">
-        <v>5</v>
-      </c>
-      <c r="C980" s="47">
-        <v>40100</v>
-      </c>
-    </row>
-    <row r="981" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A981" s="47" t="s">
-        <v>946</v>
-      </c>
-      <c r="B981" s="48">
-        <v>5</v>
-      </c>
-      <c r="C981" s="47">
-        <v>40110</v>
-      </c>
-    </row>
-    <row r="982" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A982" s="47" t="s">
-        <v>947</v>
-      </c>
-      <c r="B982" s="48">
-        <v>5</v>
-      </c>
-      <c r="C982" s="47">
-        <v>50010</v>
-      </c>
-    </row>
-    <row r="983" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A983" s="47" t="s">
-        <v>948</v>
-      </c>
-      <c r="B983" s="48">
-        <v>5</v>
-      </c>
-      <c r="C983" s="47">
-        <v>50020</v>
-      </c>
-    </row>
-    <row r="984" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A984" s="47" t="s">
-        <v>949</v>
-      </c>
-      <c r="B984" s="48">
-        <v>5</v>
-      </c>
-      <c r="C984" s="47">
-        <v>50030</v>
-      </c>
-    </row>
-    <row r="985" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A985" s="47" t="s">
-        <v>950</v>
-      </c>
-      <c r="B985" s="48">
-        <v>5</v>
-      </c>
-      <c r="C985" s="47">
-        <v>50040</v>
-      </c>
-    </row>
-    <row r="986" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A986" s="47" t="s">
-        <v>951</v>
-      </c>
-      <c r="B986" s="48">
-        <v>5</v>
-      </c>
-      <c r="C986" s="47">
-        <v>50050</v>
-      </c>
-    </row>
-    <row r="987" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A987" s="47" t="s">
-        <v>952</v>
-      </c>
-      <c r="B987" s="48">
-        <v>5</v>
-      </c>
-      <c r="C987" s="47">
-        <v>50060</v>
-      </c>
-    </row>
-    <row r="988" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A988" s="47" t="s">
-        <v>953</v>
-      </c>
-      <c r="B988" s="48">
-        <v>5</v>
-      </c>
-      <c r="C988" s="47">
-        <v>50070</v>
-      </c>
-    </row>
-    <row r="989" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A989" s="47" t="s">
-        <v>954</v>
-      </c>
-      <c r="B989" s="48">
-        <v>5</v>
-      </c>
-      <c r="C989" s="47">
-        <v>50080</v>
-      </c>
-    </row>
-    <row r="990" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A990" s="47" t="s">
-        <v>955</v>
-      </c>
-      <c r="B990" s="48">
-        <v>5</v>
-      </c>
-      <c r="C990" s="47">
-        <v>50090</v>
-      </c>
-    </row>
-    <row r="991" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A991" s="47" t="s">
-        <v>956</v>
-      </c>
-      <c r="B991" s="48">
-        <v>5</v>
-      </c>
-      <c r="C991" s="47">
-        <v>50100</v>
-      </c>
-    </row>
-    <row r="992" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A992" s="47" t="s">
-        <v>957</v>
-      </c>
-      <c r="B992" s="48">
-        <v>5</v>
-      </c>
-      <c r="C992" s="47">
-        <v>50110</v>
-      </c>
-    </row>
-    <row r="993" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A993" s="47" t="s">
-        <v>958</v>
-      </c>
-      <c r="B993" s="48">
-        <v>5</v>
-      </c>
-      <c r="C993" s="47">
-        <v>50120</v>
-      </c>
-    </row>
-    <row r="994" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A994" s="47" t="s">
-        <v>959</v>
-      </c>
-      <c r="B994" s="48">
-        <v>5</v>
-      </c>
-      <c r="C994" s="47">
-        <v>50130</v>
-      </c>
-    </row>
-    <row r="995" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A995" s="47" t="s">
-        <v>960</v>
-      </c>
-      <c r="B995" s="48">
-        <v>5</v>
-      </c>
-      <c r="C995" s="47">
-        <v>50140</v>
-      </c>
-    </row>
-    <row r="996" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A996" s="47" t="s">
-        <v>961</v>
-      </c>
-      <c r="B996" s="48">
-        <v>5</v>
-      </c>
-      <c r="C996" s="47">
-        <v>50150</v>
-      </c>
-    </row>
-    <row r="997" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A997" s="47" t="s">
-        <v>962</v>
-      </c>
-      <c r="B997" s="48">
-        <v>5</v>
-      </c>
-      <c r="C997" s="47">
-        <v>50160</v>
-      </c>
-    </row>
-    <row r="998" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A998" s="47" t="s">
-        <v>963</v>
-      </c>
-      <c r="B998" s="48">
-        <v>5</v>
-      </c>
-      <c r="C998" s="47">
-        <v>50170</v>
-      </c>
-    </row>
-    <row r="999" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="999" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A999" s="47" t="s">
-        <v>964</v>
+        <v>928</v>
       </c>
       <c r="B999" s="48">
         <v>5</v>
       </c>
       <c r="C999" s="47">
+        <v>40010</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1000" s="47" t="s">
+        <v>929</v>
+      </c>
+      <c r="B1000" s="48">
+        <v>5</v>
+      </c>
+      <c r="C1000" s="47">
+        <v>40020</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1001" s="47" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1001" s="48">
+        <v>5</v>
+      </c>
+      <c r="C1001" s="47">
+        <v>40030</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1002" s="47" t="s">
+        <v>931</v>
+      </c>
+      <c r="B1002" s="48">
+        <v>5</v>
+      </c>
+      <c r="C1002" s="47">
+        <v>40040</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1003" s="47" t="s">
+        <v>932</v>
+      </c>
+      <c r="B1003" s="48">
+        <v>5</v>
+      </c>
+      <c r="C1003" s="47">
+        <v>40050</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1004" s="47" t="s">
+        <v>933</v>
+      </c>
+      <c r="B1004" s="48">
+        <v>5</v>
+      </c>
+      <c r="C1004" s="47">
+        <v>40060</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1005" s="47" t="s">
+        <v>934</v>
+      </c>
+      <c r="B1005" s="48">
+        <v>5</v>
+      </c>
+      <c r="C1005" s="47">
+        <v>40070</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1006" s="47" t="s">
+        <v>935</v>
+      </c>
+      <c r="B1006" s="48">
+        <v>5</v>
+      </c>
+      <c r="C1006" s="47">
+        <v>40080</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1007" s="47" t="s">
+        <v>936</v>
+      </c>
+      <c r="B1007" s="48">
+        <v>5</v>
+      </c>
+      <c r="C1007" s="47">
+        <v>40090</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1008" s="47" t="s">
+        <v>937</v>
+      </c>
+      <c r="B1008" s="48">
+        <v>5</v>
+      </c>
+      <c r="C1008" s="47">
+        <v>40100</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1009" s="47" t="s">
+        <v>938</v>
+      </c>
+      <c r="B1009" s="48">
+        <v>5</v>
+      </c>
+      <c r="C1009" s="47">
+        <v>40110</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1010" s="47" t="s">
+        <v>939</v>
+      </c>
+      <c r="B1010" s="48">
+        <v>5</v>
+      </c>
+      <c r="C1010" s="47">
+        <v>50010</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1011" s="47" t="s">
+        <v>940</v>
+      </c>
+      <c r="B1011" s="48">
+        <v>5</v>
+      </c>
+      <c r="C1011" s="47">
+        <v>50020</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1012" s="47" t="s">
+        <v>941</v>
+      </c>
+      <c r="B1012" s="48">
+        <v>5</v>
+      </c>
+      <c r="C1012" s="47">
+        <v>50030</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1013" s="47" t="s">
+        <v>942</v>
+      </c>
+      <c r="B1013" s="48">
+        <v>5</v>
+      </c>
+      <c r="C1013" s="47">
+        <v>50040</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1014" s="47" t="s">
+        <v>943</v>
+      </c>
+      <c r="B1014" s="48">
+        <v>5</v>
+      </c>
+      <c r="C1014" s="47">
+        <v>50050</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1015" s="47" t="s">
+        <v>944</v>
+      </c>
+      <c r="B1015" s="48">
+        <v>5</v>
+      </c>
+      <c r="C1015" s="47">
+        <v>50060</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1016" s="47" t="s">
+        <v>945</v>
+      </c>
+      <c r="B1016" s="48">
+        <v>5</v>
+      </c>
+      <c r="C1016" s="47">
+        <v>50070</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1017" s="47" t="s">
+        <v>946</v>
+      </c>
+      <c r="B1017" s="48">
+        <v>5</v>
+      </c>
+      <c r="C1017" s="47">
+        <v>50080</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1018" s="47" t="s">
+        <v>947</v>
+      </c>
+      <c r="B1018" s="48">
+        <v>5</v>
+      </c>
+      <c r="C1018" s="47">
+        <v>50090</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1019" s="47" t="s">
+        <v>948</v>
+      </c>
+      <c r="B1019" s="48">
+        <v>5</v>
+      </c>
+      <c r="C1019" s="47">
+        <v>50100</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1020" s="47" t="s">
+        <v>949</v>
+      </c>
+      <c r="B1020" s="48">
+        <v>5</v>
+      </c>
+      <c r="C1020" s="47">
+        <v>50110</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1021" s="47" t="s">
+        <v>950</v>
+      </c>
+      <c r="B1021" s="48">
+        <v>5</v>
+      </c>
+      <c r="C1021" s="47">
+        <v>50120</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1022" s="47" t="s">
+        <v>951</v>
+      </c>
+      <c r="B1022" s="48">
+        <v>5</v>
+      </c>
+      <c r="C1022" s="47">
+        <v>50130</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1023" s="47" t="s">
+        <v>952</v>
+      </c>
+      <c r="B1023" s="48">
+        <v>5</v>
+      </c>
+      <c r="C1023" s="47">
+        <v>50140</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1024" s="47" t="s">
+        <v>953</v>
+      </c>
+      <c r="B1024" s="48">
+        <v>5</v>
+      </c>
+      <c r="C1024" s="47">
+        <v>50150</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1025" s="47" t="s">
+        <v>954</v>
+      </c>
+      <c r="B1025" s="48">
+        <v>5</v>
+      </c>
+      <c r="C1025" s="47">
+        <v>50160</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1026" s="47" t="s">
+        <v>955</v>
+      </c>
+      <c r="B1026" s="48">
+        <v>5</v>
+      </c>
+      <c r="C1026" s="47">
+        <v>50170</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1027" s="47" t="s">
+        <v>956</v>
+      </c>
+      <c r="B1027" s="48">
+        <v>5</v>
+      </c>
+      <c r="C1027" s="47">
         <v>50180</v>
-      </c>
-    </row>
-    <row r="1000" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1000" s="19" t="s">
-        <v>965</v>
-      </c>
-      <c r="B1000" s="19">
-        <v>2</v>
-      </c>
-      <c r="C1000" s="19">
-        <v>1</v>
-      </c>
-      <c r="D1000" s="19">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="1001" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1001" s="19" t="s">
-        <v>966</v>
-      </c>
-      <c r="B1001" s="19">
-        <v>2</v>
-      </c>
-      <c r="C1001" s="19">
-        <v>2</v>
-      </c>
-      <c r="D1001" s="19">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="1002" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1002" s="19" t="s">
-        <v>967</v>
-      </c>
-      <c r="B1002" s="19">
-        <v>3</v>
-      </c>
-      <c r="C1002" s="19">
-        <v>3</v>
-      </c>
-      <c r="D1002" s="19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="1003" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1003" s="19" t="s">
-        <v>968</v>
-      </c>
-      <c r="B1003" s="19">
-        <v>4</v>
-      </c>
-      <c r="C1003" s="19">
-        <v>4</v>
-      </c>
-      <c r="D1003" s="19">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="1004" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1004" s="19" t="s">
-        <v>969</v>
-      </c>
-      <c r="B1004" s="19">
-        <v>1</v>
-      </c>
-      <c r="C1004" s="19">
-        <v>10001</v>
-      </c>
-      <c r="D1004" s="19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="1005" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1005" s="19" t="s">
-        <v>970</v>
-      </c>
-      <c r="B1005" s="19">
-        <v>1</v>
-      </c>
-      <c r="C1005" s="19">
-        <v>10002</v>
-      </c>
-      <c r="D1005" s="19">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="1006" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1006" s="19" t="s">
-        <v>971</v>
-      </c>
-      <c r="B1006" s="19">
-        <v>1</v>
-      </c>
-      <c r="C1006" s="19">
-        <v>10003</v>
-      </c>
-      <c r="D1006" s="19">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="1007" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1007" s="19" t="s">
-        <v>972</v>
-      </c>
-      <c r="B1007" s="19">
-        <v>1</v>
-      </c>
-      <c r="C1007" s="19">
-        <v>10004</v>
-      </c>
-      <c r="D1007" s="19">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="1008" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1008" s="19" t="s">
-        <v>973</v>
-      </c>
-      <c r="B1008" s="19">
-        <v>1</v>
-      </c>
-      <c r="C1008" s="19">
-        <v>10005</v>
-      </c>
-      <c r="D1008" s="19">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="1009" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1009" s="19" t="s">
-        <v>974</v>
-      </c>
-      <c r="B1009" s="19">
-        <v>1</v>
-      </c>
-      <c r="C1009" s="19">
-        <v>10006</v>
-      </c>
-      <c r="D1009" s="19">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="1010" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1010" s="19" t="s">
-        <v>975</v>
-      </c>
-      <c r="B1010" s="19">
-        <v>1</v>
-      </c>
-      <c r="C1010" s="19">
-        <v>10007</v>
-      </c>
-      <c r="D1010" s="19">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="1011" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1011" s="19" t="s">
-        <v>976</v>
-      </c>
-      <c r="B1011" s="19">
-        <v>1</v>
-      </c>
-      <c r="C1011" s="19">
-        <v>10008</v>
-      </c>
-      <c r="D1011" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1012" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1012" s="19" t="s">
-        <v>977</v>
-      </c>
-      <c r="B1012" s="19">
-        <v>5</v>
-      </c>
-      <c r="C1012" s="19">
-        <v>10009</v>
-      </c>
-      <c r="D1012" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1013" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1013" s="19" t="s">
-        <v>978</v>
-      </c>
-      <c r="B1013" s="19">
-        <v>5</v>
-      </c>
-      <c r="C1013" s="19">
-        <v>10010</v>
-      </c>
-      <c r="D1013" s="19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="1014" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1014" s="19" t="s">
-        <v>979</v>
-      </c>
-      <c r="B1014" s="19">
-        <v>5</v>
-      </c>
-      <c r="C1014" s="19">
-        <v>10011</v>
-      </c>
-      <c r="D1014" s="19">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="1015" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1015" s="19" t="s">
-        <v>980</v>
-      </c>
-      <c r="B1015" s="19">
-        <v>5</v>
-      </c>
-      <c r="C1015" s="19">
-        <v>10012</v>
-      </c>
-      <c r="D1015" s="19">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="1016" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1016" s="19" t="s">
-        <v>981</v>
-      </c>
-      <c r="B1016" s="19">
-        <v>5</v>
-      </c>
-      <c r="C1016" s="19">
-        <v>10013</v>
-      </c>
-      <c r="D1016" s="19">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="1017" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1017" s="19" t="s">
-        <v>982</v>
-      </c>
-      <c r="B1017" s="19">
-        <v>5</v>
-      </c>
-      <c r="C1017" s="19">
-        <v>10014</v>
-      </c>
-      <c r="D1017" s="19">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="1018" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1018" s="19" t="s">
-        <v>983</v>
-      </c>
-      <c r="B1018" s="19">
-        <v>5</v>
-      </c>
-      <c r="C1018" s="19">
-        <v>10015</v>
-      </c>
-      <c r="D1018" s="19">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="1019" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1019" s="19" t="s">
-        <v>984</v>
-      </c>
-      <c r="B1019" s="19">
-        <v>5</v>
-      </c>
-      <c r="C1019" s="19">
-        <v>10016</v>
-      </c>
-      <c r="D1019" s="19">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="1020" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1020" s="19" t="s">
-        <v>985</v>
-      </c>
-      <c r="B1020" s="19">
-        <v>6</v>
-      </c>
-      <c r="C1020" s="19">
-        <v>10017</v>
-      </c>
-      <c r="D1020" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1021" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1021" s="19" t="s">
-        <v>986</v>
-      </c>
-      <c r="B1021" s="19">
-        <v>6</v>
-      </c>
-      <c r="C1021" s="19">
-        <v>10018</v>
-      </c>
-      <c r="D1021" s="19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1022" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1022" s="19" t="s">
-        <v>987</v>
-      </c>
-      <c r="B1022" s="19">
-        <v>6</v>
-      </c>
-      <c r="C1022" s="19">
-        <v>10019</v>
-      </c>
-      <c r="D1022" s="19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="1023" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1023" s="19" t="s">
-        <v>988</v>
-      </c>
-      <c r="B1023" s="19">
-        <v>7</v>
-      </c>
-      <c r="C1023" s="19">
-        <v>10020</v>
-      </c>
-      <c r="D1023" s="19">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="1024" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1024" s="19" t="s">
-        <v>989</v>
-      </c>
-      <c r="B1024" s="19">
-        <v>7</v>
-      </c>
-      <c r="C1024" s="19">
-        <v>10021</v>
-      </c>
-      <c r="D1024" s="19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="1025" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1025" s="19" t="s">
-        <v>990</v>
-      </c>
-      <c r="B1025" s="19">
-        <v>7</v>
-      </c>
-      <c r="C1025" s="19">
-        <v>10022</v>
-      </c>
-      <c r="D1025" s="19">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="1026" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1026" s="19" t="s">
-        <v>991</v>
-      </c>
-      <c r="B1026" s="19">
-        <v>7</v>
-      </c>
-      <c r="C1026" s="19">
-        <v>10023</v>
-      </c>
-      <c r="D1026" s="19">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="1027" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1027" s="19" t="s">
-        <v>992</v>
-      </c>
-      <c r="B1027" s="19">
-        <v>7</v>
-      </c>
-      <c r="C1027" s="19">
-        <v>10024</v>
-      </c>
-      <c r="D1027" s="19">
-        <v>98</v>
       </c>
     </row>
     <row r="1028" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1028" s="19" t="s">
-        <v>993</v>
+        <v>957</v>
       </c>
       <c r="B1028" s="19">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C1028" s="19">
-        <v>10025</v>
+        <v>1</v>
       </c>
       <c r="D1028" s="19">
-        <v>198</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1029" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1029" s="19" t="s">
-        <v>994</v>
+        <v>958</v>
       </c>
       <c r="B1029" s="19">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C1029" s="19">
-        <v>10026</v>
+        <v>2</v>
       </c>
       <c r="D1029" s="19">
-        <v>328</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1030" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1030" s="19" t="s">
-        <v>995</v>
+        <v>959</v>
       </c>
       <c r="B1030" s="19">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1030" s="19">
-        <v>10027</v>
+        <v>3</v>
       </c>
       <c r="D1030" s="19">
-        <v>648</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1031" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1031" s="19" t="s">
-        <v>996</v>
+        <v>960</v>
       </c>
       <c r="B1031" s="19">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C1031" s="19">
-        <v>10028</v>
+        <v>4</v>
       </c>
       <c r="D1031" s="19">
         <v>60</v>
@@ -15580,367 +15612,759 @@
     </row>
     <row r="1032" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1032" s="19" t="s">
-        <v>997</v>
+        <v>961</v>
       </c>
       <c r="B1032" s="19">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C1032" s="19">
-        <v>10029</v>
+        <v>10001</v>
       </c>
       <c r="D1032" s="19">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1033" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1033" s="19" t="s">
-        <v>998</v>
+        <v>962</v>
       </c>
       <c r="B1033" s="19">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C1033" s="19">
-        <v>10030</v>
+        <v>10002</v>
       </c>
       <c r="D1033" s="19">
-        <v>198</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1034" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1034" s="19" t="s">
-        <v>999</v>
+        <v>963</v>
       </c>
       <c r="B1034" s="19">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C1034" s="19">
-        <v>10031</v>
+        <v>10003</v>
       </c>
       <c r="D1034" s="19">
-        <v>648</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1035" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1035" s="19" t="s">
-        <v>1000</v>
+        <v>964</v>
       </c>
       <c r="B1035" s="19">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C1035" s="19">
-        <v>10034</v>
+        <v>10004</v>
       </c>
       <c r="D1035" s="19">
-        <v>1</v>
+        <v>98</v>
       </c>
     </row>
     <row r="1036" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1036" s="19" t="s">
-        <v>1001</v>
+        <v>965</v>
       </c>
       <c r="B1036" s="19">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C1036" s="19">
-        <v>10035</v>
+        <v>10005</v>
       </c>
       <c r="D1036" s="19">
-        <v>6</v>
+        <v>198</v>
       </c>
     </row>
     <row r="1037" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1037" s="19" t="s">
-        <v>1002</v>
+        <v>966</v>
       </c>
       <c r="B1037" s="19">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C1037" s="19">
-        <v>10036</v>
+        <v>10006</v>
       </c>
       <c r="D1037" s="19">
-        <v>30</v>
+        <v>328</v>
       </c>
     </row>
     <row r="1038" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1038" s="19" t="s">
-        <v>1003</v>
+        <v>967</v>
       </c>
       <c r="B1038" s="19">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C1038" s="19">
-        <v>10037</v>
+        <v>10007</v>
       </c>
       <c r="D1038" s="19">
-        <v>60</v>
+        <v>648</v>
       </c>
     </row>
     <row r="1039" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1039" s="19" t="s">
-        <v>1004</v>
+        <v>968</v>
       </c>
       <c r="B1039" s="19">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C1039" s="19">
-        <v>10038</v>
+        <v>10008</v>
       </c>
       <c r="D1039" s="19">
-        <v>98</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1040" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1040" s="19" t="s">
-        <v>1005</v>
+        <v>969</v>
       </c>
       <c r="B1040" s="19">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C1040" s="19">
-        <v>10039</v>
+        <v>10009</v>
       </c>
       <c r="D1040" s="19">
-        <v>198</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1041" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1041" s="19" t="s">
-        <v>1006</v>
+        <v>970</v>
       </c>
       <c r="B1041" s="19">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C1041" s="19">
-        <v>10040</v>
+        <v>10010</v>
       </c>
       <c r="D1041" s="19">
-        <v>328</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1042" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1042" s="19" t="s">
-        <v>1007</v>
+        <v>971</v>
       </c>
       <c r="B1042" s="19">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C1042" s="19">
-        <v>10041</v>
+        <v>10011</v>
       </c>
       <c r="D1042" s="19">
-        <v>648</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1043" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1043" s="19" t="s">
-        <v>1008</v>
+        <v>972</v>
       </c>
       <c r="B1043" s="19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C1043" s="19">
-        <v>10042</v>
+        <v>10012</v>
       </c>
       <c r="D1043" s="19">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1044" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1044" s="19" t="s">
-        <v>1009</v>
+        <v>973</v>
       </c>
       <c r="B1044" s="19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C1044" s="19">
-        <v>10043</v>
+        <v>10013</v>
       </c>
       <c r="D1044" s="19">
-        <v>60</v>
+        <v>98</v>
       </c>
     </row>
     <row r="1045" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1045" s="19" t="s">
-        <v>1010</v>
+        <v>974</v>
       </c>
       <c r="B1045" s="19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C1045" s="19">
-        <v>10044</v>
+        <v>10014</v>
       </c>
       <c r="D1045" s="19">
-        <v>98</v>
+        <v>198</v>
       </c>
     </row>
     <row r="1046" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1046" s="19" t="s">
-        <v>1011</v>
+        <v>975</v>
       </c>
       <c r="B1046" s="19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C1046" s="19">
-        <v>10045</v>
+        <v>10015</v>
       </c>
       <c r="D1046" s="19">
-        <v>198</v>
+        <v>328</v>
       </c>
     </row>
     <row r="1047" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1047" s="19" t="s">
-        <v>1012</v>
+        <v>976</v>
       </c>
       <c r="B1047" s="19">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C1047" s="19">
-        <v>10046</v>
+        <v>10016</v>
       </c>
       <c r="D1047" s="19">
-        <v>1</v>
+        <v>648</v>
       </c>
     </row>
     <row r="1048" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1048" s="19" t="s">
-        <v>1013</v>
+        <v>977</v>
       </c>
       <c r="B1048" s="19">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C1048" s="19">
-        <v>10047</v>
+        <v>10017</v>
       </c>
       <c r="D1048" s="19">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1049" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1049" s="19" t="s">
-        <v>1014</v>
+        <v>978</v>
       </c>
       <c r="B1049" s="19">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C1049" s="19">
-        <v>10048</v>
+        <v>10018</v>
       </c>
       <c r="D1049" s="19">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1050" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1050" s="19" t="s">
-        <v>1015</v>
+        <v>979</v>
       </c>
       <c r="B1050" s="19">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C1050" s="19">
-        <v>10049</v>
+        <v>10019</v>
       </c>
       <c r="D1050" s="19">
-        <v>60</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1051" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1051" s="19" t="s">
-        <v>1016</v>
+        <v>980</v>
       </c>
       <c r="B1051" s="19">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C1051" s="19">
-        <v>10050</v>
+        <v>10020</v>
       </c>
       <c r="D1051" s="19">
-        <v>98</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1052" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1052" s="19" t="s">
-        <v>1017</v>
+        <v>981</v>
       </c>
       <c r="B1052" s="19">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C1052" s="19">
-        <v>10051</v>
+        <v>10021</v>
       </c>
       <c r="D1052" s="19">
-        <v>198</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1053" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1053" s="19" t="s">
-        <v>1018</v>
+        <v>982</v>
       </c>
       <c r="B1053" s="19">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C1053" s="19">
-        <v>10052</v>
+        <v>10022</v>
       </c>
       <c r="D1053" s="19">
-        <v>328</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1054" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1054" s="19" t="s">
-        <v>1019</v>
+        <v>983</v>
       </c>
       <c r="B1054" s="19">
+        <v>7</v>
+      </c>
+      <c r="C1054" s="19">
+        <v>10023</v>
+      </c>
+      <c r="D1054" s="19">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1055" s="19" t="s">
+        <v>984</v>
+      </c>
+      <c r="B1055" s="19">
+        <v>7</v>
+      </c>
+      <c r="C1055" s="19">
+        <v>10024</v>
+      </c>
+      <c r="D1055" s="19">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1056" s="19" t="s">
+        <v>985</v>
+      </c>
+      <c r="B1056" s="19">
+        <v>7</v>
+      </c>
+      <c r="C1056" s="19">
+        <v>10025</v>
+      </c>
+      <c r="D1056" s="19">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1057" s="19" t="s">
+        <v>986</v>
+      </c>
+      <c r="B1057" s="19">
+        <v>7</v>
+      </c>
+      <c r="C1057" s="19">
+        <v>10026</v>
+      </c>
+      <c r="D1057" s="19">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1058" s="19" t="s">
+        <v>987</v>
+      </c>
+      <c r="B1058" s="19">
+        <v>7</v>
+      </c>
+      <c r="C1058" s="19">
+        <v>10027</v>
+      </c>
+      <c r="D1058" s="19">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1059" s="19" t="s">
+        <v>988</v>
+      </c>
+      <c r="B1059" s="19">
+        <v>8</v>
+      </c>
+      <c r="C1059" s="19">
+        <v>10028</v>
+      </c>
+      <c r="D1059" s="19">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1060" s="19" t="s">
+        <v>989</v>
+      </c>
+      <c r="B1060" s="19">
+        <v>9</v>
+      </c>
+      <c r="C1060" s="19">
+        <v>10029</v>
+      </c>
+      <c r="D1060" s="19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1061" s="19" t="s">
+        <v>990</v>
+      </c>
+      <c r="B1061" s="19">
+        <v>9</v>
+      </c>
+      <c r="C1061" s="19">
+        <v>10030</v>
+      </c>
+      <c r="D1061" s="19">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1062" s="19" t="s">
+        <v>991</v>
+      </c>
+      <c r="B1062" s="19">
+        <v>9</v>
+      </c>
+      <c r="C1062" s="19">
+        <v>10031</v>
+      </c>
+      <c r="D1062" s="19">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1063" s="19" t="s">
+        <v>992</v>
+      </c>
+      <c r="B1063" s="19">
+        <v>11</v>
+      </c>
+      <c r="C1063" s="19">
+        <v>10034</v>
+      </c>
+      <c r="D1063" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1064" s="19" t="s">
+        <v>993</v>
+      </c>
+      <c r="B1064" s="19">
+        <v>11</v>
+      </c>
+      <c r="C1064" s="19">
+        <v>10035</v>
+      </c>
+      <c r="D1064" s="19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1065" s="19" t="s">
+        <v>994</v>
+      </c>
+      <c r="B1065" s="19">
+        <v>11</v>
+      </c>
+      <c r="C1065" s="19">
+        <v>10036</v>
+      </c>
+      <c r="D1065" s="19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1066" s="19" t="s">
+        <v>995</v>
+      </c>
+      <c r="B1066" s="19">
+        <v>11</v>
+      </c>
+      <c r="C1066" s="19">
+        <v>10037</v>
+      </c>
+      <c r="D1066" s="19">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1067" s="19" t="s">
+        <v>996</v>
+      </c>
+      <c r="B1067" s="19">
+        <v>11</v>
+      </c>
+      <c r="C1067" s="19">
+        <v>10038</v>
+      </c>
+      <c r="D1067" s="19">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1068" s="19" t="s">
+        <v>997</v>
+      </c>
+      <c r="B1068" s="19">
+        <v>11</v>
+      </c>
+      <c r="C1068" s="19">
+        <v>10039</v>
+      </c>
+      <c r="D1068" s="19">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1069" s="19" t="s">
+        <v>998</v>
+      </c>
+      <c r="B1069" s="19">
+        <v>11</v>
+      </c>
+      <c r="C1069" s="19">
+        <v>10040</v>
+      </c>
+      <c r="D1069" s="19">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1070" s="19" t="s">
+        <v>999</v>
+      </c>
+      <c r="B1070" s="19">
+        <v>11</v>
+      </c>
+      <c r="C1070" s="19">
+        <v>10041</v>
+      </c>
+      <c r="D1070" s="19">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1071" s="19" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B1071" s="19">
+        <v>10</v>
+      </c>
+      <c r="C1071" s="19">
+        <v>10042</v>
+      </c>
+      <c r="D1071" s="19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1072" s="19" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B1072" s="19">
+        <v>10</v>
+      </c>
+      <c r="C1072" s="19">
+        <v>10043</v>
+      </c>
+      <c r="D1072" s="19">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1073" s="19" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B1073" s="19">
+        <v>10</v>
+      </c>
+      <c r="C1073" s="19">
+        <v>10044</v>
+      </c>
+      <c r="D1073" s="19">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1074" s="19" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B1074" s="19">
+        <v>10</v>
+      </c>
+      <c r="C1074" s="19">
+        <v>10045</v>
+      </c>
+      <c r="D1074" s="19">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1075" s="19" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B1075" s="19">
         <v>14</v>
       </c>
-      <c r="C1054" s="19">
+      <c r="C1075" s="19">
+        <v>10046</v>
+      </c>
+      <c r="D1075" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1076" s="19" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B1076" s="19">
+        <v>14</v>
+      </c>
+      <c r="C1076" s="19">
+        <v>10047</v>
+      </c>
+      <c r="D1076" s="19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1077" s="19" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B1077" s="19">
+        <v>14</v>
+      </c>
+      <c r="C1077" s="19">
+        <v>10048</v>
+      </c>
+      <c r="D1077" s="19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1078" s="19" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B1078" s="19">
+        <v>14</v>
+      </c>
+      <c r="C1078" s="19">
+        <v>10049</v>
+      </c>
+      <c r="D1078" s="19">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1079" s="19" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B1079" s="19">
+        <v>14</v>
+      </c>
+      <c r="C1079" s="19">
+        <v>10050</v>
+      </c>
+      <c r="D1079" s="19">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1080" s="19" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B1080" s="19">
+        <v>14</v>
+      </c>
+      <c r="C1080" s="19">
+        <v>10051</v>
+      </c>
+      <c r="D1080" s="19">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1081" s="19" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B1081" s="19">
+        <v>14</v>
+      </c>
+      <c r="C1081" s="19">
+        <v>10052</v>
+      </c>
+      <c r="D1081" s="19">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1082" s="19" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B1082" s="19">
+        <v>14</v>
+      </c>
+      <c r="C1082" s="19">
         <v>10053</v>
       </c>
-      <c r="D1054" s="19">
+      <c r="D1082" s="19">
         <v>648</v>
       </c>
     </row>
-    <row r="1055" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1055" s="48" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B1055" s="48">
+    <row r="1083" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1083" s="48" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B1083" s="48">
         <v>8</v>
       </c>
-      <c r="C1055" s="48">
+      <c r="C1083" s="48">
         <v>11410</v>
       </c>
     </row>
-    <row r="1056" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1056" s="48" t="s">
-        <v>1031</v>
-      </c>
-      <c r="B1056" s="48">
+    <row r="1084" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1084" s="48" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B1084" s="48">
         <v>8</v>
       </c>
-      <c r="C1056" s="48">
+      <c r="C1084" s="48">
         <v>11420</v>
       </c>
     </row>
-    <row r="1057" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1057" s="48" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B1057" s="48">
+    <row r="1085" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1085" s="48" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B1085" s="48">
         <v>8</v>
       </c>
-      <c r="C1057" s="48">
+      <c r="C1085" s="48">
         <v>12410</v>
       </c>
     </row>
-    <row r="1058" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1058" s="48" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B1058" s="48">
+    <row r="1086" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1086" s="48" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B1086" s="48">
         <v>8</v>
       </c>
-      <c r="C1058" s="48">
+      <c r="C1086" s="48">
         <v>12420</v>
       </c>
     </row>

--- a/com/Tools/MyPoco/info_tab/少三2道具类型表.xlsx
+++ b/com/Tools/MyPoco/info_tab/少三2道具类型表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="1062">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="1070">
   <si>
     <t>角色经验</t>
   </si>
@@ -3446,6 +3446,38 @@
   </si>
   <si>
     <t>金玄灵环</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>狱火穷奇</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>九天应龙</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>独角雷君</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>碧水麒麟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹操</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>关羽</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>周瑜</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕布</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4240,10 +4272,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1086"/>
+  <dimension ref="A1:D1094"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A982" workbookViewId="0">
-      <selection activeCell="E998" sqref="E998"/>
+    <sheetView tabSelected="1" topLeftCell="A514" workbookViewId="0">
+      <selection activeCell="D546" sqref="D546"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -10253,5596 +10285,5572 @@
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A546" s="19" t="s">
-        <v>526</v>
+      <c r="A546" s="37" t="s">
+        <v>1066</v>
       </c>
       <c r="B546" s="48">
-        <v>6</v>
-      </c>
-      <c r="C546" s="19">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="C546" s="34">
+        <v>600010</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A547" s="19" t="s">
-        <v>527</v>
+      <c r="A547" s="37" t="s">
+        <v>1067</v>
       </c>
       <c r="B547" s="48">
-        <v>6</v>
-      </c>
-      <c r="C547" s="19">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="C547" s="34">
+        <v>600040</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A548" s="19" t="s">
-        <v>528</v>
+      <c r="A548" s="37" t="s">
+        <v>1068</v>
       </c>
       <c r="B548" s="48">
-        <v>6</v>
-      </c>
-      <c r="C548" s="19">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C548" s="34">
+        <v>600060</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A549" s="19" t="s">
-        <v>529</v>
+      <c r="A549" s="37" t="s">
+        <v>1069</v>
       </c>
       <c r="B549" s="48">
-        <v>6</v>
-      </c>
-      <c r="C549" s="19">
         <v>4</v>
+      </c>
+      <c r="C549" s="34">
+        <v>600070</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A550" s="19" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B550" s="48">
         <v>6</v>
       </c>
       <c r="C550" s="19">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A551" s="19" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B551" s="48">
         <v>6</v>
       </c>
       <c r="C551" s="19">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A552" s="19" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B552" s="48">
         <v>6</v>
       </c>
       <c r="C552" s="19">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A553" s="19" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B553" s="48">
         <v>6</v>
       </c>
       <c r="C553" s="19">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A554" s="19" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B554" s="48">
         <v>6</v>
       </c>
       <c r="C554" s="19">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A555" s="19" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B555" s="48">
         <v>6</v>
       </c>
       <c r="C555" s="19">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A556" s="19" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B556" s="48">
         <v>6</v>
       </c>
       <c r="C556" s="19">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A557" s="19" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B557" s="48">
         <v>6</v>
       </c>
       <c r="C557" s="19">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A558" s="19" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B558" s="48">
         <v>6</v>
       </c>
       <c r="C558" s="19">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A559" s="19" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B559" s="48">
         <v>6</v>
       </c>
       <c r="C559" s="19">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A560" s="19" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B560" s="48">
         <v>6</v>
       </c>
       <c r="C560" s="19">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A561" s="19" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B561" s="48">
         <v>6</v>
       </c>
       <c r="C561" s="19">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A562" s="19" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B562" s="48">
         <v>6</v>
       </c>
       <c r="C562" s="19">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A563" s="19" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B563" s="48">
         <v>6</v>
       </c>
       <c r="C563" s="19">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A564" s="19" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B564" s="48">
         <v>6</v>
       </c>
       <c r="C564" s="19">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A565" s="19" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B565" s="48">
         <v>6</v>
       </c>
       <c r="C565" s="19">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A566" s="19" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B566" s="48">
         <v>6</v>
       </c>
       <c r="C566" s="19">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A567" s="19" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B567" s="48">
         <v>6</v>
       </c>
       <c r="C567" s="19">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A568" s="19" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B568" s="48">
         <v>6</v>
       </c>
       <c r="C568" s="19">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A569" s="19" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B569" s="48">
         <v>6</v>
       </c>
       <c r="C569" s="19">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A570" s="19" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B570" s="48">
         <v>6</v>
       </c>
       <c r="C570" s="19">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A571" s="19" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B571" s="48">
         <v>6</v>
       </c>
       <c r="C571" s="19">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A572" s="19" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B572" s="48">
         <v>6</v>
       </c>
       <c r="C572" s="19">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A573" s="19" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B573" s="48">
         <v>6</v>
       </c>
       <c r="C573" s="19">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A574" s="19" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B574" s="48">
         <v>6</v>
       </c>
       <c r="C574" s="19">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A575" s="19" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B575" s="48">
         <v>6</v>
       </c>
       <c r="C575" s="19">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A576" s="19" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B576" s="48">
         <v>6</v>
       </c>
       <c r="C576" s="19">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A577" s="19" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B577" s="48">
         <v>6</v>
       </c>
       <c r="C577" s="19">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A578" s="19" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B578" s="48">
         <v>6</v>
       </c>
       <c r="C578" s="19">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A579" s="19" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B579" s="48">
         <v>6</v>
       </c>
       <c r="C579" s="19">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A580" s="19" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B580" s="48">
         <v>6</v>
       </c>
       <c r="C580" s="19">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A581" s="19" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B581" s="48">
         <v>6</v>
       </c>
       <c r="C581" s="19">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A582" s="19" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B582" s="48">
         <v>6</v>
       </c>
       <c r="C582" s="19">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A583" s="19" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B583" s="48">
         <v>6</v>
       </c>
       <c r="C583" s="19">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A584" s="19" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B584" s="48">
         <v>6</v>
       </c>
       <c r="C584" s="19">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A585" s="19" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B585" s="48">
         <v>6</v>
       </c>
       <c r="C585" s="19">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A586" s="19" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B586" s="48">
         <v>6</v>
       </c>
       <c r="C586" s="19">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A587" s="19" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B587" s="48">
         <v>6</v>
       </c>
       <c r="C587" s="19">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A588" s="19" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B588" s="48">
         <v>6</v>
       </c>
       <c r="C588" s="19">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A589" s="19" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B589" s="48">
         <v>6</v>
       </c>
       <c r="C589" s="19">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A590" s="19" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B590" s="48">
         <v>6</v>
       </c>
       <c r="C590" s="19">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A591" s="19" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B591" s="48">
         <v>6</v>
       </c>
       <c r="C591" s="19">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A592" s="19" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B592" s="48">
         <v>6</v>
       </c>
       <c r="C592" s="19">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A593" s="19" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B593" s="48">
         <v>6</v>
       </c>
       <c r="C593" s="19">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A594" s="19" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B594" s="48">
         <v>6</v>
       </c>
       <c r="C594" s="19">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A595" s="19" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B595" s="48">
         <v>6</v>
       </c>
       <c r="C595" s="19">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A596" s="19" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B596" s="48">
         <v>6</v>
       </c>
       <c r="C596" s="19">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A597" s="19" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B597" s="48">
         <v>6</v>
       </c>
       <c r="C597" s="19">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A598" s="19" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B598" s="48">
         <v>6</v>
       </c>
       <c r="C598" s="19">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A599" s="19" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B599" s="48">
         <v>6</v>
       </c>
       <c r="C599" s="19">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A600" s="19" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B600" s="48">
         <v>6</v>
       </c>
       <c r="C600" s="19">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A601" s="19" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B601" s="48">
         <v>6</v>
       </c>
       <c r="C601" s="19">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A602" s="19" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B602" s="48">
         <v>6</v>
       </c>
       <c r="C602" s="19">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A603" s="19" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B603" s="48">
         <v>6</v>
       </c>
       <c r="C603" s="19">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A604" s="19" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B604" s="48">
         <v>6</v>
       </c>
       <c r="C604" s="19">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A605" s="19" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B605" s="48">
         <v>6</v>
       </c>
       <c r="C605" s="19">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A606" s="19" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="B606" s="48">
         <v>6</v>
       </c>
       <c r="C606" s="19">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A607" s="19" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="B607" s="48">
         <v>6</v>
       </c>
       <c r="C607" s="19">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A608" s="19" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B608" s="48">
         <v>6</v>
       </c>
       <c r="C608" s="19">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A609" s="19" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B609" s="48">
         <v>6</v>
       </c>
       <c r="C609" s="19">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A610" s="19" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B610" s="48">
         <v>6</v>
       </c>
       <c r="C610" s="19">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A611" s="19" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B611" s="48">
         <v>6</v>
       </c>
       <c r="C611" s="19">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A612" s="19" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B612" s="48">
         <v>6</v>
       </c>
       <c r="C612" s="19">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A613" s="19" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="B613" s="48">
         <v>6</v>
       </c>
       <c r="C613" s="19">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A614" s="19" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="B614" s="48">
         <v>6</v>
       </c>
       <c r="C614" s="19">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A615" s="19" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="B615" s="48">
         <v>6</v>
       </c>
       <c r="C615" s="19">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A616" s="19" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B616" s="48">
         <v>6</v>
       </c>
       <c r="C616" s="19">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A617" s="19" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B617" s="48">
         <v>6</v>
       </c>
       <c r="C617" s="19">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A618" s="19" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B618" s="48">
         <v>6</v>
       </c>
       <c r="C618" s="19">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A619" s="19" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B619" s="48">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C619" s="19">
-        <v>1</v>
+        <v>70</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A620" s="19" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B620" s="48">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C620" s="19">
-        <v>2</v>
+        <v>71</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A621" s="19" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B621" s="48">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C621" s="19">
-        <v>3</v>
+        <v>72</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A622" s="19" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="B622" s="48">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C622" s="19">
-        <v>4</v>
+        <v>73</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A623" s="38" t="s">
-        <v>603</v>
+      <c r="A623" s="19" t="s">
+        <v>599</v>
       </c>
       <c r="B623" s="48">
         <v>7</v>
       </c>
-      <c r="C623" s="38">
-        <v>101</v>
+      <c r="C623" s="19">
+        <v>1</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A624" s="38" t="s">
-        <v>604</v>
+      <c r="A624" s="19" t="s">
+        <v>600</v>
       </c>
       <c r="B624" s="48">
         <v>7</v>
       </c>
-      <c r="C624" s="38">
-        <v>102</v>
+      <c r="C624" s="19">
+        <v>2</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A625" s="38" t="s">
-        <v>605</v>
+      <c r="A625" s="19" t="s">
+        <v>601</v>
       </c>
       <c r="B625" s="48">
         <v>7</v>
       </c>
-      <c r="C625" s="38">
-        <v>103</v>
+      <c r="C625" s="19">
+        <v>3</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A626" s="38" t="s">
-        <v>606</v>
+      <c r="A626" s="19" t="s">
+        <v>602</v>
       </c>
       <c r="B626" s="48">
         <v>7</v>
       </c>
-      <c r="C626" s="38">
-        <v>104</v>
+      <c r="C626" s="19">
+        <v>4</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A627" s="16" t="s">
-        <v>607</v>
+      <c r="A627" s="38" t="s">
+        <v>603</v>
       </c>
       <c r="B627" s="48">
         <v>7</v>
       </c>
-      <c r="C627" s="16">
-        <v>201</v>
+      <c r="C627" s="38">
+        <v>101</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A628" s="16" t="s">
-        <v>608</v>
+      <c r="A628" s="38" t="s">
+        <v>604</v>
       </c>
       <c r="B628" s="48">
         <v>7</v>
       </c>
-      <c r="C628" s="16">
-        <v>202</v>
+      <c r="C628" s="38">
+        <v>102</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A629" s="16" t="s">
-        <v>609</v>
+      <c r="A629" s="38" t="s">
+        <v>605</v>
       </c>
       <c r="B629" s="48">
         <v>7</v>
       </c>
-      <c r="C629" s="16">
-        <v>203</v>
+      <c r="C629" s="38">
+        <v>103</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A630" s="16" t="s">
-        <v>610</v>
+      <c r="A630" s="38" t="s">
+        <v>606</v>
       </c>
       <c r="B630" s="48">
         <v>7</v>
       </c>
-      <c r="C630" s="16">
-        <v>204</v>
+      <c r="C630" s="38">
+        <v>104</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A631" s="16" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B631" s="48">
         <v>7</v>
       </c>
       <c r="C631" s="16">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A632" s="16" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B632" s="48">
         <v>7</v>
       </c>
       <c r="C632" s="16">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A633" s="16" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B633" s="48">
         <v>7</v>
       </c>
       <c r="C633" s="16">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A634" s="16" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B634" s="48">
         <v>7</v>
       </c>
       <c r="C634" s="16">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A635" s="36" t="s">
-        <v>615</v>
+      <c r="A635" s="16" t="s">
+        <v>611</v>
       </c>
       <c r="B635" s="48">
         <v>7</v>
       </c>
-      <c r="C635" s="36">
-        <v>301</v>
+      <c r="C635" s="16">
+        <v>211</v>
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A636" s="36" t="s">
-        <v>616</v>
+      <c r="A636" s="16" t="s">
+        <v>612</v>
       </c>
       <c r="B636" s="48">
         <v>7</v>
       </c>
-      <c r="C636" s="36">
-        <v>302</v>
+      <c r="C636" s="16">
+        <v>212</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A637" s="36" t="s">
-        <v>617</v>
+      <c r="A637" s="16" t="s">
+        <v>613</v>
       </c>
       <c r="B637" s="48">
         <v>7</v>
       </c>
-      <c r="C637" s="36">
-        <v>303</v>
+      <c r="C637" s="16">
+        <v>213</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A638" s="36" t="s">
-        <v>618</v>
+      <c r="A638" s="16" t="s">
+        <v>614</v>
       </c>
       <c r="B638" s="48">
         <v>7</v>
       </c>
-      <c r="C638" s="36">
-        <v>304</v>
+      <c r="C638" s="16">
+        <v>214</v>
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A639" s="36" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B639" s="48">
         <v>7</v>
       </c>
       <c r="C639" s="36">
-        <v>311</v>
+        <v>301</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A640" s="36" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B640" s="48">
         <v>7</v>
       </c>
       <c r="C640" s="36">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A641" s="36" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B641" s="48">
         <v>7</v>
       </c>
       <c r="C641" s="36">
-        <v>313</v>
+        <v>303</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A642" s="36" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B642" s="48">
         <v>7</v>
       </c>
       <c r="C642" s="36">
-        <v>314</v>
+        <v>304</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A643" s="39" t="s">
-        <v>623</v>
+      <c r="A643" s="36" t="s">
+        <v>619</v>
       </c>
       <c r="B643" s="48">
         <v>7</v>
       </c>
-      <c r="C643" s="39">
-        <v>401</v>
+      <c r="C643" s="36">
+        <v>311</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A644" s="39" t="s">
-        <v>624</v>
+      <c r="A644" s="36" t="s">
+        <v>620</v>
       </c>
       <c r="B644" s="48">
         <v>7</v>
       </c>
-      <c r="C644" s="39">
-        <v>402</v>
+      <c r="C644" s="36">
+        <v>312</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A645" s="39" t="s">
-        <v>625</v>
+      <c r="A645" s="36" t="s">
+        <v>621</v>
       </c>
       <c r="B645" s="48">
         <v>7</v>
       </c>
-      <c r="C645" s="39">
-        <v>403</v>
+      <c r="C645" s="36">
+        <v>313</v>
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A646" s="39" t="s">
-        <v>626</v>
+      <c r="A646" s="36" t="s">
+        <v>622</v>
       </c>
       <c r="B646" s="48">
         <v>7</v>
       </c>
-      <c r="C646" s="39">
-        <v>404</v>
+      <c r="C646" s="36">
+        <v>314</v>
       </c>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A647" s="39" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B647" s="48">
         <v>7</v>
       </c>
       <c r="C647" s="39">
-        <v>411</v>
+        <v>401</v>
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A648" s="39" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B648" s="48">
         <v>7</v>
       </c>
       <c r="C648" s="39">
-        <v>412</v>
+        <v>402</v>
       </c>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A649" s="39" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B649" s="48">
         <v>7</v>
       </c>
       <c r="C649" s="39">
-        <v>413</v>
+        <v>403</v>
       </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A650" s="39" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B650" s="48">
         <v>7</v>
       </c>
       <c r="C650" s="39">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A651" s="40" t="s">
-        <v>631</v>
+      <c r="A651" s="39" t="s">
+        <v>627</v>
       </c>
       <c r="B651" s="48">
         <v>7</v>
       </c>
-      <c r="C651" s="40">
-        <v>421</v>
+      <c r="C651" s="39">
+        <v>411</v>
       </c>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A652" s="40" t="s">
-        <v>632</v>
+      <c r="A652" s="39" t="s">
+        <v>628</v>
       </c>
       <c r="B652" s="48">
         <v>7</v>
       </c>
-      <c r="C652" s="40">
-        <v>422</v>
+      <c r="C652" s="39">
+        <v>412</v>
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A653" s="40" t="s">
-        <v>633</v>
+      <c r="A653" s="39" t="s">
+        <v>629</v>
       </c>
       <c r="B653" s="48">
         <v>7</v>
       </c>
-      <c r="C653" s="40">
-        <v>423</v>
+      <c r="C653" s="39">
+        <v>413</v>
       </c>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A654" s="40" t="s">
-        <v>634</v>
+      <c r="A654" s="39" t="s">
+        <v>630</v>
       </c>
       <c r="B654" s="48">
         <v>7</v>
       </c>
-      <c r="C654" s="40">
+      <c r="C654" s="39">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A655" s="40" t="s">
+        <v>631</v>
+      </c>
+      <c r="B655" s="48">
+        <v>7</v>
+      </c>
+      <c r="C655" s="40">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A656" s="40" t="s">
+        <v>632</v>
+      </c>
+      <c r="B656" s="48">
+        <v>7</v>
+      </c>
+      <c r="C656" s="40">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A657" s="40" t="s">
+        <v>633</v>
+      </c>
+      <c r="B657" s="48">
+        <v>7</v>
+      </c>
+      <c r="C657" s="40">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A658" s="40" t="s">
+        <v>634</v>
+      </c>
+      <c r="B658" s="48">
+        <v>7</v>
+      </c>
+      <c r="C658" s="40">
         <v>424</v>
       </c>
     </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A655" s="16" t="s">
+    <row r="659" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A659" s="16" t="s">
         <v>635</v>
-      </c>
-      <c r="B655" s="48">
-        <v>8</v>
-      </c>
-      <c r="C655" s="16">
-        <v>11010</v>
-      </c>
-    </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A656" s="16" t="s">
-        <v>636</v>
-      </c>
-      <c r="B656" s="48">
-        <v>8</v>
-      </c>
-      <c r="C656" s="16">
-        <v>11020</v>
-      </c>
-    </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A657" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="B657" s="48">
-        <v>8</v>
-      </c>
-      <c r="C657" s="17">
-        <v>11110</v>
-      </c>
-    </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A658" s="17" t="s">
-        <v>638</v>
-      </c>
-      <c r="B658" s="48">
-        <v>8</v>
-      </c>
-      <c r="C658" s="17">
-        <v>11120</v>
-      </c>
-    </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A659" s="18" t="s">
-        <v>639</v>
       </c>
       <c r="B659" s="48">
         <v>8</v>
       </c>
-      <c r="C659" s="18">
-        <v>11210</v>
+      <c r="C659" s="16">
+        <v>11010</v>
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A660" s="18" t="s">
-        <v>640</v>
+      <c r="A660" s="16" t="s">
+        <v>636</v>
       </c>
       <c r="B660" s="48">
         <v>8</v>
       </c>
-      <c r="C660" s="18">
-        <v>11320</v>
+      <c r="C660" s="16">
+        <v>11020</v>
       </c>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A661" s="16" t="s">
-        <v>641</v>
+      <c r="A661" s="17" t="s">
+        <v>637</v>
       </c>
       <c r="B661" s="48">
         <v>8</v>
       </c>
-      <c r="C661" s="16">
-        <v>12010</v>
+      <c r="C661" s="17">
+        <v>11110</v>
       </c>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A662" s="16" t="s">
-        <v>642</v>
+      <c r="A662" s="17" t="s">
+        <v>638</v>
       </c>
       <c r="B662" s="48">
         <v>8</v>
       </c>
-      <c r="C662" s="16">
-        <v>12020</v>
+      <c r="C662" s="17">
+        <v>11120</v>
       </c>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A663" s="17" t="s">
-        <v>643</v>
+      <c r="A663" s="18" t="s">
+        <v>639</v>
       </c>
       <c r="B663" s="48">
         <v>8</v>
       </c>
-      <c r="C663" s="17">
-        <v>12110</v>
+      <c r="C663" s="18">
+        <v>11210</v>
       </c>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A664" s="17" t="s">
-        <v>644</v>
+      <c r="A664" s="18" t="s">
+        <v>640</v>
       </c>
       <c r="B664" s="48">
         <v>8</v>
       </c>
-      <c r="C664" s="17">
-        <v>12120</v>
+      <c r="C664" s="18">
+        <v>11320</v>
       </c>
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A665" s="18" t="s">
-        <v>645</v>
+      <c r="A665" s="16" t="s">
+        <v>641</v>
       </c>
       <c r="B665" s="48">
         <v>8</v>
       </c>
-      <c r="C665" s="18">
-        <v>12210</v>
+      <c r="C665" s="16">
+        <v>12010</v>
       </c>
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A666" s="18" t="s">
-        <v>646</v>
+      <c r="A666" s="16" t="s">
+        <v>642</v>
       </c>
       <c r="B666" s="48">
         <v>8</v>
       </c>
-      <c r="C666" s="18">
-        <v>12320</v>
+      <c r="C666" s="16">
+        <v>12020</v>
       </c>
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A667" s="19" t="s">
-        <v>647</v>
+      <c r="A667" s="17" t="s">
+        <v>643</v>
       </c>
       <c r="B667" s="48">
         <v>8</v>
       </c>
-      <c r="C667" s="19">
-        <v>13010</v>
+      <c r="C667" s="17">
+        <v>12110</v>
       </c>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A668" s="19" t="s">
-        <v>648</v>
+      <c r="A668" s="17" t="s">
+        <v>644</v>
       </c>
       <c r="B668" s="48">
         <v>8</v>
       </c>
-      <c r="C668" s="19">
-        <v>13020</v>
+      <c r="C668" s="17">
+        <v>12120</v>
       </c>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A669" s="19" t="s">
-        <v>649</v>
+      <c r="A669" s="18" t="s">
+        <v>645</v>
       </c>
       <c r="B669" s="48">
         <v>8</v>
       </c>
-      <c r="C669" s="19">
+      <c r="C669" s="18">
+        <v>12210</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A670" s="18" t="s">
+        <v>646</v>
+      </c>
+      <c r="B670" s="48">
+        <v>8</v>
+      </c>
+      <c r="C670" s="18">
+        <v>12320</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A671" s="19" t="s">
+        <v>647</v>
+      </c>
+      <c r="B671" s="48">
+        <v>8</v>
+      </c>
+      <c r="C671" s="19">
+        <v>13010</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A672" s="19" t="s">
+        <v>648</v>
+      </c>
+      <c r="B672" s="48">
+        <v>8</v>
+      </c>
+      <c r="C672" s="19">
+        <v>13020</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A673" s="19" t="s">
+        <v>649</v>
+      </c>
+      <c r="B673" s="48">
+        <v>8</v>
+      </c>
+      <c r="C673" s="19">
         <v>13030</v>
       </c>
     </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A670" s="20" t="s">
+    <row r="674" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A674" s="20" t="s">
         <v>650</v>
-      </c>
-      <c r="B670" s="48">
-        <v>9</v>
-      </c>
-      <c r="C670" s="24">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A671" s="20" t="s">
-        <v>651</v>
-      </c>
-      <c r="B671" s="48">
-        <v>9</v>
-      </c>
-      <c r="C671" s="24">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A672" s="20" t="s">
-        <v>652</v>
-      </c>
-      <c r="B672" s="48">
-        <v>9</v>
-      </c>
-      <c r="C672" s="24">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A673" s="20" t="s">
-        <v>653</v>
-      </c>
-      <c r="B673" s="48">
-        <v>9</v>
-      </c>
-      <c r="C673" s="24">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A674" s="21" t="s">
-        <v>654</v>
       </c>
       <c r="B674" s="48">
         <v>9</v>
       </c>
-      <c r="C674" s="23">
-        <v>42</v>
+      <c r="C674" s="24">
+        <v>38</v>
       </c>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A675" s="21" t="s">
-        <v>655</v>
+      <c r="A675" s="20" t="s">
+        <v>651</v>
       </c>
       <c r="B675" s="48">
         <v>9</v>
       </c>
-      <c r="C675" s="23">
-        <v>43</v>
+      <c r="C675" s="24">
+        <v>39</v>
       </c>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A676" s="21" t="s">
-        <v>656</v>
+      <c r="A676" s="20" t="s">
+        <v>652</v>
       </c>
       <c r="B676" s="48">
         <v>9</v>
       </c>
-      <c r="C676" s="23">
-        <v>44</v>
+      <c r="C676" s="24">
+        <v>40</v>
       </c>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A677" s="21" t="s">
-        <v>657</v>
+      <c r="A677" s="20" t="s">
+        <v>653</v>
       </c>
       <c r="B677" s="48">
         <v>9</v>
       </c>
-      <c r="C677" s="23">
-        <v>45</v>
+      <c r="C677" s="24">
+        <v>41</v>
       </c>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A678" s="22" t="s">
-        <v>658</v>
+      <c r="A678" s="21" t="s">
+        <v>654</v>
       </c>
       <c r="B678" s="48">
         <v>9</v>
       </c>
-      <c r="C678" s="24">
-        <v>46</v>
+      <c r="C678" s="23">
+        <v>42</v>
       </c>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A679" s="22" t="s">
-        <v>659</v>
+      <c r="A679" s="21" t="s">
+        <v>655</v>
       </c>
       <c r="B679" s="48">
         <v>9</v>
       </c>
-      <c r="C679" s="24">
-        <v>47</v>
+      <c r="C679" s="23">
+        <v>43</v>
       </c>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A680" s="22" t="s">
-        <v>660</v>
+      <c r="A680" s="21" t="s">
+        <v>656</v>
       </c>
       <c r="B680" s="48">
         <v>9</v>
       </c>
-      <c r="C680" s="24">
-        <v>48</v>
+      <c r="C680" s="23">
+        <v>44</v>
       </c>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A681" s="22" t="s">
-        <v>661</v>
+      <c r="A681" s="21" t="s">
+        <v>657</v>
       </c>
       <c r="B681" s="48">
         <v>9</v>
       </c>
-      <c r="C681" s="24">
-        <v>49</v>
+      <c r="C681" s="23">
+        <v>45</v>
       </c>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A682" s="23" t="s">
-        <v>662</v>
+      <c r="A682" s="22" t="s">
+        <v>658</v>
       </c>
       <c r="B682" s="48">
         <v>9</v>
       </c>
-      <c r="C682" s="19">
-        <v>50</v>
+      <c r="C682" s="24">
+        <v>46</v>
       </c>
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A683" s="19" t="s">
-        <v>663</v>
+      <c r="A683" s="22" t="s">
+        <v>659</v>
       </c>
       <c r="B683" s="48">
         <v>9</v>
       </c>
-      <c r="C683" s="19">
-        <v>51</v>
+      <c r="C683" s="24">
+        <v>47</v>
       </c>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A684" s="19" t="s">
-        <v>664</v>
+      <c r="A684" s="22" t="s">
+        <v>660</v>
       </c>
       <c r="B684" s="48">
         <v>9</v>
       </c>
-      <c r="C684" s="19">
-        <v>52</v>
+      <c r="C684" s="24">
+        <v>48</v>
       </c>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A685" s="19" t="s">
-        <v>665</v>
+      <c r="A685" s="22" t="s">
+        <v>661</v>
       </c>
       <c r="B685" s="48">
         <v>9</v>
       </c>
-      <c r="C685" s="19">
-        <v>53</v>
+      <c r="C685" s="24">
+        <v>49</v>
       </c>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A686" s="19" t="s">
-        <v>666</v>
+      <c r="A686" s="23" t="s">
+        <v>662</v>
       </c>
       <c r="B686" s="48">
         <v>9</v>
       </c>
       <c r="C686" s="19">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A687" s="19" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="B687" s="48">
         <v>9</v>
       </c>
       <c r="C687" s="19">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A688" s="19" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="B688" s="48">
         <v>9</v>
       </c>
       <c r="C688" s="19">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A689" s="19" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="B689" s="48">
         <v>9</v>
       </c>
       <c r="C689" s="19">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A690" s="19" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="B690" s="48">
         <v>9</v>
       </c>
       <c r="C690" s="19">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A691" s="19" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="B691" s="48">
         <v>9</v>
       </c>
       <c r="C691" s="19">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A692" s="21" t="s">
-        <v>672</v>
+      <c r="A692" s="19" t="s">
+        <v>668</v>
       </c>
       <c r="B692" s="48">
         <v>9</v>
       </c>
-      <c r="C692" s="23">
-        <v>60</v>
+      <c r="C692" s="19">
+        <v>56</v>
       </c>
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A693" s="23" t="s">
-        <v>673</v>
+      <c r="A693" s="19" t="s">
+        <v>669</v>
       </c>
       <c r="B693" s="48">
         <v>9</v>
       </c>
       <c r="C693" s="19">
-        <v>101</v>
+        <v>57</v>
       </c>
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A694" s="23" t="s">
-        <v>674</v>
+      <c r="A694" s="19" t="s">
+        <v>670</v>
       </c>
       <c r="B694" s="48">
         <v>9</v>
       </c>
       <c r="C694" s="19">
-        <v>102</v>
+        <v>58</v>
       </c>
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A695" s="23" t="s">
-        <v>675</v>
+      <c r="A695" s="19" t="s">
+        <v>671</v>
       </c>
       <c r="B695" s="48">
         <v>9</v>
       </c>
       <c r="C695" s="19">
-        <v>103</v>
+        <v>59</v>
       </c>
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A696" s="19" t="s">
-        <v>676</v>
+      <c r="A696" s="21" t="s">
+        <v>672</v>
       </c>
       <c r="B696" s="48">
         <v>9</v>
       </c>
-      <c r="C696" s="19">
-        <v>104</v>
+      <c r="C696" s="23">
+        <v>60</v>
       </c>
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A697" s="19" t="s">
-        <v>677</v>
+      <c r="A697" s="23" t="s">
+        <v>673</v>
       </c>
       <c r="B697" s="48">
         <v>9</v>
       </c>
       <c r="C697" s="19">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A698" s="19" t="s">
-        <v>678</v>
+      <c r="A698" s="23" t="s">
+        <v>674</v>
       </c>
       <c r="B698" s="48">
         <v>9</v>
       </c>
       <c r="C698" s="19">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A699" s="19" t="s">
-        <v>679</v>
+      <c r="A699" s="23" t="s">
+        <v>675</v>
       </c>
       <c r="B699" s="48">
         <v>9</v>
       </c>
       <c r="C699" s="19">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A700" s="19" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="B700" s="48">
         <v>9</v>
       </c>
       <c r="C700" s="19">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A701" s="19" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="B701" s="48">
         <v>9</v>
       </c>
       <c r="C701" s="19">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A702" s="19" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="B702" s="48">
         <v>9</v>
       </c>
       <c r="C702" s="19">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A703" s="19" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="B703" s="48">
         <v>9</v>
       </c>
       <c r="C703" s="19">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A704" s="19" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B704" s="48">
         <v>9</v>
       </c>
       <c r="C704" s="19">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A705" s="19" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="B705" s="48">
         <v>9</v>
       </c>
       <c r="C705" s="19">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A706" s="19" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="B706" s="48">
         <v>9</v>
       </c>
       <c r="C706" s="19">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="707" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A707" s="19" t="s">
+        <v>683</v>
+      </c>
+      <c r="B707" s="48">
+        <v>9</v>
+      </c>
+      <c r="C707" s="19">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="708" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A708" s="19" t="s">
+        <v>684</v>
+      </c>
+      <c r="B708" s="48">
+        <v>9</v>
+      </c>
+      <c r="C708" s="19">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="709" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A709" s="19" t="s">
+        <v>685</v>
+      </c>
+      <c r="B709" s="48">
+        <v>9</v>
+      </c>
+      <c r="C709" s="19">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="710" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A710" s="19" t="s">
+        <v>686</v>
+      </c>
+      <c r="B710" s="48">
+        <v>9</v>
+      </c>
+      <c r="C710" s="19">
         <v>114</v>
-      </c>
-    </row>
-    <row r="707" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A707" s="25" t="s">
-        <v>687</v>
-      </c>
-      <c r="B707" s="48">
-        <v>10</v>
-      </c>
-      <c r="C707" s="25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="708" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A708" s="25" t="s">
-        <v>688</v>
-      </c>
-      <c r="B708" s="48">
-        <v>10</v>
-      </c>
-      <c r="C708" s="25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="709" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A709" s="25" t="s">
-        <v>689</v>
-      </c>
-      <c r="B709" s="48">
-        <v>10</v>
-      </c>
-      <c r="C709" s="25">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="710" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A710" s="25" t="s">
-        <v>690</v>
-      </c>
-      <c r="B710" s="48">
-        <v>10</v>
-      </c>
-      <c r="C710" s="25">
-        <v>7</v>
       </c>
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A711" s="25" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B711" s="48">
         <v>10</v>
       </c>
       <c r="C711" s="25">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A712" s="25" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B712" s="48">
         <v>10</v>
       </c>
       <c r="C712" s="25">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A713" s="25" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="B713" s="48">
         <v>10</v>
       </c>
       <c r="C713" s="25">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A714" s="25" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B714" s="48">
         <v>10</v>
       </c>
       <c r="C714" s="25">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A715" s="25" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="B715" s="48">
         <v>10</v>
       </c>
       <c r="C715" s="25">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A716" s="25" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="B716" s="48">
         <v>10</v>
       </c>
       <c r="C716" s="25">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A717" s="25" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="B717" s="48">
         <v>10</v>
       </c>
       <c r="C717" s="25">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A718" s="25" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="B718" s="48">
         <v>10</v>
       </c>
       <c r="C718" s="25">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A719" s="25" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="B719" s="48">
         <v>10</v>
       </c>
       <c r="C719" s="25">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A720" s="25" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B720" s="48">
         <v>10</v>
       </c>
       <c r="C720" s="25">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A721" s="11" t="s">
-        <v>701</v>
+      <c r="A721" s="25" t="s">
+        <v>697</v>
       </c>
       <c r="B721" s="48">
         <v>10</v>
       </c>
-      <c r="C721" s="11">
-        <v>101</v>
+      <c r="C721" s="25">
+        <v>14</v>
       </c>
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A722" s="11" t="s">
-        <v>702</v>
+      <c r="A722" s="25" t="s">
+        <v>698</v>
       </c>
       <c r="B722" s="48">
         <v>10</v>
       </c>
-      <c r="C722" s="11">
-        <v>102</v>
+      <c r="C722" s="25">
+        <v>15</v>
       </c>
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A723" s="11" t="s">
-        <v>703</v>
+      <c r="A723" s="25" t="s">
+        <v>699</v>
       </c>
       <c r="B723" s="48">
         <v>10</v>
       </c>
-      <c r="C723" s="11">
-        <v>103</v>
+      <c r="C723" s="25">
+        <v>16</v>
       </c>
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A724" s="11" t="s">
-        <v>704</v>
+      <c r="A724" s="25" t="s">
+        <v>700</v>
       </c>
       <c r="B724" s="48">
         <v>10</v>
       </c>
-      <c r="C724" s="11">
-        <v>104</v>
+      <c r="C724" s="25">
+        <v>17</v>
       </c>
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A725" s="11" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="B725" s="48">
         <v>10</v>
       </c>
       <c r="C725" s="11">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A726" s="11" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="B726" s="48">
         <v>10</v>
       </c>
       <c r="C726" s="11">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A727" s="11" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="B727" s="48">
         <v>10</v>
       </c>
       <c r="C727" s="11">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="728" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A728" s="11" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="B728" s="48">
         <v>10</v>
       </c>
       <c r="C728" s="11">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A729" s="11" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="B729" s="48">
         <v>10</v>
       </c>
       <c r="C729" s="11">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A730" s="11" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="B730" s="48">
         <v>10</v>
       </c>
       <c r="C730" s="11">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A731" s="11" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="B731" s="48">
         <v>10</v>
       </c>
       <c r="C731" s="11">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="732" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A732" s="11" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="B732" s="48">
         <v>10</v>
       </c>
       <c r="C732" s="11">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="733" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A733" s="11" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="B733" s="48">
         <v>10</v>
       </c>
       <c r="C733" s="11">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="734" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A734" s="11" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="B734" s="48">
         <v>10</v>
       </c>
       <c r="C734" s="11">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="735" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A735" s="11" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B735" s="48">
         <v>10</v>
       </c>
       <c r="C735" s="11">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="736" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A736" s="11" t="s">
+        <v>712</v>
+      </c>
+      <c r="B736" s="48">
+        <v>10</v>
+      </c>
+      <c r="C736" s="11">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="737" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A737" s="11" t="s">
+        <v>713</v>
+      </c>
+      <c r="B737" s="48">
+        <v>10</v>
+      </c>
+      <c r="C737" s="11">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="738" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A738" s="11" t="s">
+        <v>714</v>
+      </c>
+      <c r="B738" s="48">
+        <v>10</v>
+      </c>
+      <c r="C738" s="11">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="739" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A739" s="11" t="s">
+        <v>715</v>
+      </c>
+      <c r="B739" s="48">
+        <v>10</v>
+      </c>
+      <c r="C739" s="11">
         <v>115</v>
-      </c>
-    </row>
-    <row r="736" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A736" s="26" t="s">
-        <v>716</v>
-      </c>
-      <c r="B736" s="48">
-        <v>11</v>
-      </c>
-      <c r="C736" s="26">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="737" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A737" s="26" t="s">
-        <v>717</v>
-      </c>
-      <c r="B737" s="48">
-        <v>11</v>
-      </c>
-      <c r="C737" s="26">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="738" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A738" s="26" t="s">
-        <v>718</v>
-      </c>
-      <c r="B738" s="48">
-        <v>11</v>
-      </c>
-      <c r="C738" s="26">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="739" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A739" s="26" t="s">
-        <v>719</v>
-      </c>
-      <c r="B739" s="48">
-        <v>11</v>
-      </c>
-      <c r="C739" s="26">
-        <v>400</v>
       </c>
     </row>
     <row r="740" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A740" s="26" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="B740" s="48">
         <v>11</v>
       </c>
       <c r="C740" s="26">
-        <v>500</v>
+        <v>100</v>
       </c>
     </row>
     <row r="741" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A741" s="26" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="B741" s="48">
         <v>11</v>
       </c>
       <c r="C741" s="26">
-        <v>600</v>
+        <v>200</v>
       </c>
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A742" s="27" t="s">
-        <v>722</v>
+      <c r="A742" s="26" t="s">
+        <v>718</v>
       </c>
       <c r="B742" s="48">
         <v>11</v>
       </c>
-      <c r="C742" s="27">
-        <v>700</v>
+      <c r="C742" s="26">
+        <v>300</v>
       </c>
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A743" s="28" t="s">
-        <v>723</v>
+      <c r="A743" s="26" t="s">
+        <v>719</v>
       </c>
       <c r="B743" s="48">
         <v>11</v>
       </c>
-      <c r="C743" s="28">
-        <v>800</v>
+      <c r="C743" s="26">
+        <v>400</v>
       </c>
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A744" s="28" t="s">
-        <v>724</v>
+      <c r="A744" s="26" t="s">
+        <v>720</v>
       </c>
       <c r="B744" s="48">
         <v>11</v>
       </c>
-      <c r="C744" s="28">
+      <c r="C744" s="26">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="745" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A745" s="26" t="s">
+        <v>721</v>
+      </c>
+      <c r="B745" s="48">
+        <v>11</v>
+      </c>
+      <c r="C745" s="26">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="746" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A746" s="27" t="s">
+        <v>722</v>
+      </c>
+      <c r="B746" s="48">
+        <v>11</v>
+      </c>
+      <c r="C746" s="27">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="747" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A747" s="28" t="s">
+        <v>723</v>
+      </c>
+      <c r="B747" s="48">
+        <v>11</v>
+      </c>
+      <c r="C747" s="28">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="748" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A748" s="28" t="s">
+        <v>724</v>
+      </c>
+      <c r="B748" s="48">
+        <v>11</v>
+      </c>
+      <c r="C748" s="28">
         <v>900</v>
       </c>
     </row>
-    <row r="745" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A745" s="19" t="s">
+    <row r="749" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A749" s="19" t="s">
         <v>725</v>
-      </c>
-      <c r="B745" s="48">
-        <v>12</v>
-      </c>
-      <c r="C745" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="746" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A746" s="29" t="s">
-        <v>726</v>
-      </c>
-      <c r="B746" s="48">
-        <v>12</v>
-      </c>
-      <c r="C746" s="29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="747" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A747" s="29" t="s">
-        <v>727</v>
-      </c>
-      <c r="B747" s="48">
-        <v>12</v>
-      </c>
-      <c r="C747" s="29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="748" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A748" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="B748" s="48">
-        <v>12</v>
-      </c>
-      <c r="C748" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="749" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A749" s="1" t="s">
-        <v>729</v>
       </c>
       <c r="B749" s="48">
         <v>12</v>
       </c>
-      <c r="C749" s="1">
-        <v>5</v>
+      <c r="C749" s="19">
+        <v>1</v>
       </c>
     </row>
     <row r="750" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A750" s="1" t="s">
-        <v>730</v>
+      <c r="A750" s="29" t="s">
+        <v>726</v>
       </c>
       <c r="B750" s="48">
         <v>12</v>
       </c>
-      <c r="C750" s="1">
-        <v>6</v>
+      <c r="C750" s="29">
+        <v>2</v>
       </c>
     </row>
     <row r="751" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A751" s="1" t="s">
-        <v>731</v>
+      <c r="A751" s="29" t="s">
+        <v>727</v>
       </c>
       <c r="B751" s="48">
         <v>12</v>
       </c>
-      <c r="C751" s="1">
-        <v>7</v>
+      <c r="C751" s="29">
+        <v>3</v>
       </c>
     </row>
     <row r="752" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A752" s="1" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="B752" s="48">
         <v>12</v>
       </c>
       <c r="C752" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A753" s="1" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="B753" s="48">
         <v>12</v>
       </c>
       <c r="C753" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A754" s="1" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="B754" s="48">
         <v>12</v>
       </c>
       <c r="C754" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A755" s="1" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="B755" s="48">
         <v>12</v>
       </c>
       <c r="C755" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="756" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A756" s="1" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="B756" s="48">
         <v>12</v>
       </c>
       <c r="C756" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="757" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A757" s="1" t="s">
-        <v>463</v>
+        <v>733</v>
       </c>
       <c r="B757" s="48">
         <v>12</v>
       </c>
       <c r="C757" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="758" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A758" s="1" t="s">
-        <v>458</v>
+        <v>734</v>
       </c>
       <c r="B758" s="48">
         <v>12</v>
       </c>
       <c r="C758" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A759" s="1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B759" s="48">
         <v>12</v>
       </c>
       <c r="C759" s="1">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="760" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A760" s="1" t="s">
-        <v>456</v>
+        <v>736</v>
       </c>
       <c r="B760" s="48">
         <v>12</v>
       </c>
       <c r="C760" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A761" s="1" t="s">
-        <v>738</v>
+        <v>463</v>
       </c>
       <c r="B761" s="48">
         <v>12</v>
       </c>
       <c r="C761" s="1">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="762" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A762" s="1" t="s">
-        <v>739</v>
+        <v>458</v>
       </c>
       <c r="B762" s="48">
         <v>12</v>
       </c>
       <c r="C762" s="1">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="763" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A763" s="1" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="B763" s="48">
         <v>12</v>
       </c>
       <c r="C763" s="1">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="764" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A764" s="1" t="s">
-        <v>741</v>
+        <v>456</v>
       </c>
       <c r="B764" s="48">
         <v>12</v>
       </c>
       <c r="C764" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="765" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A765" s="1" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="B765" s="48">
         <v>12</v>
       </c>
       <c r="C765" s="1">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="766" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A766" s="1" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="B766" s="48">
         <v>12</v>
       </c>
       <c r="C766" s="1">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="767" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A767" s="1" t="s">
-        <v>725</v>
+        <v>740</v>
       </c>
       <c r="B767" s="48">
         <v>12</v>
       </c>
       <c r="C767" s="1">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="768" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A768" s="1" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B768" s="48">
         <v>12</v>
       </c>
       <c r="C768" s="1">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="769" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A769" s="1" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="B769" s="48">
         <v>12</v>
       </c>
       <c r="C769" s="1">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="770" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A770" s="1" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="B770" s="48">
         <v>12</v>
       </c>
       <c r="C770" s="1">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="771" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A771" s="1" t="s">
-        <v>747</v>
+        <v>725</v>
       </c>
       <c r="B771" s="48">
         <v>12</v>
       </c>
       <c r="C771" s="1">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="772" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A772" s="1" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="B772" s="48">
         <v>12</v>
       </c>
       <c r="C772" s="1">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="773" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A773" s="1" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="B773" s="48">
         <v>12</v>
       </c>
       <c r="C773" s="1">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="774" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A774" s="1" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="B774" s="48">
         <v>12</v>
       </c>
       <c r="C774" s="1">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="775" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A775" s="1" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="B775" s="48">
         <v>12</v>
       </c>
       <c r="C775" s="1">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="776" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A776" s="1" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="B776" s="48">
         <v>12</v>
       </c>
       <c r="C776" s="1">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="777" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A777" s="1" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="B777" s="48">
         <v>12</v>
       </c>
       <c r="C777" s="1">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="778" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A778" s="1" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="B778" s="48">
         <v>12</v>
       </c>
       <c r="C778" s="1">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="779" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A779" s="1" t="s">
-        <v>469</v>
+        <v>751</v>
       </c>
       <c r="B779" s="48">
         <v>12</v>
       </c>
       <c r="C779" s="1">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="780" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A780" s="1" t="s">
-        <v>448</v>
+        <v>752</v>
       </c>
       <c r="B780" s="48">
         <v>12</v>
       </c>
       <c r="C780" s="1">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="781" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A781" s="1" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B781" s="48">
         <v>12</v>
       </c>
       <c r="C781" s="1">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="782" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A782" s="1" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B782" s="48">
         <v>12</v>
       </c>
       <c r="C782" s="1">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="783" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A783" s="29" t="s">
-        <v>744</v>
+      <c r="A783" s="1" t="s">
+        <v>469</v>
       </c>
       <c r="B783" s="48">
         <v>12</v>
       </c>
       <c r="C783" s="1">
-        <v>101</v>
+        <v>35</v>
       </c>
     </row>
     <row r="784" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A784" s="1" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="B784" s="48">
         <v>12</v>
       </c>
       <c r="C784" s="1">
-        <v>102</v>
+        <v>36</v>
       </c>
     </row>
     <row r="785" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A785" s="1" t="s">
-        <v>474</v>
+        <v>755</v>
       </c>
       <c r="B785" s="48">
         <v>12</v>
       </c>
       <c r="C785" s="1">
-        <v>103</v>
+        <v>37</v>
       </c>
     </row>
     <row r="786" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A786" s="1" t="s">
-        <v>472</v>
+        <v>756</v>
       </c>
       <c r="B786" s="48">
         <v>12</v>
       </c>
       <c r="C786" s="1">
-        <v>104</v>
+        <v>38</v>
       </c>
     </row>
     <row r="787" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A787" s="30" t="s">
-        <v>757</v>
+      <c r="A787" s="29" t="s">
+        <v>744</v>
       </c>
       <c r="B787" s="48">
         <v>12</v>
       </c>
-      <c r="C787" s="30">
-        <v>105</v>
+      <c r="C787" s="1">
+        <v>101</v>
       </c>
     </row>
     <row r="788" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A788" s="30" t="s">
-        <v>758</v>
+      <c r="A788" s="1" t="s">
+        <v>454</v>
       </c>
       <c r="B788" s="48">
         <v>12</v>
       </c>
-      <c r="C788" s="30">
-        <v>106</v>
+      <c r="C788" s="1">
+        <v>102</v>
       </c>
     </row>
     <row r="789" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A789" s="30" t="s">
-        <v>759</v>
+      <c r="A789" s="1" t="s">
+        <v>474</v>
       </c>
       <c r="B789" s="48">
         <v>12</v>
       </c>
-      <c r="C789" s="30">
-        <v>107</v>
+      <c r="C789" s="1">
+        <v>103</v>
       </c>
     </row>
     <row r="790" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A790" s="30" t="s">
-        <v>760</v>
+      <c r="A790" s="1" t="s">
+        <v>472</v>
       </c>
       <c r="B790" s="48">
         <v>12</v>
       </c>
-      <c r="C790" s="30">
-        <v>108</v>
+      <c r="C790" s="1">
+        <v>104</v>
       </c>
     </row>
     <row r="791" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A791" s="1" t="s">
-        <v>761</v>
+      <c r="A791" s="30" t="s">
+        <v>757</v>
       </c>
       <c r="B791" s="48">
         <v>12</v>
       </c>
-      <c r="C791" s="1">
-        <v>109</v>
+      <c r="C791" s="30">
+        <v>105</v>
       </c>
     </row>
     <row r="792" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A792" s="1" t="s">
-        <v>762</v>
+      <c r="A792" s="30" t="s">
+        <v>758</v>
       </c>
       <c r="B792" s="48">
         <v>12</v>
       </c>
-      <c r="C792" s="1">
-        <v>110</v>
+      <c r="C792" s="30">
+        <v>106</v>
       </c>
     </row>
     <row r="793" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A793" s="1" t="s">
-        <v>763</v>
+      <c r="A793" s="30" t="s">
+        <v>759</v>
       </c>
       <c r="B793" s="48">
         <v>12</v>
       </c>
-      <c r="C793" s="1">
-        <v>111</v>
+      <c r="C793" s="30">
+        <v>107</v>
       </c>
     </row>
     <row r="794" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A794" s="1" t="s">
-        <v>764</v>
+      <c r="A794" s="30" t="s">
+        <v>760</v>
       </c>
       <c r="B794" s="48">
         <v>12</v>
       </c>
-      <c r="C794" s="1">
-        <v>112</v>
+      <c r="C794" s="30">
+        <v>108</v>
       </c>
     </row>
     <row r="795" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A795" s="1" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="B795" s="48">
         <v>12</v>
       </c>
       <c r="C795" s="1">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="796" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A796" s="1" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="B796" s="48">
         <v>12</v>
       </c>
       <c r="C796" s="1">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="797" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A797" s="1" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="B797" s="48">
         <v>12</v>
       </c>
       <c r="C797" s="1">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="798" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A798" s="1" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="B798" s="48">
         <v>12</v>
       </c>
       <c r="C798" s="1">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="799" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A799" s="1" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="B799" s="48">
         <v>12</v>
       </c>
       <c r="C799" s="1">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="800" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A800" s="1" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="B800" s="48">
         <v>12</v>
       </c>
       <c r="C800" s="1">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="801" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A801" s="1" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="B801" s="48">
         <v>12</v>
       </c>
       <c r="C801" s="1">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="802" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A802" s="1" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="B802" s="48">
         <v>12</v>
       </c>
       <c r="C802" s="1">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="803" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A803" s="1" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="B803" s="48">
         <v>12</v>
       </c>
       <c r="C803" s="1">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="804" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A804" s="1" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="B804" s="48">
         <v>12</v>
       </c>
       <c r="C804" s="1">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="805" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A805" s="1" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="B805" s="48">
         <v>12</v>
       </c>
       <c r="C805" s="1">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="806" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A806" s="1" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="B806" s="48">
         <v>12</v>
       </c>
       <c r="C806" s="1">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="807" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A807" s="1" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="B807" s="48">
         <v>12</v>
       </c>
       <c r="C807" s="1">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="808" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A808" s="1" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="B808" s="48">
         <v>12</v>
       </c>
       <c r="C808" s="1">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="809" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A809" s="1" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="B809" s="48">
         <v>12</v>
       </c>
       <c r="C809" s="1">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="810" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A810" s="1" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="B810" s="48">
         <v>12</v>
       </c>
       <c r="C810" s="1">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="811" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A811" s="1" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="B811" s="48">
         <v>12</v>
       </c>
       <c r="C811" s="1">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="812" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A812" s="1" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="B812" s="48">
         <v>12</v>
       </c>
       <c r="C812" s="1">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="813" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A813" s="1" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="B813" s="48">
         <v>12</v>
       </c>
       <c r="C813" s="1">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="814" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A814" s="1" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="B814" s="48">
         <v>12</v>
       </c>
       <c r="C814" s="1">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="815" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A815" s="1" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="B815" s="48">
         <v>12</v>
       </c>
       <c r="C815" s="1">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="816" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A816" s="1" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="B816" s="48">
         <v>12</v>
       </c>
       <c r="C816" s="1">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="817" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A817" s="1" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="B817" s="48">
         <v>12</v>
       </c>
       <c r="C817" s="1">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="818" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A818" s="1" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="B818" s="48">
         <v>12</v>
       </c>
       <c r="C818" s="1">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="819" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A819" s="1" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="B819" s="48">
         <v>12</v>
       </c>
       <c r="C819" s="1">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="820" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A820" s="1" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="B820" s="48">
         <v>12</v>
       </c>
       <c r="C820" s="1">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="821" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A821" s="1" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="B821" s="48">
         <v>12</v>
       </c>
       <c r="C821" s="1">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="822" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A822" s="1" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="B822" s="48">
         <v>12</v>
       </c>
       <c r="C822" s="1">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="823" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A823" s="1" t="s">
-        <v>347</v>
+        <v>789</v>
       </c>
       <c r="B823" s="48">
         <v>12</v>
       </c>
       <c r="C823" s="1">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="824" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A824" s="1" t="s">
-        <v>771</v>
+        <v>790</v>
       </c>
       <c r="B824" s="48">
         <v>12</v>
       </c>
       <c r="C824" s="1">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="825" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A825" s="1" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B825" s="48">
         <v>12</v>
       </c>
       <c r="C825" s="1">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="826" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A826" s="1" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B826" s="48">
         <v>12</v>
       </c>
       <c r="C826" s="1">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="827" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A827" s="1" t="s">
-        <v>795</v>
+        <v>347</v>
       </c>
       <c r="B827" s="48">
         <v>12</v>
       </c>
       <c r="C827" s="1">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="828" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A828" s="1" t="s">
-        <v>796</v>
+        <v>771</v>
       </c>
       <c r="B828" s="48">
         <v>12</v>
       </c>
       <c r="C828" s="1">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="829" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A829" s="1" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="B829" s="48">
         <v>12</v>
       </c>
       <c r="C829" s="1">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="830" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A830" s="1" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="B830" s="48">
         <v>12</v>
       </c>
       <c r="C830" s="1">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="831" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A831" s="1" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="B831" s="48">
         <v>12</v>
       </c>
       <c r="C831" s="1">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="832" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A832" s="1" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="B832" s="48">
         <v>12</v>
       </c>
       <c r="C832" s="1">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="833" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A833" s="1" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="B833" s="48">
         <v>12</v>
       </c>
       <c r="C833" s="1">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="834" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A834" s="1" t="s">
-        <v>448</v>
+        <v>798</v>
       </c>
       <c r="B834" s="48">
         <v>12</v>
       </c>
       <c r="C834" s="1">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="835" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A835" s="1" t="s">
-        <v>28</v>
+        <v>799</v>
       </c>
       <c r="B835" s="48">
         <v>12</v>
       </c>
       <c r="C835" s="1">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="836" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A836" s="1" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B836" s="48">
         <v>12</v>
       </c>
       <c r="C836" s="1">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="837" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A837" s="1" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B837" s="48">
         <v>12</v>
       </c>
       <c r="C837" s="1">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="838" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A838" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B838" s="48">
         <v>12</v>
       </c>
       <c r="C838" s="1">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="839" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A839" s="1" t="s">
-        <v>804</v>
+        <v>28</v>
       </c>
       <c r="B839" s="48">
         <v>12</v>
       </c>
       <c r="C839" s="1">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="840" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A840" s="1" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="B840" s="48">
         <v>12</v>
       </c>
       <c r="C840" s="1">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="841" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A841" s="1" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="B841" s="48">
         <v>12</v>
       </c>
       <c r="C841" s="1">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="842" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A842" s="1" t="s">
-        <v>807</v>
+        <v>451</v>
       </c>
       <c r="B842" s="48">
         <v>12</v>
       </c>
       <c r="C842" s="1">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="843" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A843" s="1" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="B843" s="48">
         <v>12</v>
       </c>
       <c r="C843" s="1">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="844" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A844" s="1" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="B844" s="48">
         <v>12</v>
       </c>
       <c r="C844" s="1">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="845" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A845" s="1" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="B845" s="48">
         <v>12</v>
       </c>
       <c r="C845" s="1">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="846" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A846" s="1" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="B846" s="48">
         <v>12</v>
       </c>
       <c r="C846" s="1">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="847" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A847" s="1" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="B847" s="48">
         <v>12</v>
       </c>
       <c r="C847" s="1">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="848" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A848" s="1" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="B848" s="48">
         <v>12</v>
       </c>
       <c r="C848" s="1">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="849" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A849" s="1" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="B849" s="48">
         <v>12</v>
       </c>
       <c r="C849" s="1">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="850" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A850" s="1" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="B850" s="48">
         <v>12</v>
       </c>
       <c r="C850" s="1">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="851" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A851" s="1" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="B851" s="48">
         <v>12</v>
       </c>
       <c r="C851" s="1">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="852" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A852" s="1" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="B852" s="48">
         <v>12</v>
       </c>
       <c r="C852" s="1">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="853" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A853" s="1" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="B853" s="48">
         <v>12</v>
       </c>
       <c r="C853" s="1">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="854" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A854" s="1" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="B854" s="48">
         <v>12</v>
       </c>
       <c r="C854" s="1">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="855" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A855" s="1" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="B855" s="48">
         <v>12</v>
       </c>
       <c r="C855" s="1">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="856" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A856" s="1" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="B856" s="48">
         <v>12</v>
       </c>
       <c r="C856" s="1">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="857" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A857" s="1" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="B857" s="48">
         <v>12</v>
       </c>
       <c r="C857" s="1">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="858" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A858" s="1" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="B858" s="48">
         <v>12</v>
       </c>
       <c r="C858" s="1">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="859" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A859" s="1" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="B859" s="48">
         <v>12</v>
       </c>
       <c r="C859" s="1">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="860" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A860" s="1" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="B860" s="48">
         <v>12</v>
       </c>
       <c r="C860" s="1">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="861" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A861" s="1" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="B861" s="48">
         <v>12</v>
       </c>
       <c r="C861" s="1">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="862" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A862" s="1" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="B862" s="48">
         <v>12</v>
       </c>
       <c r="C862" s="1">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="863" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A863" s="1" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="B863" s="48">
         <v>12</v>
       </c>
       <c r="C863" s="1">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="864" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A864" s="1" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="B864" s="48">
         <v>12</v>
       </c>
       <c r="C864" s="1">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="865" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A865" s="1" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="B865" s="48">
         <v>12</v>
       </c>
       <c r="C865" s="1">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="866" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A866" s="1" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="B866" s="48">
         <v>12</v>
       </c>
       <c r="C866" s="1">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="867" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A867" s="1" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="B867" s="48">
         <v>12</v>
       </c>
       <c r="C867" s="1">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="868" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A868" s="1" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="B868" s="48">
         <v>12</v>
       </c>
       <c r="C868" s="1">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="869" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A869" s="1" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="B869" s="48">
         <v>12</v>
       </c>
       <c r="C869" s="1">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="870" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A870" s="1" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="B870" s="48">
         <v>12</v>
       </c>
       <c r="C870" s="1">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="871" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A871" s="1" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="B871" s="48">
         <v>12</v>
       </c>
       <c r="C871" s="1">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="872" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A872" s="1" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="B872" s="48">
         <v>12</v>
       </c>
       <c r="C872" s="1">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="873" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A873" s="1" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="B873" s="48">
         <v>12</v>
       </c>
       <c r="C873" s="1">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="874" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A874" s="1" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="B874" s="48">
         <v>12</v>
       </c>
       <c r="C874" s="1">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="875" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A875" s="1" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="B875" s="48">
         <v>12</v>
       </c>
       <c r="C875" s="1">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="876" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A876" s="1" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="B876" s="48">
         <v>12</v>
       </c>
       <c r="C876" s="1">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="877" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A877" s="1" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="B877" s="48">
-        <v>13</v>
-      </c>
-      <c r="C877" s="33">
-        <v>51004001</v>
+        <v>12</v>
+      </c>
+      <c r="C877" s="1">
+        <v>191</v>
       </c>
     </row>
     <row r="878" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A878" s="1" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="B878" s="48">
-        <v>13</v>
-      </c>
-      <c r="C878" s="33">
-        <v>51004002</v>
+        <v>12</v>
+      </c>
+      <c r="C878" s="1">
+        <v>192</v>
       </c>
     </row>
     <row r="879" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A879" s="1" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="B879" s="48">
-        <v>13</v>
-      </c>
-      <c r="C879" s="33">
-        <v>51004003</v>
+        <v>12</v>
+      </c>
+      <c r="C879" s="1">
+        <v>193</v>
       </c>
     </row>
     <row r="880" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A880" s="41" t="s">
-        <v>845</v>
+      <c r="A880" s="1" t="s">
+        <v>841</v>
       </c>
       <c r="B880" s="48">
-        <v>13</v>
-      </c>
-      <c r="C880" s="16">
-        <v>51006001</v>
+        <v>12</v>
+      </c>
+      <c r="C880" s="1">
+        <v>194</v>
       </c>
     </row>
     <row r="881" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A881" s="41" t="s">
-        <v>846</v>
+      <c r="A881" s="1" t="s">
+        <v>842</v>
       </c>
       <c r="B881" s="48">
         <v>13</v>
       </c>
-      <c r="C881" s="16">
-        <v>50011001</v>
+      <c r="C881" s="33">
+        <v>51004001</v>
       </c>
     </row>
     <row r="882" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A882" s="41" t="s">
-        <v>847</v>
+      <c r="A882" s="1" t="s">
+        <v>843</v>
       </c>
       <c r="B882" s="48">
         <v>13</v>
       </c>
-      <c r="C882" s="16">
-        <v>51002001</v>
+      <c r="C882" s="33">
+        <v>51004002</v>
       </c>
     </row>
     <row r="883" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A883" s="41" t="s">
-        <v>848</v>
+      <c r="A883" s="1" t="s">
+        <v>844</v>
       </c>
       <c r="B883" s="48">
         <v>13</v>
       </c>
-      <c r="C883" s="16">
+      <c r="C883" s="33">
+        <v>51004003</v>
+      </c>
+    </row>
+    <row r="884" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A884" s="41" t="s">
+        <v>845</v>
+      </c>
+      <c r="B884" s="48">
+        <v>13</v>
+      </c>
+      <c r="C884" s="16">
+        <v>51006001</v>
+      </c>
+    </row>
+    <row r="885" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A885" s="41" t="s">
+        <v>846</v>
+      </c>
+      <c r="B885" s="48">
+        <v>13</v>
+      </c>
+      <c r="C885" s="16">
+        <v>50011001</v>
+      </c>
+    </row>
+    <row r="886" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A886" s="41" t="s">
+        <v>847</v>
+      </c>
+      <c r="B886" s="48">
+        <v>13</v>
+      </c>
+      <c r="C886" s="16">
+        <v>51002001</v>
+      </c>
+    </row>
+    <row r="887" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A887" s="41" t="s">
+        <v>848</v>
+      </c>
+      <c r="B887" s="48">
+        <v>13</v>
+      </c>
+      <c r="C887" s="16">
         <v>51008001</v>
       </c>
     </row>
-    <row r="884" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A884" s="42" t="s">
+    <row r="888" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A888" s="42" t="s">
         <v>849</v>
-      </c>
-      <c r="B884" s="48">
-        <v>14</v>
-      </c>
-      <c r="C884" s="43">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="885" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A885" s="44" t="s">
-        <v>850</v>
-      </c>
-      <c r="B885" s="48">
-        <v>14</v>
-      </c>
-      <c r="C885" s="43">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="886" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A886" s="45" t="s">
-        <v>851</v>
-      </c>
-      <c r="B886" s="48">
-        <v>14</v>
-      </c>
-      <c r="C886" s="43">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="887" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A887" s="45" t="s">
-        <v>852</v>
-      </c>
-      <c r="B887" s="48">
-        <v>14</v>
-      </c>
-      <c r="C887" s="43">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="888" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A888" s="45" t="s">
-        <v>853</v>
       </c>
       <c r="B888" s="48">
         <v>14</v>
       </c>
       <c r="C888" s="43">
-        <v>2030</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="889" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A889" s="45" t="s">
-        <v>854</v>
+      <c r="A889" s="44" t="s">
+        <v>850</v>
       </c>
       <c r="B889" s="48">
         <v>14</v>
       </c>
       <c r="C889" s="43">
-        <v>2040</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="890" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A890" s="45" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="B890" s="48">
         <v>14</v>
       </c>
       <c r="C890" s="43">
-        <v>2050</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="891" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A891" s="45" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="B891" s="48">
         <v>14</v>
       </c>
       <c r="C891" s="43">
-        <v>2060</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="892" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A892" s="46" t="s">
-        <v>857</v>
+      <c r="A892" s="45" t="s">
+        <v>853</v>
       </c>
       <c r="B892" s="48">
         <v>14</v>
       </c>
       <c r="C892" s="43">
-        <v>3010</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="893" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A893" s="46" t="s">
-        <v>858</v>
+      <c r="A893" s="45" t="s">
+        <v>854</v>
       </c>
       <c r="B893" s="48">
         <v>14</v>
       </c>
       <c r="C893" s="43">
-        <v>3020</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="894" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A894" s="46" t="s">
-        <v>859</v>
+      <c r="A894" s="45" t="s">
+        <v>855</v>
       </c>
       <c r="B894" s="48">
         <v>14</v>
       </c>
       <c r="C894" s="43">
-        <v>3030</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="895" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A895" s="46" t="s">
-        <v>860</v>
+      <c r="A895" s="45" t="s">
+        <v>856</v>
       </c>
       <c r="B895" s="48">
         <v>14</v>
       </c>
       <c r="C895" s="43">
-        <v>3040</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="896" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A896" s="46" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="B896" s="48">
         <v>14</v>
       </c>
       <c r="C896" s="43">
-        <v>3050</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="897" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A897" s="46" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="B897" s="48">
         <v>14</v>
       </c>
       <c r="C897" s="43">
+        <v>3020</v>
+      </c>
+    </row>
+    <row r="898" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A898" s="46" t="s">
+        <v>859</v>
+      </c>
+      <c r="B898" s="48">
+        <v>14</v>
+      </c>
+      <c r="C898" s="43">
+        <v>3030</v>
+      </c>
+    </row>
+    <row r="899" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A899" s="46" t="s">
+        <v>860</v>
+      </c>
+      <c r="B899" s="48">
+        <v>14</v>
+      </c>
+      <c r="C899" s="43">
+        <v>3040</v>
+      </c>
+    </row>
+    <row r="900" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A900" s="46" t="s">
+        <v>861</v>
+      </c>
+      <c r="B900" s="48">
+        <v>14</v>
+      </c>
+      <c r="C900" s="43">
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="901" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A901" s="46" t="s">
+        <v>862</v>
+      </c>
+      <c r="B901" s="48">
+        <v>14</v>
+      </c>
+      <c r="C901" s="43">
         <v>3060</v>
       </c>
     </row>
-    <row r="898" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A898" s="49" t="s">
+    <row r="902" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A902" s="49" t="s">
         <v>863</v>
-      </c>
-      <c r="B898" s="48">
-        <v>15</v>
-      </c>
-      <c r="C898" s="50">
-        <v>400060</v>
-      </c>
-    </row>
-    <row r="899" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A899" s="49" t="s">
-        <v>864</v>
-      </c>
-      <c r="B899" s="48">
-        <v>15</v>
-      </c>
-      <c r="C899" s="50">
-        <v>400070</v>
-      </c>
-    </row>
-    <row r="900" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A900" s="49" t="s">
-        <v>865</v>
-      </c>
-      <c r="B900" s="48">
-        <v>15</v>
-      </c>
-      <c r="C900" s="50">
-        <v>400130</v>
-      </c>
-    </row>
-    <row r="901" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A901" s="51" t="s">
-        <v>866</v>
-      </c>
-      <c r="B901" s="48">
-        <v>15</v>
-      </c>
-      <c r="C901" s="50">
-        <v>400010</v>
-      </c>
-    </row>
-    <row r="902" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A902" s="51" t="s">
-        <v>867</v>
       </c>
       <c r="B902" s="48">
         <v>15</v>
       </c>
       <c r="C902" s="50">
-        <v>400040</v>
+        <v>400060</v>
       </c>
     </row>
     <row r="903" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A903" s="51" t="s">
-        <v>868</v>
+      <c r="A903" s="49" t="s">
+        <v>864</v>
       </c>
       <c r="B903" s="48">
         <v>15</v>
       </c>
       <c r="C903" s="50">
-        <v>400020</v>
+        <v>400070</v>
       </c>
     </row>
     <row r="904" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A904" s="51" t="s">
-        <v>869</v>
+      <c r="A904" s="49" t="s">
+        <v>865</v>
       </c>
       <c r="B904" s="48">
         <v>15</v>
       </c>
       <c r="C904" s="50">
-        <v>400030</v>
+        <v>400130</v>
       </c>
     </row>
     <row r="905" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A905" s="51" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="B905" s="48">
         <v>15</v>
       </c>
       <c r="C905" s="50">
-        <v>400050</v>
+        <v>400010</v>
       </c>
     </row>
     <row r="906" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A906" s="51" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="B906" s="48">
         <v>15</v>
       </c>
       <c r="C906" s="50">
-        <v>400080</v>
+        <v>400040</v>
       </c>
     </row>
     <row r="907" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A907" s="51" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="B907" s="48">
         <v>15</v>
       </c>
       <c r="C907" s="50">
-        <v>400090</v>
+        <v>400020</v>
       </c>
     </row>
     <row r="908" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A908" s="51" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="B908" s="48">
         <v>15</v>
       </c>
       <c r="C908" s="50">
-        <v>400100</v>
+        <v>400030</v>
       </c>
     </row>
     <row r="909" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A909" s="51" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="B909" s="48">
         <v>15</v>
       </c>
       <c r="C909" s="50">
-        <v>400110</v>
+        <v>400050</v>
       </c>
     </row>
     <row r="910" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A910" s="51" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="B910" s="48">
         <v>15</v>
       </c>
       <c r="C910" s="50">
-        <v>400120</v>
+        <v>400080</v>
       </c>
     </row>
     <row r="911" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A911" s="51" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="B911" s="48">
         <v>15</v>
       </c>
       <c r="C911" s="50">
-        <v>400140</v>
+        <v>400090</v>
       </c>
     </row>
     <row r="912" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A912" s="51" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="B912" s="48">
         <v>15</v>
       </c>
       <c r="C912" s="50">
-        <v>400150</v>
+        <v>400100</v>
       </c>
     </row>
     <row r="913" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A913" s="51" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="B913" s="48">
         <v>15</v>
       </c>
       <c r="C913" s="50">
-        <v>400160</v>
+        <v>400110</v>
       </c>
     </row>
     <row r="914" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A914" s="52" t="s">
-        <v>879</v>
+      <c r="A914" s="51" t="s">
+        <v>875</v>
       </c>
       <c r="B914" s="48">
         <v>15</v>
       </c>
       <c r="C914" s="50">
-        <v>500010</v>
+        <v>400120</v>
       </c>
     </row>
     <row r="915" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A915" s="53" t="s">
-        <v>880</v>
+      <c r="A915" s="51" t="s">
+        <v>876</v>
       </c>
       <c r="B915" s="48">
         <v>15</v>
       </c>
       <c r="C915" s="50">
-        <v>500020</v>
+        <v>400140</v>
       </c>
     </row>
     <row r="916" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A916" s="52" t="s">
-        <v>881</v>
+      <c r="A916" s="51" t="s">
+        <v>877</v>
       </c>
       <c r="B916" s="48">
         <v>15</v>
       </c>
       <c r="C916" s="50">
-        <v>500030</v>
+        <v>400150</v>
       </c>
     </row>
     <row r="917" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A917" s="53" t="s">
-        <v>882</v>
+      <c r="A917" s="51" t="s">
+        <v>878</v>
       </c>
       <c r="B917" s="48">
         <v>15</v>
       </c>
       <c r="C917" s="50">
-        <v>500040</v>
+        <v>400160</v>
       </c>
     </row>
     <row r="918" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A918" s="52" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="B918" s="48">
         <v>15</v>
       </c>
       <c r="C918" s="50">
-        <v>500050</v>
+        <v>500010</v>
       </c>
     </row>
     <row r="919" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A919" s="52" t="s">
-        <v>884</v>
+      <c r="A919" s="53" t="s">
+        <v>880</v>
       </c>
       <c r="B919" s="48">
         <v>15</v>
       </c>
       <c r="C919" s="50">
-        <v>500060</v>
+        <v>500020</v>
       </c>
     </row>
     <row r="920" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A920" s="52" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="B920" s="48">
         <v>15</v>
       </c>
       <c r="C920" s="50">
-        <v>500070</v>
+        <v>500030</v>
       </c>
     </row>
     <row r="921" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A921" s="53" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="B921" s="48">
         <v>15</v>
       </c>
       <c r="C921" s="50">
-        <v>500080</v>
+        <v>500040</v>
       </c>
     </row>
     <row r="922" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A922" s="52" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="B922" s="48">
         <v>15</v>
       </c>
       <c r="C922" s="50">
-        <v>500100</v>
+        <v>500050</v>
       </c>
     </row>
     <row r="923" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A923" s="52" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="B923" s="48">
         <v>15</v>
       </c>
       <c r="C923" s="50">
-        <v>500090</v>
+        <v>500060</v>
       </c>
     </row>
     <row r="924" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A924" s="53" t="s">
-        <v>889</v>
+      <c r="A924" s="52" t="s">
+        <v>885</v>
       </c>
       <c r="B924" s="48">
         <v>15</v>
       </c>
       <c r="C924" s="50">
-        <v>510040</v>
+        <v>500070</v>
       </c>
     </row>
     <row r="925" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A925" s="52" t="s">
-        <v>890</v>
+      <c r="A925" s="53" t="s">
+        <v>886</v>
       </c>
       <c r="B925" s="48">
         <v>15</v>
       </c>
       <c r="C925" s="50">
-        <v>500120</v>
+        <v>500080</v>
       </c>
     </row>
     <row r="926" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A926" s="52" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="B926" s="48">
         <v>15</v>
       </c>
       <c r="C926" s="50">
-        <v>500130</v>
+        <v>500100</v>
       </c>
     </row>
     <row r="927" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A927" s="52" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="B927" s="48">
         <v>15</v>
       </c>
       <c r="C927" s="50">
-        <v>500140</v>
+        <v>500090</v>
       </c>
     </row>
     <row r="928" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A928" s="53" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="B928" s="48">
         <v>15</v>
       </c>
       <c r="C928" s="50">
-        <v>500150</v>
+        <v>510040</v>
       </c>
     </row>
     <row r="929" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A929" s="53" t="s">
-        <v>894</v>
+      <c r="A929" s="52" t="s">
+        <v>890</v>
       </c>
       <c r="B929" s="48">
         <v>15</v>
       </c>
       <c r="C929" s="50">
-        <v>500160</v>
+        <v>500120</v>
       </c>
     </row>
     <row r="930" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A930" s="52" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="B930" s="48">
         <v>15</v>
       </c>
       <c r="C930" s="50">
-        <v>500170</v>
+        <v>500130</v>
       </c>
     </row>
     <row r="931" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A931" s="52" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="B931" s="48">
         <v>15</v>
       </c>
       <c r="C931" s="50">
-        <v>500180</v>
+        <v>500140</v>
       </c>
     </row>
     <row r="932" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A932" s="52" t="s">
-        <v>897</v>
+      <c r="A932" s="53" t="s">
+        <v>893</v>
       </c>
       <c r="B932" s="48">
         <v>15</v>
       </c>
       <c r="C932" s="50">
-        <v>500190</v>
+        <v>500150</v>
       </c>
     </row>
     <row r="933" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A933" s="53" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="B933" s="48">
         <v>15</v>
       </c>
       <c r="C933" s="50">
-        <v>500200</v>
+        <v>500160</v>
       </c>
     </row>
     <row r="934" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A934" s="52" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="B934" s="48">
         <v>15</v>
       </c>
       <c r="C934" s="50">
-        <v>500240</v>
+        <v>500170</v>
       </c>
     </row>
     <row r="935" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A935" s="52" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="B935" s="48">
         <v>15</v>
       </c>
       <c r="C935" s="50">
-        <v>500220</v>
+        <v>500180</v>
       </c>
     </row>
     <row r="936" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A936" s="52" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="B936" s="48">
         <v>15</v>
       </c>
       <c r="C936" s="50">
-        <v>500230</v>
+        <v>500190</v>
       </c>
     </row>
     <row r="937" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A937" s="53" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B937" s="48">
         <v>15</v>
       </c>
       <c r="C937" s="50">
-        <v>500210</v>
+        <v>500200</v>
       </c>
     </row>
     <row r="938" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A938" s="54" t="s">
-        <v>903</v>
+      <c r="A938" s="52" t="s">
+        <v>899</v>
       </c>
       <c r="B938" s="48">
         <v>15</v>
       </c>
       <c r="C938" s="50">
-        <v>510010</v>
+        <v>500240</v>
       </c>
     </row>
     <row r="939" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A939" s="54" t="s">
-        <v>904</v>
+      <c r="A939" s="52" t="s">
+        <v>900</v>
       </c>
       <c r="B939" s="48">
         <v>15</v>
       </c>
       <c r="C939" s="50">
-        <v>510020</v>
+        <v>500220</v>
       </c>
     </row>
     <row r="940" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A940" s="54" t="s">
-        <v>905</v>
+      <c r="A940" s="52" t="s">
+        <v>901</v>
       </c>
       <c r="B940" s="48">
         <v>15</v>
       </c>
       <c r="C940" s="50">
-        <v>510030</v>
+        <v>500230</v>
       </c>
     </row>
     <row r="941" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A941" s="54" t="s">
-        <v>906</v>
+      <c r="A941" s="53" t="s">
+        <v>902</v>
       </c>
       <c r="B941" s="48">
         <v>15</v>
       </c>
       <c r="C941" s="50">
-        <v>500110</v>
+        <v>500210</v>
       </c>
     </row>
     <row r="942" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A942" s="54" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="B942" s="48">
         <v>15</v>
       </c>
       <c r="C942" s="50">
-        <v>510050</v>
+        <v>510010</v>
       </c>
     </row>
     <row r="943" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A943" s="54" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="B943" s="48">
         <v>15</v>
       </c>
       <c r="C943" s="50">
-        <v>510060</v>
+        <v>510020</v>
       </c>
     </row>
     <row r="944" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A944" s="54" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="B944" s="48">
         <v>15</v>
       </c>
       <c r="C944" s="50">
-        <v>510070</v>
+        <v>510030</v>
       </c>
     </row>
     <row r="945" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A945" s="54" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="B945" s="48">
         <v>15</v>
       </c>
       <c r="C945" s="50">
-        <v>510080</v>
+        <v>500110</v>
       </c>
     </row>
     <row r="946" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A946" s="50" t="s">
-        <v>911</v>
+      <c r="A946" s="54" t="s">
+        <v>907</v>
       </c>
       <c r="B946" s="48">
         <v>15</v>
       </c>
       <c r="C946" s="50">
-        <v>600020</v>
+        <v>510050</v>
       </c>
     </row>
     <row r="947" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A947" s="50" t="s">
-        <v>912</v>
+      <c r="A947" s="54" t="s">
+        <v>908</v>
       </c>
       <c r="B947" s="48">
         <v>15</v>
       </c>
       <c r="C947" s="50">
-        <v>600080</v>
+        <v>510060</v>
       </c>
     </row>
     <row r="948" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A948" s="50" t="s">
-        <v>913</v>
+      <c r="A948" s="54" t="s">
+        <v>909</v>
       </c>
       <c r="B948" s="48">
         <v>15</v>
       </c>
       <c r="C948" s="50">
-        <v>600090</v>
+        <v>510070</v>
       </c>
     </row>
     <row r="949" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A949" s="50" t="s">
-        <v>914</v>
+      <c r="A949" s="54" t="s">
+        <v>910</v>
       </c>
       <c r="B949" s="48">
         <v>15</v>
       </c>
       <c r="C949" s="50">
+        <v>510080</v>
+      </c>
+    </row>
+    <row r="950" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A950" s="50" t="s">
+        <v>911</v>
+      </c>
+      <c r="B950" s="48">
+        <v>15</v>
+      </c>
+      <c r="C950" s="50">
+        <v>600020</v>
+      </c>
+    </row>
+    <row r="951" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A951" s="50" t="s">
+        <v>912</v>
+      </c>
+      <c r="B951" s="48">
+        <v>15</v>
+      </c>
+      <c r="C951" s="50">
+        <v>600080</v>
+      </c>
+    </row>
+    <row r="952" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A952" s="50" t="s">
+        <v>913</v>
+      </c>
+      <c r="B952" s="48">
+        <v>15</v>
+      </c>
+      <c r="C952" s="50">
+        <v>600090</v>
+      </c>
+    </row>
+    <row r="953" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A953" s="50" t="s">
+        <v>914</v>
+      </c>
+      <c r="B953" s="48">
+        <v>15</v>
+      </c>
+      <c r="C953" s="50">
         <v>600100</v>
       </c>
     </row>
-    <row r="950" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A950" s="19" t="s">
+    <row r="954" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A954" s="19" t="s">
         <v>915</v>
-      </c>
-      <c r="B950" s="48">
-        <v>16</v>
-      </c>
-      <c r="C950" s="1">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="951" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A951" s="19" t="s">
-        <v>916</v>
-      </c>
-      <c r="B951" s="48">
-        <v>16</v>
-      </c>
-      <c r="C951" s="1">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="952" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A952" s="19" t="s">
-        <v>917</v>
-      </c>
-      <c r="B952" s="48">
-        <v>16</v>
-      </c>
-      <c r="C952" s="1">
-        <v>3001</v>
-      </c>
-    </row>
-    <row r="953" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A953" s="19" t="s">
-        <v>918</v>
-      </c>
-      <c r="B953" s="48">
-        <v>16</v>
-      </c>
-      <c r="C953" s="1">
-        <v>3002</v>
-      </c>
-    </row>
-    <row r="954" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A954" s="28" t="s">
-        <v>919</v>
       </c>
       <c r="B954" s="48">
         <v>16</v>
       </c>
       <c r="C954" s="1">
-        <v>4001</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="955" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A955" s="28" t="s">
-        <v>920</v>
+      <c r="A955" s="19" t="s">
+        <v>916</v>
       </c>
       <c r="B955" s="48">
         <v>16</v>
       </c>
       <c r="C955" s="1">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="956" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A956" s="19" t="s">
+        <v>917</v>
+      </c>
+      <c r="B956" s="48">
+        <v>16</v>
+      </c>
+      <c r="C956" s="1">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="957" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A957" s="19" t="s">
+        <v>918</v>
+      </c>
+      <c r="B957" s="48">
+        <v>16</v>
+      </c>
+      <c r="C957" s="1">
+        <v>3002</v>
+      </c>
+    </row>
+    <row r="958" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A958" s="28" t="s">
+        <v>919</v>
+      </c>
+      <c r="B958" s="48">
+        <v>16</v>
+      </c>
+      <c r="C958" s="1">
+        <v>4001</v>
+      </c>
+    </row>
+    <row r="959" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A959" s="28" t="s">
+        <v>920</v>
+      </c>
+      <c r="B959" s="48">
+        <v>16</v>
+      </c>
+      <c r="C959" s="1">
         <v>4002</v>
-      </c>
-    </row>
-    <row r="956" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A956" s="11" t="s">
-        <v>921</v>
-      </c>
-      <c r="B956" s="48">
-        <v>17</v>
-      </c>
-      <c r="C956" s="11">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="957" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A957" s="11" t="s">
-        <v>922</v>
-      </c>
-      <c r="B957" s="48">
-        <v>17</v>
-      </c>
-      <c r="C957" s="11">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="958" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A958" s="11" t="s">
-        <v>923</v>
-      </c>
-      <c r="B958" s="48">
-        <v>17</v>
-      </c>
-      <c r="C958" s="11">
-        <v>3010</v>
-      </c>
-    </row>
-    <row r="959" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A959" s="11" t="s">
-        <v>924</v>
-      </c>
-      <c r="B959" s="48">
-        <v>17</v>
-      </c>
-      <c r="C959" s="11">
-        <v>3020</v>
       </c>
     </row>
     <row r="960" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A960" s="11" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="B960" s="48">
         <v>17</v>
       </c>
       <c r="C960" s="11">
-        <v>4010</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="961" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A961" s="11" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="B961" s="48">
         <v>17</v>
       </c>
       <c r="C961" s="11">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="962" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A962" s="11" t="s">
+        <v>923</v>
+      </c>
+      <c r="B962" s="48">
+        <v>17</v>
+      </c>
+      <c r="C962" s="11">
+        <v>3010</v>
+      </c>
+    </row>
+    <row r="963" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A963" s="11" t="s">
+        <v>924</v>
+      </c>
+      <c r="B963" s="48">
+        <v>17</v>
+      </c>
+      <c r="C963" s="11">
+        <v>3020</v>
+      </c>
+    </row>
+    <row r="964" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A964" s="11" t="s">
+        <v>925</v>
+      </c>
+      <c r="B964" s="48">
+        <v>17</v>
+      </c>
+      <c r="C964" s="11">
+        <v>4010</v>
+      </c>
+    </row>
+    <row r="965" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A965" s="11" t="s">
+        <v>926</v>
+      </c>
+      <c r="B965" s="48">
+        <v>17</v>
+      </c>
+      <c r="C965" s="11">
         <v>4020</v>
       </c>
     </row>
-    <row r="962" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A962" s="55" t="s">
-        <v>1026</v>
-      </c>
-      <c r="B962" s="48">
-        <v>18</v>
-      </c>
-      <c r="C962" s="55">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="963" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A963" s="55" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B963" s="48">
-        <v>18</v>
-      </c>
-      <c r="C963" s="55">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="964" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A964" s="55" t="s">
-        <v>1028</v>
-      </c>
-      <c r="B964" s="48">
-        <v>18</v>
-      </c>
-      <c r="C964" s="55">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="965" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A965" s="19" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B965" s="48">
-        <v>18</v>
-      </c>
-      <c r="C965" s="19">
-        <v>111</v>
-      </c>
-    </row>
     <row r="966" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A966" s="19" t="s">
-        <v>1030</v>
+      <c r="A966" s="11" t="s">
+        <v>1062</v>
       </c>
       <c r="B966" s="48">
-        <v>18</v>
-      </c>
-      <c r="C966" s="19">
-        <v>112</v>
+        <v>17</v>
+      </c>
+      <c r="C966" s="11">
+        <v>4030</v>
       </c>
     </row>
     <row r="967" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A967" s="19" t="s">
-        <v>1031</v>
+      <c r="A967" s="11" t="s">
+        <v>1063</v>
       </c>
       <c r="B967" s="48">
-        <v>18</v>
-      </c>
-      <c r="C967" s="19">
-        <v>113</v>
+        <v>17</v>
+      </c>
+      <c r="C967" s="11">
+        <v>4040</v>
       </c>
     </row>
     <row r="968" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A968" s="55" t="s">
-        <v>1032</v>
+      <c r="A968" s="11" t="s">
+        <v>1064</v>
       </c>
       <c r="B968" s="48">
-        <v>18</v>
-      </c>
-      <c r="C968" s="55">
-        <v>121</v>
+        <v>17</v>
+      </c>
+      <c r="C968" s="11">
+        <v>4050</v>
       </c>
     </row>
     <row r="969" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A969" s="55" t="s">
-        <v>1033</v>
+      <c r="A969" s="11" t="s">
+        <v>1065</v>
       </c>
       <c r="B969" s="48">
-        <v>18</v>
-      </c>
-      <c r="C969" s="55">
-        <v>122</v>
+        <v>17</v>
+      </c>
+      <c r="C969" s="11">
+        <v>4060</v>
       </c>
     </row>
     <row r="970" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A970" s="55" t="s">
-        <v>1034</v>
+        <v>1026</v>
       </c>
       <c r="B970" s="48">
         <v>18</v>
       </c>
       <c r="C970" s="55">
-        <v>123</v>
+        <v>101</v>
       </c>
     </row>
     <row r="971" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A971" s="55" t="s">
-        <v>1035</v>
+        <v>1027</v>
       </c>
       <c r="B971" s="48">
         <v>18</v>
       </c>
       <c r="C971" s="55">
-        <v>131</v>
+        <v>102</v>
       </c>
     </row>
     <row r="972" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A972" s="55" t="s">
-        <v>1036</v>
+        <v>1028</v>
       </c>
       <c r="B972" s="48">
         <v>18</v>
       </c>
       <c r="C972" s="55">
-        <v>132</v>
+        <v>103</v>
       </c>
     </row>
     <row r="973" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A973" s="55" t="s">
-        <v>1037</v>
+      <c r="A973" s="19" t="s">
+        <v>1029</v>
       </c>
       <c r="B973" s="48">
         <v>18</v>
       </c>
-      <c r="C973" s="55">
-        <v>133</v>
+      <c r="C973" s="19">
+        <v>111</v>
       </c>
     </row>
     <row r="974" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A974" s="55" t="s">
-        <v>1038</v>
+      <c r="A974" s="19" t="s">
+        <v>1030</v>
       </c>
       <c r="B974" s="48">
         <v>18</v>
       </c>
-      <c r="C974" s="55">
-        <v>201</v>
+      <c r="C974" s="19">
+        <v>112</v>
       </c>
     </row>
     <row r="975" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A975" s="55" t="s">
-        <v>1039</v>
+      <c r="A975" s="19" t="s">
+        <v>1031</v>
       </c>
       <c r="B975" s="48">
         <v>18</v>
       </c>
-      <c r="C975" s="55">
-        <v>202</v>
+      <c r="C975" s="19">
+        <v>113</v>
       </c>
     </row>
     <row r="976" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A976" s="55" t="s">
-        <v>1040</v>
+        <v>1032</v>
       </c>
       <c r="B976" s="48">
         <v>18</v>
       </c>
       <c r="C976" s="55">
-        <v>203</v>
+        <v>121</v>
       </c>
     </row>
     <row r="977" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A977" s="55" t="s">
-        <v>1041</v>
+        <v>1033</v>
       </c>
       <c r="B977" s="48">
         <v>18</v>
       </c>
       <c r="C977" s="55">
-        <v>211</v>
+        <v>122</v>
       </c>
     </row>
     <row r="978" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A978" s="55" t="s">
-        <v>1042</v>
+        <v>1034</v>
       </c>
       <c r="B978" s="48">
         <v>18</v>
       </c>
       <c r="C978" s="55">
-        <v>212</v>
+        <v>123</v>
       </c>
     </row>
     <row r="979" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A979" s="55" t="s">
-        <v>1043</v>
+        <v>1035</v>
       </c>
       <c r="B979" s="48">
         <v>18</v>
       </c>
       <c r="C979" s="55">
-        <v>213</v>
+        <v>131</v>
       </c>
     </row>
     <row r="980" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A980" s="55" t="s">
-        <v>1044</v>
+        <v>1036</v>
       </c>
       <c r="B980" s="48">
         <v>18</v>
       </c>
       <c r="C980" s="55">
-        <v>221</v>
+        <v>132</v>
       </c>
     </row>
     <row r="981" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A981" s="55" t="s">
-        <v>1045</v>
+        <v>1037</v>
       </c>
       <c r="B981" s="48">
         <v>18</v>
       </c>
       <c r="C981" s="55">
-        <v>222</v>
+        <v>133</v>
       </c>
     </row>
     <row r="982" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A982" s="55" t="s">
-        <v>1046</v>
+        <v>1038</v>
       </c>
       <c r="B982" s="48">
         <v>18</v>
       </c>
       <c r="C982" s="55">
-        <v>223</v>
+        <v>201</v>
       </c>
     </row>
     <row r="983" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A983" s="55" t="s">
-        <v>1047</v>
+        <v>1039</v>
       </c>
       <c r="B983" s="48">
         <v>18</v>
       </c>
       <c r="C983" s="55">
-        <v>231</v>
+        <v>202</v>
       </c>
     </row>
     <row r="984" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A984" s="55" t="s">
-        <v>1048</v>
+        <v>1040</v>
       </c>
       <c r="B984" s="48">
         <v>18</v>
       </c>
       <c r="C984" s="55">
-        <v>232</v>
+        <v>203</v>
       </c>
     </row>
     <row r="985" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A985" s="55" t="s">
-        <v>1049</v>
+        <v>1041</v>
       </c>
       <c r="B985" s="48">
         <v>18</v>
       </c>
       <c r="C985" s="55">
-        <v>233</v>
+        <v>211</v>
       </c>
     </row>
     <row r="986" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A986" s="55" t="s">
-        <v>1050</v>
+        <v>1042</v>
       </c>
       <c r="B986" s="48">
         <v>18</v>
       </c>
       <c r="C986" s="55">
-        <v>301</v>
+        <v>212</v>
       </c>
     </row>
     <row r="987" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A987" s="55" t="s">
-        <v>1051</v>
+        <v>1043</v>
       </c>
       <c r="B987" s="48">
         <v>18</v>
       </c>
       <c r="C987" s="55">
-        <v>302</v>
+        <v>213</v>
       </c>
     </row>
     <row r="988" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A988" s="55" t="s">
-        <v>1052</v>
+        <v>1044</v>
       </c>
       <c r="B988" s="48">
         <v>18</v>
       </c>
       <c r="C988" s="55">
-        <v>303</v>
+        <v>221</v>
       </c>
     </row>
     <row r="989" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A989" s="55" t="s">
-        <v>1053</v>
+        <v>1045</v>
       </c>
       <c r="B989" s="48">
         <v>18</v>
       </c>
       <c r="C989" s="55">
-        <v>311</v>
+        <v>222</v>
       </c>
     </row>
     <row r="990" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A990" s="55" t="s">
-        <v>1054</v>
+        <v>1046</v>
       </c>
       <c r="B990" s="48">
         <v>18</v>
       </c>
       <c r="C990" s="55">
-        <v>312</v>
+        <v>223</v>
       </c>
     </row>
     <row r="991" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A991" s="55" t="s">
-        <v>1055</v>
+        <v>1047</v>
       </c>
       <c r="B991" s="48">
         <v>18</v>
       </c>
       <c r="C991" s="55">
-        <v>313</v>
+        <v>231</v>
       </c>
     </row>
     <row r="992" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A992" s="55" t="s">
-        <v>1056</v>
+        <v>1048</v>
       </c>
       <c r="B992" s="48">
         <v>18</v>
       </c>
       <c r="C992" s="55">
-        <v>321</v>
+        <v>232</v>
       </c>
     </row>
     <row r="993" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A993" s="55" t="s">
-        <v>1057</v>
+        <v>1049</v>
       </c>
       <c r="B993" s="48">
         <v>18</v>
       </c>
       <c r="C993" s="55">
-        <v>322</v>
+        <v>233</v>
       </c>
     </row>
     <row r="994" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A994" s="55" t="s">
-        <v>1058</v>
+        <v>1050</v>
       </c>
       <c r="B994" s="48">
         <v>18</v>
       </c>
       <c r="C994" s="55">
-        <v>323</v>
+        <v>301</v>
       </c>
     </row>
     <row r="995" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A995" s="55" t="s">
-        <v>1059</v>
+        <v>1051</v>
       </c>
       <c r="B995" s="48">
         <v>18</v>
       </c>
       <c r="C995" s="55">
-        <v>331</v>
+        <v>302</v>
       </c>
     </row>
     <row r="996" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A996" s="55" t="s">
-        <v>1060</v>
+        <v>1052</v>
       </c>
       <c r="B996" s="48">
         <v>18</v>
       </c>
       <c r="C996" s="55">
-        <v>332</v>
+        <v>303</v>
       </c>
     </row>
     <row r="997" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A997" s="55" t="s">
-        <v>1061</v>
+        <v>1053</v>
       </c>
       <c r="B997" s="48">
         <v>18</v>
       </c>
       <c r="C997" s="55">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="998" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A998" s="55" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B998" s="48">
+        <v>18</v>
+      </c>
+      <c r="C998" s="55">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="999" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A999" s="55" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B999" s="48">
+        <v>18</v>
+      </c>
+      <c r="C999" s="55">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1000" s="55" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B1000" s="48">
+        <v>18</v>
+      </c>
+      <c r="C1000" s="55">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1001" s="55" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B1001" s="48">
+        <v>18</v>
+      </c>
+      <c r="C1001" s="55">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1002" s="55" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B1002" s="48">
+        <v>18</v>
+      </c>
+      <c r="C1002" s="55">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1003" s="55" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B1003" s="48">
+        <v>18</v>
+      </c>
+      <c r="C1003" s="55">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1004" s="55" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B1004" s="48">
+        <v>18</v>
+      </c>
+      <c r="C1004" s="55">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1005" s="55" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B1005" s="48">
+        <v>18</v>
+      </c>
+      <c r="C1005" s="55">
         <v>333</v>
       </c>
     </row>
-    <row r="998" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A998" s="19" t="s">
+    <row r="1006" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1006" s="19" t="s">
         <v>927</v>
       </c>
-      <c r="B998" s="48">
+      <c r="B1006" s="48">
         <v>999</v>
       </c>
-      <c r="C998" s="19">
+      <c r="C1006" s="19">
         <v>0</v>
-      </c>
-    </row>
-    <row r="999" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A999" s="47" t="s">
-        <v>928</v>
-      </c>
-      <c r="B999" s="48">
-        <v>5</v>
-      </c>
-      <c r="C999" s="47">
-        <v>40010</v>
-      </c>
-    </row>
-    <row r="1000" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1000" s="47" t="s">
-        <v>929</v>
-      </c>
-      <c r="B1000" s="48">
-        <v>5</v>
-      </c>
-      <c r="C1000" s="47">
-        <v>40020</v>
-      </c>
-    </row>
-    <row r="1001" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1001" s="47" t="s">
-        <v>930</v>
-      </c>
-      <c r="B1001" s="48">
-        <v>5</v>
-      </c>
-      <c r="C1001" s="47">
-        <v>40030</v>
-      </c>
-    </row>
-    <row r="1002" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1002" s="47" t="s">
-        <v>931</v>
-      </c>
-      <c r="B1002" s="48">
-        <v>5</v>
-      </c>
-      <c r="C1002" s="47">
-        <v>40040</v>
-      </c>
-    </row>
-    <row r="1003" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1003" s="47" t="s">
-        <v>932</v>
-      </c>
-      <c r="B1003" s="48">
-        <v>5</v>
-      </c>
-      <c r="C1003" s="47">
-        <v>40050</v>
-      </c>
-    </row>
-    <row r="1004" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1004" s="47" t="s">
-        <v>933</v>
-      </c>
-      <c r="B1004" s="48">
-        <v>5</v>
-      </c>
-      <c r="C1004" s="47">
-        <v>40060</v>
-      </c>
-    </row>
-    <row r="1005" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1005" s="47" t="s">
-        <v>934</v>
-      </c>
-      <c r="B1005" s="48">
-        <v>5</v>
-      </c>
-      <c r="C1005" s="47">
-        <v>40070</v>
-      </c>
-    </row>
-    <row r="1006" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1006" s="47" t="s">
-        <v>935</v>
-      </c>
-      <c r="B1006" s="48">
-        <v>5</v>
-      </c>
-      <c r="C1006" s="47">
-        <v>40080</v>
       </c>
     </row>
     <row r="1007" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1007" s="47" t="s">
-        <v>936</v>
+        <v>928</v>
       </c>
       <c r="B1007" s="48">
         <v>5</v>
       </c>
       <c r="C1007" s="47">
-        <v>40090</v>
+        <v>40010</v>
       </c>
     </row>
     <row r="1008" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1008" s="47" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="B1008" s="48">
         <v>5</v>
       </c>
       <c r="C1008" s="47">
-        <v>40100</v>
+        <v>40020</v>
       </c>
     </row>
     <row r="1009" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1009" s="47" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
       <c r="B1009" s="48">
         <v>5</v>
       </c>
       <c r="C1009" s="47">
-        <v>40110</v>
+        <v>40030</v>
       </c>
     </row>
     <row r="1010" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1010" s="47" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="B1010" s="48">
         <v>5</v>
       </c>
       <c r="C1010" s="47">
-        <v>50010</v>
+        <v>40040</v>
       </c>
     </row>
     <row r="1011" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1011" s="47" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="B1011" s="48">
         <v>5</v>
       </c>
       <c r="C1011" s="47">
-        <v>50020</v>
+        <v>40050</v>
       </c>
     </row>
     <row r="1012" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1012" s="47" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
       <c r="B1012" s="48">
         <v>5</v>
       </c>
       <c r="C1012" s="47">
-        <v>50030</v>
+        <v>40060</v>
       </c>
     </row>
     <row r="1013" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1013" s="47" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
       <c r="B1013" s="48">
         <v>5</v>
       </c>
       <c r="C1013" s="47">
-        <v>50040</v>
+        <v>40070</v>
       </c>
     </row>
     <row r="1014" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1014" s="47" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
       <c r="B1014" s="48">
         <v>5</v>
       </c>
       <c r="C1014" s="47">
-        <v>50050</v>
+        <v>40080</v>
       </c>
     </row>
     <row r="1015" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1015" s="47" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
       <c r="B1015" s="48">
         <v>5</v>
       </c>
       <c r="C1015" s="47">
-        <v>50060</v>
+        <v>40090</v>
       </c>
     </row>
     <row r="1016" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1016" s="47" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
       <c r="B1016" s="48">
         <v>5</v>
       </c>
       <c r="C1016" s="47">
-        <v>50070</v>
+        <v>40100</v>
       </c>
     </row>
     <row r="1017" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1017" s="47" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="B1017" s="48">
         <v>5</v>
       </c>
       <c r="C1017" s="47">
-        <v>50080</v>
+        <v>40110</v>
       </c>
     </row>
     <row r="1018" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1018" s="47" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="B1018" s="48">
         <v>5</v>
       </c>
       <c r="C1018" s="47">
-        <v>50090</v>
+        <v>50010</v>
       </c>
     </row>
     <row r="1019" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1019" s="47" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="B1019" s="48">
         <v>5</v>
       </c>
       <c r="C1019" s="47">
-        <v>50100</v>
+        <v>50020</v>
       </c>
     </row>
     <row r="1020" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1020" s="47" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="B1020" s="48">
         <v>5</v>
       </c>
       <c r="C1020" s="47">
-        <v>50110</v>
+        <v>50030</v>
       </c>
     </row>
     <row r="1021" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1021" s="47" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="B1021" s="48">
         <v>5</v>
       </c>
       <c r="C1021" s="47">
-        <v>50120</v>
+        <v>50040</v>
       </c>
     </row>
     <row r="1022" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1022" s="47" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="B1022" s="48">
         <v>5</v>
       </c>
       <c r="C1022" s="47">
-        <v>50130</v>
+        <v>50050</v>
       </c>
     </row>
     <row r="1023" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1023" s="47" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
       <c r="B1023" s="48">
         <v>5</v>
       </c>
       <c r="C1023" s="47">
-        <v>50140</v>
+        <v>50060</v>
       </c>
     </row>
     <row r="1024" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1024" s="47" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
       <c r="B1024" s="48">
         <v>5</v>
       </c>
       <c r="C1024" s="47">
-        <v>50150</v>
+        <v>50070</v>
       </c>
     </row>
     <row r="1025" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1025" s="47" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
       <c r="B1025" s="48">
         <v>5</v>
       </c>
       <c r="C1025" s="47">
-        <v>50160</v>
+        <v>50080</v>
       </c>
     </row>
     <row r="1026" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1026" s="47" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
       <c r="B1026" s="48">
         <v>5</v>
       </c>
       <c r="C1026" s="47">
-        <v>50170</v>
+        <v>50090</v>
       </c>
     </row>
     <row r="1027" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1027" s="47" t="s">
-        <v>956</v>
+        <v>948</v>
       </c>
       <c r="B1027" s="48">
         <v>5</v>
       </c>
       <c r="C1027" s="47">
+        <v>50100</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1028" s="47" t="s">
+        <v>949</v>
+      </c>
+      <c r="B1028" s="48">
+        <v>5</v>
+      </c>
+      <c r="C1028" s="47">
+        <v>50110</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1029" s="47" t="s">
+        <v>950</v>
+      </c>
+      <c r="B1029" s="48">
+        <v>5</v>
+      </c>
+      <c r="C1029" s="47">
+        <v>50120</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1030" s="47" t="s">
+        <v>951</v>
+      </c>
+      <c r="B1030" s="48">
+        <v>5</v>
+      </c>
+      <c r="C1030" s="47">
+        <v>50130</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1031" s="47" t="s">
+        <v>952</v>
+      </c>
+      <c r="B1031" s="48">
+        <v>5</v>
+      </c>
+      <c r="C1031" s="47">
+        <v>50140</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1032" s="47" t="s">
+        <v>953</v>
+      </c>
+      <c r="B1032" s="48">
+        <v>5</v>
+      </c>
+      <c r="C1032" s="47">
+        <v>50150</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1033" s="47" t="s">
+        <v>954</v>
+      </c>
+      <c r="B1033" s="48">
+        <v>5</v>
+      </c>
+      <c r="C1033" s="47">
+        <v>50160</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1034" s="47" t="s">
+        <v>955</v>
+      </c>
+      <c r="B1034" s="48">
+        <v>5</v>
+      </c>
+      <c r="C1034" s="47">
+        <v>50170</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1035" s="47" t="s">
+        <v>956</v>
+      </c>
+      <c r="B1035" s="48">
+        <v>5</v>
+      </c>
+      <c r="C1035" s="47">
         <v>50180</v>
-      </c>
-    </row>
-    <row r="1028" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1028" s="19" t="s">
-        <v>957</v>
-      </c>
-      <c r="B1028" s="19">
-        <v>2</v>
-      </c>
-      <c r="C1028" s="19">
-        <v>1</v>
-      </c>
-      <c r="D1028" s="19">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="1029" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1029" s="19" t="s">
-        <v>958</v>
-      </c>
-      <c r="B1029" s="19">
-        <v>2</v>
-      </c>
-      <c r="C1029" s="19">
-        <v>2</v>
-      </c>
-      <c r="D1029" s="19">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="1030" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1030" s="19" t="s">
-        <v>959</v>
-      </c>
-      <c r="B1030" s="19">
-        <v>3</v>
-      </c>
-      <c r="C1030" s="19">
-        <v>3</v>
-      </c>
-      <c r="D1030" s="19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="1031" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1031" s="19" t="s">
-        <v>960</v>
-      </c>
-      <c r="B1031" s="19">
-        <v>4</v>
-      </c>
-      <c r="C1031" s="19">
-        <v>4</v>
-      </c>
-      <c r="D1031" s="19">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="1032" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1032" s="19" t="s">
-        <v>961</v>
-      </c>
-      <c r="B1032" s="19">
-        <v>1</v>
-      </c>
-      <c r="C1032" s="19">
-        <v>10001</v>
-      </c>
-      <c r="D1032" s="19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="1033" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1033" s="19" t="s">
-        <v>962</v>
-      </c>
-      <c r="B1033" s="19">
-        <v>1</v>
-      </c>
-      <c r="C1033" s="19">
-        <v>10002</v>
-      </c>
-      <c r="D1033" s="19">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="1034" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1034" s="19" t="s">
-        <v>963</v>
-      </c>
-      <c r="B1034" s="19">
-        <v>1</v>
-      </c>
-      <c r="C1034" s="19">
-        <v>10003</v>
-      </c>
-      <c r="D1034" s="19">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="1035" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1035" s="19" t="s">
-        <v>964</v>
-      </c>
-      <c r="B1035" s="19">
-        <v>1</v>
-      </c>
-      <c r="C1035" s="19">
-        <v>10004</v>
-      </c>
-      <c r="D1035" s="19">
-        <v>98</v>
       </c>
     </row>
     <row r="1036" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1036" s="19" t="s">
-        <v>965</v>
+        <v>957</v>
       </c>
       <c r="B1036" s="19">
+        <v>2</v>
+      </c>
+      <c r="C1036" s="19">
         <v>1</v>
       </c>
-      <c r="C1036" s="19">
-        <v>10005</v>
-      </c>
       <c r="D1036" s="19">
-        <v>198</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1037" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1037" s="19" t="s">
-        <v>966</v>
+        <v>958</v>
       </c>
       <c r="B1037" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1037" s="19">
-        <v>10006</v>
+        <v>2</v>
       </c>
       <c r="D1037" s="19">
-        <v>328</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1038" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1038" s="19" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="B1038" s="19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1038" s="19">
-        <v>10007</v>
+        <v>3</v>
       </c>
       <c r="D1038" s="19">
-        <v>648</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1039" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1039" s="19" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="B1039" s="19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1039" s="19">
-        <v>10008</v>
+        <v>4</v>
       </c>
       <c r="D1039" s="19">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1040" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1040" s="19" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="B1040" s="19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1040" s="19">
-        <v>10009</v>
+        <v>10001</v>
       </c>
       <c r="D1040" s="19">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1041" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1041" s="19" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="B1041" s="19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1041" s="19">
-        <v>10010</v>
+        <v>10002</v>
       </c>
       <c r="D1041" s="19">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1042" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1042" s="19" t="s">
-        <v>971</v>
+        <v>963</v>
       </c>
       <c r="B1042" s="19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1042" s="19">
-        <v>10011</v>
+        <v>10003</v>
       </c>
       <c r="D1042" s="19">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1043" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1043" s="19" t="s">
-        <v>972</v>
+        <v>964</v>
       </c>
       <c r="B1043" s="19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1043" s="19">
-        <v>10012</v>
+        <v>10004</v>
       </c>
       <c r="D1043" s="19">
-        <v>60</v>
+        <v>98</v>
       </c>
     </row>
     <row r="1044" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1044" s="19" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
       <c r="B1044" s="19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1044" s="19">
-        <v>10013</v>
+        <v>10005</v>
       </c>
       <c r="D1044" s="19">
-        <v>98</v>
+        <v>198</v>
       </c>
     </row>
     <row r="1045" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1045" s="19" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
       <c r="B1045" s="19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1045" s="19">
-        <v>10014</v>
+        <v>10006</v>
       </c>
       <c r="D1045" s="19">
-        <v>198</v>
+        <v>328</v>
       </c>
     </row>
     <row r="1046" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1046" s="19" t="s">
-        <v>975</v>
+        <v>967</v>
       </c>
       <c r="B1046" s="19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1046" s="19">
-        <v>10015</v>
+        <v>10007</v>
       </c>
       <c r="D1046" s="19">
-        <v>328</v>
+        <v>648</v>
       </c>
     </row>
     <row r="1047" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1047" s="19" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
       <c r="B1047" s="19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1047" s="19">
-        <v>10016</v>
+        <v>10008</v>
       </c>
       <c r="D1047" s="19">
-        <v>648</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1048" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1048" s="19" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="B1048" s="19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1048" s="19">
-        <v>10017</v>
+        <v>10009</v>
       </c>
       <c r="D1048" s="19">
         <v>1</v>
@@ -15850,307 +15858,307 @@
     </row>
     <row r="1049" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1049" s="19" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
       <c r="B1049" s="19">
+        <v>5</v>
+      </c>
+      <c r="C1049" s="19">
+        <v>10010</v>
+      </c>
+      <c r="D1049" s="19">
         <v>6</v>
-      </c>
-      <c r="C1049" s="19">
-        <v>10018</v>
-      </c>
-      <c r="D1049" s="19">
-        <v>3</v>
       </c>
     </row>
     <row r="1050" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1050" s="19" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
       <c r="B1050" s="19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1050" s="19">
-        <v>10019</v>
+        <v>10011</v>
       </c>
       <c r="D1050" s="19">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1051" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1051" s="19" t="s">
-        <v>980</v>
+        <v>972</v>
       </c>
       <c r="B1051" s="19">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1051" s="19">
-        <v>10020</v>
+        <v>10012</v>
       </c>
       <c r="D1051" s="19">
-        <v>12</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1052" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1052" s="19" t="s">
-        <v>981</v>
+        <v>973</v>
       </c>
       <c r="B1052" s="19">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1052" s="19">
-        <v>10021</v>
+        <v>10013</v>
       </c>
       <c r="D1052" s="19">
-        <v>18</v>
+        <v>98</v>
       </c>
     </row>
     <row r="1053" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1053" s="19" t="s">
-        <v>982</v>
+        <v>974</v>
       </c>
       <c r="B1053" s="19">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1053" s="19">
-        <v>10022</v>
+        <v>10014</v>
       </c>
       <c r="D1053" s="19">
-        <v>30</v>
+        <v>198</v>
       </c>
     </row>
     <row r="1054" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1054" s="19" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="B1054" s="19">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1054" s="19">
-        <v>10023</v>
+        <v>10015</v>
       </c>
       <c r="D1054" s="19">
-        <v>60</v>
+        <v>328</v>
       </c>
     </row>
     <row r="1055" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1055" s="19" t="s">
-        <v>984</v>
+        <v>976</v>
       </c>
       <c r="B1055" s="19">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1055" s="19">
-        <v>10024</v>
+        <v>10016</v>
       </c>
       <c r="D1055" s="19">
-        <v>98</v>
+        <v>648</v>
       </c>
     </row>
     <row r="1056" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1056" s="19" t="s">
-        <v>985</v>
+        <v>977</v>
       </c>
       <c r="B1056" s="19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1056" s="19">
-        <v>10025</v>
+        <v>10017</v>
       </c>
       <c r="D1056" s="19">
-        <v>198</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1057" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1057" s="19" t="s">
-        <v>986</v>
+        <v>978</v>
       </c>
       <c r="B1057" s="19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1057" s="19">
-        <v>10026</v>
+        <v>10018</v>
       </c>
       <c r="D1057" s="19">
-        <v>328</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1058" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1058" s="19" t="s">
-        <v>987</v>
+        <v>979</v>
       </c>
       <c r="B1058" s="19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1058" s="19">
-        <v>10027</v>
+        <v>10019</v>
       </c>
       <c r="D1058" s="19">
-        <v>648</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1059" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1059" s="19" t="s">
-        <v>988</v>
+        <v>980</v>
       </c>
       <c r="B1059" s="19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1059" s="19">
-        <v>10028</v>
+        <v>10020</v>
       </c>
       <c r="D1059" s="19">
-        <v>60</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1060" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1060" s="19" t="s">
-        <v>989</v>
+        <v>981</v>
       </c>
       <c r="B1060" s="19">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1060" s="19">
-        <v>10029</v>
+        <v>10021</v>
       </c>
       <c r="D1060" s="19">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1061" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1061" s="19" t="s">
-        <v>990</v>
+        <v>982</v>
       </c>
       <c r="B1061" s="19">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1061" s="19">
-        <v>10030</v>
+        <v>10022</v>
       </c>
       <c r="D1061" s="19">
-        <v>198</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1062" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1062" s="19" t="s">
-        <v>991</v>
+        <v>983</v>
       </c>
       <c r="B1062" s="19">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1062" s="19">
-        <v>10031</v>
+        <v>10023</v>
       </c>
       <c r="D1062" s="19">
-        <v>648</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1063" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1063" s="19" t="s">
-        <v>992</v>
+        <v>984</v>
       </c>
       <c r="B1063" s="19">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C1063" s="19">
-        <v>10034</v>
+        <v>10024</v>
       </c>
       <c r="D1063" s="19">
-        <v>1</v>
+        <v>98</v>
       </c>
     </row>
     <row r="1064" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1064" s="19" t="s">
-        <v>993</v>
+        <v>985</v>
       </c>
       <c r="B1064" s="19">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C1064" s="19">
-        <v>10035</v>
+        <v>10025</v>
       </c>
       <c r="D1064" s="19">
-        <v>6</v>
+        <v>198</v>
       </c>
     </row>
     <row r="1065" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1065" s="19" t="s">
-        <v>994</v>
+        <v>986</v>
       </c>
       <c r="B1065" s="19">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C1065" s="19">
-        <v>10036</v>
+        <v>10026</v>
       </c>
       <c r="D1065" s="19">
-        <v>30</v>
+        <v>328</v>
       </c>
     </row>
     <row r="1066" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1066" s="19" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
       <c r="B1066" s="19">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C1066" s="19">
-        <v>10037</v>
+        <v>10027</v>
       </c>
       <c r="D1066" s="19">
-        <v>60</v>
+        <v>648</v>
       </c>
     </row>
     <row r="1067" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1067" s="19" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
       <c r="B1067" s="19">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C1067" s="19">
-        <v>10038</v>
+        <v>10028</v>
       </c>
       <c r="D1067" s="19">
-        <v>98</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1068" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1068" s="19" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="B1068" s="19">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1068" s="19">
-        <v>10039</v>
+        <v>10029</v>
       </c>
       <c r="D1068" s="19">
-        <v>198</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1069" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1069" s="19" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="B1069" s="19">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1069" s="19">
-        <v>10040</v>
+        <v>10030</v>
       </c>
       <c r="D1069" s="19">
-        <v>328</v>
+        <v>198</v>
       </c>
     </row>
     <row r="1070" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1070" s="19" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="B1070" s="19">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1070" s="19">
-        <v>10041</v>
+        <v>10031</v>
       </c>
       <c r="D1070" s="19">
         <v>648</v>
@@ -16158,213 +16166,325 @@
     </row>
     <row r="1071" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1071" s="19" t="s">
-        <v>1000</v>
+        <v>992</v>
       </c>
       <c r="B1071" s="19">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C1071" s="19">
-        <v>10042</v>
+        <v>10034</v>
       </c>
       <c r="D1071" s="19">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1072" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1072" s="19" t="s">
-        <v>1001</v>
+        <v>993</v>
       </c>
       <c r="B1072" s="19">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C1072" s="19">
-        <v>10043</v>
+        <v>10035</v>
       </c>
       <c r="D1072" s="19">
-        <v>60</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1073" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1073" s="19" t="s">
-        <v>1002</v>
+        <v>994</v>
       </c>
       <c r="B1073" s="19">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C1073" s="19">
-        <v>10044</v>
+        <v>10036</v>
       </c>
       <c r="D1073" s="19">
-        <v>98</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1074" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1074" s="19" t="s">
-        <v>1003</v>
+        <v>995</v>
       </c>
       <c r="B1074" s="19">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C1074" s="19">
-        <v>10045</v>
+        <v>10037</v>
       </c>
       <c r="D1074" s="19">
-        <v>198</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1075" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1075" s="19" t="s">
-        <v>1004</v>
+        <v>996</v>
       </c>
       <c r="B1075" s="19">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C1075" s="19">
-        <v>10046</v>
+        <v>10038</v>
       </c>
       <c r="D1075" s="19">
-        <v>1</v>
+        <v>98</v>
       </c>
     </row>
     <row r="1076" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1076" s="19" t="s">
-        <v>1005</v>
+        <v>997</v>
       </c>
       <c r="B1076" s="19">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C1076" s="19">
-        <v>10047</v>
+        <v>10039</v>
       </c>
       <c r="D1076" s="19">
-        <v>6</v>
+        <v>198</v>
       </c>
     </row>
     <row r="1077" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1077" s="19" t="s">
-        <v>1006</v>
+        <v>998</v>
       </c>
       <c r="B1077" s="19">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C1077" s="19">
-        <v>10048</v>
+        <v>10040</v>
       </c>
       <c r="D1077" s="19">
-        <v>30</v>
+        <v>328</v>
       </c>
     </row>
     <row r="1078" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1078" s="19" t="s">
-        <v>1007</v>
+        <v>999</v>
       </c>
       <c r="B1078" s="19">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C1078" s="19">
-        <v>10049</v>
+        <v>10041</v>
       </c>
       <c r="D1078" s="19">
-        <v>60</v>
+        <v>648</v>
       </c>
     </row>
     <row r="1079" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1079" s="19" t="s">
-        <v>1008</v>
+        <v>1000</v>
       </c>
       <c r="B1079" s="19">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C1079" s="19">
-        <v>10050</v>
+        <v>10042</v>
       </c>
       <c r="D1079" s="19">
-        <v>98</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1080" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1080" s="19" t="s">
-        <v>1009</v>
+        <v>1001</v>
       </c>
       <c r="B1080" s="19">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C1080" s="19">
-        <v>10051</v>
+        <v>10043</v>
       </c>
       <c r="D1080" s="19">
-        <v>198</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1081" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1081" s="19" t="s">
-        <v>1010</v>
+        <v>1002</v>
       </c>
       <c r="B1081" s="19">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C1081" s="19">
-        <v>10052</v>
+        <v>10044</v>
       </c>
       <c r="D1081" s="19">
-        <v>328</v>
+        <v>98</v>
       </c>
     </row>
     <row r="1082" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1082" s="19" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B1082" s="19">
+        <v>10</v>
+      </c>
+      <c r="C1082" s="19">
+        <v>10045</v>
+      </c>
+      <c r="D1082" s="19">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1083" s="19" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B1083" s="19">
+        <v>14</v>
+      </c>
+      <c r="C1083" s="19">
+        <v>10046</v>
+      </c>
+      <c r="D1083" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1084" s="19" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B1084" s="19">
+        <v>14</v>
+      </c>
+      <c r="C1084" s="19">
+        <v>10047</v>
+      </c>
+      <c r="D1084" s="19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1085" s="19" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B1085" s="19">
+        <v>14</v>
+      </c>
+      <c r="C1085" s="19">
+        <v>10048</v>
+      </c>
+      <c r="D1085" s="19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1086" s="19" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B1086" s="19">
+        <v>14</v>
+      </c>
+      <c r="C1086" s="19">
+        <v>10049</v>
+      </c>
+      <c r="D1086" s="19">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1087" s="19" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B1087" s="19">
+        <v>14</v>
+      </c>
+      <c r="C1087" s="19">
+        <v>10050</v>
+      </c>
+      <c r="D1087" s="19">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1088" s="19" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B1088" s="19">
+        <v>14</v>
+      </c>
+      <c r="C1088" s="19">
+        <v>10051</v>
+      </c>
+      <c r="D1088" s="19">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1089" s="19" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B1089" s="19">
+        <v>14</v>
+      </c>
+      <c r="C1089" s="19">
+        <v>10052</v>
+      </c>
+      <c r="D1089" s="19">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1090" s="19" t="s">
         <v>1011</v>
       </c>
-      <c r="B1082" s="19">
+      <c r="B1090" s="19">
         <v>14</v>
       </c>
-      <c r="C1082" s="19">
+      <c r="C1090" s="19">
         <v>10053</v>
       </c>
-      <c r="D1082" s="19">
+      <c r="D1090" s="19">
         <v>648</v>
       </c>
     </row>
-    <row r="1083" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1083" s="48" t="s">
+    <row r="1091" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1091" s="48" t="s">
         <v>1022</v>
       </c>
-      <c r="B1083" s="48">
+      <c r="B1091" s="48">
         <v>8</v>
       </c>
-      <c r="C1083" s="48">
+      <c r="C1091" s="48">
         <v>11410</v>
       </c>
     </row>
-    <row r="1084" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1084" s="48" t="s">
+    <row r="1092" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1092" s="48" t="s">
         <v>1023</v>
       </c>
-      <c r="B1084" s="48">
+      <c r="B1092" s="48">
         <v>8</v>
       </c>
-      <c r="C1084" s="48">
+      <c r="C1092" s="48">
         <v>11420</v>
       </c>
     </row>
-    <row r="1085" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1085" s="48" t="s">
+    <row r="1093" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1093" s="48" t="s">
         <v>1024</v>
       </c>
-      <c r="B1085" s="48">
+      <c r="B1093" s="48">
         <v>8</v>
       </c>
-      <c r="C1085" s="48">
+      <c r="C1093" s="48">
         <v>12410</v>
       </c>
     </row>
-    <row r="1086" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1086" s="48" t="s">
+    <row r="1094" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1094" s="48" t="s">
         <v>1025</v>
       </c>
-      <c r="B1086" s="48">
+      <c r="B1094" s="48">
         <v>8</v>
       </c>
-      <c r="C1086" s="48">
+      <c r="C1094" s="48">
         <v>12420</v>
       </c>
     </row>
@@ -16420,7 +16540,7 @@
       <formula>NOT(ISERROR(SEARCH("碎",A442)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A745:A876">
+  <conditionalFormatting sqref="A749:A880">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/com/Tools/MyPoco/info_tab/少三2道具类型表.xlsx
+++ b/com/Tools/MyPoco/info_tab/少三2道具类型表.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="1303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="1307">
   <si>
     <t>角色经验</t>
   </si>
@@ -4268,6 +4268,22 @@
   </si>
   <si>
     <t>命星吕布</t>
+  </si>
+  <si>
+    <t>转轮神珠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>孟德剑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵槐枝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>清风化煞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4348,141 +4364,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="19">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -4758,10 +4640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1331"/>
+  <dimension ref="A1:D1335"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView tabSelected="1" topLeftCell="A616" workbookViewId="0">
+      <selection activeCell="G641" sqref="G641"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11948,7635 +11830,7679 @@
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
-        <v>426</v>
+        <v>1303</v>
       </c>
       <c r="B638">
         <v>3</v>
       </c>
       <c r="C638">
-        <v>9001</v>
+        <v>8005</v>
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
-        <v>427</v>
+        <v>1304</v>
       </c>
       <c r="B639">
         <v>3</v>
       </c>
       <c r="C639">
-        <v>9002</v>
+        <v>8006</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
-        <v>428</v>
+        <v>1305</v>
       </c>
       <c r="B640">
         <v>3</v>
       </c>
       <c r="C640">
-        <v>9003</v>
+        <v>8007</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
-        <v>429</v>
+        <v>1306</v>
       </c>
       <c r="B641">
         <v>3</v>
       </c>
       <c r="C641">
-        <v>9004</v>
+        <v>8008</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B642">
         <v>3</v>
       </c>
       <c r="C642">
-        <v>9005</v>
+        <v>9001</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B643">
         <v>3</v>
       </c>
       <c r="C643">
-        <v>9006</v>
+        <v>9002</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B644">
         <v>3</v>
       </c>
       <c r="C644">
-        <v>9007</v>
+        <v>9003</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B645">
         <v>3</v>
       </c>
       <c r="C645">
-        <v>9008</v>
+        <v>9004</v>
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B646">
         <v>3</v>
       </c>
       <c r="C646">
-        <v>9009</v>
+        <v>9005</v>
       </c>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B647">
         <v>3</v>
       </c>
       <c r="C647">
-        <v>9010</v>
+        <v>9006</v>
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B648">
         <v>3</v>
       </c>
       <c r="C648">
-        <v>9011</v>
+        <v>9007</v>
       </c>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B649">
         <v>3</v>
       </c>
       <c r="C649">
-        <v>9012</v>
+        <v>9008</v>
       </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="B650">
         <v>3</v>
       </c>
       <c r="C650">
-        <v>9013</v>
+        <v>9009</v>
       </c>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B651">
         <v>3</v>
       </c>
       <c r="C651">
-        <v>9014</v>
+        <v>9010</v>
       </c>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B652">
         <v>3</v>
       </c>
       <c r="C652">
-        <v>9015</v>
+        <v>9011</v>
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B653">
         <v>3</v>
       </c>
       <c r="C653">
-        <v>9016</v>
+        <v>9012</v>
       </c>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B654">
         <v>3</v>
       </c>
       <c r="C654">
-        <v>9017</v>
+        <v>9013</v>
       </c>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="B655">
         <v>3</v>
       </c>
       <c r="C655">
-        <v>9018</v>
+        <v>9014</v>
       </c>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B656">
         <v>3</v>
       </c>
       <c r="C656">
-        <v>9019</v>
+        <v>9015</v>
       </c>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B657">
         <v>3</v>
       </c>
       <c r="C657">
-        <v>9020</v>
+        <v>9016</v>
       </c>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B658">
         <v>3</v>
       </c>
       <c r="C658">
-        <v>9021</v>
+        <v>9017</v>
       </c>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="B659">
         <v>3</v>
       </c>
       <c r="C659">
-        <v>9022</v>
+        <v>9018</v>
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
       <c r="B660">
         <v>3</v>
       </c>
       <c r="C660">
-        <v>9023</v>
+        <v>9019</v>
       </c>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="B661">
         <v>3</v>
       </c>
       <c r="C661">
-        <v>9024</v>
+        <v>9020</v>
       </c>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="B662">
         <v>3</v>
       </c>
       <c r="C662">
-        <v>9025</v>
+        <v>9021</v>
       </c>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B663">
         <v>3</v>
       </c>
       <c r="C663">
-        <v>9026</v>
+        <v>9022</v>
       </c>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
-        <v>447</v>
+        <v>428</v>
       </c>
       <c r="B664">
         <v>3</v>
       </c>
       <c r="C664">
-        <v>9027</v>
+        <v>9023</v>
       </c>
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
-        <v>448</v>
+        <v>429</v>
       </c>
       <c r="B665">
         <v>3</v>
       </c>
       <c r="C665">
-        <v>9028</v>
+        <v>9024</v>
       </c>
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
-        <v>1145</v>
+        <v>432</v>
       </c>
       <c r="B666">
         <v>3</v>
       </c>
       <c r="C666">
-        <v>9029</v>
+        <v>9025</v>
       </c>
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B667">
         <v>3</v>
       </c>
       <c r="C667">
-        <v>9030</v>
+        <v>9026</v>
       </c>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B668">
         <v>3</v>
       </c>
       <c r="C668">
-        <v>9031</v>
+        <v>9027</v>
       </c>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B669">
         <v>3</v>
       </c>
       <c r="C669">
-        <v>9032</v>
+        <v>9028</v>
       </c>
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
-        <v>428</v>
+        <v>1145</v>
       </c>
       <c r="B670">
         <v>3</v>
       </c>
       <c r="C670">
-        <v>9033</v>
+        <v>9029</v>
       </c>
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
-        <v>18</v>
+        <v>449</v>
       </c>
       <c r="B671">
         <v>3</v>
       </c>
       <c r="C671">
-        <v>9034</v>
+        <v>9030</v>
       </c>
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B672">
         <v>3</v>
       </c>
       <c r="C672">
-        <v>9035</v>
+        <v>9031</v>
       </c>
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
-        <v>426</v>
+        <v>451</v>
       </c>
       <c r="B673">
         <v>3</v>
       </c>
       <c r="C673">
-        <v>9036</v>
+        <v>9032</v>
       </c>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B674">
         <v>3</v>
       </c>
       <c r="C674">
-        <v>9037</v>
+        <v>9033</v>
       </c>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
-        <v>453</v>
+        <v>18</v>
       </c>
       <c r="B675">
         <v>3</v>
       </c>
       <c r="C675">
-        <v>9038</v>
+        <v>9034</v>
       </c>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
-        <v>429</v>
+        <v>452</v>
       </c>
       <c r="B676">
         <v>3</v>
       </c>
       <c r="C676">
-        <v>9039</v>
+        <v>9035</v>
       </c>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="B677">
         <v>3</v>
       </c>
       <c r="C677">
-        <v>9040</v>
+        <v>9036</v>
       </c>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
-        <v>455</v>
+        <v>434</v>
       </c>
       <c r="B678">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C678">
-        <v>400010</v>
+        <v>9037</v>
       </c>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B679">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C679">
-        <v>400020</v>
+        <v>9038</v>
       </c>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
-        <v>457</v>
+        <v>429</v>
       </c>
       <c r="B680">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C680">
-        <v>400030</v>
+        <v>9039</v>
       </c>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B681">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C681">
-        <v>400040</v>
+        <v>9040</v>
       </c>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B682">
         <v>4</v>
       </c>
       <c r="C682">
-        <v>400050</v>
+        <v>400010</v>
       </c>
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B683">
         <v>4</v>
       </c>
       <c r="C683">
-        <v>400060</v>
+        <v>400020</v>
       </c>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B684">
         <v>4</v>
       </c>
       <c r="C684">
-        <v>400070</v>
+        <v>400030</v>
       </c>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B685">
         <v>4</v>
       </c>
       <c r="C685">
-        <v>400080</v>
+        <v>400040</v>
       </c>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B686">
         <v>4</v>
       </c>
       <c r="C686">
-        <v>400090</v>
+        <v>400050</v>
       </c>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B687">
         <v>4</v>
       </c>
       <c r="C687">
-        <v>400100</v>
+        <v>400060</v>
       </c>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B688">
         <v>4</v>
       </c>
       <c r="C688">
-        <v>400110</v>
+        <v>400070</v>
       </c>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B689">
         <v>4</v>
       </c>
       <c r="C689">
-        <v>400120</v>
+        <v>400080</v>
       </c>
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B690">
         <v>4</v>
       </c>
       <c r="C690">
-        <v>400130</v>
+        <v>400090</v>
       </c>
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B691">
         <v>4</v>
       </c>
       <c r="C691">
-        <v>400140</v>
+        <v>400100</v>
       </c>
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B692">
         <v>4</v>
       </c>
       <c r="C692">
-        <v>400150</v>
+        <v>400110</v>
       </c>
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B693">
         <v>4</v>
       </c>
       <c r="C693">
-        <v>400160</v>
+        <v>400120</v>
       </c>
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B694">
         <v>4</v>
       </c>
       <c r="C694">
-        <v>500010</v>
+        <v>400130</v>
       </c>
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B695">
         <v>4</v>
       </c>
       <c r="C695">
-        <v>500020</v>
+        <v>400140</v>
       </c>
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B696">
         <v>4</v>
       </c>
       <c r="C696">
-        <v>500030</v>
+        <v>400150</v>
       </c>
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B697">
         <v>4</v>
       </c>
       <c r="C697">
-        <v>500040</v>
+        <v>400160</v>
       </c>
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B698">
         <v>4</v>
       </c>
       <c r="C698">
-        <v>500050</v>
+        <v>500010</v>
       </c>
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B699">
         <v>4</v>
       </c>
       <c r="C699">
-        <v>500060</v>
+        <v>500020</v>
       </c>
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B700">
         <v>4</v>
       </c>
       <c r="C700">
-        <v>500070</v>
+        <v>500030</v>
       </c>
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B701">
         <v>4</v>
       </c>
       <c r="C701">
-        <v>500080</v>
+        <v>500040</v>
       </c>
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B702">
         <v>4</v>
       </c>
       <c r="C702">
-        <v>500090</v>
+        <v>500050</v>
       </c>
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B703">
         <v>4</v>
       </c>
       <c r="C703">
-        <v>500100</v>
+        <v>500060</v>
       </c>
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B704">
         <v>4</v>
       </c>
       <c r="C704">
-        <v>500110</v>
+        <v>500070</v>
       </c>
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B705">
         <v>4</v>
       </c>
       <c r="C705">
-        <v>500120</v>
+        <v>500080</v>
       </c>
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B706">
         <v>4</v>
       </c>
       <c r="C706">
-        <v>500130</v>
+        <v>500090</v>
       </c>
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B707">
         <v>4</v>
       </c>
       <c r="C707">
-        <v>500140</v>
+        <v>500100</v>
       </c>
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B708">
         <v>4</v>
       </c>
       <c r="C708">
-        <v>500150</v>
+        <v>500110</v>
       </c>
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B709">
         <v>4</v>
       </c>
       <c r="C709">
-        <v>500160</v>
+        <v>500120</v>
       </c>
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B710">
         <v>4</v>
       </c>
       <c r="C710">
-        <v>500170</v>
+        <v>500130</v>
       </c>
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B711">
         <v>4</v>
       </c>
       <c r="C711">
-        <v>500180</v>
+        <v>500140</v>
       </c>
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B712">
         <v>4</v>
       </c>
       <c r="C712">
-        <v>500190</v>
+        <v>500150</v>
       </c>
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B713">
         <v>4</v>
       </c>
       <c r="C713">
-        <v>500200</v>
+        <v>500160</v>
       </c>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B714">
         <v>4</v>
       </c>
       <c r="C714">
-        <v>500210</v>
+        <v>500170</v>
       </c>
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B715">
         <v>4</v>
       </c>
       <c r="C715">
-        <v>500220</v>
+        <v>500180</v>
       </c>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B716">
         <v>4</v>
       </c>
       <c r="C716">
-        <v>500230</v>
+        <v>500190</v>
       </c>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B717">
         <v>4</v>
       </c>
       <c r="C717">
-        <v>500240</v>
+        <v>500200</v>
       </c>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B718">
         <v>4</v>
       </c>
       <c r="C718">
-        <v>510010</v>
+        <v>500210</v>
       </c>
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B719">
         <v>4</v>
       </c>
       <c r="C719">
-        <v>510020</v>
+        <v>500220</v>
       </c>
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B720">
         <v>4</v>
       </c>
       <c r="C720">
-        <v>510030</v>
+        <v>500230</v>
       </c>
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B721">
         <v>4</v>
       </c>
       <c r="C721">
-        <v>510040</v>
+        <v>500240</v>
       </c>
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B722">
         <v>4</v>
       </c>
       <c r="C722">
-        <v>510050</v>
+        <v>510010</v>
       </c>
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B723">
         <v>4</v>
       </c>
       <c r="C723">
-        <v>510060</v>
+        <v>510020</v>
       </c>
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B724">
         <v>4</v>
       </c>
       <c r="C724">
-        <v>510070</v>
+        <v>510030</v>
       </c>
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B725">
         <v>4</v>
       </c>
       <c r="C725">
-        <v>510080</v>
+        <v>510040</v>
       </c>
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
-        <v>909</v>
+        <v>499</v>
       </c>
       <c r="B726">
         <v>4</v>
       </c>
       <c r="C726">
-        <v>600020</v>
+        <v>510050</v>
       </c>
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
-        <v>910</v>
+        <v>500</v>
       </c>
       <c r="B727">
         <v>4</v>
       </c>
       <c r="C727">
-        <v>600030</v>
+        <v>510060</v>
       </c>
     </row>
     <row r="728" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
-        <v>911</v>
+        <v>501</v>
       </c>
       <c r="B728">
         <v>4</v>
       </c>
       <c r="C728">
-        <v>600050</v>
+        <v>510070</v>
       </c>
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
-        <v>912</v>
+        <v>502</v>
       </c>
       <c r="B729">
         <v>4</v>
       </c>
       <c r="C729">
-        <v>600080</v>
+        <v>510080</v>
       </c>
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A730" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="B730">
         <v>4</v>
       </c>
       <c r="C730">
-        <v>600090</v>
+        <v>600020</v>
       </c>
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="B731">
         <v>4</v>
       </c>
       <c r="C731">
-        <v>600100</v>
+        <v>600030</v>
       </c>
     </row>
     <row r="732" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="B732">
         <v>4</v>
       </c>
       <c r="C732">
-        <v>600110</v>
+        <v>600050</v>
       </c>
     </row>
     <row r="733" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="B733">
         <v>4</v>
       </c>
       <c r="C733">
-        <v>600120</v>
+        <v>600080</v>
       </c>
     </row>
     <row r="734" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
-        <v>961</v>
+        <v>913</v>
       </c>
       <c r="B734">
         <v>4</v>
       </c>
       <c r="C734">
-        <v>600010</v>
+        <v>600090</v>
       </c>
     </row>
     <row r="735" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
-        <v>962</v>
+        <v>914</v>
       </c>
       <c r="B735">
         <v>4</v>
       </c>
       <c r="C735">
-        <v>600040</v>
+        <v>600100</v>
       </c>
     </row>
     <row r="736" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A736" t="s">
-        <v>963</v>
+        <v>915</v>
       </c>
       <c r="B736">
         <v>4</v>
       </c>
       <c r="C736">
-        <v>600060</v>
+        <v>600110</v>
       </c>
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A737" t="s">
-        <v>964</v>
+        <v>916</v>
       </c>
       <c r="B737">
         <v>4</v>
       </c>
       <c r="C737">
-        <v>600070</v>
+        <v>600120</v>
       </c>
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A738" t="s">
-        <v>823</v>
+        <v>961</v>
       </c>
       <c r="B738">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C738">
-        <v>40010</v>
+        <v>600010</v>
       </c>
     </row>
     <row r="739" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
-        <v>824</v>
+        <v>962</v>
       </c>
       <c r="B739">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C739">
-        <v>40020</v>
+        <v>600040</v>
       </c>
     </row>
     <row r="740" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
-        <v>825</v>
+        <v>963</v>
       </c>
       <c r="B740">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C740">
-        <v>40030</v>
+        <v>600060</v>
       </c>
     </row>
     <row r="741" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
-        <v>826</v>
+        <v>964</v>
       </c>
       <c r="B741">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C741">
-        <v>40040</v>
+        <v>600070</v>
       </c>
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="B742">
         <v>5</v>
       </c>
       <c r="C742">
-        <v>40050</v>
+        <v>40010</v>
       </c>
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="B743">
         <v>5</v>
       </c>
       <c r="C743">
-        <v>40060</v>
+        <v>40020</v>
       </c>
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="B744">
         <v>5</v>
       </c>
       <c r="C744">
-        <v>40070</v>
+        <v>40030</v>
       </c>
     </row>
     <row r="745" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="B745">
         <v>5</v>
       </c>
       <c r="C745">
-        <v>40080</v>
+        <v>40040</v>
       </c>
     </row>
     <row r="746" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="B746">
         <v>5</v>
       </c>
       <c r="C746">
-        <v>40090</v>
+        <v>40050</v>
       </c>
     </row>
     <row r="747" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="B747">
         <v>5</v>
       </c>
       <c r="C747">
-        <v>40100</v>
+        <v>40060</v>
       </c>
     </row>
     <row r="748" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="B748">
         <v>5</v>
       </c>
       <c r="C748">
-        <v>40110</v>
+        <v>40070</v>
       </c>
     </row>
     <row r="749" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="B749">
         <v>5</v>
       </c>
       <c r="C749">
-        <v>50010</v>
+        <v>40080</v>
       </c>
     </row>
     <row r="750" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A750" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="B750">
         <v>5</v>
       </c>
       <c r="C750">
-        <v>50020</v>
+        <v>40090</v>
       </c>
     </row>
     <row r="751" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="B751">
         <v>5</v>
       </c>
       <c r="C751">
-        <v>50030</v>
+        <v>40100</v>
       </c>
     </row>
     <row r="752" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A752" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="B752">
         <v>5</v>
       </c>
       <c r="C752">
-        <v>50040</v>
+        <v>40110</v>
       </c>
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="B753">
         <v>5</v>
       </c>
       <c r="C753">
-        <v>50050</v>
+        <v>50010</v>
       </c>
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="B754">
         <v>5</v>
       </c>
       <c r="C754">
-        <v>50060</v>
+        <v>50020</v>
       </c>
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="B755">
         <v>5</v>
       </c>
       <c r="C755">
-        <v>50070</v>
+        <v>50030</v>
       </c>
     </row>
     <row r="756" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A756" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="B756">
         <v>5</v>
       </c>
       <c r="C756">
-        <v>50080</v>
+        <v>50040</v>
       </c>
     </row>
     <row r="757" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="B757">
         <v>5</v>
       </c>
       <c r="C757">
-        <v>50090</v>
+        <v>50050</v>
       </c>
     </row>
     <row r="758" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A758" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="B758">
         <v>5</v>
       </c>
       <c r="C758">
-        <v>50100</v>
+        <v>50060</v>
       </c>
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="B759">
         <v>5</v>
       </c>
       <c r="C759">
-        <v>50110</v>
+        <v>50070</v>
       </c>
     </row>
     <row r="760" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A760" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="B760">
         <v>5</v>
       </c>
       <c r="C760">
-        <v>50120</v>
+        <v>50080</v>
       </c>
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A761" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="B761">
         <v>5</v>
       </c>
       <c r="C761">
-        <v>50130</v>
+        <v>50090</v>
       </c>
     </row>
     <row r="762" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A762" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="B762">
         <v>5</v>
       </c>
       <c r="C762">
-        <v>50140</v>
+        <v>50100</v>
       </c>
     </row>
     <row r="763" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A763" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="B763">
         <v>5</v>
       </c>
       <c r="C763">
-        <v>50150</v>
+        <v>50110</v>
       </c>
     </row>
     <row r="764" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A764" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="B764">
         <v>5</v>
       </c>
       <c r="C764">
-        <v>50160</v>
+        <v>50120</v>
       </c>
     </row>
     <row r="765" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A765" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="B765">
         <v>5</v>
       </c>
       <c r="C765">
-        <v>50170</v>
+        <v>50130</v>
       </c>
     </row>
     <row r="766" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A766" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="B766">
         <v>5</v>
       </c>
       <c r="C766">
-        <v>50180</v>
+        <v>50140</v>
       </c>
     </row>
     <row r="767" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A767" t="s">
-        <v>995</v>
+        <v>848</v>
       </c>
       <c r="B767">
         <v>5</v>
       </c>
       <c r="C767">
-        <v>50190</v>
+        <v>50150</v>
       </c>
     </row>
     <row r="768" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A768" t="s">
-        <v>996</v>
+        <v>849</v>
       </c>
       <c r="B768">
         <v>5</v>
       </c>
       <c r="C768">
-        <v>50200</v>
+        <v>50160</v>
       </c>
     </row>
     <row r="769" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A769" t="s">
-        <v>997</v>
+        <v>850</v>
       </c>
       <c r="B769">
         <v>5</v>
       </c>
       <c r="C769">
-        <v>50210</v>
+        <v>50170</v>
       </c>
     </row>
     <row r="770" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A770" t="s">
-        <v>998</v>
+        <v>851</v>
       </c>
       <c r="B770">
         <v>5</v>
       </c>
       <c r="C770">
-        <v>50220</v>
+        <v>50180</v>
       </c>
     </row>
     <row r="771" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A771" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="B771">
         <v>5</v>
       </c>
       <c r="C771">
-        <v>50230</v>
+        <v>50190</v>
       </c>
     </row>
     <row r="772" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A772" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="B772">
         <v>5</v>
       </c>
       <c r="C772">
-        <v>50240</v>
+        <v>50200</v>
       </c>
     </row>
     <row r="773" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A773" t="s">
-        <v>503</v>
+        <v>997</v>
       </c>
       <c r="B773">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C773">
-        <v>1</v>
+        <v>50210</v>
       </c>
     </row>
     <row r="774" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A774" t="s">
-        <v>504</v>
+        <v>998</v>
       </c>
       <c r="B774">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C774">
-        <v>2</v>
+        <v>50220</v>
       </c>
     </row>
     <row r="775" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A775" t="s">
-        <v>505</v>
+        <v>999</v>
       </c>
       <c r="B775">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C775">
-        <v>3</v>
+        <v>50230</v>
       </c>
     </row>
     <row r="776" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A776" t="s">
-        <v>506</v>
+        <v>1000</v>
       </c>
       <c r="B776">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C776">
-        <v>4</v>
+        <v>50240</v>
       </c>
     </row>
     <row r="777" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A777" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B777">
         <v>6</v>
       </c>
       <c r="C777">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="778" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A778" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B778">
         <v>6</v>
       </c>
       <c r="C778">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="779" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A779" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B779">
         <v>6</v>
       </c>
       <c r="C779">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="780" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A780" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B780">
         <v>6</v>
       </c>
       <c r="C780">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="781" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A781" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B781">
         <v>6</v>
       </c>
       <c r="C781">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="782" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A782" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B782">
         <v>6</v>
       </c>
       <c r="C782">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="783" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A783" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B783">
         <v>6</v>
       </c>
       <c r="C783">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="784" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A784" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B784">
         <v>6</v>
       </c>
       <c r="C784">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="785" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A785" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B785">
         <v>6</v>
       </c>
       <c r="C785">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="786" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A786" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="B786">
         <v>6</v>
       </c>
       <c r="C786">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="787" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A787" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B787">
         <v>6</v>
       </c>
       <c r="C787">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="788" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A788" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B788">
         <v>6</v>
       </c>
       <c r="C788">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="789" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A789" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B789">
         <v>6</v>
       </c>
       <c r="C789">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="790" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A790" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B790">
         <v>6</v>
       </c>
       <c r="C790">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="791" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A791" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B791">
         <v>6</v>
       </c>
       <c r="C791">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="792" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A792" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B792">
         <v>6</v>
       </c>
       <c r="C792">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="793" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A793" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B793">
         <v>6</v>
       </c>
       <c r="C793">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="794" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A794" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B794">
         <v>6</v>
       </c>
       <c r="C794">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="795" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A795" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B795">
         <v>6</v>
       </c>
       <c r="C795">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="796" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A796" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B796">
         <v>6</v>
       </c>
       <c r="C796">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="797" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A797" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="B797">
         <v>6</v>
       </c>
       <c r="C797">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="798" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A798" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B798">
         <v>6</v>
       </c>
       <c r="C798">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="799" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A799" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B799">
         <v>6</v>
       </c>
       <c r="C799">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="800" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A800" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B800">
         <v>6</v>
       </c>
       <c r="C800">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="801" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A801" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B801">
         <v>6</v>
       </c>
       <c r="C801">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="802" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A802" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B802">
         <v>6</v>
       </c>
       <c r="C802">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="803" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A803" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B803">
         <v>6</v>
       </c>
       <c r="C803">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="804" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A804" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B804">
         <v>6</v>
       </c>
       <c r="C804">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="805" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A805" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B805">
         <v>6</v>
       </c>
       <c r="C805">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="806" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A806" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B806">
         <v>6</v>
       </c>
       <c r="C806">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="807" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A807" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B807">
         <v>6</v>
       </c>
       <c r="C807">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="808" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A808" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B808">
         <v>6</v>
       </c>
       <c r="C808">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="809" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A809" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B809">
         <v>6</v>
       </c>
       <c r="C809">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="810" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A810" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B810">
         <v>6</v>
       </c>
       <c r="C810">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="811" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A811" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B811">
         <v>6</v>
       </c>
       <c r="C811">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="812" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A812" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B812">
         <v>6</v>
       </c>
       <c r="C812">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="813" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A813" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B813">
         <v>6</v>
       </c>
       <c r="C813">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="814" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A814" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B814">
         <v>6</v>
       </c>
       <c r="C814">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="815" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A815" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B815">
         <v>6</v>
       </c>
       <c r="C815">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="816" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A816" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B816">
         <v>6</v>
       </c>
       <c r="C816">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="817" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A817" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B817">
         <v>6</v>
       </c>
       <c r="C817">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="818" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A818" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B818">
         <v>6</v>
       </c>
       <c r="C818">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="819" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A819" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B819">
         <v>6</v>
       </c>
       <c r="C819">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="820" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A820" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B820">
         <v>6</v>
       </c>
       <c r="C820">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="821" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A821" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B821">
         <v>6</v>
       </c>
       <c r="C821">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="822" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A822" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B822">
         <v>6</v>
       </c>
       <c r="C822">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="823" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A823" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B823">
         <v>6</v>
       </c>
       <c r="C823">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="824" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A824" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B824">
         <v>6</v>
       </c>
       <c r="C824">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="825" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A825" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B825">
         <v>6</v>
       </c>
       <c r="C825">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="826" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A826" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B826">
         <v>6</v>
       </c>
       <c r="C826">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="827" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A827" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B827">
         <v>6</v>
       </c>
       <c r="C827">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="828" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A828" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B828">
         <v>6</v>
       </c>
       <c r="C828">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="829" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A829" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B829">
         <v>6</v>
       </c>
       <c r="C829">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="830" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A830" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B830">
         <v>6</v>
       </c>
       <c r="C830">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="831" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A831" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B831">
         <v>6</v>
       </c>
       <c r="C831">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="832" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A832" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B832">
         <v>6</v>
       </c>
       <c r="C832">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="833" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A833" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B833">
         <v>6</v>
       </c>
       <c r="C833">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="834" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A834" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B834">
         <v>6</v>
       </c>
       <c r="C834">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="835" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A835" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B835">
         <v>6</v>
       </c>
       <c r="C835">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="836" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A836" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B836">
         <v>6</v>
       </c>
       <c r="C836">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="837" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A837" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B837">
         <v>6</v>
       </c>
       <c r="C837">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="838" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A838" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B838">
         <v>6</v>
       </c>
       <c r="C838">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="839" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A839" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B839">
         <v>6</v>
       </c>
       <c r="C839">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="840" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A840" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B840">
         <v>6</v>
       </c>
       <c r="C840">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="841" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A841" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B841">
         <v>6</v>
       </c>
       <c r="C841">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="842" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A842" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B842">
         <v>6</v>
       </c>
       <c r="C842">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="843" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A843" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B843">
         <v>6</v>
       </c>
       <c r="C843">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="844" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A844" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B844">
         <v>6</v>
       </c>
       <c r="C844">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="845" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A845" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B845">
         <v>6</v>
       </c>
       <c r="C845">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="846" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A846" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B846">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C846">
-        <v>1</v>
+        <v>70</v>
       </c>
     </row>
     <row r="847" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A847" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B847">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C847">
-        <v>2</v>
+        <v>71</v>
       </c>
     </row>
     <row r="848" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A848" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B848">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C848">
-        <v>3</v>
+        <v>72</v>
       </c>
     </row>
     <row r="849" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A849" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B849">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C849">
-        <v>4</v>
+        <v>73</v>
       </c>
     </row>
     <row r="850" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A850" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B850">
         <v>7</v>
       </c>
       <c r="C850">
-        <v>101</v>
+        <v>1</v>
       </c>
     </row>
     <row r="851" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A851" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B851">
         <v>7</v>
       </c>
       <c r="C851">
-        <v>102</v>
+        <v>2</v>
       </c>
     </row>
     <row r="852" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A852" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B852">
         <v>7</v>
       </c>
       <c r="C852">
-        <v>103</v>
+        <v>3</v>
       </c>
     </row>
     <row r="853" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A853" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B853">
         <v>7</v>
       </c>
       <c r="C853">
-        <v>104</v>
+        <v>4</v>
       </c>
     </row>
     <row r="854" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A854" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B854">
         <v>7</v>
       </c>
       <c r="C854">
-        <v>201</v>
+        <v>101</v>
       </c>
     </row>
     <row r="855" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A855" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B855">
         <v>7</v>
       </c>
       <c r="C855">
-        <v>202</v>
+        <v>102</v>
       </c>
     </row>
     <row r="856" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A856" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="B856">
         <v>7</v>
       </c>
       <c r="C856">
-        <v>203</v>
+        <v>103</v>
       </c>
     </row>
     <row r="857" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A857" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="B857">
         <v>7</v>
       </c>
       <c r="C857">
-        <v>204</v>
+        <v>104</v>
       </c>
     </row>
     <row r="858" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A858" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B858">
         <v>7</v>
       </c>
       <c r="C858">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="859" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A859" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B859">
         <v>7</v>
       </c>
       <c r="C859">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="860" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A860" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B860">
         <v>7</v>
       </c>
       <c r="C860">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="861" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A861" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B861">
         <v>7</v>
       </c>
       <c r="C861">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="862" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A862" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B862">
         <v>7</v>
       </c>
       <c r="C862">
-        <v>301</v>
+        <v>211</v>
       </c>
     </row>
     <row r="863" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A863" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="B863">
         <v>7</v>
       </c>
       <c r="C863">
-        <v>302</v>
+        <v>212</v>
       </c>
     </row>
     <row r="864" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A864" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="B864">
         <v>7</v>
       </c>
       <c r="C864">
-        <v>303</v>
+        <v>213</v>
       </c>
     </row>
     <row r="865" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A865" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="B865">
         <v>7</v>
       </c>
       <c r="C865">
-        <v>304</v>
+        <v>214</v>
       </c>
     </row>
     <row r="866" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A866" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B866">
         <v>7</v>
       </c>
       <c r="C866">
-        <v>311</v>
+        <v>301</v>
       </c>
     </row>
     <row r="867" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A867" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B867">
         <v>7</v>
       </c>
       <c r="C867">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="868" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A868" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B868">
         <v>7</v>
       </c>
       <c r="C868">
-        <v>313</v>
+        <v>303</v>
       </c>
     </row>
     <row r="869" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A869" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B869">
         <v>7</v>
       </c>
       <c r="C869">
-        <v>314</v>
+        <v>304</v>
       </c>
     </row>
     <row r="870" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A870" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B870">
         <v>7</v>
       </c>
       <c r="C870">
-        <v>401</v>
+        <v>311</v>
       </c>
     </row>
     <row r="871" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A871" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B871">
         <v>7</v>
       </c>
       <c r="C871">
-        <v>402</v>
+        <v>312</v>
       </c>
     </row>
     <row r="872" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A872" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="B872">
         <v>7</v>
       </c>
       <c r="C872">
-        <v>403</v>
+        <v>313</v>
       </c>
     </row>
     <row r="873" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A873" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B873">
         <v>7</v>
       </c>
       <c r="C873">
-        <v>404</v>
+        <v>314</v>
       </c>
     </row>
     <row r="874" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A874" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B874">
         <v>7</v>
       </c>
       <c r="C874">
-        <v>411</v>
+        <v>401</v>
       </c>
     </row>
     <row r="875" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A875" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B875">
         <v>7</v>
       </c>
       <c r="C875">
-        <v>412</v>
+        <v>402</v>
       </c>
     </row>
     <row r="876" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A876" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B876">
         <v>7</v>
       </c>
       <c r="C876">
-        <v>413</v>
+        <v>403</v>
       </c>
     </row>
     <row r="877" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A877" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B877">
         <v>7</v>
       </c>
       <c r="C877">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="878" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A878" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B878">
         <v>7</v>
       </c>
       <c r="C878">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="879" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A879" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B879">
         <v>7</v>
       </c>
       <c r="C879">
-        <v>422</v>
+        <v>412</v>
       </c>
     </row>
     <row r="880" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A880" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="B880">
         <v>7</v>
       </c>
       <c r="C880">
-        <v>423</v>
+        <v>413</v>
       </c>
     </row>
     <row r="881" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A881" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B881">
         <v>7</v>
       </c>
       <c r="C881">
-        <v>424</v>
+        <v>414</v>
       </c>
     </row>
     <row r="882" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A882" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B882">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C882">
-        <v>11010</v>
+        <v>421</v>
       </c>
     </row>
     <row r="883" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A883" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B883">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C883">
-        <v>11020</v>
+        <v>422</v>
       </c>
     </row>
     <row r="884" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A884" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B884">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C884">
-        <v>11110</v>
+        <v>423</v>
       </c>
     </row>
     <row r="885" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A885" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B885">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C885">
-        <v>11120</v>
+        <v>424</v>
       </c>
     </row>
     <row r="886" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A886" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B886">
         <v>8</v>
       </c>
       <c r="C886">
-        <v>11210</v>
+        <v>11010</v>
       </c>
     </row>
     <row r="887" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A887" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B887">
         <v>8</v>
       </c>
       <c r="C887">
-        <v>11320</v>
+        <v>11020</v>
       </c>
     </row>
     <row r="888" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A888" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B888">
         <v>8</v>
       </c>
       <c r="C888">
-        <v>12010</v>
+        <v>11110</v>
       </c>
     </row>
     <row r="889" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A889" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B889">
         <v>8</v>
       </c>
       <c r="C889">
-        <v>12020</v>
+        <v>11120</v>
       </c>
     </row>
     <row r="890" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A890" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B890">
         <v>8</v>
       </c>
       <c r="C890">
-        <v>12110</v>
+        <v>11210</v>
       </c>
     </row>
     <row r="891" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A891" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B891">
         <v>8</v>
       </c>
       <c r="C891">
-        <v>12120</v>
+        <v>11320</v>
       </c>
     </row>
     <row r="892" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A892" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B892">
         <v>8</v>
       </c>
       <c r="C892">
-        <v>12210</v>
+        <v>12010</v>
       </c>
     </row>
     <row r="893" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A893" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B893">
         <v>8</v>
       </c>
       <c r="C893">
-        <v>12320</v>
+        <v>12020</v>
       </c>
     </row>
     <row r="894" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A894" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B894">
         <v>8</v>
       </c>
       <c r="C894">
-        <v>13010</v>
+        <v>12110</v>
       </c>
     </row>
     <row r="895" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A895" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B895">
         <v>8</v>
       </c>
       <c r="C895">
-        <v>13020</v>
+        <v>12120</v>
       </c>
     </row>
     <row r="896" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A896" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="B896">
         <v>8</v>
       </c>
       <c r="C896">
-        <v>13030</v>
+        <v>12210</v>
       </c>
     </row>
     <row r="897" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A897" t="s">
-        <v>917</v>
+        <v>623</v>
       </c>
       <c r="B897">
         <v>8</v>
       </c>
       <c r="C897">
-        <v>11410</v>
+        <v>12320</v>
       </c>
     </row>
     <row r="898" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A898" t="s">
-        <v>918</v>
+        <v>624</v>
       </c>
       <c r="B898">
         <v>8</v>
       </c>
       <c r="C898">
-        <v>11420</v>
+        <v>13010</v>
       </c>
     </row>
     <row r="899" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A899" t="s">
-        <v>919</v>
+        <v>625</v>
       </c>
       <c r="B899">
         <v>8</v>
       </c>
       <c r="C899">
-        <v>12410</v>
+        <v>13020</v>
       </c>
     </row>
     <row r="900" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A900" t="s">
-        <v>920</v>
+        <v>626</v>
       </c>
       <c r="B900">
         <v>8</v>
       </c>
       <c r="C900">
-        <v>12420</v>
+        <v>13030</v>
       </c>
     </row>
     <row r="901" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A901" t="s">
-        <v>1001</v>
+        <v>917</v>
       </c>
       <c r="B901">
         <v>8</v>
       </c>
       <c r="C901">
-        <v>14010</v>
+        <v>11410</v>
       </c>
     </row>
     <row r="902" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A902" t="s">
-        <v>1002</v>
+        <v>918</v>
       </c>
       <c r="B902">
         <v>8</v>
       </c>
       <c r="C902">
-        <v>14020</v>
+        <v>11420</v>
       </c>
     </row>
     <row r="903" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A903" t="s">
-        <v>627</v>
+        <v>919</v>
       </c>
       <c r="B903">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C903">
-        <v>38</v>
+        <v>12410</v>
       </c>
     </row>
     <row r="904" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A904" t="s">
-        <v>628</v>
+        <v>920</v>
       </c>
       <c r="B904">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C904">
-        <v>39</v>
+        <v>12420</v>
       </c>
     </row>
     <row r="905" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A905" t="s">
-        <v>629</v>
+        <v>1001</v>
       </c>
       <c r="B905">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C905">
-        <v>40</v>
+        <v>14010</v>
       </c>
     </row>
     <row r="906" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A906" t="s">
-        <v>630</v>
+        <v>1002</v>
       </c>
       <c r="B906">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C906">
-        <v>41</v>
+        <v>14020</v>
       </c>
     </row>
     <row r="907" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A907" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B907">
         <v>9</v>
       </c>
       <c r="C907">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="908" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A908" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B908">
         <v>9</v>
       </c>
       <c r="C908">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="909" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A909" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B909">
         <v>9</v>
       </c>
       <c r="C909">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="910" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A910" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B910">
         <v>9</v>
       </c>
       <c r="C910">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="911" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A911" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="B911">
         <v>9</v>
       </c>
       <c r="C911">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="912" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A912" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B912">
         <v>9</v>
       </c>
       <c r="C912">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="913" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A913" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="B913">
         <v>9</v>
       </c>
       <c r="C913">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="914" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A914" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B914">
         <v>9</v>
       </c>
       <c r="C914">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="915" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A915" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B915">
         <v>9</v>
       </c>
       <c r="C915">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="916" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A916" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B916">
         <v>9</v>
       </c>
       <c r="C916">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="917" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A917" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B917">
         <v>9</v>
       </c>
       <c r="C917">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="918" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A918" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="B918">
         <v>9</v>
       </c>
       <c r="C918">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="919" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A919" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="B919">
         <v>9</v>
       </c>
       <c r="C919">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="920" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A920" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B920">
         <v>9</v>
       </c>
       <c r="C920">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="921" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A921" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B921">
         <v>9</v>
       </c>
       <c r="C921">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="922" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A922" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B922">
         <v>9</v>
       </c>
       <c r="C922">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="923" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A923" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B923">
         <v>9</v>
       </c>
       <c r="C923">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="924" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A924" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="B924">
         <v>9</v>
       </c>
       <c r="C924">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="925" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A925" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="B925">
         <v>9</v>
       </c>
       <c r="C925">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="926" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A926" t="s">
-        <v>1003</v>
+        <v>646</v>
       </c>
       <c r="B926">
         <v>9</v>
       </c>
       <c r="C926">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="927" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A927" t="s">
-        <v>1004</v>
+        <v>647</v>
       </c>
       <c r="B927">
         <v>9</v>
       </c>
       <c r="C927">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="928" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A928" t="s">
-        <v>1005</v>
+        <v>648</v>
       </c>
       <c r="B928">
         <v>9</v>
       </c>
       <c r="C928">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="929" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A929" t="s">
-        <v>1006</v>
+        <v>649</v>
       </c>
       <c r="B929">
         <v>9</v>
       </c>
       <c r="C929">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="930" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A930" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="B930">
         <v>9</v>
       </c>
       <c r="C930">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="931" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A931" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="B931">
         <v>9</v>
       </c>
       <c r="C931">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="932" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A932" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="B932">
         <v>9</v>
       </c>
       <c r="C932">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="933" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A933" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="B933">
         <v>9</v>
       </c>
       <c r="C933">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="934" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A934" t="s">
-        <v>650</v>
+        <v>1007</v>
       </c>
       <c r="B934">
         <v>9</v>
       </c>
       <c r="C934">
-        <v>101</v>
+        <v>71</v>
       </c>
     </row>
     <row r="935" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A935" t="s">
-        <v>651</v>
+        <v>1008</v>
       </c>
       <c r="B935">
         <v>9</v>
       </c>
       <c r="C935">
-        <v>102</v>
+        <v>72</v>
       </c>
     </row>
     <row r="936" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A936" t="s">
-        <v>652</v>
+        <v>1009</v>
       </c>
       <c r="B936">
         <v>9</v>
       </c>
       <c r="C936">
-        <v>103</v>
+        <v>73</v>
       </c>
     </row>
     <row r="937" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A937" t="s">
-        <v>653</v>
+        <v>1010</v>
       </c>
       <c r="B937">
         <v>9</v>
       </c>
       <c r="C937">
-        <v>104</v>
+        <v>74</v>
       </c>
     </row>
     <row r="938" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A938" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="B938">
         <v>9</v>
       </c>
       <c r="C938">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="939" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A939" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="B939">
         <v>9</v>
       </c>
       <c r="C939">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="940" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A940" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="B940">
         <v>9</v>
       </c>
       <c r="C940">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="941" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A941" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="B941">
         <v>9</v>
       </c>
       <c r="C941">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="942" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A942" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="B942">
         <v>9</v>
       </c>
       <c r="C942">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="943" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A943" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B943">
         <v>9</v>
       </c>
       <c r="C943">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="944" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A944" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="B944">
         <v>9</v>
       </c>
       <c r="C944">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="945" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A945" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="B945">
         <v>9</v>
       </c>
       <c r="C945">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="946" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A946" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="B946">
         <v>9</v>
       </c>
       <c r="C946">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="947" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A947" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="B947">
         <v>9</v>
       </c>
       <c r="C947">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="948" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A948" t="s">
-        <v>1011</v>
+        <v>660</v>
       </c>
       <c r="B948">
         <v>9</v>
       </c>
       <c r="C948">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="949" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A949" t="s">
-        <v>1012</v>
+        <v>661</v>
       </c>
       <c r="B949">
         <v>9</v>
       </c>
       <c r="C949">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="950" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A950" t="s">
-        <v>1013</v>
+        <v>662</v>
       </c>
       <c r="B950">
         <v>9</v>
       </c>
       <c r="C950">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="951" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A951" t="s">
-        <v>1014</v>
+        <v>663</v>
       </c>
       <c r="B951">
         <v>9</v>
       </c>
       <c r="C951">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="952" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A952" t="s">
-        <v>664</v>
+        <v>1011</v>
       </c>
       <c r="B952">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C952">
-        <v>4</v>
+        <v>115</v>
       </c>
     </row>
     <row r="953" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A953" t="s">
-        <v>665</v>
+        <v>1012</v>
       </c>
       <c r="B953">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C953">
-        <v>5</v>
+        <v>116</v>
       </c>
     </row>
     <row r="954" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A954" t="s">
-        <v>666</v>
+        <v>1013</v>
       </c>
       <c r="B954">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C954">
-        <v>6</v>
+        <v>117</v>
       </c>
     </row>
     <row r="955" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A955" t="s">
-        <v>667</v>
+        <v>1014</v>
       </c>
       <c r="B955">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C955">
-        <v>7</v>
+        <v>118</v>
       </c>
     </row>
     <row r="956" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A956" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="B956">
         <v>10</v>
       </c>
       <c r="C956">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="957" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A957" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="B957">
         <v>10</v>
       </c>
       <c r="C957">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="958" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A958" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="B958">
         <v>10</v>
       </c>
       <c r="C958">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="959" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A959" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="B959">
         <v>10</v>
       </c>
       <c r="C959">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="960" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A960" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="B960">
         <v>10</v>
       </c>
       <c r="C960">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="961" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A961" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="B961">
         <v>10</v>
       </c>
       <c r="C961">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="962" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A962" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="B962">
         <v>10</v>
       </c>
       <c r="C962">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="963" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A963" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="B963">
         <v>10</v>
       </c>
       <c r="C963">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="964" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A964" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="B964">
         <v>10</v>
       </c>
       <c r="C964">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="965" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A965" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="B965">
         <v>10</v>
       </c>
       <c r="C965">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="966" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A966" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="B966">
         <v>10</v>
       </c>
       <c r="C966">
-        <v>101</v>
+        <v>14</v>
       </c>
     </row>
     <row r="967" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A967" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="B967">
         <v>10</v>
       </c>
       <c r="C967">
-        <v>102</v>
+        <v>15</v>
       </c>
     </row>
     <row r="968" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A968" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="B968">
         <v>10</v>
       </c>
       <c r="C968">
-        <v>103</v>
+        <v>16</v>
       </c>
     </row>
     <row r="969" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A969" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="B969">
         <v>10</v>
       </c>
       <c r="C969">
-        <v>104</v>
+        <v>17</v>
       </c>
     </row>
     <row r="970" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A970" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="B970">
         <v>10</v>
       </c>
       <c r="C970">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="971" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A971" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="B971">
         <v>10</v>
       </c>
       <c r="C971">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="972" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A972" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B972">
         <v>10</v>
       </c>
       <c r="C972">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="973" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A973" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="B973">
         <v>10</v>
       </c>
       <c r="C973">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="974" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A974" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="B974">
         <v>10</v>
       </c>
       <c r="C974">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="975" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A975" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B975">
         <v>10</v>
       </c>
       <c r="C975">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="976" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A976" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="B976">
         <v>10</v>
       </c>
       <c r="C976">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="977" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A977" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="B977">
         <v>10</v>
       </c>
       <c r="C977">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="978" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A978" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B978">
         <v>10</v>
       </c>
       <c r="C978">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="979" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A979" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B979">
         <v>10</v>
       </c>
       <c r="C979">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="980" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A980" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B980">
         <v>10</v>
       </c>
       <c r="C980">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="981" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A981" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="B981">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C981">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="982" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A982" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B982">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C982">
-        <v>200</v>
+        <v>113</v>
       </c>
     </row>
     <row r="983" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A983" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="B983">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C983">
-        <v>300</v>
+        <v>114</v>
       </c>
     </row>
     <row r="984" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A984" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="B984">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C984">
-        <v>400</v>
+        <v>115</v>
       </c>
     </row>
     <row r="985" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A985" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="B985">
         <v>11</v>
       </c>
       <c r="C985">
-        <v>500</v>
+        <v>100</v>
       </c>
     </row>
     <row r="986" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A986" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="B986">
         <v>11</v>
       </c>
       <c r="C986">
-        <v>600</v>
+        <v>200</v>
       </c>
     </row>
     <row r="987" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A987" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="B987">
         <v>11</v>
       </c>
       <c r="C987">
-        <v>700</v>
+        <v>300</v>
       </c>
     </row>
     <row r="988" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A988" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B988">
         <v>11</v>
       </c>
       <c r="C988">
-        <v>800</v>
+        <v>400</v>
       </c>
     </row>
     <row r="989" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A989" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="B989">
         <v>11</v>
       </c>
       <c r="C989">
-        <v>900</v>
+        <v>500</v>
       </c>
     </row>
     <row r="990" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A990" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="B990">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C990">
-        <v>1</v>
+        <v>600</v>
       </c>
     </row>
     <row r="991" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A991" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="B991">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C991">
-        <v>2</v>
+        <v>700</v>
       </c>
     </row>
     <row r="992" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A992" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="B992">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C992">
-        <v>3</v>
+        <v>800</v>
       </c>
     </row>
     <row r="993" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A993" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="B993">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C993">
-        <v>4</v>
+        <v>900</v>
       </c>
     </row>
     <row r="994" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A994" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="B994">
         <v>12</v>
       </c>
       <c r="C994">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="995" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A995" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="B995">
         <v>12</v>
       </c>
       <c r="C995">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="996" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A996" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="B996">
         <v>12</v>
       </c>
       <c r="C996">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="997" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A997" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="B997">
         <v>12</v>
       </c>
       <c r="C997">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="998" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A998" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="B998">
         <v>12</v>
       </c>
       <c r="C998">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="999" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A999" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="B999">
         <v>12</v>
       </c>
       <c r="C999">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1000" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1000" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="B1000">
         <v>12</v>
       </c>
       <c r="C1000">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1001" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1001" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="B1001">
         <v>12</v>
       </c>
       <c r="C1001">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1002" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1002" t="s">
-        <v>441</v>
+        <v>710</v>
       </c>
       <c r="B1002">
         <v>12</v>
       </c>
       <c r="C1002">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1003" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1003" t="s">
-        <v>436</v>
+        <v>711</v>
       </c>
       <c r="B1003">
         <v>12</v>
       </c>
       <c r="C1003">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1004" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1004" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B1004">
         <v>12</v>
       </c>
       <c r="C1004">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1005" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1005" t="s">
-        <v>434</v>
+        <v>713</v>
       </c>
       <c r="B1005">
         <v>12</v>
       </c>
       <c r="C1005">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1006" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1006" t="s">
-        <v>715</v>
+        <v>441</v>
       </c>
       <c r="B1006">
         <v>12</v>
       </c>
       <c r="C1006">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1007" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1007" t="s">
-        <v>716</v>
+        <v>436</v>
       </c>
       <c r="B1007">
         <v>12</v>
       </c>
       <c r="C1007">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1008" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1008" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="B1008">
         <v>12</v>
       </c>
       <c r="C1008">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1009" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1009" t="s">
-        <v>718</v>
+        <v>434</v>
       </c>
       <c r="B1009">
         <v>12</v>
       </c>
       <c r="C1009">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1010" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1010" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="B1010">
         <v>12</v>
       </c>
       <c r="C1010">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1011" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1011" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="B1011">
         <v>12</v>
       </c>
       <c r="C1011">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1012" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1012" t="s">
-        <v>702</v>
+        <v>717</v>
       </c>
       <c r="B1012">
         <v>12</v>
       </c>
       <c r="C1012">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1013" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1013" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="B1013">
         <v>12</v>
       </c>
       <c r="C1013">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1014" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1014" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="B1014">
         <v>12</v>
       </c>
       <c r="C1014">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1015" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1015" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="B1015">
         <v>12</v>
       </c>
       <c r="C1015">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1016" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1016" t="s">
-        <v>724</v>
+        <v>702</v>
       </c>
       <c r="B1016">
         <v>12</v>
       </c>
       <c r="C1016">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1017" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1017" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="B1017">
         <v>12</v>
       </c>
       <c r="C1017">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1018" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1018" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="B1018">
         <v>12</v>
       </c>
       <c r="C1018">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1019" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1019" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="B1019">
         <v>12</v>
       </c>
       <c r="C1019">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1020" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1020" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="B1020">
         <v>12</v>
       </c>
       <c r="C1020">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1021" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1021" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="B1021">
         <v>12</v>
       </c>
       <c r="C1021">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1022" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1022" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="B1022">
         <v>12</v>
       </c>
       <c r="C1022">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1023" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1023" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="B1023">
         <v>12</v>
       </c>
       <c r="C1023">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1024" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1024" t="s">
-        <v>447</v>
+        <v>728</v>
       </c>
       <c r="B1024">
         <v>12</v>
       </c>
       <c r="C1024">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1025" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1025" t="s">
-        <v>426</v>
+        <v>729</v>
       </c>
       <c r="B1025">
         <v>12</v>
       </c>
       <c r="C1025">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1026" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1026" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B1026">
         <v>12</v>
       </c>
       <c r="C1026">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1027" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1027" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B1027">
         <v>12</v>
       </c>
       <c r="C1027">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1028" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1028" t="s">
-        <v>721</v>
+        <v>447</v>
       </c>
       <c r="B1028">
         <v>12</v>
       </c>
       <c r="C1028">
-        <v>101</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1029" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1029" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="B1029">
         <v>12</v>
       </c>
       <c r="C1029">
-        <v>102</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1030" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1030" t="s">
-        <v>451</v>
+        <v>732</v>
       </c>
       <c r="B1030">
         <v>12</v>
       </c>
       <c r="C1030">
-        <v>103</v>
+        <v>37</v>
       </c>
     </row>
     <row r="1031" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1031" t="s">
-        <v>449</v>
+        <v>733</v>
       </c>
       <c r="B1031">
         <v>12</v>
       </c>
       <c r="C1031">
-        <v>104</v>
+        <v>38</v>
       </c>
     </row>
     <row r="1032" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1032" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="B1032">
         <v>12</v>
       </c>
       <c r="C1032">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="1033" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1033" t="s">
-        <v>735</v>
+        <v>432</v>
       </c>
       <c r="B1033">
         <v>12</v>
       </c>
       <c r="C1033">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="1034" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1034" t="s">
-        <v>736</v>
+        <v>451</v>
       </c>
       <c r="B1034">
         <v>12</v>
       </c>
       <c r="C1034">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="1035" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1035" t="s">
-        <v>737</v>
+        <v>449</v>
       </c>
       <c r="B1035">
         <v>12</v>
       </c>
       <c r="C1035">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="1036" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1036" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="B1036">
         <v>12</v>
       </c>
       <c r="C1036">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="1037" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1037" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="B1037">
         <v>12</v>
       </c>
       <c r="C1037">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="1038" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1038" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="B1038">
         <v>12</v>
       </c>
       <c r="C1038">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="1039" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1039" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="B1039">
         <v>12</v>
       </c>
       <c r="C1039">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="1040" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1040" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="B1040">
         <v>12</v>
       </c>
       <c r="C1040">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="1041" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1041" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="B1041">
         <v>12</v>
       </c>
       <c r="C1041">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="1042" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1042" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="B1042">
         <v>12</v>
       </c>
       <c r="C1042">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="1043" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1043" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="B1043">
         <v>12</v>
       </c>
       <c r="C1043">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="1044" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1044" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="B1044">
         <v>12</v>
       </c>
       <c r="C1044">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="1045" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1045" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="B1045">
         <v>12</v>
       </c>
       <c r="C1045">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="1046" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1046" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="B1046">
         <v>12</v>
       </c>
       <c r="C1046">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="1047" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1047" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="B1047">
         <v>12</v>
       </c>
       <c r="C1047">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="1048" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1048" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="B1048">
         <v>12</v>
       </c>
       <c r="C1048">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="1049" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1049" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="B1049">
         <v>12</v>
       </c>
       <c r="C1049">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="1050" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1050" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="B1050">
         <v>12</v>
       </c>
       <c r="C1050">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="1051" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1051" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="B1051">
         <v>12</v>
       </c>
       <c r="C1051">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="1052" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1052" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="B1052">
         <v>12</v>
       </c>
       <c r="C1052">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="1053" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1053" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="B1053">
         <v>12</v>
       </c>
       <c r="C1053">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="1054" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1054" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="B1054">
         <v>12</v>
       </c>
       <c r="C1054">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="1055" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1055" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="B1055">
         <v>12</v>
       </c>
       <c r="C1055">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="1056" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1056" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="B1056">
         <v>12</v>
       </c>
       <c r="C1056">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="1057" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1057" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="B1057">
         <v>12</v>
       </c>
       <c r="C1057">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="1058" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1058" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="B1058">
         <v>12</v>
       </c>
       <c r="C1058">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="1059" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1059" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="B1059">
         <v>12</v>
       </c>
       <c r="C1059">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="1060" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1060" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="B1060">
         <v>12</v>
       </c>
       <c r="C1060">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="1061" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1061" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="B1061">
         <v>12</v>
       </c>
       <c r="C1061">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="1062" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1062" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="B1062">
         <v>12</v>
       </c>
       <c r="C1062">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="1063" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1063" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="B1063">
         <v>12</v>
       </c>
       <c r="C1063">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="1064" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1064" t="s">
-        <v>1220</v>
+        <v>762</v>
       </c>
       <c r="B1064">
         <v>12</v>
       </c>
       <c r="C1064">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="1065" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1065" t="s">
-        <v>1221</v>
+        <v>763</v>
       </c>
       <c r="B1065">
         <v>12</v>
       </c>
       <c r="C1065">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="1066" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1066" t="s">
-        <v>1222</v>
+        <v>764</v>
       </c>
       <c r="B1066">
         <v>12</v>
       </c>
       <c r="C1066">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="1067" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1067" t="s">
-        <v>1223</v>
+        <v>765</v>
       </c>
       <c r="B1067">
         <v>12</v>
       </c>
       <c r="C1067">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="1068" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1068" t="s">
-        <v>327</v>
+        <v>1220</v>
       </c>
       <c r="B1068">
         <v>12</v>
       </c>
       <c r="C1068">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="1069" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1069" t="s">
-        <v>748</v>
+        <v>1221</v>
       </c>
       <c r="B1069">
         <v>12</v>
       </c>
       <c r="C1069">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="1070" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1070" t="s">
-        <v>766</v>
+        <v>1222</v>
       </c>
       <c r="B1070">
         <v>12</v>
       </c>
       <c r="C1070">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="1071" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1071" t="s">
-        <v>767</v>
+        <v>1223</v>
       </c>
       <c r="B1071">
         <v>12</v>
       </c>
       <c r="C1071">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="1072" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1072" t="s">
-        <v>1224</v>
+        <v>327</v>
       </c>
       <c r="B1072">
         <v>12</v>
       </c>
       <c r="C1072">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="1073" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1073" t="s">
-        <v>1225</v>
+        <v>748</v>
       </c>
       <c r="B1073">
         <v>12</v>
       </c>
       <c r="C1073">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="1074" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1074" t="s">
-        <v>1226</v>
+        <v>766</v>
       </c>
       <c r="B1074">
         <v>12</v>
       </c>
       <c r="C1074">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="1075" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1075" t="s">
-        <v>1227</v>
+        <v>767</v>
       </c>
       <c r="B1075">
         <v>12</v>
       </c>
       <c r="C1075">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="1076" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1076" t="s">
-        <v>768</v>
+        <v>1224</v>
       </c>
       <c r="B1076">
         <v>12</v>
       </c>
       <c r="C1076">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="1077" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1077" t="s">
-        <v>769</v>
+        <v>1225</v>
       </c>
       <c r="B1077">
         <v>12</v>
       </c>
       <c r="C1077">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="1078" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1078" t="s">
-        <v>770</v>
+        <v>1226</v>
       </c>
       <c r="B1078">
         <v>12</v>
       </c>
       <c r="C1078">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="1079" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1079" t="s">
-        <v>426</v>
+        <v>1227</v>
       </c>
       <c r="B1079">
         <v>12</v>
       </c>
       <c r="C1079">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="1080" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1080" t="s">
-        <v>28</v>
+        <v>768</v>
       </c>
       <c r="B1080">
         <v>12</v>
       </c>
       <c r="C1080">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1081" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1081" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B1081">
         <v>12</v>
       </c>
       <c r="C1081">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="1082" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1082" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B1082">
         <v>12</v>
       </c>
       <c r="C1082">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1083" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1083" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B1083">
         <v>12</v>
       </c>
       <c r="C1083">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="1084" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1084" t="s">
-        <v>773</v>
+        <v>28</v>
       </c>
       <c r="B1084">
         <v>12</v>
       </c>
       <c r="C1084">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="1085" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1085" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="B1085">
         <v>12</v>
       </c>
       <c r="C1085">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="1086" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1086" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="B1086">
         <v>12</v>
       </c>
       <c r="C1086">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="1087" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1087" t="s">
-        <v>776</v>
+        <v>429</v>
       </c>
       <c r="B1087">
         <v>12</v>
       </c>
       <c r="C1087">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="1088" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1088" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="B1088">
         <v>12</v>
       </c>
       <c r="C1088">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="1089" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1089" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="B1089">
         <v>12</v>
       </c>
       <c r="C1089">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="1090" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1090" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="B1090">
         <v>12</v>
       </c>
       <c r="C1090">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="1091" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1091" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="B1091">
         <v>12</v>
       </c>
       <c r="C1091">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="1092" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1092" t="s">
-        <v>1228</v>
+        <v>777</v>
       </c>
       <c r="B1092">
         <v>12</v>
       </c>
       <c r="C1092">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="1093" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1093" t="s">
-        <v>1229</v>
+        <v>778</v>
       </c>
       <c r="B1093">
         <v>12</v>
       </c>
       <c r="C1093">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="1094" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1094" t="s">
-        <v>1230</v>
+        <v>779</v>
       </c>
       <c r="B1094">
         <v>12</v>
       </c>
       <c r="C1094">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="1095" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1095" t="s">
-        <v>1231</v>
+        <v>780</v>
       </c>
       <c r="B1095">
         <v>12</v>
       </c>
       <c r="C1095">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="1096" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1096" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="B1096">
         <v>12</v>
       </c>
       <c r="C1096">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="1097" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1097" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
       <c r="B1097">
         <v>12</v>
       </c>
       <c r="C1097">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="1098" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1098" t="s">
-        <v>781</v>
+        <v>1230</v>
       </c>
       <c r="B1098">
         <v>12</v>
       </c>
       <c r="C1098">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="1099" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1099" t="s">
-        <v>782</v>
+        <v>1231</v>
       </c>
       <c r="B1099">
         <v>12</v>
       </c>
       <c r="C1099">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="1100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1100" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="B1100">
         <v>12</v>
       </c>
       <c r="C1100">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="1101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1101" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="B1101">
         <v>12</v>
       </c>
       <c r="C1101">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="1102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1102" t="s">
-        <v>1236</v>
+        <v>781</v>
       </c>
       <c r="B1102">
         <v>12</v>
       </c>
       <c r="C1102">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="1103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1103" t="s">
-        <v>1237</v>
+        <v>782</v>
       </c>
       <c r="B1103">
         <v>12</v>
       </c>
       <c r="C1103">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="1104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1104" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="B1104">
         <v>12</v>
       </c>
       <c r="C1104">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="1105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1105" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="B1105">
         <v>12</v>
       </c>
       <c r="C1105">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="1106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1106" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="B1106">
         <v>12</v>
       </c>
       <c r="C1106">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="1107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1107" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
       <c r="B1107">
         <v>12</v>
       </c>
       <c r="C1107">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="1108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1108" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="B1108">
         <v>12</v>
       </c>
       <c r="C1108">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="1109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1109" t="s">
-        <v>783</v>
+        <v>1239</v>
       </c>
       <c r="B1109">
         <v>12</v>
       </c>
       <c r="C1109">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="1110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1110" t="s">
-        <v>784</v>
+        <v>1240</v>
       </c>
       <c r="B1110">
         <v>12</v>
       </c>
       <c r="C1110">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="1111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1111" t="s">
-        <v>785</v>
+        <v>1241</v>
       </c>
       <c r="B1111">
         <v>12</v>
       </c>
       <c r="C1111">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="1112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1112" t="s">
-        <v>786</v>
+        <v>1242</v>
       </c>
       <c r="B1112">
         <v>12</v>
       </c>
       <c r="C1112">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="1113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1113" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="B1113">
         <v>12</v>
       </c>
       <c r="C1113">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="1114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1114" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="B1114">
         <v>12</v>
       </c>
       <c r="C1114">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="1115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1115" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="B1115">
         <v>12</v>
       </c>
       <c r="C1115">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="1116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1116" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="B1116">
         <v>12</v>
       </c>
       <c r="C1116">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="1117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1117" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="B1117">
         <v>12</v>
       </c>
       <c r="C1117">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="1118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1118" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="B1118">
         <v>12</v>
       </c>
       <c r="C1118">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="1119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1119" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="B1119">
         <v>12</v>
       </c>
       <c r="C1119">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="1120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1120" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="B1120">
         <v>12</v>
       </c>
       <c r="C1120">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="1121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1121" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="B1121">
         <v>12</v>
       </c>
       <c r="C1121">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="1122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1122" t="s">
-        <v>1015</v>
+        <v>792</v>
       </c>
       <c r="B1122">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1122">
-        <v>51004001</v>
+        <v>191</v>
       </c>
     </row>
     <row r="1123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1123" t="s">
-        <v>1016</v>
+        <v>793</v>
       </c>
       <c r="B1123">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1123">
-        <v>51004002</v>
+        <v>192</v>
       </c>
     </row>
     <row r="1124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1124" t="s">
-        <v>1017</v>
+        <v>794</v>
       </c>
       <c r="B1124">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1124">
-        <v>51004003</v>
+        <v>193</v>
       </c>
     </row>
     <row r="1125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1125" t="s">
-        <v>1018</v>
+        <v>795</v>
       </c>
       <c r="B1125">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1125">
-        <v>51004004</v>
+        <v>194</v>
       </c>
     </row>
     <row r="1126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1126" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="B1126">
         <v>13</v>
       </c>
       <c r="C1126">
-        <v>51006001</v>
+        <v>51004001</v>
       </c>
     </row>
     <row r="1127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1127" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="B1127">
         <v>13</v>
       </c>
       <c r="C1127">
-        <v>50011001</v>
+        <v>51004002</v>
       </c>
     </row>
     <row r="1128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1128" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="B1128">
         <v>13</v>
       </c>
       <c r="C1128">
-        <v>51002001</v>
+        <v>51004003</v>
       </c>
     </row>
     <row r="1129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1129" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="B1129">
         <v>13</v>
       </c>
       <c r="C1129">
-        <v>51008001</v>
+        <v>51004004</v>
       </c>
     </row>
     <row r="1130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1130" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="B1130">
         <v>13</v>
       </c>
       <c r="C1130">
-        <v>51001001</v>
+        <v>51006001</v>
       </c>
     </row>
     <row r="1131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1131" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="B1131">
         <v>13</v>
       </c>
       <c r="C1131">
-        <v>51003001</v>
+        <v>50011001</v>
       </c>
     </row>
     <row r="1132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1132" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="B1132">
         <v>13</v>
       </c>
       <c r="C1132">
-        <v>51005001</v>
+        <v>51002001</v>
       </c>
     </row>
     <row r="1133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1133" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="B1133">
         <v>13</v>
       </c>
       <c r="C1133">
-        <v>51007001</v>
+        <v>51008001</v>
       </c>
     </row>
     <row r="1134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1134" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="B1134">
         <v>13</v>
       </c>
       <c r="C1134">
-        <v>60009001</v>
+        <v>51001001</v>
       </c>
     </row>
     <row r="1135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1135" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="B1135">
         <v>13</v>
       </c>
       <c r="C1135">
-        <v>60002001</v>
+        <v>51003001</v>
       </c>
     </row>
     <row r="1136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1136" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="B1136">
         <v>13</v>
       </c>
       <c r="C1136">
-        <v>60010001</v>
+        <v>51005001</v>
       </c>
     </row>
     <row r="1137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1137" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="B1137">
         <v>13</v>
       </c>
       <c r="C1137">
-        <v>60008001</v>
+        <v>51007001</v>
       </c>
     </row>
     <row r="1138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1138" t="s">
-        <v>796</v>
+        <v>1027</v>
       </c>
       <c r="B1138">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1138">
-        <v>1010</v>
+        <v>60009001</v>
       </c>
     </row>
     <row r="1139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1139" t="s">
-        <v>797</v>
+        <v>1028</v>
       </c>
       <c r="B1139">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1139">
-        <v>1020</v>
+        <v>60002001</v>
       </c>
     </row>
     <row r="1140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1140" t="s">
-        <v>798</v>
+        <v>1029</v>
       </c>
       <c r="B1140">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1140">
-        <v>2010</v>
+        <v>60010001</v>
       </c>
     </row>
     <row r="1141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1141" t="s">
-        <v>799</v>
+        <v>1030</v>
       </c>
       <c r="B1141">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1141">
-        <v>2020</v>
+        <v>60008001</v>
       </c>
     </row>
     <row r="1142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1142" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="B1142">
         <v>14</v>
       </c>
       <c r="C1142">
-        <v>2030</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="1143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1143" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="B1143">
         <v>14</v>
       </c>
       <c r="C1143">
-        <v>2040</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="1144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1144" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="B1144">
         <v>14</v>
       </c>
       <c r="C1144">
-        <v>2050</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="1145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1145" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="B1145">
         <v>14</v>
       </c>
       <c r="C1145">
-        <v>2060</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="1146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1146" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="B1146">
         <v>14</v>
       </c>
       <c r="C1146">
-        <v>3010</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="1147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1147" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="B1147">
         <v>14</v>
       </c>
       <c r="C1147">
-        <v>3020</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="1148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1148" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="B1148">
         <v>14</v>
       </c>
       <c r="C1148">
-        <v>3030</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="1149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1149" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="B1149">
         <v>14</v>
       </c>
       <c r="C1149">
-        <v>3040</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="1150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1150" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="B1150">
         <v>14</v>
       </c>
       <c r="C1150">
-        <v>3050</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="1151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1151" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="B1151">
         <v>14</v>
       </c>
       <c r="C1151">
-        <v>3060</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="1152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1152" t="s">
-        <v>1150</v>
+        <v>806</v>
       </c>
       <c r="B1152">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1152">
-        <v>400060</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="1153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1153" t="s">
-        <v>1151</v>
+        <v>807</v>
       </c>
       <c r="B1153">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1153">
-        <v>400070</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="1154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1154" t="s">
-        <v>1152</v>
+        <v>808</v>
       </c>
       <c r="B1154">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1154">
-        <v>400130</v>
+        <v>3050</v>
       </c>
     </row>
     <row r="1155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1155" t="s">
-        <v>1153</v>
+        <v>809</v>
       </c>
       <c r="B1155">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1155">
-        <v>400010</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="1156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1156" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="B1156">
         <v>15</v>
       </c>
       <c r="C1156">
-        <v>400040</v>
+        <v>400060</v>
       </c>
     </row>
     <row r="1157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1157" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="B1157">
         <v>15</v>
       </c>
       <c r="C1157">
-        <v>400020</v>
+        <v>400070</v>
       </c>
     </row>
     <row r="1158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1158" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="B1158">
         <v>15</v>
       </c>
       <c r="C1158">
-        <v>400030</v>
+        <v>400130</v>
       </c>
     </row>
     <row r="1159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1159" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="B1159">
         <v>15</v>
       </c>
       <c r="C1159">
-        <v>400050</v>
+        <v>400010</v>
       </c>
     </row>
     <row r="1160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1160" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="B1160">
         <v>15</v>
       </c>
       <c r="C1160">
-        <v>400080</v>
+        <v>400040</v>
       </c>
     </row>
     <row r="1161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1161" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="B1161">
         <v>15</v>
       </c>
       <c r="C1161">
-        <v>400090</v>
+        <v>400020</v>
       </c>
     </row>
     <row r="1162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1162" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="B1162">
         <v>15</v>
       </c>
       <c r="C1162">
-        <v>400100</v>
+        <v>400030</v>
       </c>
     </row>
     <row r="1163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1163" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="B1163">
         <v>15</v>
       </c>
       <c r="C1163">
-        <v>400110</v>
+        <v>400050</v>
       </c>
     </row>
     <row r="1164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1164" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="B1164">
         <v>15</v>
       </c>
       <c r="C1164">
-        <v>400120</v>
+        <v>400080</v>
       </c>
     </row>
     <row r="1165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1165" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="B1165">
         <v>15</v>
       </c>
       <c r="C1165">
-        <v>400140</v>
+        <v>400090</v>
       </c>
     </row>
     <row r="1166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1166" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="B1166">
         <v>15</v>
       </c>
       <c r="C1166">
-        <v>400150</v>
+        <v>400100</v>
       </c>
     </row>
     <row r="1167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1167" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="B1167">
         <v>15</v>
       </c>
       <c r="C1167">
-        <v>400160</v>
+        <v>400110</v>
       </c>
     </row>
     <row r="1168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1168" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="B1168">
         <v>15</v>
       </c>
       <c r="C1168">
-        <v>500010</v>
+        <v>400120</v>
       </c>
     </row>
     <row r="1169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1169" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="B1169">
         <v>15</v>
       </c>
       <c r="C1169">
-        <v>500020</v>
+        <v>400140</v>
       </c>
     </row>
     <row r="1170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1170" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="B1170">
         <v>15</v>
       </c>
       <c r="C1170">
-        <v>500030</v>
+        <v>400150</v>
       </c>
     </row>
     <row r="1171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1171" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="B1171">
         <v>15</v>
       </c>
       <c r="C1171">
-        <v>500040</v>
+        <v>400160</v>
       </c>
     </row>
     <row r="1172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1172" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="B1172">
         <v>15</v>
       </c>
       <c r="C1172">
-        <v>500050</v>
+        <v>500010</v>
       </c>
     </row>
     <row r="1173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1173" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="B1173">
         <v>15</v>
       </c>
       <c r="C1173">
-        <v>500060</v>
+        <v>500020</v>
       </c>
     </row>
     <row r="1174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1174" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="B1174">
         <v>15</v>
       </c>
       <c r="C1174">
-        <v>500070</v>
+        <v>500030</v>
       </c>
     </row>
     <row r="1175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1175" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="B1175">
         <v>15</v>
       </c>
       <c r="C1175">
-        <v>500080</v>
+        <v>500040</v>
       </c>
     </row>
     <row r="1176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1176" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="B1176">
         <v>15</v>
       </c>
       <c r="C1176">
-        <v>500100</v>
+        <v>500050</v>
       </c>
     </row>
     <row r="1177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1177" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="B1177">
         <v>15</v>
       </c>
       <c r="C1177">
-        <v>500090</v>
+        <v>500060</v>
       </c>
     </row>
     <row r="1178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1178" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="B1178">
         <v>15</v>
       </c>
       <c r="C1178">
-        <v>510040</v>
+        <v>500070</v>
       </c>
     </row>
     <row r="1179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1179" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="B1179">
         <v>15</v>
       </c>
       <c r="C1179">
-        <v>500120</v>
+        <v>500080</v>
       </c>
     </row>
     <row r="1180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1180" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="B1180">
         <v>15</v>
       </c>
       <c r="C1180">
-        <v>500130</v>
+        <v>500100</v>
       </c>
     </row>
     <row r="1181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1181" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="B1181">
         <v>15</v>
       </c>
       <c r="C1181">
-        <v>500140</v>
+        <v>500090</v>
       </c>
     </row>
     <row r="1182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1182" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="B1182">
         <v>15</v>
       </c>
       <c r="C1182">
-        <v>500150</v>
+        <v>510040</v>
       </c>
     </row>
     <row r="1183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1183" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="B1183">
         <v>15</v>
       </c>
       <c r="C1183">
-        <v>500160</v>
+        <v>500120</v>
       </c>
     </row>
     <row r="1184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1184" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="B1184">
         <v>15</v>
       </c>
       <c r="C1184">
-        <v>500170</v>
+        <v>500130</v>
       </c>
     </row>
     <row r="1185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1185" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="B1185">
         <v>15</v>
       </c>
       <c r="C1185">
-        <v>500180</v>
+        <v>500140</v>
       </c>
     </row>
     <row r="1186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1186" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="B1186">
         <v>15</v>
       </c>
       <c r="C1186">
-        <v>500190</v>
+        <v>500150</v>
       </c>
     </row>
     <row r="1187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1187" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="B1187">
         <v>15</v>
       </c>
       <c r="C1187">
-        <v>500200</v>
+        <v>500160</v>
       </c>
     </row>
     <row r="1188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1188" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="B1188">
         <v>15</v>
       </c>
       <c r="C1188">
-        <v>500240</v>
+        <v>500170</v>
       </c>
     </row>
     <row r="1189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1189" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="B1189">
         <v>15</v>
       </c>
       <c r="C1189">
-        <v>500220</v>
+        <v>500180</v>
       </c>
     </row>
     <row r="1190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1190" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="B1190">
         <v>15</v>
       </c>
       <c r="C1190">
-        <v>500230</v>
+        <v>500190</v>
       </c>
     </row>
     <row r="1191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1191" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="B1191">
         <v>15</v>
       </c>
       <c r="C1191">
-        <v>500210</v>
+        <v>500200</v>
       </c>
     </row>
     <row r="1192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1192" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="B1192">
         <v>15</v>
       </c>
       <c r="C1192">
-        <v>510010</v>
+        <v>500240</v>
       </c>
     </row>
     <row r="1193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1193" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="B1193">
         <v>15</v>
       </c>
       <c r="C1193">
-        <v>510020</v>
+        <v>500220</v>
       </c>
     </row>
     <row r="1194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1194" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="B1194">
         <v>15</v>
       </c>
       <c r="C1194">
-        <v>510030</v>
+        <v>500230</v>
       </c>
     </row>
     <row r="1195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1195" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="B1195">
         <v>15</v>
       </c>
       <c r="C1195">
-        <v>500110</v>
+        <v>500210</v>
       </c>
     </row>
     <row r="1196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1196" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="B1196">
         <v>15</v>
       </c>
       <c r="C1196">
-        <v>510050</v>
+        <v>510010</v>
       </c>
     </row>
     <row r="1197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1197" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="B1197">
         <v>15</v>
       </c>
       <c r="C1197">
-        <v>510060</v>
+        <v>510020</v>
       </c>
     </row>
     <row r="1198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1198" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="B1198">
         <v>15</v>
       </c>
       <c r="C1198">
-        <v>510070</v>
+        <v>510030</v>
       </c>
     </row>
     <row r="1199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1199" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="B1199">
         <v>15</v>
       </c>
       <c r="C1199">
-        <v>510080</v>
+        <v>500110</v>
       </c>
     </row>
     <row r="1200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1200" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="B1200">
         <v>15</v>
       </c>
       <c r="C1200">
-        <v>600020</v>
+        <v>510050</v>
       </c>
     </row>
     <row r="1201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1201" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="B1201">
         <v>15</v>
       </c>
       <c r="C1201">
-        <v>600080</v>
+        <v>510060</v>
       </c>
     </row>
     <row r="1202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1202" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="B1202">
         <v>15</v>
       </c>
       <c r="C1202">
-        <v>600090</v>
+        <v>510070</v>
       </c>
     </row>
     <row r="1203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1203" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="B1203">
         <v>15</v>
       </c>
       <c r="C1203">
-        <v>600100</v>
+        <v>510080</v>
       </c>
     </row>
     <row r="1204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1204" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="B1204">
         <v>15</v>
       </c>
       <c r="C1204">
-        <v>600110</v>
+        <v>600020</v>
       </c>
     </row>
     <row r="1205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1205" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="B1205">
         <v>15</v>
       </c>
       <c r="C1205">
-        <v>600120</v>
+        <v>600080</v>
       </c>
     </row>
     <row r="1206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1206" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="B1206">
         <v>15</v>
       </c>
       <c r="C1206">
-        <v>600030</v>
+        <v>600090</v>
       </c>
     </row>
     <row r="1207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1207" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="B1207">
         <v>15</v>
       </c>
       <c r="C1207">
-        <v>600050</v>
+        <v>600100</v>
       </c>
     </row>
     <row r="1208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1208" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="B1208">
         <v>15</v>
       </c>
       <c r="C1208">
-        <v>600010</v>
+        <v>600110</v>
       </c>
     </row>
     <row r="1209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1209" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="B1209">
         <v>15</v>
       </c>
       <c r="C1209">
-        <v>600040</v>
+        <v>600120</v>
       </c>
     </row>
     <row r="1210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1210" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="B1210">
         <v>15</v>
       </c>
       <c r="C1210">
-        <v>600060</v>
+        <v>600030</v>
       </c>
     </row>
     <row r="1211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1211" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="B1211">
         <v>15</v>
       </c>
       <c r="C1211">
-        <v>600070</v>
+        <v>600050</v>
       </c>
     </row>
     <row r="1212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1212" t="s">
-        <v>810</v>
+        <v>1206</v>
       </c>
       <c r="B1212">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1212">
-        <v>1001</v>
+        <v>600010</v>
       </c>
     </row>
     <row r="1213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1213" t="s">
-        <v>811</v>
+        <v>1207</v>
       </c>
       <c r="B1213">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1213">
-        <v>2001</v>
+        <v>600040</v>
       </c>
     </row>
     <row r="1214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1214" t="s">
-        <v>812</v>
+        <v>1208</v>
       </c>
       <c r="B1214">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1214">
-        <v>3001</v>
+        <v>600060</v>
       </c>
     </row>
     <row r="1215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1215" t="s">
-        <v>813</v>
+        <v>1209</v>
       </c>
       <c r="B1215">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1215">
-        <v>3002</v>
+        <v>600070</v>
       </c>
     </row>
     <row r="1216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1216" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="B1216">
         <v>16</v>
       </c>
       <c r="C1216">
-        <v>4001</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="1217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1217" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="B1217">
         <v>16</v>
       </c>
       <c r="C1217">
-        <v>4002</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="1218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1218" t="s">
-        <v>1031</v>
+        <v>812</v>
       </c>
       <c r="B1218">
         <v>16</v>
       </c>
       <c r="C1218">
-        <v>4003</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="1219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1219" t="s">
-        <v>1032</v>
+        <v>813</v>
       </c>
       <c r="B1219">
         <v>16</v>
       </c>
       <c r="C1219">
-        <v>4004</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="1220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1220" t="s">
-        <v>1033</v>
+        <v>814</v>
       </c>
       <c r="B1220">
         <v>16</v>
       </c>
       <c r="C1220">
-        <v>40051</v>
+        <v>4001</v>
       </c>
     </row>
     <row r="1221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1221" t="s">
-        <v>1034</v>
+        <v>815</v>
       </c>
       <c r="B1221">
         <v>16</v>
       </c>
       <c r="C1221">
-        <v>40061</v>
+        <v>4002</v>
       </c>
     </row>
     <row r="1222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1222" t="s">
-        <v>816</v>
+        <v>1031</v>
       </c>
       <c r="B1222">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1222">
-        <v>1010</v>
+        <v>4003</v>
       </c>
     </row>
     <row r="1223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1223" t="s">
-        <v>817</v>
+        <v>1032</v>
       </c>
       <c r="B1223">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1223">
-        <v>2010</v>
+        <v>4004</v>
       </c>
     </row>
     <row r="1224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1224" t="s">
-        <v>818</v>
+        <v>1033</v>
       </c>
       <c r="B1224">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1224">
-        <v>3010</v>
+        <v>40051</v>
       </c>
     </row>
     <row r="1225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1225" t="s">
-        <v>819</v>
+        <v>1034</v>
       </c>
       <c r="B1225">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1225">
-        <v>3020</v>
+        <v>40061</v>
       </c>
     </row>
     <row r="1226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1226" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="B1226">
         <v>17</v>
       </c>
       <c r="C1226">
-        <v>4010</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="1227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1227" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="B1227">
         <v>17</v>
       </c>
       <c r="C1227">
-        <v>4020</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="1228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1228" t="s">
-        <v>957</v>
+        <v>818</v>
       </c>
       <c r="B1228">
         <v>17</v>
       </c>
       <c r="C1228">
-        <v>4030</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="1229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1229" t="s">
-        <v>958</v>
+        <v>819</v>
       </c>
       <c r="B1229">
         <v>17</v>
       </c>
       <c r="C1229">
-        <v>4040</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="1230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1230" t="s">
-        <v>959</v>
+        <v>820</v>
       </c>
       <c r="B1230">
         <v>17</v>
       </c>
       <c r="C1230">
-        <v>4050</v>
+        <v>4010</v>
       </c>
     </row>
     <row r="1231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1231" t="s">
-        <v>960</v>
+        <v>821</v>
       </c>
       <c r="B1231">
         <v>17</v>
       </c>
       <c r="C1231">
-        <v>4060</v>
+        <v>4020</v>
       </c>
     </row>
     <row r="1232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1232" t="s">
-        <v>921</v>
+        <v>957</v>
       </c>
       <c r="B1232">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1232">
-        <v>101</v>
+        <v>4030</v>
       </c>
     </row>
     <row r="1233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1233" t="s">
-        <v>922</v>
+        <v>958</v>
       </c>
       <c r="B1233">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1233">
-        <v>102</v>
+        <v>4040</v>
       </c>
     </row>
     <row r="1234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1234" t="s">
-        <v>923</v>
+        <v>959</v>
       </c>
       <c r="B1234">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1234">
-        <v>103</v>
+        <v>4050</v>
       </c>
     </row>
     <row r="1235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1235" t="s">
-        <v>924</v>
+        <v>960</v>
       </c>
       <c r="B1235">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1235">
-        <v>111</v>
+        <v>4060</v>
       </c>
     </row>
     <row r="1236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1236" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="B1236">
         <v>18</v>
       </c>
       <c r="C1236">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="1237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1237" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="B1237">
         <v>18</v>
       </c>
       <c r="C1237">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="1238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1238" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="B1238">
         <v>18</v>
       </c>
       <c r="C1238">
-        <v>121</v>
+        <v>103</v>
       </c>
     </row>
     <row r="1239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1239" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="B1239">
         <v>18</v>
       </c>
       <c r="C1239">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="1240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1240" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="B1240">
         <v>18</v>
       </c>
       <c r="C1240">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="1241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1241" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="B1241">
         <v>18</v>
       </c>
       <c r="C1241">
-        <v>131</v>
+        <v>113</v>
       </c>
     </row>
     <row r="1242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1242" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="B1242">
         <v>18</v>
       </c>
       <c r="C1242">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="1243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1243" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="B1243">
         <v>18</v>
       </c>
       <c r="C1243">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="1244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1244" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="B1244">
         <v>18</v>
       </c>
       <c r="C1244">
-        <v>201</v>
+        <v>123</v>
       </c>
     </row>
     <row r="1245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1245" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="B1245">
         <v>18</v>
       </c>
       <c r="C1245">
-        <v>202</v>
+        <v>131</v>
       </c>
     </row>
     <row r="1246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1246" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="B1246">
         <v>18</v>
       </c>
       <c r="C1246">
-        <v>203</v>
+        <v>132</v>
       </c>
     </row>
     <row r="1247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1247" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="B1247">
         <v>18</v>
       </c>
       <c r="C1247">
-        <v>211</v>
+        <v>133</v>
       </c>
     </row>
     <row r="1248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1248" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="B1248">
         <v>18</v>
       </c>
       <c r="C1248">
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
     <row r="1249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1249" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="B1249">
         <v>18</v>
       </c>
       <c r="C1249">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="1250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1250" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="B1250">
         <v>18</v>
       </c>
       <c r="C1250">
-        <v>221</v>
+        <v>203</v>
       </c>
     </row>
     <row r="1251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1251" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="B1251">
         <v>18</v>
       </c>
       <c r="C1251">
-        <v>222</v>
+        <v>211</v>
       </c>
     </row>
     <row r="1252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1252" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="B1252">
         <v>18</v>
       </c>
       <c r="C1252">
-        <v>223</v>
+        <v>212</v>
       </c>
     </row>
     <row r="1253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1253" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="B1253">
         <v>18</v>
       </c>
       <c r="C1253">
-        <v>231</v>
+        <v>213</v>
       </c>
     </row>
     <row r="1254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1254" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="B1254">
         <v>18</v>
       </c>
       <c r="C1254">
-        <v>232</v>
+        <v>221</v>
       </c>
     </row>
     <row r="1255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1255" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="B1255">
         <v>18</v>
       </c>
       <c r="C1255">
-        <v>233</v>
+        <v>222</v>
       </c>
     </row>
     <row r="1256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1256" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="B1256">
         <v>18</v>
       </c>
       <c r="C1256">
-        <v>301</v>
+        <v>223</v>
       </c>
     </row>
     <row r="1257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1257" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="B1257">
         <v>18</v>
       </c>
       <c r="C1257">
-        <v>302</v>
+        <v>231</v>
       </c>
     </row>
     <row r="1258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1258" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="B1258">
         <v>18</v>
       </c>
       <c r="C1258">
-        <v>303</v>
+        <v>232</v>
       </c>
     </row>
     <row r="1259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1259" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="B1259">
         <v>18</v>
       </c>
       <c r="C1259">
-        <v>311</v>
+        <v>233</v>
       </c>
     </row>
     <row r="1260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1260" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="B1260">
         <v>18</v>
       </c>
       <c r="C1260">
-        <v>312</v>
+        <v>301</v>
       </c>
     </row>
     <row r="1261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1261" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="B1261">
         <v>18</v>
       </c>
       <c r="C1261">
-        <v>313</v>
+        <v>302</v>
       </c>
     </row>
     <row r="1262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1262" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="B1262">
         <v>18</v>
       </c>
       <c r="C1262">
-        <v>321</v>
+        <v>303</v>
       </c>
     </row>
     <row r="1263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1263" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="B1263">
         <v>18</v>
       </c>
       <c r="C1263">
-        <v>322</v>
+        <v>311</v>
       </c>
     </row>
     <row r="1264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1264" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="B1264">
         <v>18</v>
       </c>
       <c r="C1264">
-        <v>323</v>
+        <v>312</v>
       </c>
     </row>
     <row r="1265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1265" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="B1265">
         <v>18</v>
       </c>
       <c r="C1265">
-        <v>331</v>
+        <v>313</v>
       </c>
     </row>
     <row r="1266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1266" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="B1266">
         <v>18</v>
       </c>
       <c r="C1266">
-        <v>332</v>
+        <v>321</v>
       </c>
     </row>
     <row r="1267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1267" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="B1267">
         <v>18</v>
       </c>
       <c r="C1267">
-        <v>333</v>
+        <v>322</v>
       </c>
     </row>
     <row r="1268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1268" t="s">
-        <v>1035</v>
+        <v>953</v>
       </c>
       <c r="B1268">
         <v>18</v>
       </c>
       <c r="C1268">
-        <v>9001</v>
+        <v>323</v>
       </c>
     </row>
     <row r="1269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1269" t="s">
-        <v>1036</v>
+        <v>954</v>
       </c>
       <c r="B1269">
         <v>18</v>
       </c>
       <c r="C1269">
-        <v>9002</v>
+        <v>331</v>
       </c>
     </row>
     <row r="1270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1270" t="s">
-        <v>1037</v>
+        <v>955</v>
       </c>
       <c r="B1270">
         <v>18</v>
       </c>
       <c r="C1270">
-        <v>9003</v>
+        <v>332</v>
       </c>
     </row>
     <row r="1271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1271" t="s">
-        <v>1038</v>
+        <v>956</v>
       </c>
       <c r="B1271">
         <v>18</v>
       </c>
       <c r="C1271">
-        <v>9004</v>
+        <v>333</v>
       </c>
     </row>
     <row r="1272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1272" t="s">
-        <v>1243</v>
+        <v>1035</v>
       </c>
       <c r="B1272">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1272">
-        <v>400060</v>
+        <v>9001</v>
       </c>
     </row>
     <row r="1273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1273" t="s">
-        <v>1244</v>
+        <v>1036</v>
       </c>
       <c r="B1273">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1273">
-        <v>400070</v>
+        <v>9002</v>
       </c>
     </row>
     <row r="1274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1274" t="s">
-        <v>1245</v>
+        <v>1037</v>
       </c>
       <c r="B1274">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1274">
-        <v>400130</v>
+        <v>9003</v>
       </c>
     </row>
     <row r="1275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1275" t="s">
-        <v>1246</v>
+        <v>1038</v>
       </c>
       <c r="B1275">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1275">
-        <v>400010</v>
+        <v>9004</v>
       </c>
     </row>
     <row r="1276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1276" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="B1276">
         <v>19</v>
       </c>
       <c r="C1276">
-        <v>400020</v>
+        <v>400060</v>
       </c>
     </row>
     <row r="1277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1277" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="B1277">
         <v>19</v>
       </c>
       <c r="C1277">
-        <v>400030</v>
+        <v>400070</v>
       </c>
     </row>
     <row r="1278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1278" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="B1278">
         <v>19</v>
       </c>
       <c r="C1278">
-        <v>400040</v>
+        <v>400130</v>
       </c>
     </row>
     <row r="1279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1279" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="B1279">
         <v>19</v>
       </c>
       <c r="C1279">
-        <v>400050</v>
+        <v>400010</v>
       </c>
     </row>
     <row r="1280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1280" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="B1280">
         <v>19</v>
       </c>
       <c r="C1280">
-        <v>400080</v>
+        <v>400020</v>
       </c>
     </row>
     <row r="1281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1281" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="B1281">
         <v>19</v>
       </c>
       <c r="C1281">
-        <v>400090</v>
+        <v>400030</v>
       </c>
     </row>
     <row r="1282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1282" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="B1282">
         <v>19</v>
       </c>
       <c r="C1282">
-        <v>400100</v>
+        <v>400040</v>
       </c>
     </row>
     <row r="1283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1283" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="B1283">
         <v>19</v>
       </c>
       <c r="C1283">
-        <v>400110</v>
+        <v>400050</v>
       </c>
     </row>
     <row r="1284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1284" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="B1284">
         <v>19</v>
       </c>
       <c r="C1284">
-        <v>400120</v>
+        <v>400080</v>
       </c>
     </row>
     <row r="1285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1285" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="B1285">
         <v>19</v>
       </c>
       <c r="C1285">
-        <v>400140</v>
+        <v>400090</v>
       </c>
     </row>
     <row r="1286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1286" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="B1286">
         <v>19</v>
       </c>
       <c r="C1286">
-        <v>400150</v>
+        <v>400100</v>
       </c>
     </row>
     <row r="1287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1287" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="B1287">
         <v>19</v>
       </c>
       <c r="C1287">
-        <v>400160</v>
+        <v>400110</v>
       </c>
     </row>
     <row r="1288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1288" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="B1288">
         <v>19</v>
       </c>
       <c r="C1288">
-        <v>500010</v>
+        <v>400120</v>
       </c>
     </row>
     <row r="1289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1289" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="B1289">
         <v>19</v>
       </c>
       <c r="C1289">
-        <v>500020</v>
+        <v>400140</v>
       </c>
     </row>
     <row r="1290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1290" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="B1290">
         <v>19</v>
       </c>
       <c r="C1290">
-        <v>500030</v>
+        <v>400150</v>
       </c>
     </row>
     <row r="1291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1291" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="B1291">
         <v>19</v>
       </c>
       <c r="C1291">
-        <v>500040</v>
+        <v>400160</v>
       </c>
     </row>
     <row r="1292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1292" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="B1292">
         <v>19</v>
       </c>
       <c r="C1292">
-        <v>500050</v>
+        <v>500010</v>
       </c>
     </row>
     <row r="1293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1293" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="B1293">
         <v>19</v>
       </c>
       <c r="C1293">
-        <v>500060</v>
+        <v>500020</v>
       </c>
     </row>
     <row r="1294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1294" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="B1294">
         <v>19</v>
       </c>
       <c r="C1294">
-        <v>500070</v>
+        <v>500030</v>
       </c>
     </row>
     <row r="1295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1295" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="B1295">
         <v>19</v>
       </c>
       <c r="C1295">
-        <v>500080</v>
+        <v>500040</v>
       </c>
     </row>
     <row r="1296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1296" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="B1296">
         <v>19</v>
       </c>
       <c r="C1296">
-        <v>500090</v>
+        <v>500050</v>
       </c>
     </row>
     <row r="1297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1297" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="B1297">
         <v>19</v>
       </c>
       <c r="C1297">
-        <v>500100</v>
+        <v>500060</v>
       </c>
     </row>
     <row r="1298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1298" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="B1298">
         <v>19</v>
       </c>
       <c r="C1298">
-        <v>510040</v>
+        <v>500070</v>
       </c>
     </row>
     <row r="1299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1299" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="B1299">
         <v>19</v>
       </c>
       <c r="C1299">
-        <v>500120</v>
+        <v>500080</v>
       </c>
     </row>
     <row r="1300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1300" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="B1300">
         <v>19</v>
       </c>
       <c r="C1300">
-        <v>500130</v>
+        <v>500090</v>
       </c>
     </row>
     <row r="1301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1301" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="B1301">
         <v>19</v>
       </c>
       <c r="C1301">
-        <v>500140</v>
+        <v>500100</v>
       </c>
     </row>
     <row r="1302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1302" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="B1302">
         <v>19</v>
       </c>
       <c r="C1302">
-        <v>500150</v>
+        <v>510040</v>
       </c>
     </row>
     <row r="1303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1303" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="B1303">
         <v>19</v>
       </c>
       <c r="C1303">
-        <v>500160</v>
+        <v>500120</v>
       </c>
     </row>
     <row r="1304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1304" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="B1304">
         <v>19</v>
       </c>
       <c r="C1304">
-        <v>500170</v>
+        <v>500130</v>
       </c>
     </row>
     <row r="1305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1305" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="B1305">
         <v>19</v>
       </c>
       <c r="C1305">
-        <v>500180</v>
+        <v>500140</v>
       </c>
     </row>
     <row r="1306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1306" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="B1306">
         <v>19</v>
       </c>
       <c r="C1306">
-        <v>500190</v>
+        <v>500150</v>
       </c>
     </row>
     <row r="1307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1307" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="B1307">
         <v>19</v>
       </c>
       <c r="C1307">
-        <v>500200</v>
+        <v>500160</v>
       </c>
     </row>
     <row r="1308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1308" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="B1308">
         <v>19</v>
       </c>
       <c r="C1308">
-        <v>500210</v>
+        <v>500170</v>
       </c>
     </row>
     <row r="1309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1309" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="B1309">
         <v>19</v>
       </c>
       <c r="C1309">
-        <v>500220</v>
+        <v>500180</v>
       </c>
     </row>
     <row r="1310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1310" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="B1310">
         <v>19</v>
       </c>
       <c r="C1310">
-        <v>500230</v>
+        <v>500190</v>
       </c>
     </row>
     <row r="1311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1311" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="B1311">
         <v>19</v>
       </c>
       <c r="C1311">
-        <v>500240</v>
+        <v>500200</v>
       </c>
     </row>
     <row r="1312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1312" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="B1312">
         <v>19</v>
       </c>
       <c r="C1312">
-        <v>510010</v>
+        <v>500210</v>
       </c>
     </row>
     <row r="1313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1313" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="B1313">
         <v>19</v>
       </c>
       <c r="C1313">
-        <v>510020</v>
+        <v>500220</v>
       </c>
     </row>
     <row r="1314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1314" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="B1314">
         <v>19</v>
       </c>
       <c r="C1314">
-        <v>510030</v>
+        <v>500230</v>
       </c>
     </row>
     <row r="1315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1315" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="B1315">
         <v>19</v>
       </c>
       <c r="C1315">
-        <v>500110</v>
+        <v>500240</v>
       </c>
     </row>
     <row r="1316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1316" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="B1316">
         <v>19</v>
       </c>
       <c r="C1316">
-        <v>510050</v>
+        <v>510010</v>
       </c>
     </row>
     <row r="1317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1317" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="B1317">
         <v>19</v>
       </c>
       <c r="C1317">
-        <v>510060</v>
+        <v>510020</v>
       </c>
     </row>
     <row r="1318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1318" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="B1318">
         <v>19</v>
       </c>
       <c r="C1318">
-        <v>510070</v>
+        <v>510030</v>
       </c>
     </row>
     <row r="1319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1319" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="B1319">
         <v>19</v>
       </c>
       <c r="C1319">
-        <v>510080</v>
+        <v>500110</v>
       </c>
     </row>
     <row r="1320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1320" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="B1320">
         <v>19</v>
       </c>
       <c r="C1320">
-        <v>600020</v>
+        <v>510050</v>
       </c>
     </row>
     <row r="1321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1321" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="B1321">
         <v>19</v>
       </c>
       <c r="C1321">
-        <v>600030</v>
+        <v>510060</v>
       </c>
     </row>
     <row r="1322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1322" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="B1322">
         <v>19</v>
       </c>
       <c r="C1322">
-        <v>600050</v>
+        <v>510070</v>
       </c>
     </row>
     <row r="1323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1323" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="B1323">
         <v>19</v>
       </c>
       <c r="C1323">
-        <v>600080</v>
+        <v>510080</v>
       </c>
     </row>
     <row r="1324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1324" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="B1324">
         <v>19</v>
       </c>
       <c r="C1324">
-        <v>600090</v>
+        <v>600020</v>
       </c>
     </row>
     <row r="1325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1325" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="B1325">
         <v>19</v>
       </c>
       <c r="C1325">
-        <v>600100</v>
+        <v>600030</v>
       </c>
     </row>
     <row r="1326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1326" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="B1326">
         <v>19</v>
       </c>
       <c r="C1326">
-        <v>600110</v>
+        <v>600050</v>
       </c>
     </row>
     <row r="1327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1327" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="B1327">
         <v>19</v>
       </c>
       <c r="C1327">
-        <v>600120</v>
+        <v>600080</v>
       </c>
     </row>
     <row r="1328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1328" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="B1328">
         <v>19</v>
       </c>
       <c r="C1328">
-        <v>600010</v>
+        <v>600090</v>
       </c>
     </row>
     <row r="1329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1329" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="B1329">
         <v>19</v>
       </c>
       <c r="C1329">
-        <v>600040</v>
+        <v>600100</v>
       </c>
     </row>
     <row r="1330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1330" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="B1330">
         <v>19</v>
       </c>
       <c r="C1330">
-        <v>600060</v>
+        <v>600110</v>
       </c>
     </row>
     <row r="1331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1331" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="B1331">
         <v>19</v>
       </c>
       <c r="C1331">
+        <v>600120</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1332" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B1332">
+        <v>19</v>
+      </c>
+      <c r="C1332">
+        <v>600010</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1333" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B1333">
+        <v>19</v>
+      </c>
+      <c r="C1333">
+        <v>600040</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1334" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1334">
+        <v>19</v>
+      </c>
+      <c r="C1334">
+        <v>600060</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1335" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B1335">
+        <v>19</v>
+      </c>
+      <c r="C1335">
         <v>600070</v>
       </c>
     </row>

--- a/com/Tools/MyPoco/info_tab/少三2道具类型表.xlsx
+++ b/com/Tools/MyPoco/info_tab/少三2道具类型表.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="1313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="1321">
   <si>
     <t>角色经验</t>
   </si>
@@ -3648,18 +3648,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>势如破竹头像框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所向披靡头像框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>百战百胜头像框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>金神兵碎片4选1箱</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3981,22 +3969,6 @@
     <t>吕布化身符</t>
   </si>
   <si>
-    <t>潮玩少年头像框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>唐人吃面头像框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>少年之力头像框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>镇魂少年头像框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>陀螺</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4307,6 +4279,65 @@
   </si>
   <si>
     <t>兵符灵印</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹节</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>诸葛果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙鲁班</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕玲绮</t>
+  </si>
+  <si>
+    <t>紫金张辽</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫金姜维</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫金太史慈</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫金袁绍</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>势如破竹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所向披靡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>百战百胜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>潮玩少年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐人吃面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>少年之力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>镇魂少年</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4664,10 +4695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1341"/>
+  <dimension ref="A1:D1349"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A481" workbookViewId="0">
-      <selection activeCell="F512" sqref="F512"/>
+    <sheetView tabSelected="1" topLeftCell="A496" workbookViewId="0">
+      <selection activeCell="T502" sqref="T502"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5870,7 +5901,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>1219</v>
+        <v>1212</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -9588,7 +9619,7 @@
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>1218</v>
+        <v>1211</v>
       </c>
       <c r="B432">
         <v>3</v>
@@ -9599,7 +9630,7 @@
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>1217</v>
+        <v>1210</v>
       </c>
       <c r="B433">
         <v>3</v>
@@ -10314,7 +10345,7 @@
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>1107</v>
+        <v>1314</v>
       </c>
       <c r="B498">
         <v>3</v>
@@ -10325,7 +10356,7 @@
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>1108</v>
+        <v>1315</v>
       </c>
       <c r="B499">
         <v>3</v>
@@ -10336,7 +10367,7 @@
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>1109</v>
+        <v>1316</v>
       </c>
       <c r="B500">
         <v>3</v>
@@ -10347,7 +10378,7 @@
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>1210</v>
+        <v>1317</v>
       </c>
       <c r="B501">
         <v>3</v>
@@ -10358,7 +10389,7 @@
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>1211</v>
+        <v>1318</v>
       </c>
       <c r="B502">
         <v>3</v>
@@ -10369,7 +10400,7 @@
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>1212</v>
+        <v>1319</v>
       </c>
       <c r="B503">
         <v>3</v>
@@ -10380,7 +10411,7 @@
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>1213</v>
+        <v>1320</v>
       </c>
       <c r="B504">
         <v>3</v>
@@ -10391,7 +10422,7 @@
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>1214</v>
+        <v>1207</v>
       </c>
       <c r="B505">
         <v>3</v>
@@ -10402,7 +10433,7 @@
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>1215</v>
+        <v>1208</v>
       </c>
       <c r="B506">
         <v>3</v>
@@ -10413,7 +10444,7 @@
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>1216</v>
+        <v>1209</v>
       </c>
       <c r="B507">
         <v>3</v>
@@ -10424,7 +10455,7 @@
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
-        <v>1307</v>
+        <v>1300</v>
       </c>
       <c r="B508">
         <v>3</v>
@@ -10435,7 +10466,7 @@
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>1308</v>
+        <v>1301</v>
       </c>
       <c r="B509">
         <v>3</v>
@@ -10446,7 +10477,7 @@
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
-        <v>1309</v>
+        <v>1302</v>
       </c>
       <c r="B510">
         <v>3</v>
@@ -10457,7 +10488,7 @@
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>1310</v>
+        <v>1303</v>
       </c>
       <c r="B511">
         <v>3</v>
@@ -10468,7 +10499,7 @@
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>1312</v>
+        <v>1305</v>
       </c>
       <c r="B512">
         <v>3</v>
@@ -10479,7 +10510,7 @@
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>1311</v>
+        <v>1304</v>
       </c>
       <c r="B513">
         <v>3</v>
@@ -11491,7 +11522,7 @@
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="B605">
         <v>3</v>
@@ -11502,7 +11533,7 @@
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="B606">
         <v>3</v>
@@ -11513,7 +11544,7 @@
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="B607">
         <v>3</v>
@@ -11524,7 +11555,7 @@
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="B608">
         <v>3</v>
@@ -11535,7 +11566,7 @@
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="B609">
         <v>3</v>
@@ -11546,7 +11577,7 @@
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="B610">
         <v>3</v>
@@ -11557,7 +11588,7 @@
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="B611">
         <v>3</v>
@@ -11568,7 +11599,7 @@
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="B612">
         <v>3</v>
@@ -11579,7 +11610,7 @@
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="B613">
         <v>3</v>
@@ -11590,7 +11621,7 @@
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="B614">
         <v>3</v>
@@ -11601,7 +11632,7 @@
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="B615">
         <v>3</v>
@@ -11612,7 +11643,7 @@
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="B616">
         <v>3</v>
@@ -11623,7 +11654,7 @@
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="B617">
         <v>3</v>
@@ -11634,7 +11665,7 @@
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="B618">
         <v>3</v>
@@ -11645,7 +11676,7 @@
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="B619">
         <v>3</v>
@@ -11656,7 +11687,7 @@
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="B620">
         <v>3</v>
@@ -11667,7 +11698,7 @@
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="B621">
         <v>3</v>
@@ -11678,7 +11709,7 @@
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="B622">
         <v>3</v>
@@ -11689,7 +11720,7 @@
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="B623">
         <v>3</v>
@@ -11700,7 +11731,7 @@
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="B624">
         <v>3</v>
@@ -11711,7 +11742,7 @@
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="B625">
         <v>3</v>
@@ -11722,7 +11753,7 @@
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="B626">
         <v>3</v>
@@ -11733,7 +11764,7 @@
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="B627">
         <v>3</v>
@@ -11744,7 +11775,7 @@
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="B628">
         <v>3</v>
@@ -11755,7 +11786,7 @@
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="B629">
         <v>3</v>
@@ -11766,7 +11797,7 @@
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="B630">
         <v>3</v>
@@ -11777,7 +11808,7 @@
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="B631">
         <v>3</v>
@@ -11788,7 +11819,7 @@
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="B632">
         <v>3</v>
@@ -11799,7 +11830,7 @@
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="B633">
         <v>3</v>
@@ -11810,7 +11841,7 @@
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="B634">
         <v>3</v>
@@ -11821,7 +11852,7 @@
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="B635">
         <v>3</v>
@@ -11832,7 +11863,7 @@
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="B636">
         <v>3</v>
@@ -11843,7 +11874,7 @@
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="B637">
         <v>3</v>
@@ -11854,7 +11885,7 @@
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="B638">
         <v>3</v>
@@ -11865,7 +11896,7 @@
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="B639">
         <v>3</v>
@@ -11876,7 +11907,7 @@
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="B640">
         <v>3</v>
@@ -11887,7 +11918,7 @@
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="B641">
         <v>3</v>
@@ -11898,7 +11929,7 @@
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="B642">
         <v>3</v>
@@ -11909,7 +11940,7 @@
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="B643">
         <v>3</v>
@@ -11920,7 +11951,7 @@
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
-        <v>1303</v>
+        <v>1296</v>
       </c>
       <c r="B644">
         <v>3</v>
@@ -11931,7 +11962,7 @@
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
-        <v>1304</v>
+        <v>1297</v>
       </c>
       <c r="B645">
         <v>3</v>
@@ -11942,7 +11973,7 @@
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
-        <v>1305</v>
+        <v>1298</v>
       </c>
       <c r="B646">
         <v>3</v>
@@ -11953,7 +11984,7 @@
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
-        <v>1306</v>
+        <v>1299</v>
       </c>
       <c r="B647">
         <v>3</v>
@@ -12272,7 +12303,7 @@
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="B676">
         <v>3</v>
@@ -13064,6535 +13095,6623 @@
     </row>
     <row r="748" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
-        <v>823</v>
+        <v>1306</v>
       </c>
       <c r="B748">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C748">
-        <v>40010</v>
+        <v>700010</v>
       </c>
     </row>
     <row r="749" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
-        <v>824</v>
+        <v>1307</v>
       </c>
       <c r="B749">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C749">
-        <v>40020</v>
+        <v>700020</v>
       </c>
     </row>
     <row r="750" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A750" t="s">
-        <v>825</v>
+        <v>1308</v>
       </c>
       <c r="B750">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C750">
-        <v>40030</v>
+        <v>700030</v>
       </c>
     </row>
     <row r="751" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
-        <v>826</v>
+        <v>1309</v>
       </c>
       <c r="B751">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C751">
-        <v>40040</v>
+        <v>700040</v>
       </c>
     </row>
     <row r="752" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A752" t="s">
-        <v>827</v>
+        <v>1310</v>
       </c>
       <c r="B752">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C752">
-        <v>40050</v>
+        <v>700050</v>
       </c>
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
-        <v>828</v>
+        <v>1311</v>
       </c>
       <c r="B753">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C753">
-        <v>40060</v>
+        <v>700060</v>
       </c>
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
-        <v>829</v>
+        <v>1312</v>
       </c>
       <c r="B754">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C754">
-        <v>40070</v>
+        <v>700070</v>
       </c>
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
-        <v>830</v>
+        <v>1313</v>
       </c>
       <c r="B755">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C755">
-        <v>40080</v>
+        <v>700080</v>
       </c>
     </row>
     <row r="756" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A756" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
       <c r="B756">
         <v>5</v>
       </c>
       <c r="C756">
-        <v>40090</v>
+        <v>40010</v>
       </c>
     </row>
     <row r="757" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
       <c r="B757">
         <v>5</v>
       </c>
       <c r="C757">
-        <v>40100</v>
+        <v>40020</v>
       </c>
     </row>
     <row r="758" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A758" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
       <c r="B758">
         <v>5</v>
       </c>
       <c r="C758">
-        <v>40110</v>
+        <v>40030</v>
       </c>
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="B759">
         <v>5</v>
       </c>
       <c r="C759">
-        <v>50010</v>
+        <v>40040</v>
       </c>
     </row>
     <row r="760" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A760" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="B760">
         <v>5</v>
       </c>
       <c r="C760">
-        <v>50020</v>
+        <v>40050</v>
       </c>
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A761" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="B761">
         <v>5</v>
       </c>
       <c r="C761">
-        <v>50030</v>
+        <v>40060</v>
       </c>
     </row>
     <row r="762" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A762" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="B762">
         <v>5</v>
       </c>
       <c r="C762">
-        <v>50040</v>
+        <v>40070</v>
       </c>
     </row>
     <row r="763" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A763" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
       <c r="B763">
         <v>5</v>
       </c>
       <c r="C763">
-        <v>50050</v>
+        <v>40080</v>
       </c>
     </row>
     <row r="764" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A764" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="B764">
         <v>5</v>
       </c>
       <c r="C764">
-        <v>50060</v>
+        <v>40090</v>
       </c>
     </row>
     <row r="765" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A765" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="B765">
         <v>5</v>
       </c>
       <c r="C765">
-        <v>50070</v>
+        <v>40100</v>
       </c>
     </row>
     <row r="766" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A766" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="B766">
         <v>5</v>
       </c>
       <c r="C766">
-        <v>50080</v>
+        <v>40110</v>
       </c>
     </row>
     <row r="767" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A767" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
       <c r="B767">
         <v>5</v>
       </c>
       <c r="C767">
-        <v>50090</v>
+        <v>50010</v>
       </c>
     </row>
     <row r="768" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A768" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
       <c r="B768">
         <v>5</v>
       </c>
       <c r="C768">
-        <v>50100</v>
+        <v>50020</v>
       </c>
     </row>
     <row r="769" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A769" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="B769">
         <v>5</v>
       </c>
       <c r="C769">
-        <v>50110</v>
+        <v>50030</v>
       </c>
     </row>
     <row r="770" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A770" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
       <c r="B770">
         <v>5</v>
       </c>
       <c r="C770">
-        <v>50120</v>
+        <v>50040</v>
       </c>
     </row>
     <row r="771" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A771" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
       <c r="B771">
         <v>5</v>
       </c>
       <c r="C771">
-        <v>50130</v>
+        <v>50050</v>
       </c>
     </row>
     <row r="772" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A772" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="B772">
         <v>5</v>
       </c>
       <c r="C772">
-        <v>50140</v>
+        <v>50060</v>
       </c>
     </row>
     <row r="773" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A773" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="B773">
         <v>5</v>
       </c>
       <c r="C773">
-        <v>50150</v>
+        <v>50070</v>
       </c>
     </row>
     <row r="774" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A774" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="B774">
         <v>5</v>
       </c>
       <c r="C774">
-        <v>50160</v>
+        <v>50080</v>
       </c>
     </row>
     <row r="775" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A775" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="B775">
         <v>5</v>
       </c>
       <c r="C775">
-        <v>50170</v>
+        <v>50090</v>
       </c>
     </row>
     <row r="776" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A776" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="B776">
         <v>5</v>
       </c>
       <c r="C776">
-        <v>50180</v>
+        <v>50100</v>
       </c>
     </row>
     <row r="777" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A777" t="s">
-        <v>995</v>
+        <v>844</v>
       </c>
       <c r="B777">
         <v>5</v>
       </c>
       <c r="C777">
-        <v>50190</v>
+        <v>50110</v>
       </c>
     </row>
     <row r="778" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A778" t="s">
-        <v>996</v>
+        <v>845</v>
       </c>
       <c r="B778">
         <v>5</v>
       </c>
       <c r="C778">
-        <v>50200</v>
+        <v>50120</v>
       </c>
     </row>
     <row r="779" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A779" t="s">
-        <v>997</v>
+        <v>846</v>
       </c>
       <c r="B779">
         <v>5</v>
       </c>
       <c r="C779">
-        <v>50210</v>
+        <v>50130</v>
       </c>
     </row>
     <row r="780" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A780" t="s">
-        <v>998</v>
+        <v>847</v>
       </c>
       <c r="B780">
         <v>5</v>
       </c>
       <c r="C780">
-        <v>50220</v>
+        <v>50140</v>
       </c>
     </row>
     <row r="781" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A781" t="s">
-        <v>999</v>
+        <v>848</v>
       </c>
       <c r="B781">
         <v>5</v>
       </c>
       <c r="C781">
-        <v>50230</v>
+        <v>50150</v>
       </c>
     </row>
     <row r="782" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A782" t="s">
-        <v>1000</v>
+        <v>849</v>
       </c>
       <c r="B782">
         <v>5</v>
       </c>
       <c r="C782">
-        <v>50240</v>
+        <v>50160</v>
       </c>
     </row>
     <row r="783" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A783" t="s">
-        <v>503</v>
+        <v>850</v>
       </c>
       <c r="B783">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C783">
-        <v>1</v>
+        <v>50170</v>
       </c>
     </row>
     <row r="784" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A784" t="s">
-        <v>504</v>
+        <v>851</v>
       </c>
       <c r="B784">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C784">
-        <v>2</v>
+        <v>50180</v>
       </c>
     </row>
     <row r="785" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A785" t="s">
-        <v>505</v>
+        <v>995</v>
       </c>
       <c r="B785">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C785">
-        <v>3</v>
+        <v>50190</v>
       </c>
     </row>
     <row r="786" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A786" t="s">
-        <v>506</v>
+        <v>996</v>
       </c>
       <c r="B786">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C786">
-        <v>4</v>
+        <v>50200</v>
       </c>
     </row>
     <row r="787" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A787" t="s">
-        <v>507</v>
+        <v>997</v>
       </c>
       <c r="B787">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C787">
-        <v>5</v>
+        <v>50210</v>
       </c>
     </row>
     <row r="788" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A788" t="s">
-        <v>508</v>
+        <v>998</v>
       </c>
       <c r="B788">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C788">
-        <v>6</v>
+        <v>50220</v>
       </c>
     </row>
     <row r="789" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A789" t="s">
-        <v>509</v>
+        <v>999</v>
       </c>
       <c r="B789">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C789">
-        <v>7</v>
+        <v>50230</v>
       </c>
     </row>
     <row r="790" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A790" t="s">
-        <v>510</v>
+        <v>1000</v>
       </c>
       <c r="B790">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C790">
-        <v>8</v>
+        <v>50240</v>
       </c>
     </row>
     <row r="791" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A791" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="B791">
         <v>6</v>
       </c>
       <c r="C791">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="792" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A792" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="B792">
         <v>6</v>
       </c>
       <c r="C792">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="793" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A793" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="B793">
         <v>6</v>
       </c>
       <c r="C793">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="794" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A794" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="B794">
         <v>6</v>
       </c>
       <c r="C794">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="795" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A795" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="B795">
         <v>6</v>
       </c>
       <c r="C795">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="796" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A796" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="B796">
         <v>6</v>
       </c>
       <c r="C796">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="797" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A797" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="B797">
         <v>6</v>
       </c>
       <c r="C797">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="798" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A798" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="B798">
         <v>6</v>
       </c>
       <c r="C798">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="799" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A799" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="B799">
         <v>6</v>
       </c>
       <c r="C799">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="800" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A800" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="B800">
         <v>6</v>
       </c>
       <c r="C800">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="801" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A801" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="B801">
         <v>6</v>
       </c>
       <c r="C801">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="802" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A802" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="B802">
         <v>6</v>
       </c>
       <c r="C802">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="803" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A803" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="B803">
         <v>6</v>
       </c>
       <c r="C803">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="804" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A804" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="B804">
         <v>6</v>
       </c>
       <c r="C804">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="805" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A805" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="B805">
         <v>6</v>
       </c>
       <c r="C805">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="806" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A806" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="B806">
         <v>6</v>
       </c>
       <c r="C806">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="807" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A807" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="B807">
         <v>6</v>
       </c>
       <c r="C807">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="808" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A808" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="B808">
         <v>6</v>
       </c>
       <c r="C808">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="809" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A809" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="B809">
         <v>6</v>
       </c>
       <c r="C809">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="810" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A810" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="B810">
         <v>6</v>
       </c>
       <c r="C810">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="811" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A811" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="B811">
         <v>6</v>
       </c>
       <c r="C811">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="812" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A812" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="B812">
         <v>6</v>
       </c>
       <c r="C812">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="813" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A813" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="B813">
         <v>6</v>
       </c>
       <c r="C813">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="814" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A814" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="B814">
         <v>6</v>
       </c>
       <c r="C814">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="815" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A815" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="B815">
         <v>6</v>
       </c>
       <c r="C815">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="816" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A816" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="B816">
         <v>6</v>
       </c>
       <c r="C816">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="817" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A817" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="B817">
         <v>6</v>
       </c>
       <c r="C817">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="818" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A818" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B818">
         <v>6</v>
       </c>
       <c r="C818">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="819" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A819" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="B819">
         <v>6</v>
       </c>
       <c r="C819">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="820" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A820" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="B820">
         <v>6</v>
       </c>
       <c r="C820">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="821" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A821" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="B821">
         <v>6</v>
       </c>
       <c r="C821">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="822" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A822" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="B822">
         <v>6</v>
       </c>
       <c r="C822">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="823" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A823" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="B823">
         <v>6</v>
       </c>
       <c r="C823">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="824" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A824" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="B824">
         <v>6</v>
       </c>
       <c r="C824">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="825" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A825" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="B825">
         <v>6</v>
       </c>
       <c r="C825">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="826" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A826" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="B826">
         <v>6</v>
       </c>
       <c r="C826">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="827" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A827" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="B827">
         <v>6</v>
       </c>
       <c r="C827">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="828" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A828" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="B828">
         <v>6</v>
       </c>
       <c r="C828">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="829" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A829" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="B829">
         <v>6</v>
       </c>
       <c r="C829">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="830" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A830" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="B830">
         <v>6</v>
       </c>
       <c r="C830">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="831" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A831" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="B831">
         <v>6</v>
       </c>
       <c r="C831">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="832" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A832" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="B832">
         <v>6</v>
       </c>
       <c r="C832">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="833" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A833" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="B833">
         <v>6</v>
       </c>
       <c r="C833">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="834" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A834" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="B834">
         <v>6</v>
       </c>
       <c r="C834">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="835" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A835" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="B835">
         <v>6</v>
       </c>
       <c r="C835">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="836" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A836" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="B836">
         <v>6</v>
       </c>
       <c r="C836">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="837" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A837" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="B837">
         <v>6</v>
       </c>
       <c r="C837">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="838" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A838" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="B838">
         <v>6</v>
       </c>
       <c r="C838">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="839" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A839" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="B839">
         <v>6</v>
       </c>
       <c r="C839">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="840" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A840" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="B840">
         <v>6</v>
       </c>
       <c r="C840">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="841" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A841" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="B841">
         <v>6</v>
       </c>
       <c r="C841">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="842" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A842" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="B842">
         <v>6</v>
       </c>
       <c r="C842">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="843" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A843" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="B843">
         <v>6</v>
       </c>
       <c r="C843">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="844" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A844" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="B844">
         <v>6</v>
       </c>
       <c r="C844">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="845" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A845" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="B845">
         <v>6</v>
       </c>
       <c r="C845">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="846" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A846" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="B846">
         <v>6</v>
       </c>
       <c r="C846">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="847" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A847" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="B847">
         <v>6</v>
       </c>
       <c r="C847">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="848" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A848" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="B848">
         <v>6</v>
       </c>
       <c r="C848">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="849" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A849" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="B849">
         <v>6</v>
       </c>
       <c r="C849">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="850" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A850" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="B850">
         <v>6</v>
       </c>
       <c r="C850">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="851" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A851" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="B851">
         <v>6</v>
       </c>
       <c r="C851">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="852" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A852" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="B852">
         <v>6</v>
       </c>
       <c r="C852">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="853" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A853" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="B853">
         <v>6</v>
       </c>
       <c r="C853">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="854" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A854" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="B854">
         <v>6</v>
       </c>
       <c r="C854">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="855" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A855" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="B855">
         <v>6</v>
       </c>
       <c r="C855">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="856" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A856" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="B856">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C856">
-        <v>1</v>
+        <v>66</v>
       </c>
     </row>
     <row r="857" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A857" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="B857">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C857">
-        <v>2</v>
+        <v>67</v>
       </c>
     </row>
     <row r="858" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A858" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="B858">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C858">
-        <v>3</v>
+        <v>68</v>
       </c>
     </row>
     <row r="859" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A859" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="B859">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C859">
-        <v>4</v>
+        <v>69</v>
       </c>
     </row>
     <row r="860" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A860" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="B860">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C860">
-        <v>101</v>
+        <v>70</v>
       </c>
     </row>
     <row r="861" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A861" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="B861">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C861">
-        <v>102</v>
+        <v>71</v>
       </c>
     </row>
     <row r="862" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A862" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="B862">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C862">
-        <v>103</v>
+        <v>72</v>
       </c>
     </row>
     <row r="863" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A863" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="B863">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C863">
-        <v>104</v>
+        <v>73</v>
       </c>
     </row>
     <row r="864" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A864" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="B864">
         <v>7</v>
       </c>
       <c r="C864">
-        <v>201</v>
+        <v>1</v>
       </c>
     </row>
     <row r="865" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A865" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="B865">
         <v>7</v>
       </c>
       <c r="C865">
-        <v>202</v>
+        <v>2</v>
       </c>
     </row>
     <row r="866" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A866" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="B866">
         <v>7</v>
       </c>
       <c r="C866">
-        <v>203</v>
+        <v>3</v>
       </c>
     </row>
     <row r="867" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A867" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="B867">
         <v>7</v>
       </c>
       <c r="C867">
-        <v>204</v>
+        <v>4</v>
       </c>
     </row>
     <row r="868" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A868" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="B868">
         <v>7</v>
       </c>
       <c r="C868">
-        <v>211</v>
+        <v>101</v>
       </c>
     </row>
     <row r="869" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A869" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="B869">
         <v>7</v>
       </c>
       <c r="C869">
-        <v>212</v>
+        <v>102</v>
       </c>
     </row>
     <row r="870" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A870" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="B870">
         <v>7</v>
       </c>
       <c r="C870">
-        <v>213</v>
+        <v>103</v>
       </c>
     </row>
     <row r="871" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A871" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="B871">
         <v>7</v>
       </c>
       <c r="C871">
-        <v>214</v>
+        <v>104</v>
       </c>
     </row>
     <row r="872" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A872" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="B872">
         <v>7</v>
       </c>
       <c r="C872">
-        <v>301</v>
+        <v>201</v>
       </c>
     </row>
     <row r="873" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A873" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="B873">
         <v>7</v>
       </c>
       <c r="C873">
-        <v>302</v>
+        <v>202</v>
       </c>
     </row>
     <row r="874" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A874" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="B874">
         <v>7</v>
       </c>
       <c r="C874">
-        <v>303</v>
+        <v>203</v>
       </c>
     </row>
     <row r="875" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A875" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="B875">
         <v>7</v>
       </c>
       <c r="C875">
-        <v>304</v>
+        <v>204</v>
       </c>
     </row>
     <row r="876" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A876" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="B876">
         <v>7</v>
       </c>
       <c r="C876">
-        <v>311</v>
+        <v>211</v>
       </c>
     </row>
     <row r="877" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A877" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="B877">
         <v>7</v>
       </c>
       <c r="C877">
-        <v>312</v>
+        <v>212</v>
       </c>
     </row>
     <row r="878" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A878" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="B878">
         <v>7</v>
       </c>
       <c r="C878">
-        <v>313</v>
+        <v>213</v>
       </c>
     </row>
     <row r="879" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A879" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="B879">
         <v>7</v>
       </c>
       <c r="C879">
-        <v>314</v>
+        <v>214</v>
       </c>
     </row>
     <row r="880" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A880" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="B880">
         <v>7</v>
       </c>
       <c r="C880">
-        <v>401</v>
+        <v>301</v>
       </c>
     </row>
     <row r="881" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A881" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="B881">
         <v>7</v>
       </c>
       <c r="C881">
-        <v>402</v>
+        <v>302</v>
       </c>
     </row>
     <row r="882" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A882" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="B882">
         <v>7</v>
       </c>
       <c r="C882">
-        <v>403</v>
+        <v>303</v>
       </c>
     </row>
     <row r="883" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A883" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="B883">
         <v>7</v>
       </c>
       <c r="C883">
-        <v>404</v>
+        <v>304</v>
       </c>
     </row>
     <row r="884" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A884" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="B884">
         <v>7</v>
       </c>
       <c r="C884">
-        <v>411</v>
+        <v>311</v>
       </c>
     </row>
     <row r="885" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A885" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="B885">
         <v>7</v>
       </c>
       <c r="C885">
-        <v>412</v>
+        <v>312</v>
       </c>
     </row>
     <row r="886" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A886" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="B886">
         <v>7</v>
       </c>
       <c r="C886">
-        <v>413</v>
+        <v>313</v>
       </c>
     </row>
     <row r="887" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A887" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="B887">
         <v>7</v>
       </c>
       <c r="C887">
-        <v>414</v>
+        <v>314</v>
       </c>
     </row>
     <row r="888" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A888" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="B888">
         <v>7</v>
       </c>
       <c r="C888">
-        <v>421</v>
+        <v>401</v>
       </c>
     </row>
     <row r="889" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A889" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="B889">
         <v>7</v>
       </c>
       <c r="C889">
-        <v>422</v>
+        <v>402</v>
       </c>
     </row>
     <row r="890" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A890" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="B890">
         <v>7</v>
       </c>
       <c r="C890">
-        <v>423</v>
+        <v>403</v>
       </c>
     </row>
     <row r="891" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A891" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="B891">
         <v>7</v>
       </c>
       <c r="C891">
-        <v>424</v>
+        <v>404</v>
       </c>
     </row>
     <row r="892" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A892" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="B892">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C892">
-        <v>11010</v>
+        <v>411</v>
       </c>
     </row>
     <row r="893" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A893" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="B893">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C893">
-        <v>11020</v>
+        <v>412</v>
       </c>
     </row>
     <row r="894" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A894" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="B894">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C894">
-        <v>11110</v>
+        <v>413</v>
       </c>
     </row>
     <row r="895" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A895" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="B895">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C895">
-        <v>11120</v>
+        <v>414</v>
       </c>
     </row>
     <row r="896" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A896" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="B896">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C896">
-        <v>11210</v>
+        <v>421</v>
       </c>
     </row>
     <row r="897" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A897" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="B897">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C897">
-        <v>11320</v>
+        <v>422</v>
       </c>
     </row>
     <row r="898" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A898" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="B898">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C898">
-        <v>12010</v>
+        <v>423</v>
       </c>
     </row>
     <row r="899" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A899" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="B899">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C899">
-        <v>12020</v>
+        <v>424</v>
       </c>
     </row>
     <row r="900" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A900" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="B900">
         <v>8</v>
       </c>
       <c r="C900">
-        <v>12110</v>
+        <v>11010</v>
       </c>
     </row>
     <row r="901" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A901" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="B901">
         <v>8</v>
       </c>
       <c r="C901">
-        <v>12120</v>
+        <v>11020</v>
       </c>
     </row>
     <row r="902" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A902" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="B902">
         <v>8</v>
       </c>
       <c r="C902">
-        <v>12210</v>
+        <v>11110</v>
       </c>
     </row>
     <row r="903" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A903" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="B903">
         <v>8</v>
       </c>
       <c r="C903">
-        <v>12320</v>
+        <v>11120</v>
       </c>
     </row>
     <row r="904" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A904" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="B904">
         <v>8</v>
       </c>
       <c r="C904">
-        <v>13010</v>
+        <v>11210</v>
       </c>
     </row>
     <row r="905" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A905" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="B905">
         <v>8</v>
       </c>
       <c r="C905">
-        <v>13020</v>
+        <v>11320</v>
       </c>
     </row>
     <row r="906" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A906" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="B906">
         <v>8</v>
       </c>
       <c r="C906">
-        <v>13030</v>
+        <v>12010</v>
       </c>
     </row>
     <row r="907" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A907" t="s">
-        <v>917</v>
+        <v>619</v>
       </c>
       <c r="B907">
         <v>8</v>
       </c>
       <c r="C907">
-        <v>11410</v>
+        <v>12020</v>
       </c>
     </row>
     <row r="908" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A908" t="s">
-        <v>918</v>
+        <v>620</v>
       </c>
       <c r="B908">
         <v>8</v>
       </c>
       <c r="C908">
-        <v>11420</v>
+        <v>12110</v>
       </c>
     </row>
     <row r="909" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A909" t="s">
-        <v>919</v>
+        <v>621</v>
       </c>
       <c r="B909">
         <v>8</v>
       </c>
       <c r="C909">
-        <v>12410</v>
+        <v>12120</v>
       </c>
     </row>
     <row r="910" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A910" t="s">
-        <v>920</v>
+        <v>622</v>
       </c>
       <c r="B910">
         <v>8</v>
       </c>
       <c r="C910">
-        <v>12420</v>
+        <v>12210</v>
       </c>
     </row>
     <row r="911" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A911" t="s">
-        <v>1001</v>
+        <v>623</v>
       </c>
       <c r="B911">
         <v>8</v>
       </c>
       <c r="C911">
-        <v>14010</v>
+        <v>12320</v>
       </c>
     </row>
     <row r="912" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A912" t="s">
-        <v>1002</v>
+        <v>624</v>
       </c>
       <c r="B912">
         <v>8</v>
       </c>
       <c r="C912">
-        <v>14020</v>
+        <v>13010</v>
       </c>
     </row>
     <row r="913" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A913" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B913">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C913">
-        <v>38</v>
+        <v>13020</v>
       </c>
     </row>
     <row r="914" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A914" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B914">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C914">
-        <v>39</v>
+        <v>13030</v>
       </c>
     </row>
     <row r="915" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A915" t="s">
-        <v>629</v>
+        <v>917</v>
       </c>
       <c r="B915">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C915">
-        <v>40</v>
+        <v>11410</v>
       </c>
     </row>
     <row r="916" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A916" t="s">
-        <v>630</v>
+        <v>918</v>
       </c>
       <c r="B916">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C916">
-        <v>41</v>
+        <v>11420</v>
       </c>
     </row>
     <row r="917" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A917" t="s">
-        <v>631</v>
+        <v>919</v>
       </c>
       <c r="B917">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C917">
-        <v>42</v>
+        <v>12410</v>
       </c>
     </row>
     <row r="918" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A918" t="s">
-        <v>632</v>
+        <v>920</v>
       </c>
       <c r="B918">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C918">
-        <v>43</v>
+        <v>12420</v>
       </c>
     </row>
     <row r="919" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A919" t="s">
-        <v>633</v>
+        <v>1001</v>
       </c>
       <c r="B919">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C919">
-        <v>44</v>
+        <v>14010</v>
       </c>
     </row>
     <row r="920" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A920" t="s">
-        <v>634</v>
+        <v>1002</v>
       </c>
       <c r="B920">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C920">
-        <v>45</v>
+        <v>14020</v>
       </c>
     </row>
     <row r="921" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A921" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="B921">
         <v>9</v>
       </c>
       <c r="C921">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="922" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A922" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="B922">
         <v>9</v>
       </c>
       <c r="C922">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="923" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A923" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="B923">
         <v>9</v>
       </c>
       <c r="C923">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="924" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A924" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="B924">
         <v>9</v>
       </c>
       <c r="C924">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="925" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A925" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="B925">
         <v>9</v>
       </c>
       <c r="C925">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="926" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A926" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="B926">
         <v>9</v>
       </c>
       <c r="C926">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="927" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A927" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="B927">
         <v>9</v>
       </c>
       <c r="C927">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="928" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A928" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="B928">
         <v>9</v>
       </c>
       <c r="C928">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="929" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A929" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="B929">
         <v>9</v>
       </c>
       <c r="C929">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="930" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A930" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="B930">
         <v>9</v>
       </c>
       <c r="C930">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="931" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A931" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="B931">
         <v>9</v>
       </c>
       <c r="C931">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="932" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A932" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="B932">
         <v>9</v>
       </c>
       <c r="C932">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="933" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A933" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="B933">
         <v>9</v>
       </c>
       <c r="C933">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="934" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A934" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="B934">
         <v>9</v>
       </c>
       <c r="C934">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="935" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A935" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="B935">
         <v>9</v>
       </c>
       <c r="C935">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="936" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A936" t="s">
-        <v>1003</v>
+        <v>642</v>
       </c>
       <c r="B936">
         <v>9</v>
       </c>
       <c r="C936">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="937" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A937" t="s">
-        <v>1004</v>
+        <v>643</v>
       </c>
       <c r="B937">
         <v>9</v>
       </c>
       <c r="C937">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="938" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A938" t="s">
-        <v>1005</v>
+        <v>644</v>
       </c>
       <c r="B938">
         <v>9</v>
       </c>
       <c r="C938">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="939" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A939" t="s">
-        <v>1006</v>
+        <v>645</v>
       </c>
       <c r="B939">
         <v>9</v>
       </c>
       <c r="C939">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="940" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A940" t="s">
-        <v>1007</v>
+        <v>646</v>
       </c>
       <c r="B940">
         <v>9</v>
       </c>
       <c r="C940">
-        <v>71</v>
+        <v>57</v>
       </c>
     </row>
     <row r="941" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A941" t="s">
-        <v>1008</v>
+        <v>647</v>
       </c>
       <c r="B941">
         <v>9</v>
       </c>
       <c r="C941">
-        <v>72</v>
+        <v>58</v>
       </c>
     </row>
     <row r="942" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A942" t="s">
-        <v>1009</v>
+        <v>648</v>
       </c>
       <c r="B942">
         <v>9</v>
       </c>
       <c r="C942">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="943" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A943" t="s">
-        <v>1010</v>
+        <v>649</v>
       </c>
       <c r="B943">
         <v>9</v>
       </c>
       <c r="C943">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="944" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A944" t="s">
-        <v>650</v>
+        <v>1003</v>
       </c>
       <c r="B944">
         <v>9</v>
       </c>
       <c r="C944">
-        <v>101</v>
+        <v>61</v>
       </c>
     </row>
     <row r="945" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A945" t="s">
-        <v>651</v>
+        <v>1004</v>
       </c>
       <c r="B945">
         <v>9</v>
       </c>
       <c r="C945">
-        <v>102</v>
+        <v>62</v>
       </c>
     </row>
     <row r="946" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A946" t="s">
-        <v>652</v>
+        <v>1005</v>
       </c>
       <c r="B946">
         <v>9</v>
       </c>
       <c r="C946">
-        <v>103</v>
+        <v>63</v>
       </c>
     </row>
     <row r="947" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A947" t="s">
-        <v>653</v>
+        <v>1006</v>
       </c>
       <c r="B947">
         <v>9</v>
       </c>
       <c r="C947">
-        <v>104</v>
+        <v>70</v>
       </c>
     </row>
     <row r="948" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A948" t="s">
-        <v>654</v>
+        <v>1007</v>
       </c>
       <c r="B948">
         <v>9</v>
       </c>
       <c r="C948">
-        <v>105</v>
+        <v>71</v>
       </c>
     </row>
     <row r="949" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A949" t="s">
-        <v>655</v>
+        <v>1008</v>
       </c>
       <c r="B949">
         <v>9</v>
       </c>
       <c r="C949">
-        <v>106</v>
+        <v>72</v>
       </c>
     </row>
     <row r="950" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A950" t="s">
-        <v>656</v>
+        <v>1009</v>
       </c>
       <c r="B950">
         <v>9</v>
       </c>
       <c r="C950">
-        <v>107</v>
+        <v>73</v>
       </c>
     </row>
     <row r="951" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A951" t="s">
-        <v>657</v>
+        <v>1010</v>
       </c>
       <c r="B951">
         <v>9</v>
       </c>
       <c r="C951">
-        <v>108</v>
+        <v>74</v>
       </c>
     </row>
     <row r="952" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A952" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="B952">
         <v>9</v>
       </c>
       <c r="C952">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="953" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A953" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="B953">
         <v>9</v>
       </c>
       <c r="C953">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="954" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A954" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="B954">
         <v>9</v>
       </c>
       <c r="C954">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="955" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A955" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="B955">
         <v>9</v>
       </c>
       <c r="C955">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="956" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A956" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="B956">
         <v>9</v>
       </c>
       <c r="C956">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="957" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A957" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="B957">
         <v>9</v>
       </c>
       <c r="C957">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="958" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A958" t="s">
-        <v>1011</v>
+        <v>656</v>
       </c>
       <c r="B958">
         <v>9</v>
       </c>
       <c r="C958">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="959" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A959" t="s">
-        <v>1012</v>
+        <v>657</v>
       </c>
       <c r="B959">
         <v>9</v>
       </c>
       <c r="C959">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="960" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A960" t="s">
-        <v>1013</v>
+        <v>658</v>
       </c>
       <c r="B960">
         <v>9</v>
       </c>
       <c r="C960">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="961" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A961" t="s">
-        <v>1014</v>
+        <v>659</v>
       </c>
       <c r="B961">
         <v>9</v>
       </c>
       <c r="C961">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="962" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A962" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="B962">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C962">
-        <v>4</v>
+        <v>111</v>
       </c>
     </row>
     <row r="963" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A963" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="B963">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C963">
-        <v>5</v>
+        <v>112</v>
       </c>
     </row>
     <row r="964" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A964" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="B964">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C964">
-        <v>6</v>
+        <v>113</v>
       </c>
     </row>
     <row r="965" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A965" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="B965">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C965">
-        <v>7</v>
+        <v>114</v>
       </c>
     </row>
     <row r="966" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A966" t="s">
-        <v>668</v>
+        <v>1011</v>
       </c>
       <c r="B966">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C966">
-        <v>8</v>
+        <v>115</v>
       </c>
     </row>
     <row r="967" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A967" t="s">
-        <v>669</v>
+        <v>1012</v>
       </c>
       <c r="B967">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C967">
-        <v>9</v>
+        <v>116</v>
       </c>
     </row>
     <row r="968" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A968" t="s">
-        <v>670</v>
+        <v>1013</v>
       </c>
       <c r="B968">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C968">
-        <v>10</v>
+        <v>117</v>
       </c>
     </row>
     <row r="969" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A969" t="s">
-        <v>671</v>
+        <v>1014</v>
       </c>
       <c r="B969">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C969">
-        <v>11</v>
+        <v>118</v>
       </c>
     </row>
     <row r="970" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A970" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="B970">
         <v>10</v>
       </c>
       <c r="C970">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="971" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A971" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="B971">
         <v>10</v>
       </c>
       <c r="C971">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="972" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A972" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="B972">
         <v>10</v>
       </c>
       <c r="C972">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="973" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A973" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="B973">
         <v>10</v>
       </c>
       <c r="C973">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="974" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A974" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="B974">
         <v>10</v>
       </c>
       <c r="C974">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="975" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A975" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="B975">
         <v>10</v>
       </c>
       <c r="C975">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="976" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A976" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="B976">
         <v>10</v>
       </c>
       <c r="C976">
-        <v>101</v>
+        <v>10</v>
       </c>
     </row>
     <row r="977" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A977" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="B977">
         <v>10</v>
       </c>
       <c r="C977">
-        <v>102</v>
+        <v>11</v>
       </c>
     </row>
     <row r="978" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A978" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="B978">
         <v>10</v>
       </c>
       <c r="C978">
-        <v>103</v>
+        <v>12</v>
       </c>
     </row>
     <row r="979" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A979" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="B979">
         <v>10</v>
       </c>
       <c r="C979">
-        <v>104</v>
+        <v>13</v>
       </c>
     </row>
     <row r="980" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A980" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="B980">
         <v>10</v>
       </c>
       <c r="C980">
-        <v>105</v>
+        <v>14</v>
       </c>
     </row>
     <row r="981" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A981" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="B981">
         <v>10</v>
       </c>
       <c r="C981">
-        <v>106</v>
+        <v>15</v>
       </c>
     </row>
     <row r="982" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A982" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="B982">
         <v>10</v>
       </c>
       <c r="C982">
-        <v>107</v>
+        <v>16</v>
       </c>
     </row>
     <row r="983" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A983" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="B983">
         <v>10</v>
       </c>
       <c r="C983">
-        <v>108</v>
+        <v>17</v>
       </c>
     </row>
     <row r="984" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A984" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="B984">
         <v>10</v>
       </c>
       <c r="C984">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="985" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A985" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="B985">
         <v>10</v>
       </c>
       <c r="C985">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="986" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A986" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="B986">
         <v>10</v>
       </c>
       <c r="C986">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="987" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A987" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="B987">
         <v>10</v>
       </c>
       <c r="C987">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="988" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A988" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="B988">
         <v>10</v>
       </c>
       <c r="C988">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="989" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A989" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="B989">
         <v>10</v>
       </c>
       <c r="C989">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="990" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A990" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="B990">
         <v>10</v>
       </c>
       <c r="C990">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="991" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A991" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="B991">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C991">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="992" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A992" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="B992">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C992">
-        <v>200</v>
+        <v>109</v>
       </c>
     </row>
     <row r="993" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A993" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="B993">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C993">
-        <v>300</v>
+        <v>110</v>
       </c>
     </row>
     <row r="994" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A994" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="B994">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C994">
-        <v>400</v>
+        <v>111</v>
       </c>
     </row>
     <row r="995" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A995" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="B995">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C995">
-        <v>500</v>
+        <v>112</v>
       </c>
     </row>
     <row r="996" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A996" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="B996">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C996">
-        <v>600</v>
+        <v>113</v>
       </c>
     </row>
     <row r="997" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A997" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="B997">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C997">
-        <v>700</v>
+        <v>114</v>
       </c>
     </row>
     <row r="998" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A998" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="B998">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C998">
-        <v>800</v>
+        <v>115</v>
       </c>
     </row>
     <row r="999" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A999" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="B999">
         <v>11</v>
       </c>
       <c r="C999">
-        <v>900</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1000" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1000" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="B1000">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1000">
-        <v>1</v>
+        <v>200</v>
       </c>
     </row>
     <row r="1001" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1001" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="B1001">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1001">
-        <v>2</v>
+        <v>300</v>
       </c>
     </row>
     <row r="1002" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1002" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="B1002">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1002">
-        <v>3</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1003" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1003" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="B1003">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1003">
-        <v>4</v>
+        <v>500</v>
       </c>
     </row>
     <row r="1004" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1004" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="B1004">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1004">
-        <v>5</v>
+        <v>600</v>
       </c>
     </row>
     <row r="1005" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1005" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="B1005">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1005">
-        <v>6</v>
+        <v>700</v>
       </c>
     </row>
     <row r="1006" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1006" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="B1006">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1006">
-        <v>7</v>
+        <v>800</v>
       </c>
     </row>
     <row r="1007" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1007" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="B1007">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1007">
-        <v>8</v>
+        <v>900</v>
       </c>
     </row>
     <row r="1008" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1008" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="B1008">
         <v>12</v>
       </c>
       <c r="C1008">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1009" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1009" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="B1009">
         <v>12</v>
       </c>
       <c r="C1009">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1010" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1010" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="B1010">
         <v>12</v>
       </c>
       <c r="C1010">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1011" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1011" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="B1011">
         <v>12</v>
       </c>
       <c r="C1011">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1012" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1012" t="s">
-        <v>441</v>
+        <v>706</v>
       </c>
       <c r="B1012">
         <v>12</v>
       </c>
       <c r="C1012">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1013" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1013" t="s">
-        <v>436</v>
+        <v>707</v>
       </c>
       <c r="B1013">
         <v>12</v>
       </c>
       <c r="C1013">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1014" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1014" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="B1014">
         <v>12</v>
       </c>
       <c r="C1014">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1015" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1015" t="s">
-        <v>434</v>
+        <v>709</v>
       </c>
       <c r="B1015">
         <v>12</v>
       </c>
       <c r="C1015">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1016" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1016" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="B1016">
         <v>12</v>
       </c>
       <c r="C1016">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1017" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1017" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="B1017">
         <v>12</v>
       </c>
       <c r="C1017">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1018" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1018" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="B1018">
         <v>12</v>
       </c>
       <c r="C1018">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1019" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1019" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="B1019">
         <v>12</v>
       </c>
       <c r="C1019">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1020" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1020" t="s">
-        <v>719</v>
+        <v>441</v>
       </c>
       <c r="B1020">
         <v>12</v>
       </c>
       <c r="C1020">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1021" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1021" t="s">
-        <v>720</v>
+        <v>436</v>
       </c>
       <c r="B1021">
         <v>12</v>
       </c>
       <c r="C1021">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1022" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1022" t="s">
-        <v>702</v>
+        <v>714</v>
       </c>
       <c r="B1022">
         <v>12</v>
       </c>
       <c r="C1022">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1023" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1023" t="s">
-        <v>721</v>
+        <v>434</v>
       </c>
       <c r="B1023">
         <v>12</v>
       </c>
       <c r="C1023">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1024" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1024" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="B1024">
         <v>12</v>
       </c>
       <c r="C1024">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1025" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1025" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="B1025">
         <v>12</v>
       </c>
       <c r="C1025">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1026" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1026" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="B1026">
         <v>12</v>
       </c>
       <c r="C1026">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1027" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1027" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="B1027">
         <v>12</v>
       </c>
       <c r="C1027">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1028" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1028" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="B1028">
         <v>12</v>
       </c>
       <c r="C1028">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1029" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1029" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="B1029">
         <v>12</v>
       </c>
       <c r="C1029">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1030" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1030" t="s">
-        <v>728</v>
+        <v>702</v>
       </c>
       <c r="B1030">
         <v>12</v>
       </c>
       <c r="C1030">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1031" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1031" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="B1031">
         <v>12</v>
       </c>
       <c r="C1031">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1032" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1032" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="B1032">
         <v>12</v>
       </c>
       <c r="C1032">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1033" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1033" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="B1033">
         <v>12</v>
       </c>
       <c r="C1033">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1034" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1034" t="s">
-        <v>447</v>
+        <v>724</v>
       </c>
       <c r="B1034">
         <v>12</v>
       </c>
       <c r="C1034">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1035" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1035" t="s">
-        <v>426</v>
+        <v>725</v>
       </c>
       <c r="B1035">
         <v>12</v>
       </c>
       <c r="C1035">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1036" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1036" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="B1036">
         <v>12</v>
       </c>
       <c r="C1036">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1037" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1037" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="B1037">
         <v>12</v>
       </c>
       <c r="C1037">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1038" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1038" t="s">
-        <v>721</v>
+        <v>728</v>
       </c>
       <c r="B1038">
         <v>12</v>
       </c>
       <c r="C1038">
-        <v>101</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1039" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1039" t="s">
-        <v>432</v>
+        <v>729</v>
       </c>
       <c r="B1039">
         <v>12</v>
       </c>
       <c r="C1039">
-        <v>102</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1040" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1040" t="s">
-        <v>451</v>
+        <v>730</v>
       </c>
       <c r="B1040">
         <v>12</v>
       </c>
       <c r="C1040">
-        <v>103</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1041" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1041" t="s">
-        <v>449</v>
+        <v>731</v>
       </c>
       <c r="B1041">
         <v>12</v>
       </c>
       <c r="C1041">
-        <v>104</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1042" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1042" t="s">
-        <v>734</v>
+        <v>447</v>
       </c>
       <c r="B1042">
         <v>12</v>
       </c>
       <c r="C1042">
-        <v>105</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1043" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1043" t="s">
-        <v>735</v>
+        <v>426</v>
       </c>
       <c r="B1043">
         <v>12</v>
       </c>
       <c r="C1043">
-        <v>106</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1044" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1044" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="B1044">
         <v>12</v>
       </c>
       <c r="C1044">
-        <v>107</v>
+        <v>37</v>
       </c>
     </row>
     <row r="1045" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1045" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="B1045">
         <v>12</v>
       </c>
       <c r="C1045">
-        <v>108</v>
+        <v>38</v>
       </c>
     </row>
     <row r="1046" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1046" t="s">
-        <v>738</v>
+        <v>721</v>
       </c>
       <c r="B1046">
         <v>12</v>
       </c>
       <c r="C1046">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="1047" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1047" t="s">
-        <v>739</v>
+        <v>432</v>
       </c>
       <c r="B1047">
         <v>12</v>
       </c>
       <c r="C1047">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="1048" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1048" t="s">
-        <v>740</v>
+        <v>451</v>
       </c>
       <c r="B1048">
         <v>12</v>
       </c>
       <c r="C1048">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="1049" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1049" t="s">
-        <v>741</v>
+        <v>449</v>
       </c>
       <c r="B1049">
         <v>12</v>
       </c>
       <c r="C1049">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="1050" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1050" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="B1050">
         <v>12</v>
       </c>
       <c r="C1050">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="1051" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1051" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="B1051">
         <v>12</v>
       </c>
       <c r="C1051">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="1052" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1052" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="B1052">
         <v>12</v>
       </c>
       <c r="C1052">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="1053" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1053" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="B1053">
         <v>12</v>
       </c>
       <c r="C1053">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="1054" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1054" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="B1054">
         <v>12</v>
       </c>
       <c r="C1054">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="1055" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1055" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="B1055">
         <v>12</v>
       </c>
       <c r="C1055">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="1056" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1056" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="B1056">
         <v>12</v>
       </c>
       <c r="C1056">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="1057" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1057" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="B1057">
         <v>12</v>
       </c>
       <c r="C1057">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="1058" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1058" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="B1058">
         <v>12</v>
       </c>
       <c r="C1058">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="1059" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1059" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="B1059">
         <v>12</v>
       </c>
       <c r="C1059">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="1060" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1060" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="B1060">
         <v>12</v>
       </c>
       <c r="C1060">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="1061" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1061" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="B1061">
         <v>12</v>
       </c>
       <c r="C1061">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="1062" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1062" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="B1062">
         <v>12</v>
       </c>
       <c r="C1062">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="1063" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1063" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="B1063">
         <v>12</v>
       </c>
       <c r="C1063">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="1064" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1064" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="B1064">
         <v>12</v>
       </c>
       <c r="C1064">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="1065" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1065" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="B1065">
         <v>12</v>
       </c>
       <c r="C1065">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="1066" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1066" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="B1066">
         <v>12</v>
       </c>
       <c r="C1066">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="1067" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1067" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="B1067">
         <v>12</v>
       </c>
       <c r="C1067">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="1068" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1068" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="B1068">
         <v>12</v>
       </c>
       <c r="C1068">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="1069" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1069" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="B1069">
         <v>12</v>
       </c>
       <c r="C1069">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="1070" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1070" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="B1070">
         <v>12</v>
       </c>
       <c r="C1070">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="1071" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1071" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="B1071">
         <v>12</v>
       </c>
       <c r="C1071">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="1072" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1072" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="B1072">
         <v>12</v>
       </c>
       <c r="C1072">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="1073" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1073" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="B1073">
         <v>12</v>
       </c>
       <c r="C1073">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="1074" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1074" t="s">
-        <v>1220</v>
+        <v>758</v>
       </c>
       <c r="B1074">
         <v>12</v>
       </c>
       <c r="C1074">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="1075" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1075" t="s">
-        <v>1221</v>
+        <v>759</v>
       </c>
       <c r="B1075">
         <v>12</v>
       </c>
       <c r="C1075">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="1076" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1076" t="s">
-        <v>1222</v>
+        <v>760</v>
       </c>
       <c r="B1076">
         <v>12</v>
       </c>
       <c r="C1076">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="1077" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1077" t="s">
-        <v>1223</v>
+        <v>761</v>
       </c>
       <c r="B1077">
         <v>12</v>
       </c>
       <c r="C1077">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="1078" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1078" t="s">
-        <v>327</v>
+        <v>762</v>
       </c>
       <c r="B1078">
         <v>12</v>
       </c>
       <c r="C1078">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="1079" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1079" t="s">
-        <v>748</v>
+        <v>763</v>
       </c>
       <c r="B1079">
         <v>12</v>
       </c>
       <c r="C1079">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="1080" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1080" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B1080">
         <v>12</v>
       </c>
       <c r="C1080">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="1081" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1081" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B1081">
         <v>12</v>
       </c>
       <c r="C1081">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="1082" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1082" t="s">
-        <v>1224</v>
+        <v>1213</v>
       </c>
       <c r="B1082">
         <v>12</v>
       </c>
       <c r="C1082">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="1083" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1083" t="s">
-        <v>1225</v>
+        <v>1214</v>
       </c>
       <c r="B1083">
         <v>12</v>
       </c>
       <c r="C1083">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="1084" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1084" t="s">
-        <v>1226</v>
+        <v>1215</v>
       </c>
       <c r="B1084">
         <v>12</v>
       </c>
       <c r="C1084">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="1085" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1085" t="s">
-        <v>1227</v>
+        <v>1216</v>
       </c>
       <c r="B1085">
         <v>12</v>
       </c>
       <c r="C1085">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="1086" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1086" t="s">
-        <v>768</v>
+        <v>327</v>
       </c>
       <c r="B1086">
         <v>12</v>
       </c>
       <c r="C1086">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="1087" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1087" t="s">
-        <v>769</v>
+        <v>748</v>
       </c>
       <c r="B1087">
         <v>12</v>
       </c>
       <c r="C1087">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="1088" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1088" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="B1088">
         <v>12</v>
       </c>
       <c r="C1088">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="1089" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1089" t="s">
-        <v>426</v>
+        <v>767</v>
       </c>
       <c r="B1089">
         <v>12</v>
       </c>
       <c r="C1089">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="1090" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1090" t="s">
-        <v>28</v>
+        <v>1217</v>
       </c>
       <c r="B1090">
         <v>12</v>
       </c>
       <c r="C1090">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="1091" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1091" t="s">
-        <v>771</v>
+        <v>1218</v>
       </c>
       <c r="B1091">
         <v>12</v>
       </c>
       <c r="C1091">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="1092" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1092" t="s">
-        <v>772</v>
+        <v>1219</v>
       </c>
       <c r="B1092">
         <v>12</v>
       </c>
       <c r="C1092">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="1093" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1093" t="s">
-        <v>429</v>
+        <v>1220</v>
       </c>
       <c r="B1093">
         <v>12</v>
       </c>
       <c r="C1093">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="1094" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1094" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="B1094">
         <v>12</v>
       </c>
       <c r="C1094">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1095" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1095" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="B1095">
         <v>12</v>
       </c>
       <c r="C1095">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="1096" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1096" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="B1096">
         <v>12</v>
       </c>
       <c r="C1096">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1097" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1097" t="s">
-        <v>776</v>
+        <v>426</v>
       </c>
       <c r="B1097">
         <v>12</v>
       </c>
       <c r="C1097">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="1098" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1098" t="s">
-        <v>777</v>
+        <v>28</v>
       </c>
       <c r="B1098">
         <v>12</v>
       </c>
       <c r="C1098">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="1099" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1099" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="B1099">
         <v>12</v>
       </c>
       <c r="C1099">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="1100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1100" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="B1100">
         <v>12</v>
       </c>
       <c r="C1100">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="1101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1101" t="s">
-        <v>780</v>
+        <v>429</v>
       </c>
       <c r="B1101">
         <v>12</v>
       </c>
       <c r="C1101">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="1102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1102" t="s">
-        <v>1228</v>
+        <v>773</v>
       </c>
       <c r="B1102">
         <v>12</v>
       </c>
       <c r="C1102">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="1103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1103" t="s">
-        <v>1229</v>
+        <v>774</v>
       </c>
       <c r="B1103">
         <v>12</v>
       </c>
       <c r="C1103">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="1104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1104" t="s">
-        <v>1230</v>
+        <v>775</v>
       </c>
       <c r="B1104">
         <v>12</v>
       </c>
       <c r="C1104">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="1105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1105" t="s">
-        <v>1231</v>
+        <v>776</v>
       </c>
       <c r="B1105">
         <v>12</v>
       </c>
       <c r="C1105">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="1106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1106" t="s">
-        <v>1232</v>
+        <v>777</v>
       </c>
       <c r="B1106">
         <v>12</v>
       </c>
       <c r="C1106">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="1107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1107" t="s">
-        <v>1233</v>
+        <v>778</v>
       </c>
       <c r="B1107">
         <v>12</v>
       </c>
       <c r="C1107">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="1108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1108" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B1108">
         <v>12</v>
       </c>
       <c r="C1108">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="1109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1109" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B1109">
         <v>12</v>
       </c>
       <c r="C1109">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="1110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1110" t="s">
-        <v>1234</v>
+        <v>1221</v>
       </c>
       <c r="B1110">
         <v>12</v>
       </c>
       <c r="C1110">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="1111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1111" t="s">
-        <v>1235</v>
+        <v>1222</v>
       </c>
       <c r="B1111">
         <v>12</v>
       </c>
       <c r="C1111">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="1112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1112" t="s">
-        <v>1236</v>
+        <v>1223</v>
       </c>
       <c r="B1112">
         <v>12</v>
       </c>
       <c r="C1112">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="1113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1113" t="s">
-        <v>1237</v>
+        <v>1224</v>
       </c>
       <c r="B1113">
         <v>12</v>
       </c>
       <c r="C1113">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="1114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1114" t="s">
-        <v>1238</v>
+        <v>1225</v>
       </c>
       <c r="B1114">
         <v>12</v>
       </c>
       <c r="C1114">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="1115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1115" t="s">
-        <v>1239</v>
+        <v>1226</v>
       </c>
       <c r="B1115">
         <v>12</v>
       </c>
       <c r="C1115">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="1116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1116" t="s">
-        <v>1240</v>
+        <v>781</v>
       </c>
       <c r="B1116">
         <v>12</v>
       </c>
       <c r="C1116">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="1117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1117" t="s">
-        <v>1241</v>
+        <v>782</v>
       </c>
       <c r="B1117">
         <v>12</v>
       </c>
       <c r="C1117">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="1118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1118" t="s">
-        <v>1242</v>
+        <v>1227</v>
       </c>
       <c r="B1118">
         <v>12</v>
       </c>
       <c r="C1118">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="1119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1119" t="s">
-        <v>783</v>
+        <v>1228</v>
       </c>
       <c r="B1119">
         <v>12</v>
       </c>
       <c r="C1119">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="1120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1120" t="s">
-        <v>784</v>
+        <v>1229</v>
       </c>
       <c r="B1120">
         <v>12</v>
       </c>
       <c r="C1120">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="1121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1121" t="s">
-        <v>785</v>
+        <v>1230</v>
       </c>
       <c r="B1121">
         <v>12</v>
       </c>
       <c r="C1121">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="1122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1122" t="s">
-        <v>786</v>
+        <v>1231</v>
       </c>
       <c r="B1122">
         <v>12</v>
       </c>
       <c r="C1122">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="1123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1123" t="s">
-        <v>787</v>
+        <v>1232</v>
       </c>
       <c r="B1123">
         <v>12</v>
       </c>
       <c r="C1123">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="1124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1124" t="s">
-        <v>788</v>
+        <v>1233</v>
       </c>
       <c r="B1124">
         <v>12</v>
       </c>
       <c r="C1124">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="1125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1125" t="s">
-        <v>789</v>
+        <v>1234</v>
       </c>
       <c r="B1125">
         <v>12</v>
       </c>
       <c r="C1125">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="1126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1126" t="s">
-        <v>790</v>
+        <v>1235</v>
       </c>
       <c r="B1126">
         <v>12</v>
       </c>
       <c r="C1126">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="1127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1127" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="B1127">
         <v>12</v>
       </c>
       <c r="C1127">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="1128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1128" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="B1128">
         <v>12</v>
       </c>
       <c r="C1128">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="1129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1129" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="B1129">
         <v>12</v>
       </c>
       <c r="C1129">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="1130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1130" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="B1130">
         <v>12</v>
       </c>
       <c r="C1130">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="1131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1131" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="B1131">
         <v>12</v>
       </c>
       <c r="C1131">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="1132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1132" t="s">
-        <v>1015</v>
+        <v>788</v>
       </c>
       <c r="B1132">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1132">
-        <v>51004001</v>
+        <v>187</v>
       </c>
     </row>
     <row r="1133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1133" t="s">
-        <v>1016</v>
+        <v>789</v>
       </c>
       <c r="B1133">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1133">
-        <v>51004002</v>
+        <v>188</v>
       </c>
     </row>
     <row r="1134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1134" t="s">
-        <v>1017</v>
+        <v>790</v>
       </c>
       <c r="B1134">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1134">
-        <v>51004003</v>
+        <v>189</v>
       </c>
     </row>
     <row r="1135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1135" t="s">
-        <v>1018</v>
+        <v>791</v>
       </c>
       <c r="B1135">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1135">
-        <v>51004004</v>
+        <v>190</v>
       </c>
     </row>
     <row r="1136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1136" t="s">
-        <v>1019</v>
+        <v>792</v>
       </c>
       <c r="B1136">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1136">
-        <v>51006001</v>
+        <v>191</v>
       </c>
     </row>
     <row r="1137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1137" t="s">
-        <v>1020</v>
+        <v>793</v>
       </c>
       <c r="B1137">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1137">
-        <v>50011001</v>
+        <v>192</v>
       </c>
     </row>
     <row r="1138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1138" t="s">
-        <v>1021</v>
+        <v>794</v>
       </c>
       <c r="B1138">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1138">
-        <v>51002001</v>
+        <v>193</v>
       </c>
     </row>
     <row r="1139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1139" t="s">
-        <v>1022</v>
+        <v>795</v>
       </c>
       <c r="B1139">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1139">
-        <v>51008001</v>
+        <v>194</v>
       </c>
     </row>
     <row r="1140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1140" t="s">
-        <v>1023</v>
+        <v>1015</v>
       </c>
       <c r="B1140">
         <v>13</v>
       </c>
       <c r="C1140">
-        <v>51001001</v>
+        <v>51004001</v>
       </c>
     </row>
     <row r="1141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1141" t="s">
-        <v>1024</v>
+        <v>1016</v>
       </c>
       <c r="B1141">
         <v>13</v>
       </c>
       <c r="C1141">
-        <v>51003001</v>
+        <v>51004002</v>
       </c>
     </row>
     <row r="1142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1142" t="s">
-        <v>1025</v>
+        <v>1017</v>
       </c>
       <c r="B1142">
         <v>13</v>
       </c>
       <c r="C1142">
-        <v>51005001</v>
+        <v>51004003</v>
       </c>
     </row>
     <row r="1143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1143" t="s">
-        <v>1026</v>
+        <v>1018</v>
       </c>
       <c r="B1143">
         <v>13</v>
       </c>
       <c r="C1143">
-        <v>51007001</v>
+        <v>51004004</v>
       </c>
     </row>
     <row r="1144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1144" t="s">
-        <v>1027</v>
+        <v>1019</v>
       </c>
       <c r="B1144">
         <v>13</v>
       </c>
       <c r="C1144">
-        <v>60009001</v>
+        <v>51006001</v>
       </c>
     </row>
     <row r="1145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1145" t="s">
-        <v>1028</v>
+        <v>1020</v>
       </c>
       <c r="B1145">
         <v>13</v>
       </c>
       <c r="C1145">
-        <v>60002001</v>
+        <v>50011001</v>
       </c>
     </row>
     <row r="1146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1146" t="s">
-        <v>1029</v>
+        <v>1021</v>
       </c>
       <c r="B1146">
         <v>13</v>
       </c>
       <c r="C1146">
-        <v>60010001</v>
+        <v>51002001</v>
       </c>
     </row>
     <row r="1147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1147" t="s">
-        <v>1030</v>
+        <v>1022</v>
       </c>
       <c r="B1147">
         <v>13</v>
       </c>
       <c r="C1147">
-        <v>60008001</v>
+        <v>51008001</v>
       </c>
     </row>
     <row r="1148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1148" t="s">
-        <v>796</v>
+        <v>1023</v>
       </c>
       <c r="B1148">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1148">
-        <v>1010</v>
+        <v>51001001</v>
       </c>
     </row>
     <row r="1149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1149" t="s">
-        <v>797</v>
+        <v>1024</v>
       </c>
       <c r="B1149">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1149">
-        <v>1020</v>
+        <v>51003001</v>
       </c>
     </row>
     <row r="1150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1150" t="s">
-        <v>798</v>
+        <v>1025</v>
       </c>
       <c r="B1150">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1150">
-        <v>2010</v>
+        <v>51005001</v>
       </c>
     </row>
     <row r="1151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1151" t="s">
-        <v>799</v>
+        <v>1026</v>
       </c>
       <c r="B1151">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1151">
-        <v>2020</v>
+        <v>51007001</v>
       </c>
     </row>
     <row r="1152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1152" t="s">
-        <v>800</v>
+        <v>1027</v>
       </c>
       <c r="B1152">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1152">
-        <v>2030</v>
+        <v>60009001</v>
       </c>
     </row>
     <row r="1153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1153" t="s">
-        <v>801</v>
+        <v>1028</v>
       </c>
       <c r="B1153">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1153">
-        <v>2040</v>
+        <v>60002001</v>
       </c>
     </row>
     <row r="1154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1154" t="s">
-        <v>802</v>
+        <v>1029</v>
       </c>
       <c r="B1154">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1154">
-        <v>2050</v>
+        <v>60010001</v>
       </c>
     </row>
     <row r="1155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1155" t="s">
-        <v>803</v>
+        <v>1030</v>
       </c>
       <c r="B1155">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1155">
-        <v>2060</v>
+        <v>60008001</v>
       </c>
     </row>
     <row r="1156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1156" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="B1156">
         <v>14</v>
       </c>
       <c r="C1156">
-        <v>3010</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="1157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1157" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="B1157">
         <v>14</v>
       </c>
       <c r="C1157">
-        <v>3020</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="1158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1158" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="B1158">
         <v>14</v>
       </c>
       <c r="C1158">
-        <v>3030</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="1159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1159" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="B1159">
         <v>14</v>
       </c>
       <c r="C1159">
-        <v>3040</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="1160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1160" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="B1160">
         <v>14</v>
       </c>
       <c r="C1160">
-        <v>3050</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="1161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1161" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="B1161">
         <v>14</v>
       </c>
       <c r="C1161">
-        <v>3060</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="1162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1162" t="s">
-        <v>1150</v>
+        <v>802</v>
       </c>
       <c r="B1162">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1162">
-        <v>400060</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="1163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1163" t="s">
-        <v>1151</v>
+        <v>803</v>
       </c>
       <c r="B1163">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1163">
-        <v>400070</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="1164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1164" t="s">
-        <v>1152</v>
+        <v>804</v>
       </c>
       <c r="B1164">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1164">
-        <v>400130</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="1165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1165" t="s">
-        <v>1153</v>
+        <v>805</v>
       </c>
       <c r="B1165">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1165">
-        <v>400010</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="1166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1166" t="s">
-        <v>1154</v>
+        <v>806</v>
       </c>
       <c r="B1166">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1166">
-        <v>400040</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="1167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1167" t="s">
-        <v>1155</v>
+        <v>807</v>
       </c>
       <c r="B1167">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1167">
-        <v>400020</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="1168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1168" t="s">
-        <v>1156</v>
+        <v>808</v>
       </c>
       <c r="B1168">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1168">
-        <v>400030</v>
+        <v>3050</v>
       </c>
     </row>
     <row r="1169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1169" t="s">
-        <v>1157</v>
+        <v>809</v>
       </c>
       <c r="B1169">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1169">
-        <v>400050</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="1170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1170" t="s">
-        <v>1158</v>
+        <v>1147</v>
       </c>
       <c r="B1170">
         <v>15</v>
       </c>
       <c r="C1170">
-        <v>400080</v>
+        <v>400060</v>
       </c>
     </row>
     <row r="1171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1171" t="s">
-        <v>1159</v>
+        <v>1148</v>
       </c>
       <c r="B1171">
         <v>15</v>
       </c>
       <c r="C1171">
-        <v>400090</v>
+        <v>400070</v>
       </c>
     </row>
     <row r="1172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1172" t="s">
-        <v>1160</v>
+        <v>1149</v>
       </c>
       <c r="B1172">
         <v>15</v>
       </c>
       <c r="C1172">
-        <v>400100</v>
+        <v>400130</v>
       </c>
     </row>
     <row r="1173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1173" t="s">
-        <v>1161</v>
+        <v>1150</v>
       </c>
       <c r="B1173">
         <v>15</v>
       </c>
       <c r="C1173">
-        <v>400110</v>
+        <v>400010</v>
       </c>
     </row>
     <row r="1174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1174" t="s">
-        <v>1162</v>
+        <v>1151</v>
       </c>
       <c r="B1174">
         <v>15</v>
       </c>
       <c r="C1174">
-        <v>400120</v>
+        <v>400040</v>
       </c>
     </row>
     <row r="1175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1175" t="s">
-        <v>1163</v>
+        <v>1152</v>
       </c>
       <c r="B1175">
         <v>15</v>
       </c>
       <c r="C1175">
-        <v>400140</v>
+        <v>400020</v>
       </c>
     </row>
     <row r="1176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1176" t="s">
-        <v>1164</v>
+        <v>1153</v>
       </c>
       <c r="B1176">
         <v>15</v>
       </c>
       <c r="C1176">
-        <v>400150</v>
+        <v>400030</v>
       </c>
     </row>
     <row r="1177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1177" t="s">
-        <v>1165</v>
+        <v>1154</v>
       </c>
       <c r="B1177">
         <v>15</v>
       </c>
       <c r="C1177">
-        <v>400160</v>
+        <v>400050</v>
       </c>
     </row>
     <row r="1178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1178" t="s">
-        <v>1166</v>
+        <v>1155</v>
       </c>
       <c r="B1178">
         <v>15</v>
       </c>
       <c r="C1178">
-        <v>500010</v>
+        <v>400080</v>
       </c>
     </row>
     <row r="1179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1179" t="s">
-        <v>1167</v>
+        <v>1156</v>
       </c>
       <c r="B1179">
         <v>15</v>
       </c>
       <c r="C1179">
-        <v>500020</v>
+        <v>400090</v>
       </c>
     </row>
     <row r="1180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1180" t="s">
-        <v>1168</v>
+        <v>1157</v>
       </c>
       <c r="B1180">
         <v>15</v>
       </c>
       <c r="C1180">
-        <v>500030</v>
+        <v>400100</v>
       </c>
     </row>
     <row r="1181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1181" t="s">
-        <v>1169</v>
+        <v>1158</v>
       </c>
       <c r="B1181">
         <v>15</v>
       </c>
       <c r="C1181">
-        <v>500040</v>
+        <v>400110</v>
       </c>
     </row>
     <row r="1182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1182" t="s">
-        <v>1170</v>
+        <v>1159</v>
       </c>
       <c r="B1182">
         <v>15</v>
       </c>
       <c r="C1182">
-        <v>500050</v>
+        <v>400120</v>
       </c>
     </row>
     <row r="1183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1183" t="s">
-        <v>1171</v>
+        <v>1160</v>
       </c>
       <c r="B1183">
         <v>15</v>
       </c>
       <c r="C1183">
-        <v>500060</v>
+        <v>400140</v>
       </c>
     </row>
     <row r="1184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1184" t="s">
-        <v>1172</v>
+        <v>1161</v>
       </c>
       <c r="B1184">
         <v>15</v>
       </c>
       <c r="C1184">
-        <v>500070</v>
+        <v>400150</v>
       </c>
     </row>
     <row r="1185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1185" t="s">
-        <v>1173</v>
+        <v>1162</v>
       </c>
       <c r="B1185">
         <v>15</v>
       </c>
       <c r="C1185">
-        <v>500080</v>
+        <v>400160</v>
       </c>
     </row>
     <row r="1186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1186" t="s">
-        <v>1174</v>
+        <v>1163</v>
       </c>
       <c r="B1186">
         <v>15</v>
       </c>
       <c r="C1186">
-        <v>500100</v>
+        <v>500010</v>
       </c>
     </row>
     <row r="1187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1187" t="s">
-        <v>1175</v>
+        <v>1164</v>
       </c>
       <c r="B1187">
         <v>15</v>
       </c>
       <c r="C1187">
-        <v>500090</v>
+        <v>500020</v>
       </c>
     </row>
     <row r="1188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1188" t="s">
-        <v>1176</v>
+        <v>1165</v>
       </c>
       <c r="B1188">
         <v>15</v>
       </c>
       <c r="C1188">
-        <v>510040</v>
+        <v>500030</v>
       </c>
     </row>
     <row r="1189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1189" t="s">
-        <v>1177</v>
+        <v>1166</v>
       </c>
       <c r="B1189">
         <v>15</v>
       </c>
       <c r="C1189">
-        <v>500120</v>
+        <v>500040</v>
       </c>
     </row>
     <row r="1190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1190" t="s">
-        <v>1178</v>
+        <v>1167</v>
       </c>
       <c r="B1190">
         <v>15</v>
       </c>
       <c r="C1190">
-        <v>500130</v>
+        <v>500050</v>
       </c>
     </row>
     <row r="1191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1191" t="s">
-        <v>1179</v>
+        <v>1168</v>
       </c>
       <c r="B1191">
         <v>15</v>
       </c>
       <c r="C1191">
-        <v>500140</v>
+        <v>500060</v>
       </c>
     </row>
     <row r="1192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1192" t="s">
-        <v>1180</v>
+        <v>1169</v>
       </c>
       <c r="B1192">
         <v>15</v>
       </c>
       <c r="C1192">
-        <v>500150</v>
+        <v>500070</v>
       </c>
     </row>
     <row r="1193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1193" t="s">
-        <v>1181</v>
+        <v>1170</v>
       </c>
       <c r="B1193">
         <v>15</v>
       </c>
       <c r="C1193">
-        <v>500160</v>
+        <v>500080</v>
       </c>
     </row>
     <row r="1194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1194" t="s">
-        <v>1182</v>
+        <v>1171</v>
       </c>
       <c r="B1194">
         <v>15</v>
       </c>
       <c r="C1194">
-        <v>500170</v>
+        <v>500100</v>
       </c>
     </row>
     <row r="1195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1195" t="s">
-        <v>1183</v>
+        <v>1172</v>
       </c>
       <c r="B1195">
         <v>15</v>
       </c>
       <c r="C1195">
-        <v>500180</v>
+        <v>500090</v>
       </c>
     </row>
     <row r="1196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1196" t="s">
-        <v>1184</v>
+        <v>1173</v>
       </c>
       <c r="B1196">
         <v>15</v>
       </c>
       <c r="C1196">
-        <v>500190</v>
+        <v>510040</v>
       </c>
     </row>
     <row r="1197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1197" t="s">
-        <v>1185</v>
+        <v>1174</v>
       </c>
       <c r="B1197">
         <v>15</v>
       </c>
       <c r="C1197">
-        <v>500200</v>
+        <v>500120</v>
       </c>
     </row>
     <row r="1198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1198" t="s">
-        <v>1186</v>
+        <v>1175</v>
       </c>
       <c r="B1198">
         <v>15</v>
       </c>
       <c r="C1198">
-        <v>500240</v>
+        <v>500130</v>
       </c>
     </row>
     <row r="1199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1199" t="s">
-        <v>1187</v>
+        <v>1176</v>
       </c>
       <c r="B1199">
         <v>15</v>
       </c>
       <c r="C1199">
-        <v>500220</v>
+        <v>500140</v>
       </c>
     </row>
     <row r="1200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1200" t="s">
-        <v>1188</v>
+        <v>1177</v>
       </c>
       <c r="B1200">
         <v>15</v>
       </c>
       <c r="C1200">
-        <v>500230</v>
+        <v>500150</v>
       </c>
     </row>
     <row r="1201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1201" t="s">
-        <v>1189</v>
+        <v>1178</v>
       </c>
       <c r="B1201">
         <v>15</v>
       </c>
       <c r="C1201">
-        <v>500210</v>
+        <v>500160</v>
       </c>
     </row>
     <row r="1202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1202" t="s">
-        <v>1190</v>
+        <v>1179</v>
       </c>
       <c r="B1202">
         <v>15</v>
       </c>
       <c r="C1202">
-        <v>510010</v>
+        <v>500170</v>
       </c>
     </row>
     <row r="1203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1203" t="s">
-        <v>1191</v>
+        <v>1180</v>
       </c>
       <c r="B1203">
         <v>15</v>
       </c>
       <c r="C1203">
-        <v>510020</v>
+        <v>500180</v>
       </c>
     </row>
     <row r="1204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1204" t="s">
-        <v>1192</v>
+        <v>1181</v>
       </c>
       <c r="B1204">
         <v>15</v>
       </c>
       <c r="C1204">
-        <v>510030</v>
+        <v>500190</v>
       </c>
     </row>
     <row r="1205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1205" t="s">
-        <v>1193</v>
+        <v>1182</v>
       </c>
       <c r="B1205">
         <v>15</v>
       </c>
       <c r="C1205">
-        <v>500110</v>
+        <v>500200</v>
       </c>
     </row>
     <row r="1206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1206" t="s">
-        <v>1194</v>
+        <v>1183</v>
       </c>
       <c r="B1206">
         <v>15</v>
       </c>
       <c r="C1206">
-        <v>510050</v>
+        <v>500240</v>
       </c>
     </row>
     <row r="1207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1207" t="s">
-        <v>1195</v>
+        <v>1184</v>
       </c>
       <c r="B1207">
         <v>15</v>
       </c>
       <c r="C1207">
-        <v>510060</v>
+        <v>500220</v>
       </c>
     </row>
     <row r="1208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1208" t="s">
-        <v>1196</v>
+        <v>1185</v>
       </c>
       <c r="B1208">
         <v>15</v>
       </c>
       <c r="C1208">
-        <v>510070</v>
+        <v>500230</v>
       </c>
     </row>
     <row r="1209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1209" t="s">
-        <v>1197</v>
+        <v>1186</v>
       </c>
       <c r="B1209">
         <v>15</v>
       </c>
       <c r="C1209">
-        <v>510080</v>
+        <v>500210</v>
       </c>
     </row>
     <row r="1210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1210" t="s">
-        <v>1198</v>
+        <v>1187</v>
       </c>
       <c r="B1210">
         <v>15</v>
       </c>
       <c r="C1210">
-        <v>600020</v>
+        <v>510010</v>
       </c>
     </row>
     <row r="1211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1211" t="s">
-        <v>1199</v>
+        <v>1188</v>
       </c>
       <c r="B1211">
         <v>15</v>
       </c>
       <c r="C1211">
-        <v>600080</v>
+        <v>510020</v>
       </c>
     </row>
     <row r="1212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1212" t="s">
-        <v>1200</v>
+        <v>1189</v>
       </c>
       <c r="B1212">
         <v>15</v>
       </c>
       <c r="C1212">
-        <v>600090</v>
+        <v>510030</v>
       </c>
     </row>
     <row r="1213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1213" t="s">
-        <v>1201</v>
+        <v>1190</v>
       </c>
       <c r="B1213">
         <v>15</v>
       </c>
       <c r="C1213">
-        <v>600100</v>
+        <v>500110</v>
       </c>
     </row>
     <row r="1214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1214" t="s">
-        <v>1202</v>
+        <v>1191</v>
       </c>
       <c r="B1214">
         <v>15</v>
       </c>
       <c r="C1214">
-        <v>600110</v>
+        <v>510050</v>
       </c>
     </row>
     <row r="1215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1215" t="s">
-        <v>1203</v>
+        <v>1192</v>
       </c>
       <c r="B1215">
         <v>15</v>
       </c>
       <c r="C1215">
-        <v>600120</v>
+        <v>510060</v>
       </c>
     </row>
     <row r="1216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1216" t="s">
-        <v>1204</v>
+        <v>1193</v>
       </c>
       <c r="B1216">
         <v>15</v>
       </c>
       <c r="C1216">
-        <v>600030</v>
+        <v>510070</v>
       </c>
     </row>
     <row r="1217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1217" t="s">
-        <v>1205</v>
+        <v>1194</v>
       </c>
       <c r="B1217">
         <v>15</v>
       </c>
       <c r="C1217">
-        <v>600050</v>
+        <v>510080</v>
       </c>
     </row>
     <row r="1218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1218" t="s">
-        <v>1206</v>
+        <v>1195</v>
       </c>
       <c r="B1218">
         <v>15</v>
       </c>
       <c r="C1218">
-        <v>600010</v>
+        <v>600020</v>
       </c>
     </row>
     <row r="1219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1219" t="s">
-        <v>1207</v>
+        <v>1196</v>
       </c>
       <c r="B1219">
         <v>15</v>
       </c>
       <c r="C1219">
-        <v>600040</v>
+        <v>600080</v>
       </c>
     </row>
     <row r="1220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1220" t="s">
-        <v>1208</v>
+        <v>1197</v>
       </c>
       <c r="B1220">
         <v>15</v>
       </c>
       <c r="C1220">
-        <v>600060</v>
+        <v>600090</v>
       </c>
     </row>
     <row r="1221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1221" t="s">
-        <v>1209</v>
+        <v>1198</v>
       </c>
       <c r="B1221">
         <v>15</v>
       </c>
       <c r="C1221">
-        <v>600070</v>
+        <v>600100</v>
       </c>
     </row>
     <row r="1222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1222" t="s">
-        <v>810</v>
+        <v>1199</v>
       </c>
       <c r="B1222">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1222">
-        <v>1001</v>
+        <v>600110</v>
       </c>
     </row>
     <row r="1223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1223" t="s">
-        <v>811</v>
+        <v>1200</v>
       </c>
       <c r="B1223">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1223">
-        <v>2001</v>
+        <v>600120</v>
       </c>
     </row>
     <row r="1224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1224" t="s">
-        <v>812</v>
+        <v>1201</v>
       </c>
       <c r="B1224">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1224">
-        <v>3001</v>
+        <v>600030</v>
       </c>
     </row>
     <row r="1225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1225" t="s">
-        <v>813</v>
+        <v>1202</v>
       </c>
       <c r="B1225">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1225">
-        <v>3002</v>
+        <v>600050</v>
       </c>
     </row>
     <row r="1226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1226" t="s">
-        <v>814</v>
+        <v>1203</v>
       </c>
       <c r="B1226">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1226">
-        <v>4001</v>
+        <v>600010</v>
       </c>
     </row>
     <row r="1227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1227" t="s">
-        <v>815</v>
+        <v>1204</v>
       </c>
       <c r="B1227">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1227">
-        <v>4002</v>
+        <v>600040</v>
       </c>
     </row>
     <row r="1228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1228" t="s">
-        <v>1031</v>
+        <v>1205</v>
       </c>
       <c r="B1228">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1228">
-        <v>4003</v>
+        <v>600060</v>
       </c>
     </row>
     <row r="1229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1229" t="s">
-        <v>1032</v>
+        <v>1206</v>
       </c>
       <c r="B1229">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1229">
-        <v>4004</v>
+        <v>600070</v>
       </c>
     </row>
     <row r="1230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1230" t="s">
-        <v>1033</v>
+        <v>810</v>
       </c>
       <c r="B1230">
         <v>16</v>
       </c>
       <c r="C1230">
-        <v>40051</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="1231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1231" t="s">
-        <v>1034</v>
+        <v>811</v>
       </c>
       <c r="B1231">
         <v>16</v>
       </c>
       <c r="C1231">
-        <v>40061</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="1232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1232" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="B1232">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1232">
-        <v>1010</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="1233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1233" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="B1233">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1233">
-        <v>2010</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="1234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1234" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="B1234">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1234">
-        <v>3010</v>
+        <v>4001</v>
       </c>
     </row>
     <row r="1235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1235" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="B1235">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1235">
-        <v>3020</v>
+        <v>4002</v>
       </c>
     </row>
     <row r="1236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1236" t="s">
-        <v>820</v>
+        <v>1031</v>
       </c>
       <c r="B1236">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1236">
-        <v>4010</v>
+        <v>4003</v>
       </c>
     </row>
     <row r="1237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1237" t="s">
-        <v>821</v>
+        <v>1032</v>
       </c>
       <c r="B1237">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1237">
-        <v>4020</v>
+        <v>4004</v>
       </c>
     </row>
     <row r="1238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1238" t="s">
-        <v>957</v>
+        <v>1033</v>
       </c>
       <c r="B1238">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1238">
-        <v>4030</v>
+        <v>40051</v>
       </c>
     </row>
     <row r="1239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1239" t="s">
-        <v>958</v>
+        <v>1034</v>
       </c>
       <c r="B1239">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1239">
-        <v>4040</v>
+        <v>40061</v>
       </c>
     </row>
     <row r="1240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1240" t="s">
-        <v>959</v>
+        <v>816</v>
       </c>
       <c r="B1240">
         <v>17</v>
       </c>
       <c r="C1240">
-        <v>4050</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="1241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1241" t="s">
-        <v>960</v>
+        <v>817</v>
       </c>
       <c r="B1241">
         <v>17</v>
       </c>
       <c r="C1241">
-        <v>4060</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="1242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1242" t="s">
-        <v>921</v>
+        <v>818</v>
       </c>
       <c r="B1242">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1242">
-        <v>101</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="1243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1243" t="s">
-        <v>922</v>
+        <v>819</v>
       </c>
       <c r="B1243">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1243">
-        <v>102</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="1244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1244" t="s">
-        <v>923</v>
+        <v>820</v>
       </c>
       <c r="B1244">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1244">
-        <v>103</v>
+        <v>4010</v>
       </c>
     </row>
     <row r="1245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1245" t="s">
-        <v>924</v>
+        <v>821</v>
       </c>
       <c r="B1245">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1245">
-        <v>111</v>
+        <v>4020</v>
       </c>
     </row>
     <row r="1246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1246" t="s">
-        <v>925</v>
+        <v>957</v>
       </c>
       <c r="B1246">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1246">
-        <v>112</v>
+        <v>4030</v>
       </c>
     </row>
     <row r="1247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1247" t="s">
-        <v>926</v>
+        <v>958</v>
       </c>
       <c r="B1247">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1247">
-        <v>113</v>
+        <v>4040</v>
       </c>
     </row>
     <row r="1248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1248" t="s">
-        <v>927</v>
+        <v>959</v>
       </c>
       <c r="B1248">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1248">
-        <v>121</v>
+        <v>4050</v>
       </c>
     </row>
     <row r="1249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1249" t="s">
-        <v>928</v>
+        <v>960</v>
       </c>
       <c r="B1249">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1249">
-        <v>122</v>
+        <v>4060</v>
       </c>
     </row>
     <row r="1250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1250" t="s">
-        <v>929</v>
+        <v>921</v>
       </c>
       <c r="B1250">
         <v>18</v>
       </c>
       <c r="C1250">
-        <v>123</v>
+        <v>101</v>
       </c>
     </row>
     <row r="1251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1251" t="s">
-        <v>930</v>
+        <v>922</v>
       </c>
       <c r="B1251">
         <v>18</v>
       </c>
       <c r="C1251">
-        <v>131</v>
+        <v>102</v>
       </c>
     </row>
     <row r="1252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1252" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
       <c r="B1252">
         <v>18</v>
       </c>
       <c r="C1252">
-        <v>132</v>
+        <v>103</v>
       </c>
     </row>
     <row r="1253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1253" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
       <c r="B1253">
         <v>18</v>
       </c>
       <c r="C1253">
-        <v>133</v>
+        <v>111</v>
       </c>
     </row>
     <row r="1254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1254" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
       <c r="B1254">
         <v>18</v>
       </c>
       <c r="C1254">
-        <v>201</v>
+        <v>112</v>
       </c>
     </row>
     <row r="1255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1255" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
       <c r="B1255">
         <v>18</v>
       </c>
       <c r="C1255">
-        <v>202</v>
+        <v>113</v>
       </c>
     </row>
     <row r="1256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1256" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
       <c r="B1256">
         <v>18</v>
       </c>
       <c r="C1256">
-        <v>203</v>
+        <v>121</v>
       </c>
     </row>
     <row r="1257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1257" t="s">
-        <v>936</v>
+        <v>928</v>
       </c>
       <c r="B1257">
         <v>18</v>
       </c>
       <c r="C1257">
-        <v>211</v>
+        <v>122</v>
       </c>
     </row>
     <row r="1258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1258" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="B1258">
         <v>18</v>
       </c>
       <c r="C1258">
-        <v>212</v>
+        <v>123</v>
       </c>
     </row>
     <row r="1259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1259" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
       <c r="B1259">
         <v>18</v>
       </c>
       <c r="C1259">
-        <v>213</v>
+        <v>131</v>
       </c>
     </row>
     <row r="1260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1260" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="B1260">
         <v>18</v>
       </c>
       <c r="C1260">
-        <v>221</v>
+        <v>132</v>
       </c>
     </row>
     <row r="1261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1261" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="B1261">
         <v>18</v>
       </c>
       <c r="C1261">
-        <v>222</v>
+        <v>133</v>
       </c>
     </row>
     <row r="1262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1262" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
       <c r="B1262">
         <v>18</v>
       </c>
       <c r="C1262">
-        <v>223</v>
+        <v>201</v>
       </c>
     </row>
     <row r="1263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1263" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
       <c r="B1263">
         <v>18</v>
       </c>
       <c r="C1263">
-        <v>231</v>
+        <v>202</v>
       </c>
     </row>
     <row r="1264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1264" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
       <c r="B1264">
         <v>18</v>
       </c>
       <c r="C1264">
-        <v>232</v>
+        <v>203</v>
       </c>
     </row>
     <row r="1265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1265" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
       <c r="B1265">
         <v>18</v>
       </c>
       <c r="C1265">
-        <v>233</v>
+        <v>211</v>
       </c>
     </row>
     <row r="1266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1266" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
       <c r="B1266">
         <v>18</v>
       </c>
       <c r="C1266">
-        <v>301</v>
+        <v>212</v>
       </c>
     </row>
     <row r="1267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1267" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="B1267">
         <v>18</v>
       </c>
       <c r="C1267">
-        <v>302</v>
+        <v>213</v>
       </c>
     </row>
     <row r="1268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1268" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="B1268">
         <v>18</v>
       </c>
       <c r="C1268">
-        <v>303</v>
+        <v>221</v>
       </c>
     </row>
     <row r="1269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1269" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="B1269">
         <v>18</v>
       </c>
       <c r="C1269">
-        <v>311</v>
+        <v>222</v>
       </c>
     </row>
     <row r="1270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1270" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="B1270">
         <v>18</v>
       </c>
       <c r="C1270">
-        <v>312</v>
+        <v>223</v>
       </c>
     </row>
     <row r="1271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1271" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="B1271">
         <v>18</v>
       </c>
       <c r="C1271">
-        <v>313</v>
+        <v>231</v>
       </c>
     </row>
     <row r="1272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1272" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="B1272">
         <v>18</v>
       </c>
       <c r="C1272">
-        <v>321</v>
+        <v>232</v>
       </c>
     </row>
     <row r="1273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1273" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
       <c r="B1273">
         <v>18</v>
       </c>
       <c r="C1273">
-        <v>322</v>
+        <v>233</v>
       </c>
     </row>
     <row r="1274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1274" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
       <c r="B1274">
         <v>18</v>
       </c>
       <c r="C1274">
-        <v>323</v>
+        <v>301</v>
       </c>
     </row>
     <row r="1275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1275" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
       <c r="B1275">
         <v>18</v>
       </c>
       <c r="C1275">
-        <v>331</v>
+        <v>302</v>
       </c>
     </row>
     <row r="1276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1276" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
       <c r="B1276">
         <v>18</v>
       </c>
       <c r="C1276">
-        <v>332</v>
+        <v>303</v>
       </c>
     </row>
     <row r="1277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1277" t="s">
-        <v>956</v>
+        <v>948</v>
       </c>
       <c r="B1277">
         <v>18</v>
       </c>
       <c r="C1277">
-        <v>333</v>
+        <v>311</v>
       </c>
     </row>
     <row r="1278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1278" t="s">
-        <v>1035</v>
+        <v>949</v>
       </c>
       <c r="B1278">
         <v>18</v>
       </c>
       <c r="C1278">
-        <v>9001</v>
+        <v>312</v>
       </c>
     </row>
     <row r="1279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1279" t="s">
-        <v>1036</v>
+        <v>950</v>
       </c>
       <c r="B1279">
         <v>18</v>
       </c>
       <c r="C1279">
-        <v>9002</v>
+        <v>313</v>
       </c>
     </row>
     <row r="1280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1280" t="s">
-        <v>1037</v>
+        <v>951</v>
       </c>
       <c r="B1280">
         <v>18</v>
       </c>
       <c r="C1280">
-        <v>9003</v>
+        <v>321</v>
       </c>
     </row>
     <row r="1281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1281" t="s">
-        <v>1038</v>
+        <v>952</v>
       </c>
       <c r="B1281">
         <v>18</v>
       </c>
       <c r="C1281">
-        <v>9004</v>
+        <v>322</v>
       </c>
     </row>
     <row r="1282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1282" t="s">
-        <v>1243</v>
+        <v>953</v>
       </c>
       <c r="B1282">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1282">
-        <v>400060</v>
+        <v>323</v>
       </c>
     </row>
     <row r="1283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1283" t="s">
-        <v>1244</v>
+        <v>954</v>
       </c>
       <c r="B1283">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1283">
-        <v>400070</v>
+        <v>331</v>
       </c>
     </row>
     <row r="1284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1284" t="s">
-        <v>1245</v>
+        <v>955</v>
       </c>
       <c r="B1284">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1284">
-        <v>400130</v>
+        <v>332</v>
       </c>
     </row>
     <row r="1285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1285" t="s">
-        <v>1246</v>
+        <v>956</v>
       </c>
       <c r="B1285">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1285">
-        <v>400010</v>
+        <v>333</v>
       </c>
     </row>
     <row r="1286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1286" t="s">
-        <v>1247</v>
+        <v>1035</v>
       </c>
       <c r="B1286">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1286">
-        <v>400020</v>
+        <v>9001</v>
       </c>
     </row>
     <row r="1287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1287" t="s">
-        <v>1248</v>
+        <v>1036</v>
       </c>
       <c r="B1287">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1287">
-        <v>400030</v>
+        <v>9002</v>
       </c>
     </row>
     <row r="1288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1288" t="s">
-        <v>1249</v>
+        <v>1037</v>
       </c>
       <c r="B1288">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1288">
-        <v>400040</v>
+        <v>9003</v>
       </c>
     </row>
     <row r="1289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1289" t="s">
-        <v>1250</v>
+        <v>1038</v>
       </c>
       <c r="B1289">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1289">
-        <v>400050</v>
+        <v>9004</v>
       </c>
     </row>
     <row r="1290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1290" t="s">
-        <v>1251</v>
+        <v>1236</v>
       </c>
       <c r="B1290">
         <v>19</v>
       </c>
       <c r="C1290">
-        <v>400080</v>
+        <v>400060</v>
       </c>
     </row>
     <row r="1291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1291" t="s">
-        <v>1252</v>
+        <v>1237</v>
       </c>
       <c r="B1291">
         <v>19</v>
       </c>
       <c r="C1291">
-        <v>400090</v>
+        <v>400070</v>
       </c>
     </row>
     <row r="1292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1292" t="s">
-        <v>1253</v>
+        <v>1238</v>
       </c>
       <c r="B1292">
         <v>19</v>
       </c>
       <c r="C1292">
-        <v>400100</v>
+        <v>400130</v>
       </c>
     </row>
     <row r="1293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1293" t="s">
-        <v>1254</v>
+        <v>1239</v>
       </c>
       <c r="B1293">
         <v>19</v>
       </c>
       <c r="C1293">
-        <v>400110</v>
+        <v>400010</v>
       </c>
     </row>
     <row r="1294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1294" t="s">
-        <v>1255</v>
+        <v>1240</v>
       </c>
       <c r="B1294">
         <v>19</v>
       </c>
       <c r="C1294">
-        <v>400120</v>
+        <v>400020</v>
       </c>
     </row>
     <row r="1295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1295" t="s">
-        <v>1256</v>
+        <v>1241</v>
       </c>
       <c r="B1295">
         <v>19</v>
       </c>
       <c r="C1295">
-        <v>400140</v>
+        <v>400030</v>
       </c>
     </row>
     <row r="1296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1296" t="s">
-        <v>1257</v>
+        <v>1242</v>
       </c>
       <c r="B1296">
         <v>19</v>
       </c>
       <c r="C1296">
-        <v>400150</v>
+        <v>400040</v>
       </c>
     </row>
     <row r="1297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1297" t="s">
-        <v>1258</v>
+        <v>1243</v>
       </c>
       <c r="B1297">
         <v>19</v>
       </c>
       <c r="C1297">
-        <v>400160</v>
+        <v>400050</v>
       </c>
     </row>
     <row r="1298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1298" t="s">
-        <v>1259</v>
+        <v>1244</v>
       </c>
       <c r="B1298">
         <v>19</v>
       </c>
       <c r="C1298">
-        <v>500010</v>
+        <v>400080</v>
       </c>
     </row>
     <row r="1299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1299" t="s">
-        <v>1260</v>
+        <v>1245</v>
       </c>
       <c r="B1299">
         <v>19</v>
       </c>
       <c r="C1299">
-        <v>500020</v>
+        <v>400090</v>
       </c>
     </row>
     <row r="1300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1300" t="s">
-        <v>1261</v>
+        <v>1246</v>
       </c>
       <c r="B1300">
         <v>19</v>
       </c>
       <c r="C1300">
-        <v>500030</v>
+        <v>400100</v>
       </c>
     </row>
     <row r="1301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1301" t="s">
-        <v>1262</v>
+        <v>1247</v>
       </c>
       <c r="B1301">
         <v>19</v>
       </c>
       <c r="C1301">
-        <v>500040</v>
+        <v>400110</v>
       </c>
     </row>
     <row r="1302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1302" t="s">
-        <v>1263</v>
+        <v>1248</v>
       </c>
       <c r="B1302">
         <v>19</v>
       </c>
       <c r="C1302">
-        <v>500050</v>
+        <v>400120</v>
       </c>
     </row>
     <row r="1303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1303" t="s">
-        <v>1264</v>
+        <v>1249</v>
       </c>
       <c r="B1303">
         <v>19</v>
       </c>
       <c r="C1303">
-        <v>500060</v>
+        <v>400140</v>
       </c>
     </row>
     <row r="1304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1304" t="s">
-        <v>1265</v>
+        <v>1250</v>
       </c>
       <c r="B1304">
         <v>19</v>
       </c>
       <c r="C1304">
-        <v>500070</v>
+        <v>400150</v>
       </c>
     </row>
     <row r="1305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1305" t="s">
-        <v>1266</v>
+        <v>1251</v>
       </c>
       <c r="B1305">
         <v>19</v>
       </c>
       <c r="C1305">
-        <v>500080</v>
+        <v>400160</v>
       </c>
     </row>
     <row r="1306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1306" t="s">
-        <v>1267</v>
+        <v>1252</v>
       </c>
       <c r="B1306">
         <v>19</v>
       </c>
       <c r="C1306">
-        <v>500090</v>
+        <v>500010</v>
       </c>
     </row>
     <row r="1307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1307" t="s">
-        <v>1268</v>
+        <v>1253</v>
       </c>
       <c r="B1307">
         <v>19</v>
       </c>
       <c r="C1307">
-        <v>500100</v>
+        <v>500020</v>
       </c>
     </row>
     <row r="1308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1308" t="s">
-        <v>1269</v>
+        <v>1254</v>
       </c>
       <c r="B1308">
         <v>19</v>
       </c>
       <c r="C1308">
-        <v>510040</v>
+        <v>500030</v>
       </c>
     </row>
     <row r="1309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1309" t="s">
-        <v>1270</v>
+        <v>1255</v>
       </c>
       <c r="B1309">
         <v>19</v>
       </c>
       <c r="C1309">
-        <v>500120</v>
+        <v>500040</v>
       </c>
     </row>
     <row r="1310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1310" t="s">
-        <v>1271</v>
+        <v>1256</v>
       </c>
       <c r="B1310">
         <v>19</v>
       </c>
       <c r="C1310">
-        <v>500130</v>
+        <v>500050</v>
       </c>
     </row>
     <row r="1311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1311" t="s">
-        <v>1272</v>
+        <v>1257</v>
       </c>
       <c r="B1311">
         <v>19</v>
       </c>
       <c r="C1311">
-        <v>500140</v>
+        <v>500060</v>
       </c>
     </row>
     <row r="1312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1312" t="s">
-        <v>1273</v>
+        <v>1258</v>
       </c>
       <c r="B1312">
         <v>19</v>
       </c>
       <c r="C1312">
-        <v>500150</v>
+        <v>500070</v>
       </c>
     </row>
     <row r="1313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1313" t="s">
-        <v>1274</v>
+        <v>1259</v>
       </c>
       <c r="B1313">
         <v>19</v>
       </c>
       <c r="C1313">
-        <v>500160</v>
+        <v>500080</v>
       </c>
     </row>
     <row r="1314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1314" t="s">
-        <v>1275</v>
+        <v>1260</v>
       </c>
       <c r="B1314">
         <v>19</v>
       </c>
       <c r="C1314">
-        <v>500170</v>
+        <v>500090</v>
       </c>
     </row>
     <row r="1315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1315" t="s">
-        <v>1276</v>
+        <v>1261</v>
       </c>
       <c r="B1315">
         <v>19</v>
       </c>
       <c r="C1315">
-        <v>500180</v>
+        <v>500100</v>
       </c>
     </row>
     <row r="1316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1316" t="s">
-        <v>1277</v>
+        <v>1262</v>
       </c>
       <c r="B1316">
         <v>19</v>
       </c>
       <c r="C1316">
-        <v>500190</v>
+        <v>510040</v>
       </c>
     </row>
     <row r="1317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1317" t="s">
-        <v>1278</v>
+        <v>1263</v>
       </c>
       <c r="B1317">
         <v>19</v>
       </c>
       <c r="C1317">
-        <v>500200</v>
+        <v>500120</v>
       </c>
     </row>
     <row r="1318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1318" t="s">
-        <v>1279</v>
+        <v>1264</v>
       </c>
       <c r="B1318">
         <v>19</v>
       </c>
       <c r="C1318">
-        <v>500210</v>
+        <v>500130</v>
       </c>
     </row>
     <row r="1319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1319" t="s">
-        <v>1280</v>
+        <v>1265</v>
       </c>
       <c r="B1319">
         <v>19</v>
       </c>
       <c r="C1319">
-        <v>500220</v>
+        <v>500140</v>
       </c>
     </row>
     <row r="1320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1320" t="s">
-        <v>1281</v>
+        <v>1266</v>
       </c>
       <c r="B1320">
         <v>19</v>
       </c>
       <c r="C1320">
-        <v>500230</v>
+        <v>500150</v>
       </c>
     </row>
     <row r="1321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1321" t="s">
-        <v>1282</v>
+        <v>1267</v>
       </c>
       <c r="B1321">
         <v>19</v>
       </c>
       <c r="C1321">
-        <v>500240</v>
+        <v>500160</v>
       </c>
     </row>
     <row r="1322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1322" t="s">
-        <v>1283</v>
+        <v>1268</v>
       </c>
       <c r="B1322">
         <v>19</v>
       </c>
       <c r="C1322">
-        <v>510010</v>
+        <v>500170</v>
       </c>
     </row>
     <row r="1323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1323" t="s">
-        <v>1284</v>
+        <v>1269</v>
       </c>
       <c r="B1323">
         <v>19</v>
       </c>
       <c r="C1323">
-        <v>510020</v>
+        <v>500180</v>
       </c>
     </row>
     <row r="1324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1324" t="s">
-        <v>1285</v>
+        <v>1270</v>
       </c>
       <c r="B1324">
         <v>19</v>
       </c>
       <c r="C1324">
-        <v>510030</v>
+        <v>500190</v>
       </c>
     </row>
     <row r="1325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1325" t="s">
-        <v>1286</v>
+        <v>1271</v>
       </c>
       <c r="B1325">
         <v>19</v>
       </c>
       <c r="C1325">
-        <v>500110</v>
+        <v>500200</v>
       </c>
     </row>
     <row r="1326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1326" t="s">
-        <v>1287</v>
+        <v>1272</v>
       </c>
       <c r="B1326">
         <v>19</v>
       </c>
       <c r="C1326">
-        <v>510050</v>
+        <v>500210</v>
       </c>
     </row>
     <row r="1327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1327" t="s">
-        <v>1288</v>
+        <v>1273</v>
       </c>
       <c r="B1327">
         <v>19</v>
       </c>
       <c r="C1327">
-        <v>510060</v>
+        <v>500220</v>
       </c>
     </row>
     <row r="1328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1328" t="s">
-        <v>1289</v>
+        <v>1274</v>
       </c>
       <c r="B1328">
         <v>19</v>
       </c>
       <c r="C1328">
-        <v>510070</v>
+        <v>500230</v>
       </c>
     </row>
     <row r="1329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1329" t="s">
-        <v>1290</v>
+        <v>1275</v>
       </c>
       <c r="B1329">
         <v>19</v>
       </c>
       <c r="C1329">
-        <v>510080</v>
+        <v>500240</v>
       </c>
     </row>
     <row r="1330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1330" t="s">
-        <v>1291</v>
+        <v>1276</v>
       </c>
       <c r="B1330">
         <v>19</v>
       </c>
       <c r="C1330">
-        <v>600020</v>
+        <v>510010</v>
       </c>
     </row>
     <row r="1331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1331" t="s">
-        <v>1292</v>
+        <v>1277</v>
       </c>
       <c r="B1331">
         <v>19</v>
       </c>
       <c r="C1331">
-        <v>600030</v>
+        <v>510020</v>
       </c>
     </row>
     <row r="1332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1332" t="s">
-        <v>1293</v>
+        <v>1278</v>
       </c>
       <c r="B1332">
         <v>19</v>
       </c>
       <c r="C1332">
-        <v>600050</v>
+        <v>510030</v>
       </c>
     </row>
     <row r="1333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1333" t="s">
-        <v>1294</v>
+        <v>1279</v>
       </c>
       <c r="B1333">
         <v>19</v>
       </c>
       <c r="C1333">
-        <v>600080</v>
+        <v>500110</v>
       </c>
     </row>
     <row r="1334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1334" t="s">
-        <v>1295</v>
+        <v>1280</v>
       </c>
       <c r="B1334">
         <v>19</v>
       </c>
       <c r="C1334">
-        <v>600090</v>
+        <v>510050</v>
       </c>
     </row>
     <row r="1335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1335" t="s">
-        <v>1296</v>
+        <v>1281</v>
       </c>
       <c r="B1335">
         <v>19</v>
       </c>
       <c r="C1335">
-        <v>600100</v>
+        <v>510060</v>
       </c>
     </row>
     <row r="1336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1336" t="s">
-        <v>1297</v>
+        <v>1282</v>
       </c>
       <c r="B1336">
         <v>19</v>
       </c>
       <c r="C1336">
-        <v>600110</v>
+        <v>510070</v>
       </c>
     </row>
     <row r="1337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1337" t="s">
-        <v>1298</v>
+        <v>1283</v>
       </c>
       <c r="B1337">
         <v>19</v>
       </c>
       <c r="C1337">
-        <v>600120</v>
+        <v>510080</v>
       </c>
     </row>
     <row r="1338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1338" t="s">
-        <v>1299</v>
+        <v>1284</v>
       </c>
       <c r="B1338">
         <v>19</v>
       </c>
       <c r="C1338">
-        <v>600010</v>
+        <v>600020</v>
       </c>
     </row>
     <row r="1339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1339" t="s">
-        <v>1300</v>
+        <v>1285</v>
       </c>
       <c r="B1339">
         <v>19</v>
       </c>
       <c r="C1339">
-        <v>600040</v>
+        <v>600030</v>
       </c>
     </row>
     <row r="1340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1340" t="s">
-        <v>1301</v>
+        <v>1286</v>
       </c>
       <c r="B1340">
         <v>19</v>
       </c>
       <c r="C1340">
-        <v>600060</v>
+        <v>600050</v>
       </c>
     </row>
     <row r="1341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1341" t="s">
-        <v>1302</v>
+        <v>1287</v>
       </c>
       <c r="B1341">
         <v>19</v>
       </c>
       <c r="C1341">
+        <v>600080</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1342" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B1342">
+        <v>19</v>
+      </c>
+      <c r="C1342">
+        <v>600090</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1343" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B1343">
+        <v>19</v>
+      </c>
+      <c r="C1343">
+        <v>600100</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1344" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B1344">
+        <v>19</v>
+      </c>
+      <c r="C1344">
+        <v>600110</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1345" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B1345">
+        <v>19</v>
+      </c>
+      <c r="C1345">
+        <v>600120</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1346" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B1346">
+        <v>19</v>
+      </c>
+      <c r="C1346">
+        <v>600010</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1347" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B1347">
+        <v>19</v>
+      </c>
+      <c r="C1347">
+        <v>600040</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1348" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B1348">
+        <v>19</v>
+      </c>
+      <c r="C1348">
+        <v>600060</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1349" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B1349">
+        <v>19</v>
+      </c>
+      <c r="C1349">
         <v>600070</v>
       </c>
     </row>

--- a/com/Tools/MyPoco/info_tab/少三2道具类型表.xlsx
+++ b/com/Tools/MyPoco/info_tab/少三2道具类型表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="1409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="1411">
   <si>
     <t>角色经验</t>
   </si>
@@ -4276,27 +4276,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>势如破竹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所向披靡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>百战百胜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>潮玩少年</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>唐人吃面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>少年之力</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -4631,6 +4611,34 @@
   </si>
   <si>
     <t>炼狱寒天</t>
+  </si>
+  <si>
+    <t>镇魂少年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>少年之力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐人吃面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>潮玩少年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>百战百胜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所向披靡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>势如破竹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4698,106 +4706,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -5075,8 +4984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1321" workbookViewId="0">
-      <selection activeCell="P1339" sqref="P1339"/>
+    <sheetView tabSelected="1" topLeftCell="A369" workbookViewId="0">
+      <selection activeCell="J381" sqref="J381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8677,7 +8586,7 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>1323</v>
+        <v>1318</v>
       </c>
       <c r="B312">
         <v>2</v>
@@ -8688,7 +8597,7 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>1324</v>
+        <v>1319</v>
       </c>
       <c r="B313">
         <v>2</v>
@@ -8699,7 +8608,7 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>1325</v>
+        <v>1320</v>
       </c>
       <c r="B314">
         <v>2</v>
@@ -8710,7 +8619,7 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>1326</v>
+        <v>1321</v>
       </c>
       <c r="B315">
         <v>2</v>
@@ -8721,7 +8630,7 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>1327</v>
+        <v>1322</v>
       </c>
       <c r="B316">
         <v>2</v>
@@ -8732,7 +8641,7 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>1328</v>
+        <v>1323</v>
       </c>
       <c r="B317">
         <v>2</v>
@@ -8743,7 +8652,7 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>1329</v>
+        <v>1324</v>
       </c>
       <c r="B318">
         <v>2</v>
@@ -8754,7 +8663,7 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>1330</v>
+        <v>1325</v>
       </c>
       <c r="B319">
         <v>2</v>
@@ -8864,7 +8773,7 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>1320</v>
+        <v>1315</v>
       </c>
       <c r="B329">
         <v>2</v>
@@ -8875,7 +8784,7 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>1321</v>
+        <v>1316</v>
       </c>
       <c r="B330">
         <v>2</v>
@@ -8886,7 +8795,7 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>1322</v>
+        <v>1317</v>
       </c>
       <c r="B331">
         <v>2</v>
@@ -10844,7 +10753,7 @@
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>1313</v>
+        <v>1410</v>
       </c>
       <c r="B509">
         <v>3</v>
@@ -10855,7 +10764,7 @@
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
-        <v>1314</v>
+        <v>1409</v>
       </c>
       <c r="B510">
         <v>3</v>
@@ -10866,7 +10775,7 @@
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>1315</v>
+        <v>1408</v>
       </c>
       <c r="B511">
         <v>3</v>
@@ -10877,7 +10786,7 @@
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>1316</v>
+        <v>1407</v>
       </c>
       <c r="B512">
         <v>3</v>
@@ -10888,7 +10797,7 @@
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>1317</v>
+        <v>1406</v>
       </c>
       <c r="B513">
         <v>3</v>
@@ -10899,7 +10808,7 @@
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>1318</v>
+        <v>1405</v>
       </c>
       <c r="B514">
         <v>3</v>
@@ -10910,7 +10819,7 @@
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>1319</v>
+        <v>1404</v>
       </c>
       <c r="B515">
         <v>3</v>
@@ -12406,7 +12315,7 @@
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
-        <v>1331</v>
+        <v>1326</v>
       </c>
       <c r="B651">
         <v>3</v>
@@ -12417,7 +12326,7 @@
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
-        <v>1332</v>
+        <v>1327</v>
       </c>
       <c r="B652">
         <v>3</v>
@@ -12428,7 +12337,7 @@
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
-        <v>1333</v>
+        <v>1328</v>
       </c>
       <c r="B653">
         <v>3</v>
@@ -12439,7 +12348,7 @@
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
-        <v>1334</v>
+        <v>1329</v>
       </c>
       <c r="B654">
         <v>3</v>
@@ -12450,7 +12359,7 @@
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
-        <v>1335</v>
+        <v>1330</v>
       </c>
       <c r="B655">
         <v>3</v>
@@ -12461,7 +12370,7 @@
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
-        <v>1336</v>
+        <v>1331</v>
       </c>
       <c r="B656">
         <v>3</v>
@@ -12472,7 +12381,7 @@
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
-        <v>1337</v>
+        <v>1332</v>
       </c>
       <c r="B657">
         <v>3</v>
@@ -12483,7 +12392,7 @@
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
       <c r="B658">
         <v>3</v>
@@ -12494,7 +12403,7 @@
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
-        <v>1339</v>
+        <v>1334</v>
       </c>
       <c r="B659">
         <v>3</v>
@@ -12505,7 +12414,7 @@
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="B660">
         <v>3</v>
@@ -12516,7 +12425,7 @@
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
-        <v>1341</v>
+        <v>1336</v>
       </c>
       <c r="B661">
         <v>3</v>
@@ -12527,7 +12436,7 @@
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="B662">
         <v>3</v>
@@ -12538,7 +12447,7 @@
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
-        <v>1343</v>
+        <v>1338</v>
       </c>
       <c r="B663">
         <v>3</v>
@@ -12549,7 +12458,7 @@
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
-        <v>1344</v>
+        <v>1339</v>
       </c>
       <c r="B664">
         <v>3</v>
@@ -12560,7 +12469,7 @@
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
-        <v>1345</v>
+        <v>1340</v>
       </c>
       <c r="B665">
         <v>3</v>
@@ -12571,7 +12480,7 @@
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
-        <v>1346</v>
+        <v>1341</v>
       </c>
       <c r="B666">
         <v>3</v>
@@ -12582,7 +12491,7 @@
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
-        <v>1347</v>
+        <v>1342</v>
       </c>
       <c r="B667">
         <v>3</v>
@@ -12593,7 +12502,7 @@
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
-        <v>1348</v>
+        <v>1343</v>
       </c>
       <c r="B668">
         <v>3</v>
@@ -12604,7 +12513,7 @@
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
       <c r="B669">
         <v>3</v>
@@ -12615,7 +12524,7 @@
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
-        <v>1350</v>
+        <v>1345</v>
       </c>
       <c r="B670">
         <v>3</v>
@@ -12626,7 +12535,7 @@
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
       <c r="B671">
         <v>3</v>
@@ -12637,7 +12546,7 @@
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
       <c r="B672">
         <v>3</v>
@@ -12648,7 +12557,7 @@
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
-        <v>1353</v>
+        <v>1348</v>
       </c>
       <c r="B673">
         <v>3</v>
@@ -12659,7 +12568,7 @@
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
-        <v>1354</v>
+        <v>1349</v>
       </c>
       <c r="B674">
         <v>3</v>
@@ -12670,7 +12579,7 @@
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
-        <v>1355</v>
+        <v>1350</v>
       </c>
       <c r="B675">
         <v>3</v>
@@ -12681,7 +12590,7 @@
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
-        <v>1356</v>
+        <v>1351</v>
       </c>
       <c r="B676">
         <v>3</v>
@@ -12692,7 +12601,7 @@
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
-        <v>1357</v>
+        <v>1352</v>
       </c>
       <c r="B677">
         <v>3</v>
@@ -12703,7 +12612,7 @@
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
-        <v>1358</v>
+        <v>1353</v>
       </c>
       <c r="B678">
         <v>3</v>
@@ -12714,7 +12623,7 @@
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
-        <v>1359</v>
+        <v>1354</v>
       </c>
       <c r="B679">
         <v>3</v>
@@ -12725,7 +12634,7 @@
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
-        <v>1360</v>
+        <v>1355</v>
       </c>
       <c r="B680">
         <v>3</v>
@@ -12736,7 +12645,7 @@
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
-        <v>1361</v>
+        <v>1356</v>
       </c>
       <c r="B681">
         <v>3</v>
@@ -12747,7 +12656,7 @@
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
-        <v>1362</v>
+        <v>1357</v>
       </c>
       <c r="B682">
         <v>3</v>
@@ -12758,7 +12667,7 @@
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
-        <v>1363</v>
+        <v>1358</v>
       </c>
       <c r="B683">
         <v>3</v>
@@ -12769,7 +12678,7 @@
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
-        <v>1364</v>
+        <v>1359</v>
       </c>
       <c r="B684">
         <v>3</v>
@@ -12780,7 +12689,7 @@
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
-        <v>1365</v>
+        <v>1360</v>
       </c>
       <c r="B685">
         <v>3</v>
@@ -12791,7 +12700,7 @@
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
-        <v>1366</v>
+        <v>1361</v>
       </c>
       <c r="B686">
         <v>3</v>
@@ -12802,7 +12711,7 @@
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
-        <v>1367</v>
+        <v>1362</v>
       </c>
       <c r="B687">
         <v>3</v>
@@ -12813,7 +12722,7 @@
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
-        <v>1368</v>
+        <v>1363</v>
       </c>
       <c r="B688">
         <v>3</v>
@@ -12824,7 +12733,7 @@
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
-        <v>1369</v>
+        <v>1364</v>
       </c>
       <c r="B689">
         <v>3</v>
@@ -12835,7 +12744,7 @@
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
-        <v>1370</v>
+        <v>1365</v>
       </c>
       <c r="B690">
         <v>3</v>
@@ -12846,7 +12755,7 @@
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
-        <v>1371</v>
+        <v>1366</v>
       </c>
       <c r="B691">
         <v>3</v>
@@ -12857,7 +12766,7 @@
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
-        <v>1372</v>
+        <v>1367</v>
       </c>
       <c r="B692">
         <v>3</v>
@@ -12868,7 +12777,7 @@
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
-        <v>1373</v>
+        <v>1368</v>
       </c>
       <c r="B693">
         <v>3</v>
@@ -12879,7 +12788,7 @@
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
-        <v>1374</v>
+        <v>1369</v>
       </c>
       <c r="B694">
         <v>3</v>
@@ -12890,7 +12799,7 @@
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
-        <v>1375</v>
+        <v>1370</v>
       </c>
       <c r="B695">
         <v>3</v>
@@ -12901,7 +12810,7 @@
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
-        <v>1376</v>
+        <v>1371</v>
       </c>
       <c r="B696">
         <v>3</v>
@@ -12912,7 +12821,7 @@
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
-        <v>1377</v>
+        <v>1372</v>
       </c>
       <c r="B697">
         <v>3</v>
@@ -12923,7 +12832,7 @@
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
-        <v>1378</v>
+        <v>1373</v>
       </c>
       <c r="B698">
         <v>3</v>
@@ -12934,7 +12843,7 @@
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
-        <v>1379</v>
+        <v>1374</v>
       </c>
       <c r="B699">
         <v>3</v>
@@ -12945,7 +12854,7 @@
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
-        <v>1380</v>
+        <v>1375</v>
       </c>
       <c r="B700">
         <v>3</v>
@@ -15816,7 +15725,7 @@
     </row>
     <row r="961" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A961" t="s">
-        <v>1381</v>
+        <v>1376</v>
       </c>
       <c r="B961">
         <v>7</v>
@@ -15827,7 +15736,7 @@
     </row>
     <row r="962" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A962" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="B962">
         <v>7</v>
@@ -15838,7 +15747,7 @@
     </row>
     <row r="963" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A963" t="s">
-        <v>1383</v>
+        <v>1378</v>
       </c>
       <c r="B963">
         <v>7</v>
@@ -15849,7 +15758,7 @@
     </row>
     <row r="964" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A964" t="s">
-        <v>1384</v>
+        <v>1379</v>
       </c>
       <c r="B964">
         <v>7</v>
@@ -15860,7 +15769,7 @@
     </row>
     <row r="965" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A965" t="s">
-        <v>1385</v>
+        <v>1380</v>
       </c>
       <c r="B965">
         <v>7</v>
@@ -15871,7 +15780,7 @@
     </row>
     <row r="966" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A966" t="s">
-        <v>1386</v>
+        <v>1381</v>
       </c>
       <c r="B966">
         <v>7</v>
@@ -15882,7 +15791,7 @@
     </row>
     <row r="967" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A967" t="s">
-        <v>1387</v>
+        <v>1382</v>
       </c>
       <c r="B967">
         <v>7</v>
@@ -15893,7 +15802,7 @@
     </row>
     <row r="968" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A968" t="s">
-        <v>1385</v>
+        <v>1380</v>
       </c>
       <c r="B968">
         <v>7</v>
@@ -15904,7 +15813,7 @@
     </row>
     <row r="969" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A969" t="s">
-        <v>1388</v>
+        <v>1383</v>
       </c>
       <c r="B969">
         <v>7</v>
@@ -15915,7 +15824,7 @@
     </row>
     <row r="970" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A970" t="s">
-        <v>1389</v>
+        <v>1384</v>
       </c>
       <c r="B970">
         <v>7</v>
@@ -15926,7 +15835,7 @@
     </row>
     <row r="971" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A971" t="s">
-        <v>1390</v>
+        <v>1385</v>
       </c>
       <c r="B971">
         <v>7</v>
@@ -15937,7 +15846,7 @@
     </row>
     <row r="972" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A972" t="s">
-        <v>1390</v>
+        <v>1385</v>
       </c>
       <c r="B972">
         <v>7</v>
@@ -15948,7 +15857,7 @@
     </row>
     <row r="973" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A973" t="s">
-        <v>1391</v>
+        <v>1386</v>
       </c>
       <c r="B973">
         <v>7</v>
@@ -15959,7 +15868,7 @@
     </row>
     <row r="974" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A974" t="s">
-        <v>1392</v>
+        <v>1387</v>
       </c>
       <c r="B974">
         <v>7</v>
@@ -15970,7 +15879,7 @@
     </row>
     <row r="975" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A975" t="s">
-        <v>1393</v>
+        <v>1388</v>
       </c>
       <c r="B975">
         <v>7</v>
@@ -15981,7 +15890,7 @@
     </row>
     <row r="976" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A976" t="s">
-        <v>1391</v>
+        <v>1386</v>
       </c>
       <c r="B976">
         <v>7</v>
@@ -16762,7 +16671,7 @@
     </row>
     <row r="1047" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1047" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="B1047">
         <v>9</v>
@@ -16773,7 +16682,7 @@
     </row>
     <row r="1048" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1048" t="s">
-        <v>1319</v>
+        <v>1314</v>
       </c>
       <c r="B1048">
         <v>9</v>
@@ -17202,7 +17111,7 @@
     </row>
     <row r="1087" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1087" t="s">
-        <v>1394</v>
+        <v>1389</v>
       </c>
       <c r="B1087">
         <v>11</v>
@@ -18841,7 +18750,7 @@
     </row>
     <row r="1236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1236" t="s">
-        <v>1395</v>
+        <v>1390</v>
       </c>
       <c r="B1236">
         <v>13</v>
@@ -18852,7 +18761,7 @@
     </row>
     <row r="1237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1237" t="s">
-        <v>1396</v>
+        <v>1391</v>
       </c>
       <c r="B1237">
         <v>13</v>
@@ -18863,7 +18772,7 @@
     </row>
     <row r="1238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1238" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
       <c r="B1238">
         <v>13</v>
@@ -18874,7 +18783,7 @@
     </row>
     <row r="1239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1239" t="s">
-        <v>1398</v>
+        <v>1393</v>
       </c>
       <c r="B1239">
         <v>13</v>
@@ -18885,7 +18794,7 @@
     </row>
     <row r="1240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1240" t="s">
-        <v>1399</v>
+        <v>1394</v>
       </c>
       <c r="B1240">
         <v>13</v>
@@ -18896,7 +18805,7 @@
     </row>
     <row r="1241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1241" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="B1241">
         <v>13</v>
@@ -18907,7 +18816,7 @@
     </row>
     <row r="1242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1242" t="s">
-        <v>1401</v>
+        <v>1396</v>
       </c>
       <c r="B1242">
         <v>13</v>
@@ -18918,7 +18827,7 @@
     </row>
     <row r="1243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1243" t="s">
-        <v>1402</v>
+        <v>1397</v>
       </c>
       <c r="B1243">
         <v>13</v>
@@ -19732,7 +19641,7 @@
     </row>
     <row r="1317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1317" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
       <c r="B1317">
         <v>15</v>
@@ -19743,7 +19652,7 @@
     </row>
     <row r="1318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1318" t="s">
-        <v>1404</v>
+        <v>1399</v>
       </c>
       <c r="B1318">
         <v>15</v>
@@ -19754,7 +19663,7 @@
     </row>
     <row r="1319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1319" t="s">
-        <v>1405</v>
+        <v>1400</v>
       </c>
       <c r="B1319">
         <v>15</v>
@@ -19765,7 +19674,7 @@
     </row>
     <row r="1320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1320" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
       <c r="B1320">
         <v>15</v>
@@ -19776,7 +19685,7 @@
     </row>
     <row r="1321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1321" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
       <c r="B1321">
         <v>15</v>
@@ -19897,7 +19806,7 @@
     </row>
     <row r="1332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1332" t="s">
-        <v>1408</v>
+        <v>1403</v>
       </c>
       <c r="B1332">
         <v>16</v>

--- a/com/Tools/MyPoco/info_tab/少三2道具类型表.xlsx
+++ b/com/Tools/MyPoco/info_tab/少三2道具类型表.xlsx
@@ -2285,9 +2285,6 @@
     <t>狼尾</t>
   </si>
   <si>
-    <t>雌雄双股剑</t>
-  </si>
-  <si>
     <t>线索1</t>
   </si>
   <si>
@@ -4638,6 +4635,10 @@
   </si>
   <si>
     <t>势如破竹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雌雄双股剑名将</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4984,8 +4985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A369" workbookViewId="0">
-      <selection activeCell="J381" sqref="J381"/>
+    <sheetView tabSelected="1" topLeftCell="A1099" workbookViewId="0">
+      <selection activeCell="H1118" sqref="H1118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5006,12 +5007,12 @@
         <v>38</v>
       </c>
       <c r="D1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -5025,7 +5026,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -5039,7 +5040,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -5053,7 +5054,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -5067,7 +5068,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -5081,7 +5082,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -5095,7 +5096,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -5109,7 +5110,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -5123,7 +5124,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -5137,7 +5138,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -5151,7 +5152,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -5165,7 +5166,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -5179,7 +5180,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -5193,7 +5194,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B15">
         <v>5</v>
@@ -5207,7 +5208,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -5221,7 +5222,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B17">
         <v>5</v>
@@ -5235,7 +5236,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -5249,7 +5250,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -5263,7 +5264,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -5277,7 +5278,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B21">
         <v>5</v>
@@ -5291,7 +5292,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B22">
         <v>6</v>
@@ -5305,7 +5306,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B23">
         <v>6</v>
@@ -5319,7 +5320,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B24">
         <v>6</v>
@@ -5333,7 +5334,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B25">
         <v>7</v>
@@ -5347,7 +5348,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B26">
         <v>7</v>
@@ -5361,7 +5362,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B27">
         <v>7</v>
@@ -5375,7 +5376,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B28">
         <v>7</v>
@@ -5389,7 +5390,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B29">
         <v>7</v>
@@ -5403,7 +5404,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B30">
         <v>7</v>
@@ -5417,7 +5418,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B31">
         <v>7</v>
@@ -5431,7 +5432,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B32">
         <v>7</v>
@@ -5445,7 +5446,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B33">
         <v>8</v>
@@ -5459,7 +5460,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B34">
         <v>9</v>
@@ -5473,7 +5474,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B35">
         <v>9</v>
@@ -5487,7 +5488,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B36">
         <v>9</v>
@@ -5501,7 +5502,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B37">
         <v>11</v>
@@ -5515,7 +5516,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B38">
         <v>11</v>
@@ -5529,7 +5530,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B39">
         <v>11</v>
@@ -5543,7 +5544,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B40">
         <v>11</v>
@@ -5557,7 +5558,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B41">
         <v>11</v>
@@ -5571,7 +5572,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B42">
         <v>11</v>
@@ -5585,7 +5586,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B43">
         <v>11</v>
@@ -5599,7 +5600,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B44">
         <v>11</v>
@@ -5613,7 +5614,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B45">
         <v>10</v>
@@ -5627,7 +5628,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B46">
         <v>10</v>
@@ -5641,7 +5642,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B47">
         <v>10</v>
@@ -5655,7 +5656,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B48">
         <v>10</v>
@@ -5669,7 +5670,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B49">
         <v>14</v>
@@ -5683,7 +5684,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B50">
         <v>14</v>
@@ -5697,7 +5698,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B51">
         <v>14</v>
@@ -5711,7 +5712,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B52">
         <v>14</v>
@@ -5725,7 +5726,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B53">
         <v>14</v>
@@ -5739,7 +5740,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B54">
         <v>14</v>
@@ -5753,7 +5754,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B55">
         <v>14</v>
@@ -5767,7 +5768,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B56">
         <v>14</v>
@@ -5781,7 +5782,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B57">
         <v>999</v>
@@ -6188,7 +6189,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -6199,7 +6200,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -6210,7 +6211,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -6221,7 +6222,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -6232,7 +6233,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -6243,7 +6244,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -6254,7 +6255,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -6265,7 +6266,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -6276,7 +6277,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -6287,7 +6288,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -6298,7 +6299,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -7277,7 +7278,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B193">
         <v>2</v>
@@ -7288,7 +7289,7 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B194">
         <v>2</v>
@@ -7299,7 +7300,7 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B195">
         <v>2</v>
@@ -7310,7 +7311,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B196">
         <v>2</v>
@@ -7321,7 +7322,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B197">
         <v>2</v>
@@ -7332,7 +7333,7 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B198">
         <v>2</v>
@@ -7343,7 +7344,7 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B199">
         <v>2</v>
@@ -7354,7 +7355,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B200">
         <v>2</v>
@@ -7365,7 +7366,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B201">
         <v>2</v>
@@ -7376,7 +7377,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B202">
         <v>2</v>
@@ -7860,7 +7861,7 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B246">
         <v>2</v>
@@ -7871,7 +7872,7 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B247">
         <v>2</v>
@@ -7882,7 +7883,7 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B248">
         <v>2</v>
@@ -7893,7 +7894,7 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B249">
         <v>2</v>
@@ -7904,7 +7905,7 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B250">
         <v>2</v>
@@ -7915,7 +7916,7 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B251">
         <v>2</v>
@@ -8564,7 +8565,7 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B310">
         <v>2</v>
@@ -8575,7 +8576,7 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B311">
         <v>2</v>
@@ -8586,7 +8587,7 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="B312">
         <v>2</v>
@@ -8597,7 +8598,7 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="B313">
         <v>2</v>
@@ -8608,7 +8609,7 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="B314">
         <v>2</v>
@@ -8619,7 +8620,7 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="B315">
         <v>2</v>
@@ -8630,7 +8631,7 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="B316">
         <v>2</v>
@@ -8641,7 +8642,7 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="B317">
         <v>2</v>
@@ -8652,7 +8653,7 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="B318">
         <v>2</v>
@@ -8663,7 +8664,7 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="B319">
         <v>2</v>
@@ -8740,7 +8741,7 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B326">
         <v>2</v>
@@ -8751,7 +8752,7 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B327">
         <v>2</v>
@@ -8762,7 +8763,7 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B328">
         <v>2</v>
@@ -8773,7 +8774,7 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="B329">
         <v>2</v>
@@ -8784,7 +8785,7 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="B330">
         <v>2</v>
@@ -8795,7 +8796,7 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="B331">
         <v>2</v>
@@ -9202,7 +9203,7 @@
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B368">
         <v>3</v>
@@ -9213,7 +9214,7 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B369">
         <v>3</v>
@@ -9224,7 +9225,7 @@
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B370">
         <v>3</v>
@@ -9235,7 +9236,7 @@
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B371">
         <v>3</v>
@@ -9246,7 +9247,7 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B372">
         <v>3</v>
@@ -9257,7 +9258,7 @@
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B373">
         <v>3</v>
@@ -9268,7 +9269,7 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B374">
         <v>3</v>
@@ -9455,7 +9456,7 @@
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B391">
         <v>3</v>
@@ -9620,7 +9621,7 @@
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B406">
         <v>3</v>
@@ -9664,7 +9665,7 @@
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B410">
         <v>3</v>
@@ -9675,7 +9676,7 @@
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B411">
         <v>3</v>
@@ -9686,7 +9687,7 @@
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B412">
         <v>3</v>
@@ -9697,7 +9698,7 @@
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B413">
         <v>3</v>
@@ -9708,7 +9709,7 @@
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B414">
         <v>3</v>
@@ -9730,7 +9731,7 @@
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B416">
         <v>3</v>
@@ -9818,7 +9819,7 @@
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B424">
         <v>3</v>
@@ -9829,7 +9830,7 @@
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B425">
         <v>3</v>
@@ -9840,7 +9841,7 @@
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B426">
         <v>3</v>
@@ -10027,7 +10028,7 @@
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B443">
         <v>3</v>
@@ -10038,7 +10039,7 @@
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B444">
         <v>3</v>
@@ -10060,7 +10061,7 @@
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B446">
         <v>3</v>
@@ -10071,7 +10072,7 @@
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B447">
         <v>3</v>
@@ -10082,7 +10083,7 @@
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B448">
         <v>3</v>
@@ -10093,7 +10094,7 @@
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B449">
         <v>3</v>
@@ -10181,7 +10182,7 @@
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B457">
         <v>3</v>
@@ -10192,7 +10193,7 @@
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B458">
         <v>3</v>
@@ -10203,7 +10204,7 @@
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B459">
         <v>3</v>
@@ -10214,7 +10215,7 @@
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B460">
         <v>3</v>
@@ -10225,7 +10226,7 @@
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B461">
         <v>3</v>
@@ -10236,7 +10237,7 @@
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B462">
         <v>3</v>
@@ -10247,7 +10248,7 @@
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B463">
         <v>3</v>
@@ -10258,7 +10259,7 @@
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B464">
         <v>3</v>
@@ -10269,7 +10270,7 @@
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B465">
         <v>3</v>
@@ -10280,7 +10281,7 @@
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B466">
         <v>3</v>
@@ -10291,7 +10292,7 @@
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B467">
         <v>3</v>
@@ -10302,7 +10303,7 @@
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B468">
         <v>3</v>
@@ -10313,7 +10314,7 @@
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B469">
         <v>3</v>
@@ -10324,7 +10325,7 @@
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B470">
         <v>3</v>
@@ -10335,7 +10336,7 @@
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B471">
         <v>3</v>
@@ -10346,7 +10347,7 @@
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B472">
         <v>3</v>
@@ -10357,7 +10358,7 @@
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B473">
         <v>3</v>
@@ -10368,7 +10369,7 @@
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B474">
         <v>3</v>
@@ -10379,7 +10380,7 @@
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B475">
         <v>3</v>
@@ -10390,7 +10391,7 @@
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B476">
         <v>3</v>
@@ -10401,7 +10402,7 @@
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B477">
         <v>3</v>
@@ -10412,7 +10413,7 @@
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B478">
         <v>3</v>
@@ -10423,7 +10424,7 @@
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B479">
         <v>3</v>
@@ -10434,7 +10435,7 @@
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B480">
         <v>3</v>
@@ -10445,7 +10446,7 @@
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B481">
         <v>3</v>
@@ -10456,7 +10457,7 @@
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B482">
         <v>3</v>
@@ -10467,7 +10468,7 @@
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B483">
         <v>3</v>
@@ -10478,7 +10479,7 @@
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B484">
         <v>3</v>
@@ -10489,7 +10490,7 @@
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B485">
         <v>3</v>
@@ -10500,7 +10501,7 @@
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B486">
         <v>3</v>
@@ -10511,7 +10512,7 @@
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B487">
         <v>3</v>
@@ -10522,7 +10523,7 @@
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B488">
         <v>3</v>
@@ -10533,7 +10534,7 @@
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B489">
         <v>3</v>
@@ -10544,7 +10545,7 @@
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B490">
         <v>3</v>
@@ -10555,7 +10556,7 @@
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B491">
         <v>3</v>
@@ -10566,7 +10567,7 @@
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B492">
         <v>3</v>
@@ -10577,7 +10578,7 @@
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B493">
         <v>3</v>
@@ -10588,7 +10589,7 @@
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B494">
         <v>3</v>
@@ -10599,7 +10600,7 @@
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B495">
         <v>3</v>
@@ -10610,7 +10611,7 @@
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B496">
         <v>3</v>
@@ -10621,7 +10622,7 @@
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B497">
         <v>3</v>
@@ -10632,7 +10633,7 @@
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B498">
         <v>3</v>
@@ -10643,7 +10644,7 @@
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B499">
         <v>3</v>
@@ -10654,7 +10655,7 @@
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B500">
         <v>3</v>
@@ -10665,7 +10666,7 @@
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B501">
         <v>3</v>
@@ -10676,7 +10677,7 @@
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B502">
         <v>3</v>
@@ -10687,7 +10688,7 @@
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B503">
         <v>3</v>
@@ -10698,7 +10699,7 @@
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B504">
         <v>3</v>
@@ -10709,7 +10710,7 @@
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B505">
         <v>3</v>
@@ -10720,7 +10721,7 @@
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B506">
         <v>3</v>
@@ -10731,7 +10732,7 @@
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B507">
         <v>3</v>
@@ -10742,7 +10743,7 @@
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B508">
         <v>3</v>
@@ -10753,7 +10754,7 @@
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B509">
         <v>3</v>
@@ -10764,7 +10765,7 @@
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B510">
         <v>3</v>
@@ -10775,7 +10776,7 @@
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B511">
         <v>3</v>
@@ -10786,7 +10787,7 @@
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B512">
         <v>3</v>
@@ -10797,7 +10798,7 @@
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="B513">
         <v>3</v>
@@ -10808,7 +10809,7 @@
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="B514">
         <v>3</v>
@@ -10819,7 +10820,7 @@
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="B515">
         <v>3</v>
@@ -10830,7 +10831,7 @@
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B516">
         <v>3</v>
@@ -10841,7 +10842,7 @@
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B517">
         <v>3</v>
@@ -10852,7 +10853,7 @@
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B518">
         <v>3</v>
@@ -10863,7 +10864,7 @@
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="B519">
         <v>3</v>
@@ -10874,7 +10875,7 @@
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="B520">
         <v>3</v>
@@ -10885,7 +10886,7 @@
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="B521">
         <v>3</v>
@@ -10896,7 +10897,7 @@
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="B522">
         <v>3</v>
@@ -10907,7 +10908,7 @@
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="B523">
         <v>3</v>
@@ -10918,7 +10919,7 @@
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="B524">
         <v>3</v>
@@ -11930,7 +11931,7 @@
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B616">
         <v>3</v>
@@ -11941,7 +11942,7 @@
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B617">
         <v>3</v>
@@ -11952,7 +11953,7 @@
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B618">
         <v>3</v>
@@ -11963,7 +11964,7 @@
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B619">
         <v>3</v>
@@ -11974,7 +11975,7 @@
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B620">
         <v>3</v>
@@ -11985,7 +11986,7 @@
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B621">
         <v>3</v>
@@ -11996,7 +11997,7 @@
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B622">
         <v>3</v>
@@ -12007,7 +12008,7 @@
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B623">
         <v>3</v>
@@ -12018,7 +12019,7 @@
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B624">
         <v>3</v>
@@ -12029,7 +12030,7 @@
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B625">
         <v>3</v>
@@ -12040,7 +12041,7 @@
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B626">
         <v>3</v>
@@ -12051,7 +12052,7 @@
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B627">
         <v>3</v>
@@ -12062,7 +12063,7 @@
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B628">
         <v>3</v>
@@ -12073,7 +12074,7 @@
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B629">
         <v>3</v>
@@ -12084,7 +12085,7 @@
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B630">
         <v>3</v>
@@ -12095,7 +12096,7 @@
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B631">
         <v>3</v>
@@ -12106,7 +12107,7 @@
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B632">
         <v>3</v>
@@ -12117,7 +12118,7 @@
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B633">
         <v>3</v>
@@ -12128,7 +12129,7 @@
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B634">
         <v>3</v>
@@ -12139,7 +12140,7 @@
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B635">
         <v>3</v>
@@ -12150,7 +12151,7 @@
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B636">
         <v>3</v>
@@ -12161,7 +12162,7 @@
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B637">
         <v>3</v>
@@ -12172,7 +12173,7 @@
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B638">
         <v>3</v>
@@ -12183,7 +12184,7 @@
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B639">
         <v>3</v>
@@ -12194,7 +12195,7 @@
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B640">
         <v>3</v>
@@ -12205,7 +12206,7 @@
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B641">
         <v>3</v>
@@ -12216,7 +12217,7 @@
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B642">
         <v>3</v>
@@ -12227,7 +12228,7 @@
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B643">
         <v>3</v>
@@ -12238,7 +12239,7 @@
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B644">
         <v>3</v>
@@ -12249,7 +12250,7 @@
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B645">
         <v>3</v>
@@ -12260,7 +12261,7 @@
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B646">
         <v>3</v>
@@ -12271,7 +12272,7 @@
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B647">
         <v>3</v>
@@ -12282,7 +12283,7 @@
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B648">
         <v>3</v>
@@ -12293,7 +12294,7 @@
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B649">
         <v>3</v>
@@ -12304,7 +12305,7 @@
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B650">
         <v>3</v>
@@ -12315,7 +12316,7 @@
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="B651">
         <v>3</v>
@@ -12326,7 +12327,7 @@
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="B652">
         <v>3</v>
@@ -12337,7 +12338,7 @@
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="B653">
         <v>3</v>
@@ -12348,7 +12349,7 @@
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="B654">
         <v>3</v>
@@ -12359,7 +12360,7 @@
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="B655">
         <v>3</v>
@@ -12370,7 +12371,7 @@
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="B656">
         <v>3</v>
@@ -12381,7 +12382,7 @@
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="B657">
         <v>3</v>
@@ -12392,7 +12393,7 @@
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="B658">
         <v>3</v>
@@ -12403,7 +12404,7 @@
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="B659">
         <v>3</v>
@@ -12414,7 +12415,7 @@
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="B660">
         <v>3</v>
@@ -12425,7 +12426,7 @@
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B661">
         <v>3</v>
@@ -12436,7 +12437,7 @@
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="B662">
         <v>3</v>
@@ -12447,7 +12448,7 @@
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="B663">
         <v>3</v>
@@ -12458,7 +12459,7 @@
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="B664">
         <v>3</v>
@@ -12469,7 +12470,7 @@
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="B665">
         <v>3</v>
@@ -12480,7 +12481,7 @@
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="B666">
         <v>3</v>
@@ -12491,7 +12492,7 @@
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="B667">
         <v>3</v>
@@ -12502,7 +12503,7 @@
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B668">
         <v>3</v>
@@ -12513,7 +12514,7 @@
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="B669">
         <v>3</v>
@@ -12524,7 +12525,7 @@
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="B670">
         <v>3</v>
@@ -12535,7 +12536,7 @@
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="B671">
         <v>3</v>
@@ -12546,7 +12547,7 @@
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="B672">
         <v>3</v>
@@ -12557,7 +12558,7 @@
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="B673">
         <v>3</v>
@@ -12568,7 +12569,7 @@
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B674">
         <v>3</v>
@@ -12579,7 +12580,7 @@
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="B675">
         <v>3</v>
@@ -12590,7 +12591,7 @@
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="B676">
         <v>3</v>
@@ -12601,7 +12602,7 @@
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="B677">
         <v>3</v>
@@ -12612,7 +12613,7 @@
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="B678">
         <v>3</v>
@@ -12623,7 +12624,7 @@
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="B679">
         <v>3</v>
@@ -12634,7 +12635,7 @@
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="B680">
         <v>3</v>
@@ -12645,7 +12646,7 @@
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="B681">
         <v>3</v>
@@ -12656,7 +12657,7 @@
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="B682">
         <v>3</v>
@@ -12667,7 +12668,7 @@
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B683">
         <v>3</v>
@@ -12678,7 +12679,7 @@
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="B684">
         <v>3</v>
@@ -12689,7 +12690,7 @@
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="B685">
         <v>3</v>
@@ -12700,7 +12701,7 @@
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="B686">
         <v>3</v>
@@ -12711,7 +12712,7 @@
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="B687">
         <v>3</v>
@@ -12722,7 +12723,7 @@
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="B688">
         <v>3</v>
@@ -12733,7 +12734,7 @@
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="B689">
         <v>3</v>
@@ -12744,7 +12745,7 @@
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="B690">
         <v>3</v>
@@ -12755,7 +12756,7 @@
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="B691">
         <v>3</v>
@@ -12766,7 +12767,7 @@
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="B692">
         <v>3</v>
@@ -12777,7 +12778,7 @@
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="B693">
         <v>3</v>
@@ -12788,7 +12789,7 @@
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="B694">
         <v>3</v>
@@ -12799,7 +12800,7 @@
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="B695">
         <v>3</v>
@@ -12810,7 +12811,7 @@
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="B696">
         <v>3</v>
@@ -12821,7 +12822,7 @@
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="B697">
         <v>3</v>
@@ -12832,7 +12833,7 @@
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B698">
         <v>3</v>
@@ -12843,7 +12844,7 @@
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="B699">
         <v>3</v>
@@ -12854,7 +12855,7 @@
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="B700">
         <v>3</v>
@@ -12865,7 +12866,7 @@
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B701">
         <v>3</v>
@@ -12876,7 +12877,7 @@
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B702">
         <v>3</v>
@@ -12887,7 +12888,7 @@
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B703">
         <v>3</v>
@@ -12898,7 +12899,7 @@
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B704">
         <v>3</v>
@@ -12909,7 +12910,7 @@
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B705">
         <v>3</v>
@@ -12920,7 +12921,7 @@
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="B706">
         <v>3</v>
@@ -12931,7 +12932,7 @@
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="B707">
         <v>3</v>
@@ -12942,7 +12943,7 @@
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="B708">
         <v>3</v>
@@ -13261,7 +13262,7 @@
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A737" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B737">
         <v>3</v>
@@ -13921,7 +13922,7 @@
     </row>
     <row r="797" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A797" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B797">
         <v>4</v>
@@ -13932,7 +13933,7 @@
     </row>
     <row r="798" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A798" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B798">
         <v>4</v>
@@ -13943,7 +13944,7 @@
     </row>
     <row r="799" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A799" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B799">
         <v>4</v>
@@ -13954,7 +13955,7 @@
     </row>
     <row r="800" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A800" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B800">
         <v>4</v>
@@ -13965,7 +13966,7 @@
     </row>
     <row r="801" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A801" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B801">
         <v>4</v>
@@ -13976,7 +13977,7 @@
     </row>
     <row r="802" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A802" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B802">
         <v>4</v>
@@ -13987,7 +13988,7 @@
     </row>
     <row r="803" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A803" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B803">
         <v>4</v>
@@ -13998,7 +13999,7 @@
     </row>
     <row r="804" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A804" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B804">
         <v>4</v>
@@ -14009,7 +14010,7 @@
     </row>
     <row r="805" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A805" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B805">
         <v>4</v>
@@ -14020,7 +14021,7 @@
     </row>
     <row r="806" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A806" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B806">
         <v>4</v>
@@ -14031,7 +14032,7 @@
     </row>
     <row r="807" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A807" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B807">
         <v>4</v>
@@ -14042,7 +14043,7 @@
     </row>
     <row r="808" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A808" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B808">
         <v>4</v>
@@ -14053,7 +14054,7 @@
     </row>
     <row r="809" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A809" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="B809">
         <v>4</v>
@@ -14064,7 +14065,7 @@
     </row>
     <row r="810" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A810" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="B810">
         <v>4</v>
@@ -14075,7 +14076,7 @@
     </row>
     <row r="811" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A811" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="B811">
         <v>4</v>
@@ -14086,7 +14087,7 @@
     </row>
     <row r="812" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A812" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="B812">
         <v>4</v>
@@ -14097,7 +14098,7 @@
     </row>
     <row r="813" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A813" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="B813">
         <v>4</v>
@@ -14108,7 +14109,7 @@
     </row>
     <row r="814" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A814" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="B814">
         <v>4</v>
@@ -14119,7 +14120,7 @@
     </row>
     <row r="815" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A815" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="B815">
         <v>4</v>
@@ -14130,7 +14131,7 @@
     </row>
     <row r="816" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A816" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="B816">
         <v>4</v>
@@ -14141,7 +14142,7 @@
     </row>
     <row r="817" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A817" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B817">
         <v>5</v>
@@ -14152,7 +14153,7 @@
     </row>
     <row r="818" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A818" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B818">
         <v>5</v>
@@ -14163,7 +14164,7 @@
     </row>
     <row r="819" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A819" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B819">
         <v>5</v>
@@ -14174,7 +14175,7 @@
     </row>
     <row r="820" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A820" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B820">
         <v>5</v>
@@ -14185,7 +14186,7 @@
     </row>
     <row r="821" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A821" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B821">
         <v>5</v>
@@ -14196,7 +14197,7 @@
     </row>
     <row r="822" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A822" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B822">
         <v>5</v>
@@ -14207,7 +14208,7 @@
     </row>
     <row r="823" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A823" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B823">
         <v>5</v>
@@ -14218,7 +14219,7 @@
     </row>
     <row r="824" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A824" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B824">
         <v>5</v>
@@ -14229,7 +14230,7 @@
     </row>
     <row r="825" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A825" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B825">
         <v>5</v>
@@ -14240,7 +14241,7 @@
     </row>
     <row r="826" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A826" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B826">
         <v>5</v>
@@ -14251,7 +14252,7 @@
     </row>
     <row r="827" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A827" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B827">
         <v>5</v>
@@ -14262,7 +14263,7 @@
     </row>
     <row r="828" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A828" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B828">
         <v>5</v>
@@ -14273,7 +14274,7 @@
     </row>
     <row r="829" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A829" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B829">
         <v>5</v>
@@ -14284,7 +14285,7 @@
     </row>
     <row r="830" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A830" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B830">
         <v>5</v>
@@ -14295,7 +14296,7 @@
     </row>
     <row r="831" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A831" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B831">
         <v>5</v>
@@ -14306,7 +14307,7 @@
     </row>
     <row r="832" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A832" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B832">
         <v>5</v>
@@ -14317,7 +14318,7 @@
     </row>
     <row r="833" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A833" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B833">
         <v>5</v>
@@ -14328,7 +14329,7 @@
     </row>
     <row r="834" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A834" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B834">
         <v>5</v>
@@ -14339,7 +14340,7 @@
     </row>
     <row r="835" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A835" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B835">
         <v>5</v>
@@ -14350,7 +14351,7 @@
     </row>
     <row r="836" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A836" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B836">
         <v>5</v>
@@ -14361,7 +14362,7 @@
     </row>
     <row r="837" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A837" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B837">
         <v>5</v>
@@ -14372,7 +14373,7 @@
     </row>
     <row r="838" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A838" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B838">
         <v>5</v>
@@ -14383,7 +14384,7 @@
     </row>
     <row r="839" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A839" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B839">
         <v>5</v>
@@ -14394,7 +14395,7 @@
     </row>
     <row r="840" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A840" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B840">
         <v>5</v>
@@ -14405,7 +14406,7 @@
     </row>
     <row r="841" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A841" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B841">
         <v>5</v>
@@ -14416,7 +14417,7 @@
     </row>
     <row r="842" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A842" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B842">
         <v>5</v>
@@ -14427,7 +14428,7 @@
     </row>
     <row r="843" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A843" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B843">
         <v>5</v>
@@ -14438,7 +14439,7 @@
     </row>
     <row r="844" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A844" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B844">
         <v>5</v>
@@ -14449,7 +14450,7 @@
     </row>
     <row r="845" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A845" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B845">
         <v>5</v>
@@ -14460,7 +14461,7 @@
     </row>
     <row r="846" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A846" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B846">
         <v>5</v>
@@ -14471,7 +14472,7 @@
     </row>
     <row r="847" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A847" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B847">
         <v>5</v>
@@ -14482,7 +14483,7 @@
     </row>
     <row r="848" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A848" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B848">
         <v>5</v>
@@ -14493,7 +14494,7 @@
     </row>
     <row r="849" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A849" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B849">
         <v>5</v>
@@ -14504,7 +14505,7 @@
     </row>
     <row r="850" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A850" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B850">
         <v>5</v>
@@ -14515,7 +14516,7 @@
     </row>
     <row r="851" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A851" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B851">
         <v>5</v>
@@ -15725,7 +15726,7 @@
     </row>
     <row r="961" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A961" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="B961">
         <v>7</v>
@@ -15736,7 +15737,7 @@
     </row>
     <row r="962" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A962" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="B962">
         <v>7</v>
@@ -15747,7 +15748,7 @@
     </row>
     <row r="963" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A963" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="B963">
         <v>7</v>
@@ -15758,7 +15759,7 @@
     </row>
     <row r="964" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A964" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="B964">
         <v>7</v>
@@ -15769,7 +15770,7 @@
     </row>
     <row r="965" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A965" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="B965">
         <v>7</v>
@@ -15780,7 +15781,7 @@
     </row>
     <row r="966" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A966" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B966">
         <v>7</v>
@@ -15791,7 +15792,7 @@
     </row>
     <row r="967" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A967" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="B967">
         <v>7</v>
@@ -15802,7 +15803,7 @@
     </row>
     <row r="968" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A968" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="B968">
         <v>7</v>
@@ -15813,7 +15814,7 @@
     </row>
     <row r="969" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A969" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="B969">
         <v>7</v>
@@ -15824,7 +15825,7 @@
     </row>
     <row r="970" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A970" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B970">
         <v>7</v>
@@ -15835,7 +15836,7 @@
     </row>
     <row r="971" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A971" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="B971">
         <v>7</v>
@@ -15846,7 +15847,7 @@
     </row>
     <row r="972" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A972" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="B972">
         <v>7</v>
@@ -15857,7 +15858,7 @@
     </row>
     <row r="973" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A973" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="B973">
         <v>7</v>
@@ -15868,7 +15869,7 @@
     </row>
     <row r="974" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A974" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="B974">
         <v>7</v>
@@ -15879,7 +15880,7 @@
     </row>
     <row r="975" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A975" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="B975">
         <v>7</v>
@@ -15890,7 +15891,7 @@
     </row>
     <row r="976" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A976" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="B976">
         <v>7</v>
@@ -16066,7 +16067,7 @@
     </row>
     <row r="992" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A992" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B992">
         <v>8</v>
@@ -16077,7 +16078,7 @@
     </row>
     <row r="993" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A993" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B993">
         <v>8</v>
@@ -16088,7 +16089,7 @@
     </row>
     <row r="994" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A994" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B994">
         <v>8</v>
@@ -16099,7 +16100,7 @@
     </row>
     <row r="995" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A995" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B995">
         <v>8</v>
@@ -16110,7 +16111,7 @@
     </row>
     <row r="996" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A996" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B996">
         <v>8</v>
@@ -16121,7 +16122,7 @@
     </row>
     <row r="997" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A997" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B997">
         <v>8</v>
@@ -16385,7 +16386,7 @@
     </row>
     <row r="1021" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1021" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B1021">
         <v>9</v>
@@ -16396,7 +16397,7 @@
     </row>
     <row r="1022" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1022" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B1022">
         <v>9</v>
@@ -16407,7 +16408,7 @@
     </row>
     <row r="1023" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1023" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B1023">
         <v>9</v>
@@ -16418,7 +16419,7 @@
     </row>
     <row r="1024" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1024" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B1024">
         <v>9</v>
@@ -16429,7 +16430,7 @@
     </row>
     <row r="1025" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1025" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B1025">
         <v>9</v>
@@ -16440,7 +16441,7 @@
     </row>
     <row r="1026" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1026" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B1026">
         <v>9</v>
@@ -16451,7 +16452,7 @@
     </row>
     <row r="1027" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1027" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B1027">
         <v>9</v>
@@ -16462,7 +16463,7 @@
     </row>
     <row r="1028" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1028" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B1028">
         <v>9</v>
@@ -16627,7 +16628,7 @@
     </row>
     <row r="1043" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1043" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B1043">
         <v>9</v>
@@ -16638,7 +16639,7 @@
     </row>
     <row r="1044" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1044" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B1044">
         <v>9</v>
@@ -16649,7 +16650,7 @@
     </row>
     <row r="1045" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1045" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B1045">
         <v>9</v>
@@ -16660,7 +16661,7 @@
     </row>
     <row r="1046" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1046" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B1046">
         <v>9</v>
@@ -16671,7 +16672,7 @@
     </row>
     <row r="1047" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1047" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="B1047">
         <v>9</v>
@@ -16682,7 +16683,7 @@
     </row>
     <row r="1048" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1048" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B1048">
         <v>9</v>
@@ -17111,7 +17112,7 @@
     </row>
     <row r="1087" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1087" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="B1087">
         <v>11</v>
@@ -17430,7 +17431,7 @@
     </row>
     <row r="1116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1116" t="s">
-        <v>726</v>
+        <v>1410</v>
       </c>
       <c r="B1116">
         <v>12</v>
@@ -17441,7 +17442,7 @@
     </row>
     <row r="1117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1117" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B1117">
         <v>12</v>
@@ -17452,7 +17453,7 @@
     </row>
     <row r="1118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1118" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B1118">
         <v>12</v>
@@ -17463,7 +17464,7 @@
     </row>
     <row r="1119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1119" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B1119">
         <v>12</v>
@@ -17474,7 +17475,7 @@
     </row>
     <row r="1120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1120" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B1120">
         <v>12</v>
@@ -17485,7 +17486,7 @@
     </row>
     <row r="1121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1121" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B1121">
         <v>12</v>
@@ -17518,7 +17519,7 @@
     </row>
     <row r="1124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1124" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B1124">
         <v>12</v>
@@ -17529,7 +17530,7 @@
     </row>
     <row r="1125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1125" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B1125">
         <v>12</v>
@@ -17584,7 +17585,7 @@
     </row>
     <row r="1130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1130" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B1130">
         <v>12</v>
@@ -17595,7 +17596,7 @@
     </row>
     <row r="1131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1131" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B1131">
         <v>12</v>
@@ -17606,7 +17607,7 @@
     </row>
     <row r="1132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1132" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B1132">
         <v>12</v>
@@ -17617,7 +17618,7 @@
     </row>
     <row r="1133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1133" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B1133">
         <v>12</v>
@@ -17628,7 +17629,7 @@
     </row>
     <row r="1134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1134" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B1134">
         <v>12</v>
@@ -17639,7 +17640,7 @@
     </row>
     <row r="1135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1135" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B1135">
         <v>12</v>
@@ -17650,7 +17651,7 @@
     </row>
     <row r="1136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1136" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B1136">
         <v>12</v>
@@ -17661,7 +17662,7 @@
     </row>
     <row r="1137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1137" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B1137">
         <v>12</v>
@@ -17672,7 +17673,7 @@
     </row>
     <row r="1138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1138" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B1138">
         <v>12</v>
@@ -17683,7 +17684,7 @@
     </row>
     <row r="1139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1139" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B1139">
         <v>12</v>
@@ -17694,7 +17695,7 @@
     </row>
     <row r="1140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1140" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B1140">
         <v>12</v>
@@ -17705,7 +17706,7 @@
     </row>
     <row r="1141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1141" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B1141">
         <v>12</v>
@@ -17716,7 +17717,7 @@
     </row>
     <row r="1142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1142" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B1142">
         <v>12</v>
@@ -17727,7 +17728,7 @@
     </row>
     <row r="1143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1143" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B1143">
         <v>12</v>
@@ -17738,7 +17739,7 @@
     </row>
     <row r="1144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1144" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B1144">
         <v>12</v>
@@ -17749,7 +17750,7 @@
     </row>
     <row r="1145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1145" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B1145">
         <v>12</v>
@@ -17760,7 +17761,7 @@
     </row>
     <row r="1146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1146" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B1146">
         <v>12</v>
@@ -17771,7 +17772,7 @@
     </row>
     <row r="1147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1147" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B1147">
         <v>12</v>
@@ -17782,7 +17783,7 @@
     </row>
     <row r="1148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1148" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B1148">
         <v>12</v>
@@ -17793,7 +17794,7 @@
     </row>
     <row r="1149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1149" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B1149">
         <v>12</v>
@@ -17804,7 +17805,7 @@
     </row>
     <row r="1150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1150" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B1150">
         <v>12</v>
@@ -17815,7 +17816,7 @@
     </row>
     <row r="1151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1151" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B1151">
         <v>12</v>
@@ -17826,7 +17827,7 @@
     </row>
     <row r="1152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1152" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B1152">
         <v>12</v>
@@ -17837,7 +17838,7 @@
     </row>
     <row r="1153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1153" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B1153">
         <v>12</v>
@@ -17848,7 +17849,7 @@
     </row>
     <row r="1154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1154" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B1154">
         <v>12</v>
@@ -17859,7 +17860,7 @@
     </row>
     <row r="1155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1155" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B1155">
         <v>12</v>
@@ -17870,7 +17871,7 @@
     </row>
     <row r="1156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1156" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B1156">
         <v>12</v>
@@ -17881,7 +17882,7 @@
     </row>
     <row r="1157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1157" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B1157">
         <v>12</v>
@@ -17892,7 +17893,7 @@
     </row>
     <row r="1158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1158" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B1158">
         <v>12</v>
@@ -17903,7 +17904,7 @@
     </row>
     <row r="1159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1159" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B1159">
         <v>12</v>
@@ -17914,7 +17915,7 @@
     </row>
     <row r="1160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1160" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B1160">
         <v>12</v>
@@ -17925,7 +17926,7 @@
     </row>
     <row r="1161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1161" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B1161">
         <v>12</v>
@@ -17936,7 +17937,7 @@
     </row>
     <row r="1162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1162" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B1162">
         <v>12</v>
@@ -17947,7 +17948,7 @@
     </row>
     <row r="1163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1163" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B1163">
         <v>12</v>
@@ -17958,7 +17959,7 @@
     </row>
     <row r="1164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1164" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="B1164">
         <v>12</v>
@@ -17969,7 +17970,7 @@
     </row>
     <row r="1165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1165" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B1165">
         <v>12</v>
@@ -17991,7 +17992,7 @@
     </row>
     <row r="1167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1167" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B1167">
         <v>12</v>
@@ -18002,7 +18003,7 @@
     </row>
     <row r="1168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1168" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B1168">
         <v>12</v>
@@ -18013,7 +18014,7 @@
     </row>
     <row r="1169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1169" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B1169">
         <v>12</v>
@@ -18024,7 +18025,7 @@
     </row>
     <row r="1170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1170" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B1170">
         <v>12</v>
@@ -18035,7 +18036,7 @@
     </row>
     <row r="1171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1171" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B1171">
         <v>12</v>
@@ -18046,7 +18047,7 @@
     </row>
     <row r="1172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1172" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B1172">
         <v>12</v>
@@ -18057,7 +18058,7 @@
     </row>
     <row r="1173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1173" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B1173">
         <v>12</v>
@@ -18068,7 +18069,7 @@
     </row>
     <row r="1174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1174" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B1174">
         <v>12</v>
@@ -18079,7 +18080,7 @@
     </row>
     <row r="1175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1175" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B1175">
         <v>12</v>
@@ -18090,7 +18091,7 @@
     </row>
     <row r="1176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1176" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B1176">
         <v>12</v>
@@ -18123,7 +18124,7 @@
     </row>
     <row r="1179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1179" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B1179">
         <v>12</v>
@@ -18134,7 +18135,7 @@
     </row>
     <row r="1180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1180" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B1180">
         <v>12</v>
@@ -18156,7 +18157,7 @@
     </row>
     <row r="1182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1182" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B1182">
         <v>12</v>
@@ -18167,7 +18168,7 @@
     </row>
     <row r="1183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1183" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B1183">
         <v>12</v>
@@ -18178,7 +18179,7 @@
     </row>
     <row r="1184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1184" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B1184">
         <v>12</v>
@@ -18189,7 +18190,7 @@
     </row>
     <row r="1185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1185" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B1185">
         <v>12</v>
@@ -18200,7 +18201,7 @@
     </row>
     <row r="1186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1186" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B1186">
         <v>12</v>
@@ -18211,7 +18212,7 @@
     </row>
     <row r="1187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1187" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B1187">
         <v>12</v>
@@ -18222,7 +18223,7 @@
     </row>
     <row r="1188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1188" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B1188">
         <v>12</v>
@@ -18233,7 +18234,7 @@
     </row>
     <row r="1189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1189" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B1189">
         <v>12</v>
@@ -18244,7 +18245,7 @@
     </row>
     <row r="1190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1190" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B1190">
         <v>12</v>
@@ -18255,7 +18256,7 @@
     </row>
     <row r="1191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1191" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B1191">
         <v>12</v>
@@ -18266,7 +18267,7 @@
     </row>
     <row r="1192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1192" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B1192">
         <v>12</v>
@@ -18277,7 +18278,7 @@
     </row>
     <row r="1193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1193" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B1193">
         <v>12</v>
@@ -18288,7 +18289,7 @@
     </row>
     <row r="1194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1194" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="B1194">
         <v>12</v>
@@ -18299,7 +18300,7 @@
     </row>
     <row r="1195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1195" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B1195">
         <v>12</v>
@@ -18310,7 +18311,7 @@
     </row>
     <row r="1196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1196" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B1196">
         <v>12</v>
@@ -18321,7 +18322,7 @@
     </row>
     <row r="1197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1197" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B1197">
         <v>12</v>
@@ -18332,7 +18333,7 @@
     </row>
     <row r="1198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1198" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="B1198">
         <v>12</v>
@@ -18343,7 +18344,7 @@
     </row>
     <row r="1199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1199" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B1199">
         <v>12</v>
@@ -18354,7 +18355,7 @@
     </row>
     <row r="1200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1200" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B1200">
         <v>12</v>
@@ -18365,7 +18366,7 @@
     </row>
     <row r="1201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1201" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="B1201">
         <v>12</v>
@@ -18376,7 +18377,7 @@
     </row>
     <row r="1202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1202" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="B1202">
         <v>12</v>
@@ -18387,7 +18388,7 @@
     </row>
     <row r="1203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1203" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="B1203">
         <v>12</v>
@@ -18398,7 +18399,7 @@
     </row>
     <row r="1204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1204" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B1204">
         <v>12</v>
@@ -18409,7 +18410,7 @@
     </row>
     <row r="1205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1205" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B1205">
         <v>12</v>
@@ -18420,7 +18421,7 @@
     </row>
     <row r="1206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1206" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B1206">
         <v>12</v>
@@ -18431,7 +18432,7 @@
     </row>
     <row r="1207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1207" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B1207">
         <v>12</v>
@@ -18442,7 +18443,7 @@
     </row>
     <row r="1208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1208" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B1208">
         <v>12</v>
@@ -18453,7 +18454,7 @@
     </row>
     <row r="1209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1209" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B1209">
         <v>12</v>
@@ -18464,7 +18465,7 @@
     </row>
     <row r="1210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1210" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B1210">
         <v>12</v>
@@ -18475,7 +18476,7 @@
     </row>
     <row r="1211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1211" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B1211">
         <v>12</v>
@@ -18486,7 +18487,7 @@
     </row>
     <row r="1212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1212" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B1212">
         <v>12</v>
@@ -18497,7 +18498,7 @@
     </row>
     <row r="1213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1213" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B1213">
         <v>12</v>
@@ -18508,7 +18509,7 @@
     </row>
     <row r="1214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1214" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B1214">
         <v>12</v>
@@ -18519,7 +18520,7 @@
     </row>
     <row r="1215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1215" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B1215">
         <v>12</v>
@@ -18530,7 +18531,7 @@
     </row>
     <row r="1216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1216" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B1216">
         <v>12</v>
@@ -18541,7 +18542,7 @@
     </row>
     <row r="1217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1217" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B1217">
         <v>12</v>
@@ -18552,7 +18553,7 @@
     </row>
     <row r="1218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1218" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B1218">
         <v>12</v>
@@ -18563,7 +18564,7 @@
     </row>
     <row r="1219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1219" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B1219">
         <v>12</v>
@@ -18574,7 +18575,7 @@
     </row>
     <row r="1220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1220" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B1220">
         <v>13</v>
@@ -18585,7 +18586,7 @@
     </row>
     <row r="1221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1221" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B1221">
         <v>13</v>
@@ -18596,7 +18597,7 @@
     </row>
     <row r="1222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1222" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B1222">
         <v>13</v>
@@ -18607,7 +18608,7 @@
     </row>
     <row r="1223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1223" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B1223">
         <v>13</v>
@@ -18618,7 +18619,7 @@
     </row>
     <row r="1224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1224" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B1224">
         <v>13</v>
@@ -18629,7 +18630,7 @@
     </row>
     <row r="1225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1225" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B1225">
         <v>13</v>
@@ -18640,7 +18641,7 @@
     </row>
     <row r="1226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1226" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B1226">
         <v>13</v>
@@ -18651,7 +18652,7 @@
     </row>
     <row r="1227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1227" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B1227">
         <v>13</v>
@@ -18662,7 +18663,7 @@
     </row>
     <row r="1228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1228" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B1228">
         <v>13</v>
@@ -18673,7 +18674,7 @@
     </row>
     <row r="1229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1229" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B1229">
         <v>13</v>
@@ -18684,7 +18685,7 @@
     </row>
     <row r="1230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1230" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B1230">
         <v>13</v>
@@ -18695,7 +18696,7 @@
     </row>
     <row r="1231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1231" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B1231">
         <v>13</v>
@@ -18706,7 +18707,7 @@
     </row>
     <row r="1232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1232" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B1232">
         <v>13</v>
@@ -18717,7 +18718,7 @@
     </row>
     <row r="1233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1233" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B1233">
         <v>13</v>
@@ -18728,7 +18729,7 @@
     </row>
     <row r="1234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1234" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B1234">
         <v>13</v>
@@ -18739,7 +18740,7 @@
     </row>
     <row r="1235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1235" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B1235">
         <v>13</v>
@@ -18750,7 +18751,7 @@
     </row>
     <row r="1236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1236" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="B1236">
         <v>13</v>
@@ -18761,7 +18762,7 @@
     </row>
     <row r="1237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1237" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="B1237">
         <v>13</v>
@@ -18772,7 +18773,7 @@
     </row>
     <row r="1238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1238" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="B1238">
         <v>13</v>
@@ -18783,7 +18784,7 @@
     </row>
     <row r="1239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1239" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="B1239">
         <v>13</v>
@@ -18794,7 +18795,7 @@
     </row>
     <row r="1240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1240" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="B1240">
         <v>13</v>
@@ -18805,7 +18806,7 @@
     </row>
     <row r="1241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1241" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="B1241">
         <v>13</v>
@@ -18816,7 +18817,7 @@
     </row>
     <row r="1242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1242" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="B1242">
         <v>13</v>
@@ -18827,7 +18828,7 @@
     </row>
     <row r="1243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1243" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="B1243">
         <v>13</v>
@@ -18838,7 +18839,7 @@
     </row>
     <row r="1244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1244" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B1244">
         <v>14</v>
@@ -18849,7 +18850,7 @@
     </row>
     <row r="1245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1245" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B1245">
         <v>14</v>
@@ -18860,7 +18861,7 @@
     </row>
     <row r="1246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1246" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B1246">
         <v>14</v>
@@ -18871,7 +18872,7 @@
     </row>
     <row r="1247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1247" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B1247">
         <v>14</v>
@@ -18882,7 +18883,7 @@
     </row>
     <row r="1248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1248" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B1248">
         <v>14</v>
@@ -18893,7 +18894,7 @@
     </row>
     <row r="1249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1249" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B1249">
         <v>14</v>
@@ -18904,7 +18905,7 @@
     </row>
     <row r="1250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1250" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B1250">
         <v>14</v>
@@ -18915,7 +18916,7 @@
     </row>
     <row r="1251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1251" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B1251">
         <v>14</v>
@@ -18926,7 +18927,7 @@
     </row>
     <row r="1252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1252" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B1252">
         <v>14</v>
@@ -18937,7 +18938,7 @@
     </row>
     <row r="1253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1253" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B1253">
         <v>14</v>
@@ -18948,7 +18949,7 @@
     </row>
     <row r="1254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1254" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B1254">
         <v>14</v>
@@ -18959,7 +18960,7 @@
     </row>
     <row r="1255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1255" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B1255">
         <v>14</v>
@@ -18970,7 +18971,7 @@
     </row>
     <row r="1256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1256" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B1256">
         <v>14</v>
@@ -18981,7 +18982,7 @@
     </row>
     <row r="1257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1257" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B1257">
         <v>14</v>
@@ -18992,7 +18993,7 @@
     </row>
     <row r="1258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1258" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B1258">
         <v>15</v>
@@ -19003,7 +19004,7 @@
     </row>
     <row r="1259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1259" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B1259">
         <v>15</v>
@@ -19014,7 +19015,7 @@
     </row>
     <row r="1260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1260" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B1260">
         <v>15</v>
@@ -19025,7 +19026,7 @@
     </row>
     <row r="1261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1261" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B1261">
         <v>15</v>
@@ -19036,7 +19037,7 @@
     </row>
     <row r="1262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1262" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B1262">
         <v>15</v>
@@ -19047,7 +19048,7 @@
     </row>
     <row r="1263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1263" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B1263">
         <v>15</v>
@@ -19058,7 +19059,7 @@
     </row>
     <row r="1264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1264" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B1264">
         <v>15</v>
@@ -19069,7 +19070,7 @@
     </row>
     <row r="1265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1265" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B1265">
         <v>15</v>
@@ -19080,7 +19081,7 @@
     </row>
     <row r="1266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1266" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B1266">
         <v>15</v>
@@ -19091,7 +19092,7 @@
     </row>
     <row r="1267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1267" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B1267">
         <v>15</v>
@@ -19102,7 +19103,7 @@
     </row>
     <row r="1268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1268" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B1268">
         <v>15</v>
@@ -19113,7 +19114,7 @@
     </row>
     <row r="1269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1269" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B1269">
         <v>15</v>
@@ -19124,7 +19125,7 @@
     </row>
     <row r="1270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1270" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B1270">
         <v>15</v>
@@ -19135,7 +19136,7 @@
     </row>
     <row r="1271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1271" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B1271">
         <v>15</v>
@@ -19146,7 +19147,7 @@
     </row>
     <row r="1272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1272" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B1272">
         <v>15</v>
@@ -19157,7 +19158,7 @@
     </row>
     <row r="1273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1273" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B1273">
         <v>15</v>
@@ -19168,7 +19169,7 @@
     </row>
     <row r="1274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1274" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B1274">
         <v>15</v>
@@ -19179,7 +19180,7 @@
     </row>
     <row r="1275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1275" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B1275">
         <v>15</v>
@@ -19190,7 +19191,7 @@
     </row>
     <row r="1276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1276" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B1276">
         <v>15</v>
@@ -19201,7 +19202,7 @@
     </row>
     <row r="1277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1277" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B1277">
         <v>15</v>
@@ -19212,7 +19213,7 @@
     </row>
     <row r="1278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1278" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B1278">
         <v>15</v>
@@ -19223,7 +19224,7 @@
     </row>
     <row r="1279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1279" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B1279">
         <v>15</v>
@@ -19234,7 +19235,7 @@
     </row>
     <row r="1280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1280" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B1280">
         <v>15</v>
@@ -19245,7 +19246,7 @@
     </row>
     <row r="1281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1281" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B1281">
         <v>15</v>
@@ -19256,7 +19257,7 @@
     </row>
     <row r="1282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1282" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B1282">
         <v>15</v>
@@ -19267,7 +19268,7 @@
     </row>
     <row r="1283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1283" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B1283">
         <v>15</v>
@@ -19278,7 +19279,7 @@
     </row>
     <row r="1284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1284" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B1284">
         <v>15</v>
@@ -19289,7 +19290,7 @@
     </row>
     <row r="1285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1285" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B1285">
         <v>15</v>
@@ -19300,7 +19301,7 @@
     </row>
     <row r="1286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1286" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B1286">
         <v>15</v>
@@ -19311,7 +19312,7 @@
     </row>
     <row r="1287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1287" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="B1287">
         <v>15</v>
@@ -19322,7 +19323,7 @@
     </row>
     <row r="1288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1288" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B1288">
         <v>15</v>
@@ -19333,7 +19334,7 @@
     </row>
     <row r="1289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1289" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B1289">
         <v>15</v>
@@ -19344,7 +19345,7 @@
     </row>
     <row r="1290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1290" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B1290">
         <v>15</v>
@@ -19355,7 +19356,7 @@
     </row>
     <row r="1291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1291" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B1291">
         <v>15</v>
@@ -19366,7 +19367,7 @@
     </row>
     <row r="1292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1292" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B1292">
         <v>15</v>
@@ -19377,7 +19378,7 @@
     </row>
     <row r="1293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1293" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B1293">
         <v>15</v>
@@ -19388,7 +19389,7 @@
     </row>
     <row r="1294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1294" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B1294">
         <v>15</v>
@@ -19399,7 +19400,7 @@
     </row>
     <row r="1295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1295" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B1295">
         <v>15</v>
@@ -19410,7 +19411,7 @@
     </row>
     <row r="1296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1296" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B1296">
         <v>15</v>
@@ -19421,7 +19422,7 @@
     </row>
     <row r="1297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1297" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B1297">
         <v>15</v>
@@ -19432,7 +19433,7 @@
     </row>
     <row r="1298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1298" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B1298">
         <v>15</v>
@@ -19443,7 +19444,7 @@
     </row>
     <row r="1299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1299" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="B1299">
         <v>15</v>
@@ -19454,7 +19455,7 @@
     </row>
     <row r="1300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1300" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B1300">
         <v>15</v>
@@ -19465,7 +19466,7 @@
     </row>
     <row r="1301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1301" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B1301">
         <v>15</v>
@@ -19476,7 +19477,7 @@
     </row>
     <row r="1302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1302" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B1302">
         <v>15</v>
@@ -19487,7 +19488,7 @@
     </row>
     <row r="1303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1303" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B1303">
         <v>15</v>
@@ -19498,7 +19499,7 @@
     </row>
     <row r="1304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1304" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B1304">
         <v>15</v>
@@ -19509,7 +19510,7 @@
     </row>
     <row r="1305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1305" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B1305">
         <v>15</v>
@@ -19520,7 +19521,7 @@
     </row>
     <row r="1306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1306" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B1306">
         <v>15</v>
@@ -19531,7 +19532,7 @@
     </row>
     <row r="1307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1307" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B1307">
         <v>15</v>
@@ -19542,7 +19543,7 @@
     </row>
     <row r="1308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1308" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B1308">
         <v>15</v>
@@ -19553,7 +19554,7 @@
     </row>
     <row r="1309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1309" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B1309">
         <v>15</v>
@@ -19564,7 +19565,7 @@
     </row>
     <row r="1310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1310" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B1310">
         <v>15</v>
@@ -19575,7 +19576,7 @@
     </row>
     <row r="1311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1311" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B1311">
         <v>15</v>
@@ -19586,7 +19587,7 @@
     </row>
     <row r="1312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1312" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B1312">
         <v>15</v>
@@ -19597,7 +19598,7 @@
     </row>
     <row r="1313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1313" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B1313">
         <v>15</v>
@@ -19608,7 +19609,7 @@
     </row>
     <row r="1314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1314" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B1314">
         <v>15</v>
@@ -19619,7 +19620,7 @@
     </row>
     <row r="1315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1315" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B1315">
         <v>15</v>
@@ -19630,7 +19631,7 @@
     </row>
     <row r="1316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1316" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B1316">
         <v>15</v>
@@ -19641,7 +19642,7 @@
     </row>
     <row r="1317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1317" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="B1317">
         <v>15</v>
@@ -19652,7 +19653,7 @@
     </row>
     <row r="1318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1318" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="B1318">
         <v>15</v>
@@ -19663,7 +19664,7 @@
     </row>
     <row r="1319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1319" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="B1319">
         <v>15</v>
@@ -19674,7 +19675,7 @@
     </row>
     <row r="1320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1320" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="B1320">
         <v>15</v>
@@ -19685,7 +19686,7 @@
     </row>
     <row r="1321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1321" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B1321">
         <v>15</v>
@@ -19696,7 +19697,7 @@
     </row>
     <row r="1322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1322" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B1322">
         <v>16</v>
@@ -19707,7 +19708,7 @@
     </row>
     <row r="1323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1323" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B1323">
         <v>16</v>
@@ -19718,7 +19719,7 @@
     </row>
     <row r="1324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1324" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B1324">
         <v>16</v>
@@ -19729,7 +19730,7 @@
     </row>
     <row r="1325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1325" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B1325">
         <v>16</v>
@@ -19740,7 +19741,7 @@
     </row>
     <row r="1326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1326" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B1326">
         <v>16</v>
@@ -19751,7 +19752,7 @@
     </row>
     <row r="1327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1327" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B1327">
         <v>16</v>
@@ -19762,7 +19763,7 @@
     </row>
     <row r="1328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1328" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B1328">
         <v>16</v>
@@ -19773,7 +19774,7 @@
     </row>
     <row r="1329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1329" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B1329">
         <v>16</v>
@@ -19784,7 +19785,7 @@
     </row>
     <row r="1330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1330" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B1330">
         <v>16</v>
@@ -19795,7 +19796,7 @@
     </row>
     <row r="1331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1331" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B1331">
         <v>16</v>
@@ -19806,7 +19807,7 @@
     </row>
     <row r="1332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1332" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="B1332">
         <v>16</v>
@@ -19817,7 +19818,7 @@
     </row>
     <row r="1333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1333" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B1333">
         <v>17</v>
@@ -19828,7 +19829,7 @@
     </row>
     <row r="1334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1334" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B1334">
         <v>17</v>
@@ -19839,7 +19840,7 @@
     </row>
     <row r="1335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1335" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B1335">
         <v>17</v>
@@ -19850,7 +19851,7 @@
     </row>
     <row r="1336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1336" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B1336">
         <v>17</v>
@@ -19861,7 +19862,7 @@
     </row>
     <row r="1337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1337" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B1337">
         <v>17</v>
@@ -19872,7 +19873,7 @@
     </row>
     <row r="1338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1338" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B1338">
         <v>17</v>
@@ -19883,7 +19884,7 @@
     </row>
     <row r="1339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1339" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B1339">
         <v>17</v>
@@ -19894,7 +19895,7 @@
     </row>
     <row r="1340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1340" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B1340">
         <v>17</v>
@@ -19905,7 +19906,7 @@
     </row>
     <row r="1341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1341" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B1341">
         <v>17</v>
@@ -19916,7 +19917,7 @@
     </row>
     <row r="1342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1342" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B1342">
         <v>17</v>
@@ -19927,7 +19928,7 @@
     </row>
     <row r="1343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1343" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B1343">
         <v>18</v>
@@ -19938,7 +19939,7 @@
     </row>
     <row r="1344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1344" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B1344">
         <v>18</v>
@@ -19949,7 +19950,7 @@
     </row>
     <row r="1345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1345" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B1345">
         <v>18</v>
@@ -19960,7 +19961,7 @@
     </row>
     <row r="1346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1346" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B1346">
         <v>18</v>
@@ -19971,7 +19972,7 @@
     </row>
     <row r="1347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1347" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B1347">
         <v>18</v>
@@ -19982,7 +19983,7 @@
     </row>
     <row r="1348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1348" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B1348">
         <v>18</v>
@@ -19993,7 +19994,7 @@
     </row>
     <row r="1349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1349" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B1349">
         <v>18</v>
@@ -20004,7 +20005,7 @@
     </row>
     <row r="1350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1350" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B1350">
         <v>18</v>
@@ -20015,7 +20016,7 @@
     </row>
     <row r="1351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1351" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B1351">
         <v>18</v>
@@ -20026,7 +20027,7 @@
     </row>
     <row r="1352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1352" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B1352">
         <v>18</v>
@@ -20037,7 +20038,7 @@
     </row>
     <row r="1353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1353" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B1353">
         <v>18</v>
@@ -20048,7 +20049,7 @@
     </row>
     <row r="1354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1354" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B1354">
         <v>18</v>
@@ -20059,7 +20060,7 @@
     </row>
     <row r="1355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1355" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B1355">
         <v>18</v>
@@ -20070,7 +20071,7 @@
     </row>
     <row r="1356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1356" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B1356">
         <v>18</v>
@@ -20081,7 +20082,7 @@
     </row>
     <row r="1357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1357" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B1357">
         <v>18</v>
@@ -20092,7 +20093,7 @@
     </row>
     <row r="1358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1358" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B1358">
         <v>18</v>
@@ -20103,7 +20104,7 @@
     </row>
     <row r="1359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1359" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B1359">
         <v>18</v>
@@ -20114,7 +20115,7 @@
     </row>
     <row r="1360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1360" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B1360">
         <v>18</v>
@@ -20125,7 +20126,7 @@
     </row>
     <row r="1361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1361" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B1361">
         <v>18</v>
@@ -20136,7 +20137,7 @@
     </row>
     <row r="1362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1362" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B1362">
         <v>18</v>
@@ -20147,7 +20148,7 @@
     </row>
     <row r="1363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1363" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B1363">
         <v>18</v>
@@ -20158,7 +20159,7 @@
     </row>
     <row r="1364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1364" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B1364">
         <v>18</v>
@@ -20169,7 +20170,7 @@
     </row>
     <row r="1365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1365" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B1365">
         <v>18</v>
@@ -20180,7 +20181,7 @@
     </row>
     <row r="1366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1366" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B1366">
         <v>18</v>
@@ -20191,7 +20192,7 @@
     </row>
     <row r="1367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1367" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B1367">
         <v>18</v>
@@ -20202,7 +20203,7 @@
     </row>
     <row r="1368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1368" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B1368">
         <v>18</v>
@@ -20213,7 +20214,7 @@
     </row>
     <row r="1369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1369" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B1369">
         <v>18</v>
@@ -20224,7 +20225,7 @@
     </row>
     <row r="1370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1370" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B1370">
         <v>18</v>
@@ -20235,7 +20236,7 @@
     </row>
     <row r="1371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1371" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B1371">
         <v>18</v>
@@ -20246,7 +20247,7 @@
     </row>
     <row r="1372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1372" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B1372">
         <v>18</v>
@@ -20257,7 +20258,7 @@
     </row>
     <row r="1373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1373" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B1373">
         <v>18</v>
@@ -20268,7 +20269,7 @@
     </row>
     <row r="1374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1374" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B1374">
         <v>18</v>
@@ -20279,7 +20280,7 @@
     </row>
     <row r="1375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1375" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B1375">
         <v>18</v>
@@ -20290,7 +20291,7 @@
     </row>
     <row r="1376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1376" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B1376">
         <v>18</v>
@@ -20301,7 +20302,7 @@
     </row>
     <row r="1377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1377" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B1377">
         <v>18</v>
@@ -20312,7 +20313,7 @@
     </row>
     <row r="1378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1378" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B1378">
         <v>18</v>
@@ -20323,7 +20324,7 @@
     </row>
     <row r="1379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1379" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B1379">
         <v>18</v>
@@ -20334,7 +20335,7 @@
     </row>
     <row r="1380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1380" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B1380">
         <v>18</v>
@@ -20345,7 +20346,7 @@
     </row>
     <row r="1381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1381" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B1381">
         <v>18</v>
@@ -20356,7 +20357,7 @@
     </row>
     <row r="1382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1382" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B1382">
         <v>18</v>
@@ -20367,7 +20368,7 @@
     </row>
     <row r="1383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1383" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B1383">
         <v>19</v>
@@ -20378,7 +20379,7 @@
     </row>
     <row r="1384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1384" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B1384">
         <v>19</v>
@@ -20389,7 +20390,7 @@
     </row>
     <row r="1385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1385" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B1385">
         <v>19</v>
@@ -20400,7 +20401,7 @@
     </row>
     <row r="1386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1386" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B1386">
         <v>19</v>
@@ -20411,7 +20412,7 @@
     </row>
     <row r="1387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1387" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B1387">
         <v>19</v>
@@ -20422,7 +20423,7 @@
     </row>
     <row r="1388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1388" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B1388">
         <v>19</v>
@@ -20433,7 +20434,7 @@
     </row>
     <row r="1389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1389" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B1389">
         <v>19</v>
@@ -20444,7 +20445,7 @@
     </row>
     <row r="1390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1390" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B1390">
         <v>19</v>
@@ -20455,7 +20456,7 @@
     </row>
     <row r="1391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1391" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B1391">
         <v>19</v>
@@ -20466,7 +20467,7 @@
     </row>
     <row r="1392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1392" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B1392">
         <v>19</v>
@@ -20477,7 +20478,7 @@
     </row>
     <row r="1393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1393" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B1393">
         <v>19</v>
@@ -20488,7 +20489,7 @@
     </row>
     <row r="1394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1394" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B1394">
         <v>19</v>
@@ -20499,7 +20500,7 @@
     </row>
     <row r="1395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1395" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="B1395">
         <v>19</v>
@@ -20510,7 +20511,7 @@
     </row>
     <row r="1396" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1396" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B1396">
         <v>19</v>
@@ -20521,7 +20522,7 @@
     </row>
     <row r="1397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1397" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B1397">
         <v>19</v>
@@ -20532,7 +20533,7 @@
     </row>
     <row r="1398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1398" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B1398">
         <v>19</v>
@@ -20543,7 +20544,7 @@
     </row>
     <row r="1399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1399" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B1399">
         <v>19</v>
@@ -20554,7 +20555,7 @@
     </row>
     <row r="1400" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1400" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="B1400">
         <v>19</v>
@@ -20565,7 +20566,7 @@
     </row>
     <row r="1401" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1401" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B1401">
         <v>19</v>
@@ -20576,7 +20577,7 @@
     </row>
     <row r="1402" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1402" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="B1402">
         <v>19</v>
@@ -20587,7 +20588,7 @@
     </row>
     <row r="1403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1403" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B1403">
         <v>19</v>
@@ -20598,7 +20599,7 @@
     </row>
     <row r="1404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1404" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B1404">
         <v>19</v>
@@ -20609,7 +20610,7 @@
     </row>
     <row r="1405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1405" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B1405">
         <v>19</v>
@@ -20620,7 +20621,7 @@
     </row>
     <row r="1406" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1406" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B1406">
         <v>19</v>
@@ -20631,7 +20632,7 @@
     </row>
     <row r="1407" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1407" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B1407">
         <v>19</v>
@@ -20642,7 +20643,7 @@
     </row>
     <row r="1408" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1408" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="B1408">
         <v>19</v>
@@ -20653,7 +20654,7 @@
     </row>
     <row r="1409" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1409" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B1409">
         <v>19</v>
@@ -20664,7 +20665,7 @@
     </row>
     <row r="1410" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1410" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B1410">
         <v>19</v>
@@ -20675,7 +20676,7 @@
     </row>
     <row r="1411" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1411" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="B1411">
         <v>19</v>
@@ -20686,7 +20687,7 @@
     </row>
     <row r="1412" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1412" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B1412">
         <v>19</v>
@@ -20697,7 +20698,7 @@
     </row>
     <row r="1413" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1413" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="B1413">
         <v>19</v>
@@ -20708,7 +20709,7 @@
     </row>
     <row r="1414" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1414" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="B1414">
         <v>19</v>
@@ -20719,7 +20720,7 @@
     </row>
     <row r="1415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1415" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="B1415">
         <v>19</v>
@@ -20730,7 +20731,7 @@
     </row>
     <row r="1416" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1416" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="B1416">
         <v>19</v>
@@ -20741,7 +20742,7 @@
     </row>
     <row r="1417" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1417" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="B1417">
         <v>19</v>
@@ -20752,7 +20753,7 @@
     </row>
     <row r="1418" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1418" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="B1418">
         <v>19</v>
@@ -20763,7 +20764,7 @@
     </row>
     <row r="1419" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1419" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="B1419">
         <v>19</v>
@@ -20774,7 +20775,7 @@
     </row>
     <row r="1420" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1420" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="B1420">
         <v>19</v>
@@ -20785,7 +20786,7 @@
     </row>
     <row r="1421" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1421" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="B1421">
         <v>19</v>
@@ -20796,7 +20797,7 @@
     </row>
     <row r="1422" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1422" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B1422">
         <v>19</v>
@@ -20807,7 +20808,7 @@
     </row>
     <row r="1423" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1423" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="B1423">
         <v>19</v>
@@ -20818,7 +20819,7 @@
     </row>
     <row r="1424" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1424" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="B1424">
         <v>19</v>
@@ -20829,7 +20830,7 @@
     </row>
     <row r="1425" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1425" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="B1425">
         <v>19</v>
@@ -20840,7 +20841,7 @@
     </row>
     <row r="1426" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1426" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="B1426">
         <v>19</v>
@@ -20851,7 +20852,7 @@
     </row>
     <row r="1427" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1427" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="B1427">
         <v>19</v>
@@ -20862,7 +20863,7 @@
     </row>
     <row r="1428" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1428" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B1428">
         <v>19</v>
@@ -20873,7 +20874,7 @@
     </row>
     <row r="1429" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1429" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="B1429">
         <v>19</v>
@@ -20884,7 +20885,7 @@
     </row>
     <row r="1430" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1430" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="B1430">
         <v>19</v>
@@ -20895,7 +20896,7 @@
     </row>
     <row r="1431" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1431" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="B1431">
         <v>19</v>
@@ -20906,7 +20907,7 @@
     </row>
     <row r="1432" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1432" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="B1432">
         <v>19</v>
@@ -20917,7 +20918,7 @@
     </row>
     <row r="1433" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1433" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="B1433">
         <v>19</v>
@@ -20928,7 +20929,7 @@
     </row>
     <row r="1434" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1434" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="B1434">
         <v>19</v>
@@ -20939,7 +20940,7 @@
     </row>
     <row r="1435" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1435" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="B1435">
         <v>19</v>
@@ -20950,7 +20951,7 @@
     </row>
     <row r="1436" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1436" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="B1436">
         <v>19</v>
@@ -20961,7 +20962,7 @@
     </row>
     <row r="1437" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1437" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B1437">
         <v>19</v>
@@ -20972,7 +20973,7 @@
     </row>
     <row r="1438" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1438" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B1438">
         <v>19</v>
@@ -20983,7 +20984,7 @@
     </row>
     <row r="1439" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1439" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="B1439">
         <v>19</v>
@@ -20994,7 +20995,7 @@
     </row>
     <row r="1440" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1440" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="B1440">
         <v>19</v>
@@ -21005,7 +21006,7 @@
     </row>
     <row r="1441" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1441" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="B1441">
         <v>19</v>
@@ -21016,7 +21017,7 @@
     </row>
     <row r="1442" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1442" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="B1442">
         <v>19</v>

--- a/com/Tools/MyPoco/info_tab/少三2道具类型表.xlsx
+++ b/com/Tools/MyPoco/info_tab/少三2道具类型表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="1516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="1518">
   <si>
     <t>name</t>
   </si>
@@ -3975,9 +3975,6 @@
     <t>倚天剑</t>
   </si>
   <si>
-    <t>天宫护符</t>
-  </si>
-  <si>
     <t>孟获化身符</t>
   </si>
   <si>
@@ -4567,6 +4564,18 @@
   </si>
   <si>
     <t>苍鸣雷君</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>太公护符</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>丈八蛇矛m</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>七星宝刀m</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4574,7 +4583,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4592,6 +4601,14 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -4619,8 +4636,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4899,8 +4917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1570"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1437" workbookViewId="0">
-      <selection activeCell="I1458" sqref="I1458"/>
+    <sheetView tabSelected="1" topLeftCell="A1197" workbookViewId="0">
+      <selection activeCell="A1206" sqref="A1206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -18334,8 +18352,8 @@
       </c>
     </row>
     <row r="1206" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1206" t="s">
-        <v>1172</v>
+      <c r="A1206" s="1" t="s">
+        <v>1517</v>
       </c>
       <c r="B1206">
         <v>12</v>
@@ -19479,7 +19497,7 @@
     </row>
     <row r="1310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1310" t="s">
-        <v>1259</v>
+        <v>1516</v>
       </c>
       <c r="B1310">
         <v>12</v>
@@ -20172,7 +20190,7 @@
     </row>
     <row r="1373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1373" t="s">
-        <v>1318</v>
+        <v>1515</v>
       </c>
       <c r="B1373">
         <v>14</v>
@@ -20183,7 +20201,7 @@
     </row>
     <row r="1374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1374" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="B1374">
         <v>15</v>
@@ -20194,7 +20212,7 @@
     </row>
     <row r="1375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1375" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="B1375">
         <v>15</v>
@@ -20205,7 +20223,7 @@
     </row>
     <row r="1376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1376" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="B1376">
         <v>15</v>
@@ -20216,7 +20234,7 @@
     </row>
     <row r="1377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1377" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="B1377">
         <v>15</v>
@@ -20227,7 +20245,7 @@
     </row>
     <row r="1378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1378" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="B1378">
         <v>15</v>
@@ -20238,7 +20256,7 @@
     </row>
     <row r="1379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1379" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="B1379">
         <v>15</v>
@@ -20249,7 +20267,7 @@
     </row>
     <row r="1380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1380" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="B1380">
         <v>15</v>
@@ -20260,7 +20278,7 @@
     </row>
     <row r="1381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1381" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="B1381">
         <v>15</v>
@@ -20271,7 +20289,7 @@
     </row>
     <row r="1382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1382" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="B1382">
         <v>15</v>
@@ -20282,7 +20300,7 @@
     </row>
     <row r="1383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1383" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="B1383">
         <v>15</v>
@@ -20293,7 +20311,7 @@
     </row>
     <row r="1384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1384" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="B1384">
         <v>15</v>
@@ -20304,7 +20322,7 @@
     </row>
     <row r="1385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1385" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="B1385">
         <v>15</v>
@@ -20315,7 +20333,7 @@
     </row>
     <row r="1386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1386" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="B1386">
         <v>15</v>
@@ -20326,7 +20344,7 @@
     </row>
     <row r="1387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1387" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="B1387">
         <v>15</v>
@@ -20337,7 +20355,7 @@
     </row>
     <row r="1388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1388" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="B1388">
         <v>15</v>
@@ -20348,7 +20366,7 @@
     </row>
     <row r="1389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1389" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="B1389">
         <v>15</v>
@@ -20359,7 +20377,7 @@
     </row>
     <row r="1390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1390" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="B1390">
         <v>15</v>
@@ -20370,7 +20388,7 @@
     </row>
     <row r="1391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1391" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B1391">
         <v>15</v>
@@ -20381,7 +20399,7 @@
     </row>
     <row r="1392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1392" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="B1392">
         <v>15</v>
@@ -20392,7 +20410,7 @@
     </row>
     <row r="1393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1393" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="B1393">
         <v>15</v>
@@ -20403,7 +20421,7 @@
     </row>
     <row r="1394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1394" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="B1394">
         <v>15</v>
@@ -20414,7 +20432,7 @@
     </row>
     <row r="1395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1395" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="B1395">
         <v>15</v>
@@ -20425,7 +20443,7 @@
     </row>
     <row r="1396" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1396" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="B1396">
         <v>15</v>
@@ -20436,7 +20454,7 @@
     </row>
     <row r="1397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1397" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="B1397">
         <v>15</v>
@@ -20447,7 +20465,7 @@
     </row>
     <row r="1398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1398" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B1398">
         <v>15</v>
@@ -20458,7 +20476,7 @@
     </row>
     <row r="1399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1399" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="B1399">
         <v>15</v>
@@ -20469,7 +20487,7 @@
     </row>
     <row r="1400" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1400" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="B1400">
         <v>15</v>
@@ -20480,7 +20498,7 @@
     </row>
     <row r="1401" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1401" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="B1401">
         <v>15</v>
@@ -20491,7 +20509,7 @@
     </row>
     <row r="1402" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1402" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="B1402">
         <v>15</v>
@@ -20502,7 +20520,7 @@
     </row>
     <row r="1403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1403" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="B1403">
         <v>15</v>
@@ -20513,7 +20531,7 @@
     </row>
     <row r="1404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1404" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B1404">
         <v>15</v>
@@ -20524,7 +20542,7 @@
     </row>
     <row r="1405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1405" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="B1405">
         <v>15</v>
@@ -20535,7 +20553,7 @@
     </row>
     <row r="1406" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1406" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="B1406">
         <v>15</v>
@@ -20546,7 +20564,7 @@
     </row>
     <row r="1407" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1407" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="B1407">
         <v>15</v>
@@ -20557,7 +20575,7 @@
     </row>
     <row r="1408" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1408" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="B1408">
         <v>15</v>
@@ -20568,7 +20586,7 @@
     </row>
     <row r="1409" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1409" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="B1409">
         <v>15</v>
@@ -20579,7 +20597,7 @@
     </row>
     <row r="1410" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1410" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="B1410">
         <v>15</v>
@@ -20590,7 +20608,7 @@
     </row>
     <row r="1411" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1411" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="B1411">
         <v>15</v>
@@ -20601,7 +20619,7 @@
     </row>
     <row r="1412" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1412" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="B1412">
         <v>15</v>
@@ -20612,7 +20630,7 @@
     </row>
     <row r="1413" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1413" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B1413">
         <v>15</v>
@@ -20623,7 +20641,7 @@
     </row>
     <row r="1414" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1414" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="B1414">
         <v>15</v>
@@ -20634,7 +20652,7 @@
     </row>
     <row r="1415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1415" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="B1415">
         <v>15</v>
@@ -20645,7 +20663,7 @@
     </row>
     <row r="1416" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1416" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="B1416">
         <v>15</v>
@@ -20656,7 +20674,7 @@
     </row>
     <row r="1417" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1417" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="B1417">
         <v>15</v>
@@ -20667,7 +20685,7 @@
     </row>
     <row r="1418" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1418" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="B1418">
         <v>15</v>
@@ -20678,7 +20696,7 @@
     </row>
     <row r="1419" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1419" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="B1419">
         <v>15</v>
@@ -20689,7 +20707,7 @@
     </row>
     <row r="1420" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1420" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="B1420">
         <v>15</v>
@@ -20700,7 +20718,7 @@
     </row>
     <row r="1421" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1421" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="B1421">
         <v>15</v>
@@ -20711,7 +20729,7 @@
     </row>
     <row r="1422" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1422" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="B1422">
         <v>15</v>
@@ -20722,7 +20740,7 @@
     </row>
     <row r="1423" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1423" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="B1423">
         <v>15</v>
@@ -20733,7 +20751,7 @@
     </row>
     <row r="1424" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1424" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="B1424">
         <v>15</v>
@@ -20744,7 +20762,7 @@
     </row>
     <row r="1425" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1425" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="B1425">
         <v>15</v>
@@ -20755,7 +20773,7 @@
     </row>
     <row r="1426" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1426" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="B1426">
         <v>15</v>
@@ -20766,7 +20784,7 @@
     </row>
     <row r="1427" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1427" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="B1427">
         <v>15</v>
@@ -20777,7 +20795,7 @@
     </row>
     <row r="1428" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1428" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B1428">
         <v>15</v>
@@ -20788,7 +20806,7 @@
     </row>
     <row r="1429" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1429" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="B1429">
         <v>15</v>
@@ -20799,7 +20817,7 @@
     </row>
     <row r="1430" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1430" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="B1430">
         <v>15</v>
@@ -20810,7 +20828,7 @@
     </row>
     <row r="1431" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1431" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="B1431">
         <v>15</v>
@@ -20821,7 +20839,7 @@
     </row>
     <row r="1432" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1432" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="B1432">
         <v>15</v>
@@ -20832,7 +20850,7 @@
     </row>
     <row r="1433" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1433" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="B1433">
         <v>15</v>
@@ -20843,7 +20861,7 @@
     </row>
     <row r="1434" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1434" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="B1434">
         <v>15</v>
@@ -20854,7 +20872,7 @@
     </row>
     <row r="1435" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1435" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="B1435">
         <v>15</v>
@@ -20865,7 +20883,7 @@
     </row>
     <row r="1436" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1436" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B1436">
         <v>15</v>
@@ -20876,7 +20894,7 @@
     </row>
     <row r="1437" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1437" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="B1437">
         <v>15</v>
@@ -20887,7 +20905,7 @@
     </row>
     <row r="1438" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1438" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="B1438">
         <v>16</v>
@@ -20898,7 +20916,7 @@
     </row>
     <row r="1439" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1439" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B1439">
         <v>16</v>
@@ -20909,7 +20927,7 @@
     </row>
     <row r="1440" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1440" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="B1440">
         <v>16</v>
@@ -20920,7 +20938,7 @@
     </row>
     <row r="1441" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1441" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="B1441">
         <v>16</v>
@@ -20931,7 +20949,7 @@
     </row>
     <row r="1442" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1442" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="B1442">
         <v>16</v>
@@ -20942,7 +20960,7 @@
     </row>
     <row r="1443" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1443" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="B1443">
         <v>16</v>
@@ -20953,7 +20971,7 @@
     </row>
     <row r="1444" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1444" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="B1444">
         <v>16</v>
@@ -20964,7 +20982,7 @@
     </row>
     <row r="1445" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1445" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="B1445">
         <v>16</v>
@@ -20975,7 +20993,7 @@
     </row>
     <row r="1446" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1446" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="B1446">
         <v>16</v>
@@ -20986,7 +21004,7 @@
     </row>
     <row r="1447" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1447" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="B1447">
         <v>16</v>
@@ -20997,7 +21015,7 @@
     </row>
     <row r="1448" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1448" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="B1448">
         <v>16</v>
@@ -21008,7 +21026,7 @@
     </row>
     <row r="1449" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1449" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="B1449">
         <v>17</v>
@@ -21019,7 +21037,7 @@
     </row>
     <row r="1450" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1450" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="B1450">
         <v>17</v>
@@ -21030,7 +21048,7 @@
     </row>
     <row r="1451" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1451" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="B1451">
         <v>17</v>
@@ -21041,7 +21059,7 @@
     </row>
     <row r="1452" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1452" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="B1452">
         <v>17</v>
@@ -21052,7 +21070,7 @@
     </row>
     <row r="1453" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1453" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="B1453">
         <v>17</v>
@@ -21063,7 +21081,7 @@
     </row>
     <row r="1454" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1454" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="B1454">
         <v>17</v>
@@ -21074,7 +21092,7 @@
     </row>
     <row r="1455" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1455" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="B1455">
         <v>17</v>
@@ -21085,7 +21103,7 @@
     </row>
     <row r="1456" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1456" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="B1456">
         <v>17</v>
@@ -21096,7 +21114,7 @@
     </row>
     <row r="1457" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1457" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="B1457">
         <v>17</v>
@@ -21107,7 +21125,7 @@
     </row>
     <row r="1458" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1458" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B1458">
         <v>17</v>
@@ -21118,7 +21136,7 @@
     </row>
     <row r="1459" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1459" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="B1459">
         <v>18</v>
@@ -21129,7 +21147,7 @@
     </row>
     <row r="1460" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1460" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="B1460">
         <v>18</v>
@@ -21140,7 +21158,7 @@
     </row>
     <row r="1461" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1461" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="B1461">
         <v>18</v>
@@ -21151,7 +21169,7 @@
     </row>
     <row r="1462" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1462" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="B1462">
         <v>18</v>
@@ -21162,7 +21180,7 @@
     </row>
     <row r="1463" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1463" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B1463">
         <v>18</v>
@@ -21173,7 +21191,7 @@
     </row>
     <row r="1464" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1464" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B1464">
         <v>18</v>
@@ -21184,7 +21202,7 @@
     </row>
     <row r="1465" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1465" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B1465">
         <v>18</v>
@@ -21195,7 +21213,7 @@
     </row>
     <row r="1466" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1466" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B1466">
         <v>18</v>
@@ -21206,7 +21224,7 @@
     </row>
     <row r="1467" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1467" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="B1467">
         <v>18</v>
@@ -21217,7 +21235,7 @@
     </row>
     <row r="1468" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1468" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B1468">
         <v>18</v>
@@ -21228,7 +21246,7 @@
     </row>
     <row r="1469" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1469" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B1469">
         <v>18</v>
@@ -21239,7 +21257,7 @@
     </row>
     <row r="1470" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1470" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="B1470">
         <v>18</v>
@@ -21250,7 +21268,7 @@
     </row>
     <row r="1471" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1471" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B1471">
         <v>18</v>
@@ -21261,7 +21279,7 @@
     </row>
     <row r="1472" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1472" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B1472">
         <v>18</v>
@@ -21272,7 +21290,7 @@
     </row>
     <row r="1473" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1473" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="B1473">
         <v>18</v>
@@ -21283,7 +21301,7 @@
     </row>
     <row r="1474" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1474" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="B1474">
         <v>18</v>
@@ -21294,7 +21312,7 @@
     </row>
     <row r="1475" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1475" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B1475">
         <v>18</v>
@@ -21305,7 +21323,7 @@
     </row>
     <row r="1476" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1476" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="B1476">
         <v>18</v>
@@ -21316,7 +21334,7 @@
     </row>
     <row r="1477" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1477" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="B1477">
         <v>18</v>
@@ -21327,7 +21345,7 @@
     </row>
     <row r="1478" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1478" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="B1478">
         <v>18</v>
@@ -21338,7 +21356,7 @@
     </row>
     <row r="1479" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1479" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="B1479">
         <v>18</v>
@@ -21349,7 +21367,7 @@
     </row>
     <row r="1480" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1480" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B1480">
         <v>18</v>
@@ -21360,7 +21378,7 @@
     </row>
     <row r="1481" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1481" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="B1481">
         <v>18</v>
@@ -21371,7 +21389,7 @@
     </row>
     <row r="1482" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1482" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B1482">
         <v>18</v>
@@ -21382,7 +21400,7 @@
     </row>
     <row r="1483" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1483" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="B1483">
         <v>18</v>
@@ -21393,7 +21411,7 @@
     </row>
     <row r="1484" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1484" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="B1484">
         <v>18</v>
@@ -21404,7 +21422,7 @@
     </row>
     <row r="1485" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1485" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="B1485">
         <v>18</v>
@@ -21415,7 +21433,7 @@
     </row>
     <row r="1486" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1486" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B1486">
         <v>18</v>
@@ -21426,7 +21444,7 @@
     </row>
     <row r="1487" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1487" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="B1487">
         <v>18</v>
@@ -21437,7 +21455,7 @@
     </row>
     <row r="1488" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1488" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B1488">
         <v>18</v>
@@ -21448,7 +21466,7 @@
     </row>
     <row r="1489" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1489" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B1489">
         <v>18</v>
@@ -21459,7 +21477,7 @@
     </row>
     <row r="1490" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1490" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="B1490">
         <v>18</v>
@@ -21470,7 +21488,7 @@
     </row>
     <row r="1491" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1491" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="B1491">
         <v>18</v>
@@ -21481,7 +21499,7 @@
     </row>
     <row r="1492" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1492" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B1492">
         <v>18</v>
@@ -21492,7 +21510,7 @@
     </row>
     <row r="1493" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1493" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="B1493">
         <v>18</v>
@@ -21503,7 +21521,7 @@
     </row>
     <row r="1494" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1494" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="B1494">
         <v>18</v>
@@ -21514,7 +21532,7 @@
     </row>
     <row r="1495" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1495" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="B1495">
         <v>18</v>
@@ -21525,7 +21543,7 @@
     </row>
     <row r="1496" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1496" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="B1496">
         <v>18</v>
@@ -21536,7 +21554,7 @@
     </row>
     <row r="1497" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1497" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="B1497">
         <v>18</v>
@@ -21547,7 +21565,7 @@
     </row>
     <row r="1498" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1498" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="B1498">
         <v>18</v>
@@ -21558,7 +21576,7 @@
     </row>
     <row r="1499" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1499" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="B1499">
         <v>18</v>
@@ -21569,7 +21587,7 @@
     </row>
     <row r="1500" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1500" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="B1500">
         <v>18</v>
@@ -21580,7 +21598,7 @@
     </row>
     <row r="1501" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1501" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="B1501">
         <v>18</v>
@@ -21591,7 +21609,7 @@
     </row>
     <row r="1502" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1502" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="B1502">
         <v>18</v>
@@ -21602,7 +21620,7 @@
     </row>
     <row r="1503" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1503" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="B1503">
         <v>18</v>
@@ -21613,7 +21631,7 @@
     </row>
     <row r="1504" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1504" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="B1504">
         <v>18</v>
@@ -21624,7 +21642,7 @@
     </row>
     <row r="1505" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1505" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="B1505">
         <v>18</v>
@@ -21635,7 +21653,7 @@
     </row>
     <row r="1506" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1506" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="B1506">
         <v>18</v>
@@ -21646,7 +21664,7 @@
     </row>
     <row r="1507" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1507" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="B1507">
         <v>18</v>
@@ -21657,7 +21675,7 @@
     </row>
     <row r="1508" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1508" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="B1508">
         <v>18</v>
@@ -21668,7 +21686,7 @@
     </row>
     <row r="1509" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1509" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="B1509">
         <v>18</v>
@@ -21679,7 +21697,7 @@
     </row>
     <row r="1510" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1510" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="B1510">
         <v>18</v>
@@ -21690,7 +21708,7 @@
     </row>
     <row r="1511" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1511" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="B1511">
         <v>19</v>
@@ -21701,7 +21719,7 @@
     </row>
     <row r="1512" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1512" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="B1512">
         <v>19</v>
@@ -21712,7 +21730,7 @@
     </row>
     <row r="1513" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1513" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="B1513">
         <v>19</v>
@@ -21723,7 +21741,7 @@
     </row>
     <row r="1514" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1514" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="B1514">
         <v>19</v>
@@ -21734,7 +21752,7 @@
     </row>
     <row r="1515" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1515" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="B1515">
         <v>19</v>
@@ -21745,7 +21763,7 @@
     </row>
     <row r="1516" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1516" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="B1516">
         <v>19</v>
@@ -21756,7 +21774,7 @@
     </row>
     <row r="1517" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1517" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="B1517">
         <v>19</v>
@@ -21767,7 +21785,7 @@
     </row>
     <row r="1518" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1518" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="B1518">
         <v>19</v>
@@ -21778,7 +21796,7 @@
     </row>
     <row r="1519" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1519" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="B1519">
         <v>19</v>
@@ -21789,7 +21807,7 @@
     </row>
     <row r="1520" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1520" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="B1520">
         <v>19</v>
@@ -21800,7 +21818,7 @@
     </row>
     <row r="1521" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1521" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="B1521">
         <v>19</v>
@@ -21811,7 +21829,7 @@
     </row>
     <row r="1522" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1522" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="B1522">
         <v>19</v>
@@ -21822,7 +21840,7 @@
     </row>
     <row r="1523" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1523" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="B1523">
         <v>19</v>
@@ -21833,7 +21851,7 @@
     </row>
     <row r="1524" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1524" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="B1524">
         <v>19</v>
@@ -21844,7 +21862,7 @@
     </row>
     <row r="1525" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1525" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="B1525">
         <v>19</v>
@@ -21855,7 +21873,7 @@
     </row>
     <row r="1526" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1526" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="B1526">
         <v>19</v>
@@ -21866,7 +21884,7 @@
     </row>
     <row r="1527" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1527" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="B1527">
         <v>19</v>
@@ -21877,7 +21895,7 @@
     </row>
     <row r="1528" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1528" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="B1528">
         <v>19</v>
@@ -21888,7 +21906,7 @@
     </row>
     <row r="1529" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1529" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="B1529">
         <v>19</v>
@@ -21899,7 +21917,7 @@
     </row>
     <row r="1530" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1530" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="B1530">
         <v>19</v>
@@ -21910,7 +21928,7 @@
     </row>
     <row r="1531" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1531" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="B1531">
         <v>19</v>
@@ -21921,7 +21939,7 @@
     </row>
     <row r="1532" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1532" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="B1532">
         <v>19</v>
@@ -21932,7 +21950,7 @@
     </row>
     <row r="1533" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1533" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="B1533">
         <v>19</v>
@@ -21943,7 +21961,7 @@
     </row>
     <row r="1534" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1534" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="B1534">
         <v>19</v>
@@ -21954,7 +21972,7 @@
     </row>
     <row r="1535" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1535" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="B1535">
         <v>19</v>
@@ -21965,7 +21983,7 @@
     </row>
     <row r="1536" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1536" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="B1536">
         <v>19</v>
@@ -21976,7 +21994,7 @@
     </row>
     <row r="1537" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1537" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="B1537">
         <v>19</v>
@@ -21987,7 +22005,7 @@
     </row>
     <row r="1538" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1538" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="B1538">
         <v>19</v>
@@ -21998,7 +22016,7 @@
     </row>
     <row r="1539" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1539" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="B1539">
         <v>19</v>
@@ -22009,7 +22027,7 @@
     </row>
     <row r="1540" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1540" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="B1540">
         <v>19</v>
@@ -22020,7 +22038,7 @@
     </row>
     <row r="1541" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1541" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="B1541">
         <v>19</v>
@@ -22031,7 +22049,7 @@
     </row>
     <row r="1542" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1542" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="B1542">
         <v>19</v>
@@ -22042,7 +22060,7 @@
     </row>
     <row r="1543" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1543" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="B1543">
         <v>19</v>
@@ -22053,7 +22071,7 @@
     </row>
     <row r="1544" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1544" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="B1544">
         <v>19</v>
@@ -22064,7 +22082,7 @@
     </row>
     <row r="1545" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1545" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="B1545">
         <v>19</v>
@@ -22075,7 +22093,7 @@
     </row>
     <row r="1546" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1546" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="B1546">
         <v>19</v>
@@ -22086,7 +22104,7 @@
     </row>
     <row r="1547" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1547" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="B1547">
         <v>19</v>
@@ -22097,7 +22115,7 @@
     </row>
     <row r="1548" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1548" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="B1548">
         <v>19</v>
@@ -22108,7 +22126,7 @@
     </row>
     <row r="1549" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1549" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="B1549">
         <v>19</v>
@@ -22119,7 +22137,7 @@
     </row>
     <row r="1550" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1550" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="B1550">
         <v>19</v>
@@ -22130,7 +22148,7 @@
     </row>
     <row r="1551" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1551" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="B1551">
         <v>19</v>
@@ -22141,7 +22159,7 @@
     </row>
     <row r="1552" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1552" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B1552">
         <v>19</v>
@@ -22152,7 +22170,7 @@
     </row>
     <row r="1553" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1553" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="B1553">
         <v>19</v>
@@ -22163,7 +22181,7 @@
     </row>
     <row r="1554" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1554" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="B1554">
         <v>19</v>
@@ -22174,7 +22192,7 @@
     </row>
     <row r="1555" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1555" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="B1555">
         <v>19</v>
@@ -22185,7 +22203,7 @@
     </row>
     <row r="1556" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1556" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="B1556">
         <v>19</v>
@@ -22196,7 +22214,7 @@
     </row>
     <row r="1557" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1557" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B1557">
         <v>19</v>
@@ -22207,7 +22225,7 @@
     </row>
     <row r="1558" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1558" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="B1558">
         <v>19</v>
@@ -22218,7 +22236,7 @@
     </row>
     <row r="1559" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1559" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="B1559">
         <v>19</v>
@@ -22229,7 +22247,7 @@
     </row>
     <row r="1560" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1560" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="B1560">
         <v>19</v>
@@ -22240,7 +22258,7 @@
     </row>
     <row r="1561" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1561" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="B1561">
         <v>19</v>
@@ -22251,7 +22269,7 @@
     </row>
     <row r="1562" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1562" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B1562">
         <v>19</v>
@@ -22262,7 +22280,7 @@
     </row>
     <row r="1563" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1563" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="B1563">
         <v>19</v>
@@ -22273,7 +22291,7 @@
     </row>
     <row r="1564" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1564" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="B1564">
         <v>19</v>
@@ -22284,7 +22302,7 @@
     </row>
     <row r="1565" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1565" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="B1565">
         <v>19</v>
@@ -22295,7 +22313,7 @@
     </row>
     <row r="1566" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1566" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="B1566">
         <v>19</v>
@@ -22306,7 +22324,7 @@
     </row>
     <row r="1567" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1567" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="B1567">
         <v>19</v>
@@ -22317,7 +22335,7 @@
     </row>
     <row r="1568" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1568" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="B1568">
         <v>19</v>
@@ -22328,7 +22346,7 @@
     </row>
     <row r="1569" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1569" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="B1569">
         <v>19</v>
@@ -22339,7 +22357,7 @@
     </row>
     <row r="1570" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1570" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B1570">
         <v>19</v>
